--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Projects\Project - Continuous Education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Repositories\jupnb-nwreadinglistmanager\nwreadinglistmanager\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="890">
   <si>
     <t>Format</t>
   </si>
@@ -2675,6 +2675,42 @@
   </si>
   <si>
     <t>CommentLenght</t>
+  </si>
+  <si>
+    <t>Python Tricks: A Buffet of Awesome Python Features</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>Useful. An ok book for beginners.</t>
+  </si>
+  <si>
+    <t>Fluent Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Useless. The book could be three times less pages and still provide the same amout of actionable knowledge. The author indulges into adding pages and pages of unrelevant information (mailing list discussions, implementation details, ...) that the reader who's looking into starting solving problems using Python does't need. </t>
+  </si>
+  <si>
+    <t>How To Become Fluent in Data Science</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>Sharp Sight</t>
+  </si>
+  <si>
+    <t>Useless. Full of assumptions and arrogance.</t>
+  </si>
+  <si>
+    <t>Pandas Workout (MEAP)</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>Useful. An enough readable "getting started" book.</t>
   </si>
 </sst>
 </file>
@@ -2814,7 +2850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2941,37 +2977,34 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3289,16 +3322,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46">
+      <c r="A1" s="54">
         <v>2016</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -4815,16 +4848,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46">
+      <c r="A1" s="54">
         <v>2017</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -5771,16 +5804,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46">
+      <c r="A1" s="54">
         <v>2018</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -6727,16 +6760,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46">
+      <c r="A1" s="54">
         <v>2019</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -7683,16 +7716,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46">
+      <c r="A1" s="54">
         <v>2020</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -8639,16 +8672,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46">
+      <c r="A1" s="54">
         <v>2021</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -9595,16 +9628,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46">
+      <c r="A1" s="54">
         <v>2022</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -10541,9 +10574,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A246" sqref="A246"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11668,7 +11701,7 @@
       <c r="O18" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P18" s="56" t="s">
+      <c r="P18" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q18" s="9" t="s">
@@ -11916,7 +11949,7 @@
       <c r="O22" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P22" s="56" t="s">
+      <c r="P22" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q22" s="9" t="s">
@@ -12660,7 +12693,7 @@
       <c r="O34" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P34" s="56" t="s">
+      <c r="P34" s="47" t="s">
         <v>688</v>
       </c>
       <c r="Q34" s="9" t="s">
@@ -13342,7 +13375,7 @@
       <c r="O45" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P45" s="56" t="s">
+      <c r="P45" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q45" s="9" t="s">
@@ -13404,7 +13437,7 @@
       <c r="O46" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P46" s="56" t="s">
+      <c r="P46" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q46" s="9" t="s">
@@ -13528,7 +13561,7 @@
       <c r="O48" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P48" s="56" t="s">
+      <c r="P48" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q48" s="9" t="s">
@@ -13838,7 +13871,7 @@
       <c r="O53" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P53" s="56" t="s">
+      <c r="P53" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q53" s="9" t="s">
@@ -14210,7 +14243,7 @@
       <c r="O59" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P59" s="56" t="s">
+      <c r="P59" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q59" s="9" t="s">
@@ -14334,7 +14367,7 @@
       <c r="O61" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P61" s="56" t="s">
+      <c r="P61" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q61" s="9" t="s">
@@ -14396,7 +14429,7 @@
       <c r="O62" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P62" s="56" t="s">
+      <c r="P62" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q62" s="9" t="s">
@@ -15388,7 +15421,7 @@
       <c r="O78" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P78" s="56" t="s">
+      <c r="P78" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q78" s="9" t="s">
@@ -15760,7 +15793,7 @@
       <c r="O84" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P84" s="56" t="s">
+      <c r="P84" s="47" t="s">
         <v>742</v>
       </c>
       <c r="Q84" s="9" t="s">
@@ -17868,7 +17901,7 @@
       <c r="O118" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P118" s="56" t="s">
+      <c r="P118" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q118" s="9" t="s">
@@ -17930,7 +17963,7 @@
       <c r="O119" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P119" s="56" t="s">
+      <c r="P119" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q119" s="9" t="s">
@@ -18115,7 +18148,7 @@
       <c r="O122" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P122" s="56" t="s">
+      <c r="P122" s="47" t="s">
         <v>773</v>
       </c>
       <c r="Q122" s="9" t="s">
@@ -18177,7 +18210,7 @@
       <c r="O123" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P123" s="56" t="s">
+      <c r="P123" s="47" t="s">
         <v>774</v>
       </c>
       <c r="Q123" s="9" t="s">
@@ -24253,7 +24286,7 @@
       <c r="O221" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P221" s="56" t="s">
+      <c r="P221" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q221" s="9" t="s">
@@ -24563,7 +24596,7 @@
       <c r="O226" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P226" s="56" t="s">
+      <c r="P226" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q226" s="9" t="s">
@@ -24873,7 +24906,7 @@
       <c r="O231" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="P231" s="56" t="s">
+      <c r="P231" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q231" s="9" t="s">
@@ -24910,11 +24943,11 @@
         <v>664</v>
       </c>
       <c r="H232" s="9">
-        <f t="shared" ref="H232:H243" si="30">YEAR(G232)</f>
+        <f t="shared" ref="H232:H247" si="30">YEAR(G232)</f>
         <v>2021</v>
       </c>
       <c r="I232" s="9">
-        <f t="shared" ref="I232:I243" si="31">MONTH(G232)</f>
+        <f t="shared" ref="I232:I247" si="31">MONTH(G232)</f>
         <v>3</v>
       </c>
       <c r="J232" s="9" t="s">
@@ -24945,7 +24978,7 @@
         <v>158</v>
       </c>
       <c r="S232" s="17">
-        <f t="shared" ref="S232:S243" si="32">LEN(P232)</f>
+        <f t="shared" ref="S232:S247" si="32">LEN(P232)</f>
         <v>54</v>
       </c>
     </row>
@@ -25632,256 +25665,420 @@
       </c>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A244" s="13"/>
-      <c r="B244" s="14"/>
-      <c r="C244" s="9"/>
-      <c r="D244" s="9"/>
-      <c r="E244" s="9"/>
-      <c r="F244" s="14"/>
-      <c r="G244" s="9"/>
-      <c r="H244" s="9"/>
-      <c r="I244" s="9"/>
-      <c r="J244" s="9"/>
-      <c r="K244" s="9"/>
-      <c r="L244" s="9"/>
-      <c r="M244" s="14"/>
-      <c r="N244" s="43"/>
-      <c r="O244" s="9"/>
-      <c r="P244" s="28"/>
-      <c r="Q244" s="9"/>
-      <c r="R244" s="9"/>
-      <c r="S244" s="17"/>
+      <c r="A244" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="B244" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E244" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="F244" s="14">
+        <v>175</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="H244" s="9">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I244" s="9">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="J244" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K244" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L244" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="M244" s="14">
+        <v>3</v>
+      </c>
+      <c r="N244" s="43">
+        <v>29.9</v>
+      </c>
+      <c r="O244" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="P244" s="28" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q244" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="R244" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S244" s="17">
+        <f t="shared" si="32"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A245" s="13"/>
-      <c r="B245" s="14"/>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9"/>
-      <c r="E245" s="9"/>
-      <c r="F245" s="14"/>
-      <c r="G245" s="9"/>
-      <c r="H245" s="9"/>
-      <c r="I245" s="9"/>
-      <c r="J245" s="9"/>
-      <c r="K245" s="9"/>
-      <c r="L245" s="9"/>
-      <c r="M245" s="14"/>
-      <c r="N245" s="43"/>
-      <c r="O245" s="9"/>
-      <c r="P245" s="28"/>
-      <c r="Q245" s="9"/>
-      <c r="R245" s="9"/>
-      <c r="S245" s="17"/>
+      <c r="A245" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="B245" s="14">
+        <v>2015</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="F245" s="14">
+        <v>766</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="H245" s="9">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I245" s="9">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="J245" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K245" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L245" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="M245" s="14">
+        <v>1</v>
+      </c>
+      <c r="N245" s="43">
+        <v>49.99</v>
+      </c>
+      <c r="O245" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="P245" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q245" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="R245" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S245" s="17">
+        <f t="shared" si="32"/>
+        <v>325</v>
+      </c>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A246" s="13"/>
-      <c r="B246" s="14"/>
-      <c r="C246" s="9"/>
-      <c r="D246" s="9"/>
-      <c r="E246" s="9"/>
-      <c r="F246" s="14"/>
-      <c r="G246" s="9"/>
-      <c r="H246" s="9"/>
-      <c r="I246" s="9"/>
-      <c r="J246" s="9"/>
-      <c r="K246" s="9"/>
-      <c r="L246" s="9"/>
-      <c r="M246" s="14"/>
-      <c r="N246" s="43"/>
-      <c r="O246" s="9"/>
-      <c r="P246" s="28"/>
-      <c r="Q246" s="9"/>
-      <c r="R246" s="9"/>
-      <c r="S246" s="17"/>
+      <c r="A246" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="B246" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="F246" s="14">
+        <v>42</v>
+      </c>
+      <c r="G246" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="H246" s="9">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I246" s="9">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="J246" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K246" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L246" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="M246" s="14">
+        <v>1</v>
+      </c>
+      <c r="N246" s="43">
+        <v>0</v>
+      </c>
+      <c r="O246" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="P246" s="28" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q246" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="R246" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S246" s="17">
+        <f t="shared" si="32"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A247" s="13"/>
-      <c r="B247" s="13"/>
-      <c r="C247" s="13"/>
-      <c r="D247" s="13"/>
-      <c r="E247" s="13"/>
-      <c r="F247" s="55"/>
-      <c r="G247" s="13"/>
-      <c r="H247" s="13"/>
-      <c r="I247" s="13"/>
-      <c r="J247" s="13"/>
-      <c r="K247" s="13"/>
-      <c r="L247" s="13"/>
-      <c r="M247" s="55"/>
-      <c r="N247" s="13"/>
-      <c r="O247" s="13"/>
-      <c r="P247" s="28"/>
-      <c r="Q247" s="13"/>
-      <c r="R247" s="13"/>
-      <c r="S247" s="49"/>
+      <c r="A247" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="B247" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="F247" s="14">
+        <v>187</v>
+      </c>
+      <c r="G247" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="H247" s="9">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I247" s="9">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="J247" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K247" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L247" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="M247" s="14">
+        <v>2</v>
+      </c>
+      <c r="N247" s="43">
+        <v>49.99</v>
+      </c>
+      <c r="O247" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="P247" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q247" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="R247" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S247" s="17">
+        <f t="shared" si="32"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A248" s="48"/>
+      <c r="A248" s="46"/>
       <c r="B248" s="48"/>
       <c r="C248" s="48"/>
       <c r="D248" s="48"/>
       <c r="E248" s="48"/>
-      <c r="F248" s="50"/>
+      <c r="F248" s="49"/>
       <c r="G248" s="48"/>
-      <c r="H248" s="51"/>
-      <c r="I248" s="51"/>
-      <c r="J248" s="52"/>
+      <c r="H248" s="50"/>
+      <c r="I248" s="50"/>
+      <c r="J248" s="51"/>
       <c r="K248" s="48"/>
-      <c r="L248" s="52"/>
-      <c r="M248" s="53"/>
-      <c r="N248" s="54"/>
-      <c r="O248" s="54"/>
-      <c r="P248" s="28"/>
-      <c r="Q248" s="13"/>
-      <c r="R248" s="13"/>
-      <c r="S248" s="49"/>
+      <c r="L248" s="51"/>
+      <c r="M248" s="52"/>
+      <c r="N248" s="53"/>
+      <c r="O248" s="53"/>
+      <c r="P248" s="9"/>
+      <c r="Q248" s="9"/>
+      <c r="R248" s="9"/>
+      <c r="S248" s="17"/>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" s="13"/>
-      <c r="B249" s="13"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
-      <c r="F249" s="55"/>
-      <c r="G249" s="13"/>
-      <c r="H249" s="13"/>
-      <c r="I249" s="13"/>
-      <c r="J249" s="13"/>
-      <c r="K249" s="13"/>
-      <c r="L249" s="13"/>
-      <c r="M249" s="55"/>
-      <c r="N249" s="13"/>
-      <c r="O249" s="13"/>
-      <c r="P249" s="28"/>
-      <c r="Q249" s="13"/>
-      <c r="R249" s="13"/>
-      <c r="S249" s="49"/>
+      <c r="B249" s="9"/>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="9"/>
+      <c r="H249" s="9"/>
+      <c r="I249" s="9"/>
+      <c r="J249" s="9"/>
+      <c r="K249" s="9"/>
+      <c r="L249" s="9"/>
+      <c r="M249" s="14"/>
+      <c r="N249" s="9"/>
+      <c r="O249" s="9"/>
+      <c r="P249" s="9"/>
+      <c r="Q249" s="9"/>
+      <c r="R249" s="9"/>
+      <c r="S249" s="17"/>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" s="13"/>
-      <c r="B250" s="13"/>
-      <c r="C250" s="13"/>
-      <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
-      <c r="F250" s="55"/>
-      <c r="G250" s="13"/>
-      <c r="H250" s="13"/>
-      <c r="I250" s="13"/>
-      <c r="J250" s="13"/>
-      <c r="K250" s="13"/>
-      <c r="L250" s="13"/>
-      <c r="M250" s="55"/>
-      <c r="N250" s="13"/>
-      <c r="O250" s="13"/>
-      <c r="P250" s="28"/>
-      <c r="Q250" s="13"/>
-      <c r="R250" s="13"/>
-      <c r="S250" s="49"/>
+      <c r="B250" s="9"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="9"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="9"/>
+      <c r="K250" s="9"/>
+      <c r="L250" s="9"/>
+      <c r="M250" s="14"/>
+      <c r="N250" s="9"/>
+      <c r="O250" s="9"/>
+      <c r="P250" s="9"/>
+      <c r="Q250" s="9"/>
+      <c r="R250" s="9"/>
+      <c r="S250" s="17"/>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" s="13"/>
-      <c r="B251" s="13"/>
-      <c r="C251" s="13"/>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
-      <c r="F251" s="55"/>
-      <c r="G251" s="13"/>
-      <c r="H251" s="13"/>
-      <c r="I251" s="13"/>
-      <c r="J251" s="13"/>
-      <c r="K251" s="13"/>
-      <c r="L251" s="13"/>
-      <c r="M251" s="55"/>
-      <c r="N251" s="13"/>
-      <c r="O251" s="13"/>
-      <c r="P251" s="28"/>
-      <c r="Q251" s="13"/>
-      <c r="R251" s="13"/>
-      <c r="S251" s="49"/>
+      <c r="B251" s="9"/>
+      <c r="C251" s="9"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="9"/>
+      <c r="H251" s="9"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="9"/>
+      <c r="K251" s="9"/>
+      <c r="L251" s="9"/>
+      <c r="M251" s="14"/>
+      <c r="N251" s="9"/>
+      <c r="O251" s="9"/>
+      <c r="P251" s="9"/>
+      <c r="Q251" s="9"/>
+      <c r="R251" s="9"/>
+      <c r="S251" s="17"/>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" s="13"/>
-      <c r="B252" s="13"/>
-      <c r="C252" s="13"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
-      <c r="F252" s="55"/>
-      <c r="G252" s="13"/>
-      <c r="H252" s="13"/>
-      <c r="I252" s="13"/>
-      <c r="J252" s="13"/>
-      <c r="K252" s="13"/>
-      <c r="L252" s="13"/>
-      <c r="M252" s="55"/>
-      <c r="N252" s="13"/>
-      <c r="O252" s="13"/>
-      <c r="P252" s="28"/>
-      <c r="Q252" s="13"/>
-      <c r="R252" s="13"/>
-      <c r="S252" s="49"/>
+      <c r="B252" s="9"/>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="9"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="9"/>
+      <c r="K252" s="9"/>
+      <c r="L252" s="9"/>
+      <c r="M252" s="14"/>
+      <c r="N252" s="9"/>
+      <c r="O252" s="9"/>
+      <c r="P252" s="9"/>
+      <c r="Q252" s="9"/>
+      <c r="R252" s="9"/>
+      <c r="S252" s="17"/>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" s="13"/>
-      <c r="B253" s="13"/>
-      <c r="C253" s="13"/>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
-      <c r="F253" s="55"/>
-      <c r="G253" s="13"/>
-      <c r="H253" s="13"/>
-      <c r="I253" s="13"/>
-      <c r="J253" s="13"/>
-      <c r="K253" s="13"/>
-      <c r="L253" s="13"/>
-      <c r="M253" s="55"/>
-      <c r="N253" s="13"/>
-      <c r="O253" s="13"/>
-      <c r="P253" s="28"/>
-      <c r="Q253" s="13"/>
-      <c r="R253" s="13"/>
-      <c r="S253" s="49"/>
+      <c r="B253" s="9"/>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="9"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="9"/>
+      <c r="K253" s="9"/>
+      <c r="L253" s="9"/>
+      <c r="M253" s="14"/>
+      <c r="N253" s="9"/>
+      <c r="O253" s="9"/>
+      <c r="P253" s="9"/>
+      <c r="Q253" s="9"/>
+      <c r="R253" s="9"/>
+      <c r="S253" s="17"/>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" s="13"/>
-      <c r="B254" s="13"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
-      <c r="F254" s="55"/>
-      <c r="G254" s="13"/>
-      <c r="H254" s="13"/>
-      <c r="I254" s="13"/>
-      <c r="J254" s="13"/>
-      <c r="K254" s="13"/>
-      <c r="L254" s="13"/>
-      <c r="M254" s="55"/>
-      <c r="N254" s="13"/>
-      <c r="O254" s="13"/>
-      <c r="P254" s="28"/>
-      <c r="Q254" s="13"/>
-      <c r="R254" s="13"/>
-      <c r="S254" s="49"/>
+      <c r="B254" s="9"/>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
+      <c r="I254" s="9"/>
+      <c r="J254" s="9"/>
+      <c r="K254" s="9"/>
+      <c r="L254" s="9"/>
+      <c r="M254" s="14"/>
+      <c r="N254" s="9"/>
+      <c r="O254" s="9"/>
+      <c r="P254" s="9"/>
+      <c r="Q254" s="9"/>
+      <c r="R254" s="9"/>
+      <c r="S254" s="17"/>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" s="13"/>
-      <c r="B255" s="13"/>
-      <c r="C255" s="13"/>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="55"/>
-      <c r="G255" s="13"/>
-      <c r="H255" s="13"/>
-      <c r="I255" s="13"/>
-      <c r="J255" s="13"/>
-      <c r="K255" s="13"/>
-      <c r="L255" s="13"/>
-      <c r="M255" s="55"/>
-      <c r="N255" s="13"/>
-      <c r="O255" s="13"/>
-      <c r="P255" s="28"/>
-      <c r="Q255" s="13"/>
-      <c r="R255" s="13"/>
-      <c r="S255" s="49"/>
+      <c r="B255" s="9"/>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="9"/>
+      <c r="I255" s="9"/>
+      <c r="J255" s="9"/>
+      <c r="K255" s="9"/>
+      <c r="L255" s="9"/>
+      <c r="M255" s="14"/>
+      <c r="N255" s="9"/>
+      <c r="O255" s="9"/>
+      <c r="P255" s="9"/>
+      <c r="Q255" s="9"/>
+      <c r="R255" s="9"/>
+      <c r="S255" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Articles!$A$1:$Q$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Books!$A$1:$S$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Books!$A$1:$S$247</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Others!$A$1:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="889">
   <si>
     <t>Format</t>
   </si>
@@ -1495,9 +1495,6 @@
     <t>Various Articles About the Law of Demeter</t>
   </si>
   <si>
-    <t>IoT</t>
-  </si>
-  <si>
     <t>Pages</t>
   </si>
   <si>
@@ -1513,12 +1510,6 @@
     <t>Javascript</t>
   </si>
   <si>
-    <t>Electronic Engineering</t>
-  </si>
-  <si>
-    <t>Continuous Education</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -1918,9 +1909,6 @@
     <t>Azure Functions Succintly</t>
   </si>
   <si>
-    <t>Azure</t>
-  </si>
-  <si>
     <t>2021-02-16</t>
   </si>
   <si>
@@ -1942,9 +1930,6 @@
     <t>2021-02-19</t>
   </si>
   <si>
-    <t>DevOps</t>
-  </si>
-  <si>
     <t>Vagrant Virtual Development Environment Cookbook</t>
   </si>
   <si>
@@ -2044,9 +2029,6 @@
     <t>2022-09-01</t>
   </si>
   <si>
-    <t>.NET</t>
-  </si>
-  <si>
     <t>Le Reti Sociali e La Teoria dei Grafi</t>
   </si>
   <si>
@@ -2647,9 +2629,6 @@
     <t>ROI Edizioni</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrepreneurship </t>
-  </si>
-  <si>
     <t>Intermediate Python</t>
   </si>
   <si>
@@ -2711,6 +2690,24 @@
   </si>
   <si>
     <t>Useful. An enough readable "getting started" book.</t>
+  </si>
+  <si>
+    <t>Cloud Vendors</t>
+  </si>
+  <si>
+    <t>BI, Data Warehousing, PowerBI</t>
+  </si>
+  <si>
+    <t>Development Tools</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Learning</t>
+  </si>
+  <si>
+    <t>Data Science, ML</t>
+  </si>
+  <si>
+    <t>Electronics, IoT</t>
   </si>
 </sst>
 </file>
@@ -3347,16 +3344,16 @@
         <v>390</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4307,31 +4304,31 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>364</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>8</v>
@@ -4340,10 +4337,10 @@
         <v>476</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -4873,16 +4870,16 @@
         <v>390</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5829,16 +5826,16 @@
         <v>390</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -6785,16 +6782,16 @@
         <v>390</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -7741,16 +7738,16 @@
         <v>390</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -8697,16 +8694,16 @@
         <v>390</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -9653,16 +9650,16 @@
         <v>390</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -10576,7 +10573,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10596,7 +10593,7 @@
     <col min="13" max="14" width="14.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="85.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5703125" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" style="39" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
@@ -10616,37 +10613,37 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>364</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>8</v>
@@ -10655,10 +10652,10 @@
         <v>476</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -10675,7 +10672,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F2" s="14">
         <v>288</v>
@@ -10707,7 +10704,7 @@
         <v>34.950000000000003</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P2" s="45" t="s">
         <v>58</v>
@@ -10737,7 +10734,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F3" s="14">
         <v>168</v>
@@ -10769,13 +10766,13 @@
         <v>34.99</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P3" s="45" t="s">
         <v>58</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>478</v>
+        <v>885</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>159</v>
@@ -10799,7 +10796,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F4" s="14">
         <v>462</v>
@@ -10831,7 +10828,7 @@
         <v>31.87</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P4" s="45" t="s">
         <v>58</v>
@@ -10849,7 +10846,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B5" s="14">
         <v>2010</v>
@@ -10861,7 +10858,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F5" s="14">
         <v>149</v>
@@ -10893,13 +10890,13 @@
         <v>39.99</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P5" s="45" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>478</v>
+        <v>885</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>159</v>
@@ -10923,7 +10920,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F6" s="14">
         <v>142</v>
@@ -10955,13 +10952,13 @@
         <v>24.58</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P6" s="45" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>478</v>
+        <v>885</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>159</v>
@@ -10985,7 +10982,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F7" s="14">
         <v>190</v>
@@ -11017,13 +11014,13 @@
         <v>29.99</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>478</v>
+        <v>885</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>159</v>
@@ -11047,7 +11044,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F8" s="14">
         <v>310</v>
@@ -11079,13 +11076,13 @@
         <v>41.19</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P8" s="45" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>478</v>
+        <v>885</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>159</v>
@@ -11109,7 +11106,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F9" s="14">
         <v>233</v>
@@ -11141,13 +11138,13 @@
         <v>11.42</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P9" s="45" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>478</v>
+        <v>885</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>159</v>
@@ -11171,7 +11168,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F10" s="14">
         <v>80</v>
@@ -11203,10 +11200,10 @@
         <v>3.74</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P10" s="45" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>475</v>
@@ -11233,7 +11230,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F11" s="14">
         <v>249</v>
@@ -11265,13 +11262,13 @@
         <v>30.44</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P11" s="45" t="s">
         <v>58</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R11" s="9" t="s">
         <v>159</v>
@@ -11295,7 +11292,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F12" s="14">
         <v>237</v>
@@ -11327,10 +11324,10 @@
         <v>60</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P12" s="45" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>475</v>
@@ -11357,7 +11354,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F13" s="14">
         <v>824</v>
@@ -11389,10 +11386,10 @@
         <v>49</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P13" s="45" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>474</v>
@@ -11419,7 +11416,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F14" s="14">
         <v>448</v>
@@ -11451,10 +11448,10 @@
         <v>64</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>474</v>
@@ -11481,7 +11478,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F15" s="14">
         <v>117</v>
@@ -11513,10 +11510,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P15" s="45" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>475</v>
@@ -11543,7 +11540,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F16" s="14">
         <v>217</v>
@@ -11575,13 +11572,13 @@
         <v>49</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>159</v>
@@ -11605,7 +11602,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F17" s="14">
         <v>174</v>
@@ -11637,13 +11634,13 @@
         <v>39</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>159</v>
@@ -11667,7 +11664,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F18" s="14">
         <v>224</v>
@@ -11699,13 +11696,13 @@
         <v>30</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P18" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>159</v>
@@ -11729,7 +11726,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F19" s="14">
         <v>294</v>
@@ -11761,13 +11758,13 @@
         <v>44</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P19" s="45" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>159</v>
@@ -11791,7 +11788,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F20" s="14">
         <v>189</v>
@@ -11823,10 +11820,10 @@
         <v>62</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P20" s="45" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>475</v>
@@ -11853,7 +11850,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F21" s="14">
         <v>197</v>
@@ -11885,13 +11882,13 @@
         <v>31</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P21" s="45" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>159</v>
@@ -11915,7 +11912,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F22" s="14">
         <v>78</v>
@@ -11938,7 +11935,7 @@
         <v>159</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M22" s="8">
         <v>1</v>
@@ -11947,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P22" s="47" t="s">
         <v>60</v>
@@ -11977,7 +11974,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F23" s="14">
         <v>108</v>
@@ -12009,7 +12006,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P23" s="45" t="s">
         <v>60</v>
@@ -12039,7 +12036,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F24" s="14">
         <v>512</v>
@@ -12071,10 +12068,10 @@
         <v>34.11</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P24" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>474</v>
@@ -12101,7 +12098,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F25" s="14">
         <v>365</v>
@@ -12133,10 +12130,10 @@
         <v>45.8</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P25" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q25" s="9" t="s">
         <v>474</v>
@@ -12163,7 +12160,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F26" s="14">
         <v>336</v>
@@ -12195,10 +12192,10 @@
         <v>57.47</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P26" s="45" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="Q26" s="9" t="s">
         <v>474</v>
@@ -12225,7 +12222,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F27" s="14">
         <v>148</v>
@@ -12257,13 +12254,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P27" s="45" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>480</v>
+        <v>887</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>159</v>
@@ -12287,7 +12284,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F28" s="14">
         <v>435</v>
@@ -12319,13 +12316,13 @@
         <v>128.94</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P28" s="45" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R28" s="9" t="s">
         <v>159</v>
@@ -12349,7 +12346,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F29" s="14">
         <v>547</v>
@@ -12381,13 +12378,13 @@
         <v>44.5</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P29" s="45" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>159</v>
@@ -12411,7 +12408,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F30" s="14">
         <v>458</v>
@@ -12443,10 +12440,10 @@
         <v>46.94</v>
       </c>
       <c r="O30" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="P30" s="45" t="s">
         <v>679</v>
-      </c>
-      <c r="P30" s="45" t="s">
-        <v>685</v>
       </c>
       <c r="Q30" s="9" t="s">
         <v>475</v>
@@ -12473,7 +12470,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F31" s="14">
         <v>431</v>
@@ -12505,10 +12502,10 @@
         <v>42.93</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P31" s="45" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>475</v>
@@ -12535,7 +12532,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F32" s="14">
         <v>650</v>
@@ -12567,10 +12564,10 @@
         <v>44.02</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P32" s="45" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="Q32" s="9" t="s">
         <v>474</v>
@@ -12597,7 +12594,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F33" s="14">
         <v>43</v>
@@ -12629,10 +12626,10 @@
         <v>16</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P33" s="45" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>475</v>
@@ -12659,7 +12656,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F34" s="14">
         <v>51</v>
@@ -12691,10 +12688,10 @@
         <v>7.99</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P34" s="47" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>475</v>
@@ -12721,7 +12718,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F35" s="14">
         <v>257</v>
@@ -12753,10 +12750,10 @@
         <v>26.06</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P35" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q35" s="9" t="s">
         <v>475</v>
@@ -12783,7 +12780,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F36" s="14">
         <v>74</v>
@@ -12815,10 +12812,10 @@
         <v>0</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P36" s="45" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>474</v>
@@ -12845,7 +12842,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F37" s="14">
         <v>948</v>
@@ -12877,10 +12874,10 @@
         <v>38.340000000000003</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P37" s="45" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>474</v>
@@ -12907,7 +12904,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F38" s="14">
         <v>361</v>
@@ -12939,10 +12936,10 @@
         <v>38.46</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P38" s="45" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="Q38" s="9" t="s">
         <v>475</v>
@@ -12969,7 +12966,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F39" s="14">
         <v>229</v>
@@ -13001,10 +12998,10 @@
         <v>20.97</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P39" s="45" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="Q39" s="9" t="s">
         <v>475</v>
@@ -13031,7 +13028,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F40" s="14">
         <v>294</v>
@@ -13063,10 +13060,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P40" s="45" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="Q40" s="9" t="s">
         <v>475</v>
@@ -13093,7 +13090,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F41" s="14">
         <v>239</v>
@@ -13125,10 +13122,10 @@
         <v>20.53</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P41" s="45" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="Q41" s="9" t="s">
         <v>475</v>
@@ -13155,7 +13152,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F42" s="14">
         <v>360</v>
@@ -13187,10 +13184,10 @@
         <v>53.03</v>
       </c>
       <c r="O42" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P42" s="45" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="Q42" s="9" t="s">
         <v>475</v>
@@ -13217,7 +13214,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F43" s="14">
         <v>137</v>
@@ -13249,10 +13246,10 @@
         <v>36.909999999999997</v>
       </c>
       <c r="O43" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P43" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q43" s="9" t="s">
         <v>475</v>
@@ -13279,7 +13276,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F44" s="14">
         <v>69</v>
@@ -13311,10 +13308,10 @@
         <v>12.99</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P44" s="45" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="Q44" s="9" t="s">
         <v>475</v>
@@ -13341,7 +13338,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F45" s="14">
         <v>20</v>
@@ -13373,13 +13370,13 @@
         <v>0</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P45" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>484</v>
+        <v>888</v>
       </c>
       <c r="R45" s="9" t="s">
         <v>159</v>
@@ -13403,7 +13400,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F46" s="14">
         <v>66</v>
@@ -13435,13 +13432,13 @@
         <v>0</v>
       </c>
       <c r="O46" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P46" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>484</v>
+        <v>888</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>159</v>
@@ -13465,7 +13462,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F47" s="14">
         <v>19</v>
@@ -13497,13 +13494,13 @@
         <v>0</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P47" s="45" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>484</v>
+        <v>888</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>159</v>
@@ -13527,7 +13524,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F48" s="14">
         <v>46</v>
@@ -13559,7 +13556,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P48" s="47" t="s">
         <v>60</v>
@@ -13589,7 +13586,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F49" s="14">
         <v>342</v>
@@ -13621,10 +13618,10 @@
         <v>49.56</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P49" s="45" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="Q49" s="9" t="s">
         <v>474</v>
@@ -13651,7 +13648,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F50" s="14">
         <v>165</v>
@@ -13683,10 +13680,10 @@
         <v>29.99</v>
       </c>
       <c r="O50" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P50" s="45" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="Q50" s="9" t="s">
         <v>475</v>
@@ -13713,7 +13710,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F51" s="14">
         <v>307</v>
@@ -13745,10 +13742,10 @@
         <v>0</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P51" s="45" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="Q51" s="9" t="s">
         <v>475</v>
@@ -13775,7 +13772,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F52" s="14">
         <v>675</v>
@@ -13807,10 +13804,10 @@
         <v>39.99</v>
       </c>
       <c r="O52" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P52" s="45" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="Q52" s="9" t="s">
         <v>477</v>
@@ -13837,7 +13834,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F53" s="14">
         <v>559</v>
@@ -13869,7 +13866,7 @@
         <v>49.99</v>
       </c>
       <c r="O53" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P53" s="47" t="s">
         <v>60</v>
@@ -13899,7 +13896,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F54" s="14">
         <v>324</v>
@@ -13931,10 +13928,10 @@
         <v>58.84</v>
       </c>
       <c r="O54" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P54" s="45" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="Q54" s="9" t="s">
         <v>475</v>
@@ -13961,7 +13958,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F55" s="14">
         <v>1062</v>
@@ -13993,10 +13990,10 @@
         <v>65.3</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P55" s="45" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="Q55" s="9" t="s">
         <v>474</v>
@@ -14023,7 +14020,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F56" s="14">
         <v>869</v>
@@ -14055,10 +14052,10 @@
         <v>6.28</v>
       </c>
       <c r="O56" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P56" s="45" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="Q56" s="9" t="s">
         <v>474</v>
@@ -14085,7 +14082,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F57" s="14">
         <v>703</v>
@@ -14117,10 +14114,10 @@
         <v>54.99</v>
       </c>
       <c r="O57" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P57" s="45" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="Q57" s="9" t="s">
         <v>474</v>
@@ -14147,7 +14144,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F58" s="14">
         <v>106</v>
@@ -14179,10 +14176,10 @@
         <v>30</v>
       </c>
       <c r="O58" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P58" s="45" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="Q58" s="9" t="s">
         <v>475</v>
@@ -14209,7 +14206,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F59" s="14">
         <v>50</v>
@@ -14241,13 +14238,13 @@
         <v>0</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P59" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>480</v>
+        <v>887</v>
       </c>
       <c r="R59" s="9" t="s">
         <v>159</v>
@@ -14271,7 +14268,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F60" s="14">
         <v>619</v>
@@ -14303,10 +14300,10 @@
         <v>44.98</v>
       </c>
       <c r="O60" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P60" s="45" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="Q60" s="9" t="s">
         <v>475</v>
@@ -14333,7 +14330,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F61" s="14">
         <v>280</v>
@@ -14365,7 +14362,7 @@
         <v>49.99</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P61" s="47" t="s">
         <v>60</v>
@@ -14395,7 +14392,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F62" s="14">
         <v>671</v>
@@ -14427,7 +14424,7 @@
         <v>35</v>
       </c>
       <c r="O62" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P62" s="47" t="s">
         <v>60</v>
@@ -14457,7 +14454,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F63" s="14">
         <v>127</v>
@@ -14489,10 +14486,10 @@
         <v>52.49</v>
       </c>
       <c r="O63" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P63" s="45" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="Q63" s="9" t="s">
         <v>475</v>
@@ -14519,7 +14516,7 @@
         <v>4</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F64" s="14">
         <v>174</v>
@@ -14551,13 +14548,13 @@
         <v>24.99</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P64" s="45" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R64" s="9" t="s">
         <v>159</v>
@@ -14581,7 +14578,7 @@
         <v>4</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F65" s="14">
         <v>164</v>
@@ -14613,10 +14610,10 @@
         <v>49.99</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P65" s="45" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="Q65" s="9" t="s">
         <v>474</v>
@@ -14643,7 +14640,7 @@
         <v>4</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F66" s="14">
         <v>294</v>
@@ -14675,13 +14672,13 @@
         <v>51.47</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P66" s="45" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R66" s="9" t="s">
         <v>159</v>
@@ -14705,7 +14702,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F67" s="14">
         <v>90</v>
@@ -14737,10 +14734,10 @@
         <v>24.99</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P67" s="45" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="Q67" s="9" t="s">
         <v>475</v>
@@ -14767,7 +14764,7 @@
         <v>4</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F68" s="14">
         <v>362</v>
@@ -14799,10 +14796,10 @@
         <v>39.99</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P68" s="45" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="Q68" s="9" t="s">
         <v>475</v>
@@ -14829,7 +14826,7 @@
         <v>4</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F69" s="14">
         <v>216</v>
@@ -14852,7 +14849,7 @@
         <v>159</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M69" s="14">
         <v>3</v>
@@ -14861,10 +14858,10 @@
         <v>0</v>
       </c>
       <c r="O69" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P69" s="45" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="Q69" s="9" t="s">
         <v>474</v>
@@ -14891,7 +14888,7 @@
         <v>4</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F70" s="14">
         <v>127</v>
@@ -14923,10 +14920,10 @@
         <v>29.36</v>
       </c>
       <c r="O70" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P70" s="45" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="Q70" s="9" t="s">
         <v>477</v>
@@ -14953,7 +14950,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F71" s="14">
         <v>108</v>
@@ -14976,7 +14973,7 @@
         <v>158</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M71" s="14">
         <v>4</v>
@@ -14985,10 +14982,10 @@
         <v>0</v>
       </c>
       <c r="O71" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P71" s="45" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="Q71" s="9" t="s">
         <v>475</v>
@@ -15015,7 +15012,7 @@
         <v>4</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F72" s="14">
         <v>154</v>
@@ -15047,13 +15044,13 @@
         <v>19.989999999999998</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P72" s="45" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>481</v>
+        <v>885</v>
       </c>
       <c r="R72" s="9" t="s">
         <v>159</v>
@@ -15077,7 +15074,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F73" s="14">
         <v>240</v>
@@ -15109,13 +15106,13 @@
         <v>49.99</v>
       </c>
       <c r="O73" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P73" s="45" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R73" s="9" t="s">
         <v>159</v>
@@ -15139,7 +15136,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F74" s="14">
         <v>140</v>
@@ -15171,13 +15168,13 @@
         <v>34.99</v>
       </c>
       <c r="O74" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P74" s="45" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R74" s="9" t="s">
         <v>159</v>
@@ -15201,7 +15198,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F75" s="14">
         <v>500</v>
@@ -15233,13 +15230,13 @@
         <v>56.58</v>
       </c>
       <c r="O75" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P75" s="45" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R75" s="9" t="s">
         <v>159</v>
@@ -15263,7 +15260,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F76" s="14">
         <v>322</v>
@@ -15295,10 +15292,10 @@
         <v>33.92</v>
       </c>
       <c r="O76" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P76" s="45" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="Q76" s="9" t="s">
         <v>475</v>
@@ -15325,7 +15322,7 @@
         <v>4</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F77" s="14">
         <v>385</v>
@@ -15357,13 +15354,13 @@
         <v>48.89</v>
       </c>
       <c r="O77" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P77" s="45" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R77" s="9" t="s">
         <v>159</v>
@@ -15387,7 +15384,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F78" s="14">
         <v>87</v>
@@ -15419,7 +15416,7 @@
         <v>55.99</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P78" s="47" t="s">
         <v>60</v>
@@ -15449,7 +15446,7 @@
         <v>4</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F79" s="14">
         <v>433</v>
@@ -15481,10 +15478,10 @@
         <v>49.99</v>
       </c>
       <c r="O79" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P79" s="45" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="Q79" s="9" t="s">
         <v>474</v>
@@ -15511,7 +15508,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F80" s="14">
         <v>385</v>
@@ -15543,10 +15540,10 @@
         <v>44.99</v>
       </c>
       <c r="O80" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P80" s="45" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="Q80" s="9" t="s">
         <v>475</v>
@@ -15573,7 +15570,7 @@
         <v>4</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F81" s="14">
         <v>159</v>
@@ -15605,10 +15602,10 @@
         <v>39.99</v>
       </c>
       <c r="O81" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P81" s="45" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="Q81" s="9" t="s">
         <v>474</v>
@@ -15635,7 +15632,7 @@
         <v>4</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F82" s="14">
         <v>268</v>
@@ -15667,10 +15664,10 @@
         <v>18.28</v>
       </c>
       <c r="O82" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P82" s="45" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="Q82" s="9" t="s">
         <v>474</v>
@@ -15697,7 +15694,7 @@
         <v>4</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F83" s="14">
         <v>482</v>
@@ -15729,10 +15726,10 @@
         <v>36</v>
       </c>
       <c r="O83" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P83" s="45" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="Q83" s="9" t="s">
         <v>475</v>
@@ -15759,7 +15756,7 @@
         <v>4</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F84" s="14">
         <v>100</v>
@@ -15791,10 +15788,10 @@
         <v>38</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P84" s="47" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="Q84" s="9" t="s">
         <v>475</v>
@@ -15809,7 +15806,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B85" s="8">
         <v>1999</v>
@@ -15821,7 +15818,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F85" s="14">
         <v>337</v>
@@ -15853,10 +15850,10 @@
         <v>56.85</v>
       </c>
       <c r="O85" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P85" s="45" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="Q85" s="9" t="s">
         <v>475</v>
@@ -15883,7 +15880,7 @@
         <v>4</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F86" s="14">
         <v>163</v>
@@ -15915,13 +15912,13 @@
         <v>9.74</v>
       </c>
       <c r="O86" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P86" s="45" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R86" s="9" t="s">
         <v>159</v>
@@ -15945,7 +15942,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F87" s="14">
         <v>250</v>
@@ -15977,10 +15974,10 @@
         <v>56.5</v>
       </c>
       <c r="O87" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P87" s="45" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="Q87" s="9" t="s">
         <v>475</v>
@@ -16007,7 +16004,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F88" s="14">
         <v>200</v>
@@ -16039,13 +16036,13 @@
         <v>16.989999999999998</v>
       </c>
       <c r="O88" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P88" s="45" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R88" s="9" t="s">
         <v>159</v>
@@ -16069,7 +16066,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F89" s="14">
         <v>200</v>
@@ -16101,13 +16098,13 @@
         <v>35.53</v>
       </c>
       <c r="O89" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P89" s="45" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R89" s="9" t="s">
         <v>159</v>
@@ -16131,7 +16128,7 @@
         <v>4</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F90" s="14">
         <v>120</v>
@@ -16163,13 +16160,13 @@
         <v>29.99</v>
       </c>
       <c r="O90" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P90" s="45" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R90" s="9" t="s">
         <v>159</v>
@@ -16193,7 +16190,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F91" s="14">
         <v>209</v>
@@ -16225,10 +16222,10 @@
         <v>37.450000000000003</v>
       </c>
       <c r="O91" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P91" s="45" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="Q91" s="9" t="s">
         <v>474</v>
@@ -16255,7 +16252,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F92" s="14">
         <v>598</v>
@@ -16287,10 +16284,10 @@
         <v>49.99</v>
       </c>
       <c r="O92" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P92" s="45" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="Q92" s="9" t="s">
         <v>474</v>
@@ -16317,7 +16314,7 @@
         <v>4</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F93" s="14">
         <v>325</v>
@@ -16349,10 +16346,10 @@
         <v>39.99</v>
       </c>
       <c r="O93" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P93" s="45" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="Q93" s="9" t="s">
         <v>474</v>
@@ -16379,7 +16376,7 @@
         <v>4</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F94" s="14">
         <v>143</v>
@@ -16411,10 +16408,10 @@
         <v>28.99</v>
       </c>
       <c r="O94" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P94" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q94" s="9" t="s">
         <v>475</v>
@@ -16441,7 +16438,7 @@
         <v>4</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F95" s="14">
         <v>400</v>
@@ -16473,10 +16470,10 @@
         <v>44.99</v>
       </c>
       <c r="O95" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P95" s="45" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="Q95" s="9" t="s">
         <v>474</v>
@@ -16503,7 +16500,7 @@
         <v>4</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F96" s="14">
         <v>417</v>
@@ -16535,10 +16532,10 @@
         <v>25.49</v>
       </c>
       <c r="O96" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P96" s="45" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="Q96" s="9" t="s">
         <v>475</v>
@@ -16565,7 +16562,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F97" s="14">
         <v>180</v>
@@ -16597,13 +16594,13 @@
         <v>34.99</v>
       </c>
       <c r="O97" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P97" s="45" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R97" s="9" t="s">
         <v>159</v>
@@ -16627,7 +16624,7 @@
         <v>4</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F98" s="14">
         <v>78</v>
@@ -16659,13 +16656,13 @@
         <v>24.68</v>
       </c>
       <c r="O98" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P98" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R98" s="9" t="s">
         <v>159</v>
@@ -16689,7 +16686,7 @@
         <v>4</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F99" s="14">
         <v>113</v>
@@ -16721,10 +16718,10 @@
         <v>42.79</v>
       </c>
       <c r="O99" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P99" s="45" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="Q99" s="9" t="s">
         <v>475</v>
@@ -16751,7 +16748,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F100" s="14">
         <v>258</v>
@@ -16783,10 +16780,10 @@
         <v>42.75</v>
       </c>
       <c r="O100" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P100" s="45" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="Q100" s="9" t="s">
         <v>475</v>
@@ -16813,7 +16810,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F101" s="14">
         <v>349</v>
@@ -16845,13 +16842,13 @@
         <v>18.18</v>
       </c>
       <c r="O101" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P101" s="45" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>490</v>
+        <v>888</v>
       </c>
       <c r="R101" s="9" t="s">
         <v>159</v>
@@ -16875,7 +16872,7 @@
         <v>4</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F102" s="14">
         <v>533</v>
@@ -16907,13 +16904,13 @@
         <v>50.43</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P102" s="45" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R102" s="9" t="s">
         <v>159</v>
@@ -16937,7 +16934,7 @@
         <v>4</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F103" s="14">
         <v>453</v>
@@ -16969,13 +16966,13 @@
         <v>12.77</v>
       </c>
       <c r="O103" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P103" s="45" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>480</v>
+        <v>887</v>
       </c>
       <c r="R103" s="9" t="s">
         <v>159</v>
@@ -16999,7 +16996,7 @@
         <v>4</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F104" s="14">
         <v>290</v>
@@ -17031,13 +17028,13 @@
         <v>41.51</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P104" s="45" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>480</v>
+        <v>887</v>
       </c>
       <c r="R104" s="9" t="s">
         <v>159</v>
@@ -17061,7 +17058,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F105" s="14">
         <v>228</v>
@@ -17084,7 +17081,7 @@
         <v>159</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M105" s="14">
         <v>5</v>
@@ -17093,13 +17090,13 @@
         <v>39</v>
       </c>
       <c r="O105" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P105" s="45" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>491</v>
+        <v>886</v>
       </c>
       <c r="R105" s="9" t="s">
         <v>159</v>
@@ -17123,7 +17120,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F106" s="14">
         <v>322</v>
@@ -17155,13 +17152,13 @@
         <v>37.75</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P106" s="45" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>480</v>
+        <v>887</v>
       </c>
       <c r="R106" s="9" t="s">
         <v>159</v>
@@ -17185,7 +17182,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F107" s="14">
         <v>360</v>
@@ -17217,13 +17214,13 @@
         <v>30.22</v>
       </c>
       <c r="O107" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P107" s="45" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>480</v>
+        <v>887</v>
       </c>
       <c r="R107" s="9" t="s">
         <v>159</v>
@@ -17247,7 +17244,7 @@
         <v>4</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F108" s="14">
         <v>138</v>
@@ -17279,13 +17276,13 @@
         <v>24.1</v>
       </c>
       <c r="O108" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P108" s="45" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R108" s="9" t="s">
         <v>159</v>
@@ -17309,7 +17306,7 @@
         <v>4</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F109" s="14">
         <v>62</v>
@@ -17341,13 +17338,13 @@
         <v>19.899999999999999</v>
       </c>
       <c r="O109" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P109" s="45" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R109" s="9" t="s">
         <v>159</v>
@@ -17371,7 +17368,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F110" s="14">
         <v>21</v>
@@ -17394,7 +17391,7 @@
         <v>159</v>
       </c>
       <c r="L110" s="11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M110" s="8">
         <v>1</v>
@@ -17403,13 +17400,13 @@
         <v>0</v>
       </c>
       <c r="O110" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P110" s="45" t="s">
         <v>60</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R110" s="9" t="s">
         <v>159</v>
@@ -17433,7 +17430,7 @@
         <v>4</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F111" s="14">
         <v>34</v>
@@ -17456,7 +17453,7 @@
         <v>159</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M111" s="8">
         <v>2</v>
@@ -17465,13 +17462,13 @@
         <v>0</v>
       </c>
       <c r="O111" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P111" s="45" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R111" s="9" t="s">
         <v>159</v>
@@ -17495,7 +17492,7 @@
         <v>4</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F112" s="14">
         <v>196</v>
@@ -17527,13 +17524,13 @@
         <v>28.74</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P112" s="45" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="Q112" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R112" s="9" t="s">
         <v>159</v>
@@ -17545,7 +17542,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B113" s="8">
         <v>2015</v>
@@ -17557,7 +17554,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F113" s="14">
         <v>149</v>
@@ -17589,13 +17586,13 @@
         <v>24.99</v>
       </c>
       <c r="O113" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P113" s="45" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="R113" s="9" t="s">
         <v>159</v>
@@ -17619,7 +17616,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F114" s="14">
         <v>303</v>
@@ -17651,13 +17648,13 @@
         <v>28.48</v>
       </c>
       <c r="O114" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P114" s="45" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="R114" s="9" t="s">
         <v>159</v>
@@ -17681,7 +17678,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F115" s="14">
         <v>282</v>
@@ -17713,13 +17710,13 @@
         <v>49.99</v>
       </c>
       <c r="O115" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P115" s="45" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="Q115" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="R115" s="9" t="s">
         <v>159</v>
@@ -17743,7 +17740,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F116" s="14">
         <v>443</v>
@@ -17775,13 +17772,13 @@
         <v>49.99</v>
       </c>
       <c r="O116" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P116" s="45" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="R116" s="9" t="s">
         <v>159</v>
@@ -17805,7 +17802,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F117" s="14">
         <v>154</v>
@@ -17837,13 +17834,13 @@
         <v>24.99</v>
       </c>
       <c r="O117" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P117" s="45" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="Q117" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R117" s="9" t="s">
         <v>159</v>
@@ -17867,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F118" s="14">
         <v>220</v>
@@ -17899,13 +17896,13 @@
         <v>49.99</v>
       </c>
       <c r="O118" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P118" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q118" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R118" s="9" t="s">
         <v>159</v>
@@ -17929,7 +17926,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F119" s="14">
         <v>225</v>
@@ -17952,7 +17949,7 @@
         <v>159</v>
       </c>
       <c r="L119" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M119" s="8">
         <v>2</v>
@@ -17961,13 +17958,13 @@
         <v>0</v>
       </c>
       <c r="O119" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P119" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q119" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R119" s="9" t="s">
         <v>159</v>
@@ -17991,7 +17988,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F120" s="14">
         <v>359</v>
@@ -18023,13 +18020,13 @@
         <v>28.57</v>
       </c>
       <c r="O120" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P120" s="45" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="Q120" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R120" s="9" t="s">
         <v>159</v>
@@ -18053,7 +18050,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F121" s="14">
         <v>24</v>
@@ -18084,10 +18081,10 @@
         <v>29.99</v>
       </c>
       <c r="O121" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P121" s="45" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="Q121" s="9" t="s">
         <v>475</v>
@@ -18114,7 +18111,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F122" s="17">
         <v>275</v>
@@ -18146,13 +18143,13 @@
         <v>37.61</v>
       </c>
       <c r="O122" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P122" s="47" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>480</v>
+        <v>887</v>
       </c>
       <c r="R122" s="9" t="s">
         <v>159</v>
@@ -18176,7 +18173,7 @@
         <v>4</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F123" s="17">
         <v>101</v>
@@ -18199,7 +18196,7 @@
         <v>159</v>
       </c>
       <c r="L123" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M123" s="8">
         <v>4</v>
@@ -18208,13 +18205,13 @@
         <v>0</v>
       </c>
       <c r="O123" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P123" s="47" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="Q123" s="9" t="s">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="R123" s="9" t="s">
         <v>159</v>
@@ -18226,7 +18223,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B124" s="8">
         <v>2017</v>
@@ -18238,7 +18235,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F124" s="17">
         <v>51</v>
@@ -18270,13 +18267,13 @@
         <v>0</v>
       </c>
       <c r="O124" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P124" s="45" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="Q124" s="9" t="s">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="R124" s="9" t="s">
         <v>159</v>
@@ -18300,7 +18297,7 @@
         <v>4</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F125" s="17">
         <v>165</v>
@@ -18332,13 +18329,13 @@
         <v>31.38</v>
       </c>
       <c r="O125" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P125" s="45" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="Q125" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R125" s="9" t="s">
         <v>159</v>
@@ -18362,7 +18359,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F126" s="17">
         <v>189</v>
@@ -18394,13 +18391,13 @@
         <v>0</v>
       </c>
       <c r="O126" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P126" s="45" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="Q126" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R126" s="9" t="s">
         <v>159</v>
@@ -18424,7 +18421,7 @@
         <v>4</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F127" s="17">
         <v>394</v>
@@ -18456,13 +18453,13 @@
         <v>30.87</v>
       </c>
       <c r="O127" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P127" s="45" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="Q127" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R127" s="9" t="s">
         <v>159</v>
@@ -18486,7 +18483,7 @@
         <v>4</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F128" s="14">
         <v>159</v>
@@ -18518,13 +18515,13 @@
         <v>11.56</v>
       </c>
       <c r="O128" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P128" s="45" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="Q128" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R128" s="9" t="s">
         <v>159</v>
@@ -18548,7 +18545,7 @@
         <v>4</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F129" s="14">
         <v>110</v>
@@ -18580,13 +18577,13 @@
         <v>12.49</v>
       </c>
       <c r="O129" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P129" s="45" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="Q129" s="9" t="s">
-        <v>473</v>
+        <v>884</v>
       </c>
       <c r="R129" s="9" t="s">
         <v>159</v>
@@ -18610,7 +18607,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F130" s="14">
         <v>184</v>
@@ -18642,10 +18639,10 @@
         <v>0</v>
       </c>
       <c r="O130" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P130" s="45" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="Q130" s="9" t="s">
         <v>475</v>
@@ -18672,7 +18669,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F131" s="17">
         <v>233</v>
@@ -18704,10 +18701,10 @@
         <v>16.37</v>
       </c>
       <c r="O131" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P131" s="45" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="Q131" s="9" t="s">
         <v>475</v>
@@ -18734,7 +18731,7 @@
         <v>4</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F132" s="14">
         <v>170</v>
@@ -18766,13 +18763,13 @@
         <v>34.99</v>
       </c>
       <c r="O132" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P132" s="45" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="Q132" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R132" s="9" t="s">
         <v>159</v>
@@ -18796,7 +18793,7 @@
         <v>4</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F133" s="14">
         <v>379</v>
@@ -18828,10 +18825,10 @@
         <v>39.99</v>
       </c>
       <c r="O133" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P133" s="45" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="Q133" s="9" t="s">
         <v>475</v>
@@ -18858,7 +18855,7 @@
         <v>4</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F134" s="17">
         <v>307</v>
@@ -18881,7 +18878,7 @@
         <v>159</v>
       </c>
       <c r="L134" s="11" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="M134" s="8">
         <v>2</v>
@@ -18890,10 +18887,10 @@
         <v>0</v>
       </c>
       <c r="O134" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P134" s="45" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="Q134" s="9" t="s">
         <v>477</v>
@@ -18920,7 +18917,7 @@
         <v>4</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F135" s="14">
         <v>541</v>
@@ -18952,10 +18949,10 @@
         <v>63.05</v>
       </c>
       <c r="O135" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P135" s="45" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="Q135" s="9" t="s">
         <v>477</v>
@@ -18982,7 +18979,7 @@
         <v>4</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F136" s="14">
         <v>289</v>
@@ -19014,13 +19011,13 @@
         <v>34.28</v>
       </c>
       <c r="O136" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P136" s="45" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="Q136" s="9" t="s">
-        <v>473</v>
+        <v>884</v>
       </c>
       <c r="R136" s="9" t="s">
         <v>159</v>
@@ -19044,7 +19041,7 @@
         <v>4</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F137" s="17">
         <v>286</v>
@@ -19076,13 +19073,13 @@
         <v>54.34</v>
       </c>
       <c r="O137" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P137" s="45" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="Q137" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R137" s="9" t="s">
         <v>159</v>
@@ -19106,7 +19103,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F138" s="17">
         <v>483</v>
@@ -19138,10 +19135,10 @@
         <v>39</v>
       </c>
       <c r="O138" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P138" s="45" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="Q138" s="9" t="s">
         <v>475</v>
@@ -19168,7 +19165,7 @@
         <v>4</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F139" s="14">
         <v>272</v>
@@ -19200,13 +19197,13 @@
         <v>13.56</v>
       </c>
       <c r="O139" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P139" s="45" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="Q139" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R139" s="9" t="s">
         <v>159</v>
@@ -19230,7 +19227,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F140" s="14">
         <v>212</v>
@@ -19262,13 +19259,13 @@
         <v>30.3</v>
       </c>
       <c r="O140" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P140" s="45" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="Q140" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R140" s="9" t="s">
         <v>159</v>
@@ -19292,7 +19289,7 @@
         <v>4</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F141" s="14">
         <v>388</v>
@@ -19324,13 +19321,13 @@
         <v>26.5</v>
       </c>
       <c r="O141" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P141" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q141" s="9" t="s">
-        <v>473</v>
+        <v>884</v>
       </c>
       <c r="R141" s="9" t="s">
         <v>159</v>
@@ -19354,7 +19351,7 @@
         <v>4</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F142" s="17">
         <v>353</v>
@@ -19386,13 +19383,13 @@
         <v>34.22</v>
       </c>
       <c r="O142" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P142" s="45" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="Q142" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R142" s="9" t="s">
         <v>159</v>
@@ -19416,7 +19413,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F143" s="17">
         <v>107</v>
@@ -19448,13 +19445,13 @@
         <v>34.229999999999997</v>
       </c>
       <c r="O143" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P143" s="45" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="Q143" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R143" s="9" t="s">
         <v>159</v>
@@ -19478,7 +19475,7 @@
         <v>4</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F144" s="14">
         <v>444</v>
@@ -19510,13 +19507,13 @@
         <v>49.99</v>
       </c>
       <c r="O144" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P144" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q144" s="9" t="s">
-        <v>473</v>
+        <v>884</v>
       </c>
       <c r="R144" s="9" t="s">
         <v>159</v>
@@ -19540,7 +19537,7 @@
         <v>4</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F145" s="14">
         <v>619</v>
@@ -19572,10 +19569,10 @@
         <v>59.99</v>
       </c>
       <c r="O145" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P145" s="45" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="Q145" s="9" t="s">
         <v>475</v>
@@ -19602,7 +19599,7 @@
         <v>4</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F146" s="14">
         <v>329</v>
@@ -19634,13 +19631,13 @@
         <v>19.88</v>
       </c>
       <c r="O146" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P146" s="45" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="Q146" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R146" s="9" t="s">
         <v>159</v>
@@ -19664,7 +19661,7 @@
         <v>4</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F147" s="14">
         <v>189</v>
@@ -19696,13 +19693,13 @@
         <v>40.630000000000003</v>
       </c>
       <c r="O147" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P147" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q147" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R147" s="9" t="s">
         <v>159</v>
@@ -19726,7 +19723,7 @@
         <v>4</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F148" s="14">
         <v>546</v>
@@ -19758,10 +19755,10 @@
         <v>30.75</v>
       </c>
       <c r="O148" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P148" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q148" s="9" t="s">
         <v>475</v>
@@ -19788,7 +19785,7 @@
         <v>4</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F149" s="14">
         <v>507</v>
@@ -19820,10 +19817,10 @@
         <v>47.35</v>
       </c>
       <c r="O149" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P149" s="45" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q149" s="9" t="s">
         <v>475</v>
@@ -19850,7 +19847,7 @@
         <v>4</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F150" s="14">
         <v>351</v>
@@ -19882,13 +19879,13 @@
         <v>33.47</v>
       </c>
       <c r="O150" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P150" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q150" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R150" s="9" t="s">
         <v>159</v>
@@ -19912,7 +19909,7 @@
         <v>4</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F151" s="14">
         <v>63</v>
@@ -19944,10 +19941,10 @@
         <v>0</v>
       </c>
       <c r="O151" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P151" s="45" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="Q151" s="9" t="s">
         <v>475</v>
@@ -19974,7 +19971,7 @@
         <v>4</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F152" s="17">
         <v>808</v>
@@ -20006,10 +20003,10 @@
         <v>0</v>
       </c>
       <c r="O152" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P152" s="45" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="Q152" s="9" t="s">
         <v>474</v>
@@ -20036,7 +20033,7 @@
         <v>4</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F153" s="14">
         <v>250</v>
@@ -20059,7 +20056,7 @@
         <v>159</v>
       </c>
       <c r="L153" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M153" s="17">
         <v>2</v>
@@ -20068,10 +20065,10 @@
         <v>0</v>
       </c>
       <c r="O153" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P153" s="45" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="Q153" s="9" t="s">
         <v>474</v>
@@ -20098,7 +20095,7 @@
         <v>4</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F154" s="14">
         <v>182</v>
@@ -20130,10 +20127,10 @@
         <v>34.79</v>
       </c>
       <c r="O154" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P154" s="45" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="Q154" s="9" t="s">
         <v>475</v>
@@ -20160,7 +20157,7 @@
         <v>4</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F155" s="14">
         <v>100</v>
@@ -20192,13 +20189,13 @@
         <v>27.83</v>
       </c>
       <c r="O155" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P155" s="45" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="Q155" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R155" s="9" t="s">
         <v>159</v>
@@ -20222,7 +20219,7 @@
         <v>4</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F156" s="14">
         <v>499</v>
@@ -20254,13 +20251,13 @@
         <v>35.090000000000003</v>
       </c>
       <c r="O156" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P156" s="45" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="Q156" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R156" s="9" t="s">
         <v>158</v>
@@ -20284,7 +20281,7 @@
         <v>4</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F157" s="14">
         <v>362</v>
@@ -20316,13 +20313,13 @@
         <v>49.99</v>
       </c>
       <c r="O157" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P157" s="45" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="Q157" s="9" t="s">
-        <v>481</v>
+        <v>885</v>
       </c>
       <c r="R157" s="9" t="s">
         <v>158</v>
@@ -20346,7 +20343,7 @@
         <v>4</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F158" s="14">
         <v>100</v>
@@ -20378,13 +20375,13 @@
         <v>29.56</v>
       </c>
       <c r="O158" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P158" s="45" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="Q158" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R158" s="9" t="s">
         <v>159</v>
@@ -20408,7 +20405,7 @@
         <v>4</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F159" s="14">
         <v>100</v>
@@ -20440,13 +20437,13 @@
         <v>49.65</v>
       </c>
       <c r="O159" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P159" s="45" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="Q159" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R159" s="9" t="s">
         <v>158</v>
@@ -20470,7 +20467,7 @@
         <v>4</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F160" s="14">
         <v>242</v>
@@ -20502,13 +20499,13 @@
         <v>49.36</v>
       </c>
       <c r="O160" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P160" s="45" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="Q160" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R160" s="9" t="s">
         <v>158</v>
@@ -20532,7 +20529,7 @@
         <v>4</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F161" s="14">
         <v>948</v>
@@ -20564,13 +20561,13 @@
         <v>0</v>
       </c>
       <c r="O161" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P161" s="45" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="Q161" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R161" s="9" t="s">
         <v>159</v>
@@ -20594,7 +20591,7 @@
         <v>4</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F162" s="17">
         <v>201</v>
@@ -20626,13 +20623,13 @@
         <v>20.67</v>
       </c>
       <c r="O162" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P162" s="45" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="Q162" s="9" t="s">
-        <v>473</v>
+        <v>884</v>
       </c>
       <c r="R162" s="9" t="s">
         <v>159</v>
@@ -20656,7 +20653,7 @@
         <v>4</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F163" s="17">
         <v>964</v>
@@ -20688,13 +20685,13 @@
         <v>78.03</v>
       </c>
       <c r="O163" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P163" s="45" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="Q163" s="9" t="s">
-        <v>473</v>
+        <v>884</v>
       </c>
       <c r="R163" s="9" t="s">
         <v>159</v>
@@ -20718,7 +20715,7 @@
         <v>4</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F164" s="14">
         <v>69</v>
@@ -20750,10 +20747,10 @@
         <v>0</v>
       </c>
       <c r="O164" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P164" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q164" s="9" t="s">
         <v>474</v>
@@ -20780,7 +20777,7 @@
         <v>4</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F165" s="14">
         <v>71</v>
@@ -20812,10 +20809,10 @@
         <v>0</v>
       </c>
       <c r="O165" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P165" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q165" s="9" t="s">
         <v>474</v>
@@ -20842,7 +20839,7 @@
         <v>4</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F166" s="14">
         <v>165</v>
@@ -20874,10 +20871,10 @@
         <v>0</v>
       </c>
       <c r="O166" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P166" s="45" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="Q166" s="9" t="s">
         <v>474</v>
@@ -20904,7 +20901,7 @@
         <v>4</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F167" s="14">
         <v>64</v>
@@ -20936,10 +20933,10 @@
         <v>16.760000000000002</v>
       </c>
       <c r="O167" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P167" s="45" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="Q167" s="9" t="s">
         <v>477</v>
@@ -20966,7 +20963,7 @@
         <v>4</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F168" s="14">
         <v>60</v>
@@ -20998,13 +20995,13 @@
         <v>0</v>
       </c>
       <c r="O168" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P168" s="45" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="Q168" s="9" t="s">
-        <v>473</v>
+        <v>884</v>
       </c>
       <c r="R168" s="9" t="s">
         <v>159</v>
@@ -21028,7 +21025,7 @@
         <v>4</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F169" s="14">
         <v>44</v>
@@ -21060,13 +21057,13 @@
         <v>0</v>
       </c>
       <c r="O169" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P169" s="45" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="Q169" s="9" t="s">
-        <v>472</v>
+        <v>884</v>
       </c>
       <c r="R169" s="9" t="s">
         <v>159</v>
@@ -21090,7 +21087,7 @@
         <v>4</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F170" s="14">
         <v>70</v>
@@ -21122,10 +21119,10 @@
         <v>0</v>
       </c>
       <c r="O170" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P170" s="45" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="Q170" s="9" t="s">
         <v>474</v>
@@ -21152,7 +21149,7 @@
         <v>4</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F171" s="14">
         <v>58</v>
@@ -21184,10 +21181,10 @@
         <v>0</v>
       </c>
       <c r="O171" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P171" s="45" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="Q171" s="9" t="s">
         <v>474</v>
@@ -21214,7 +21211,7 @@
         <v>4</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F172" s="14">
         <v>35</v>
@@ -21246,13 +21243,13 @@
         <v>20.73</v>
       </c>
       <c r="O172" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P172" s="45" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="Q172" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R172" s="9" t="s">
         <v>158</v>
@@ -21276,7 +21273,7 @@
         <v>4</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F173" s="14">
         <v>390</v>
@@ -21308,13 +21305,13 @@
         <v>37.07</v>
       </c>
       <c r="O173" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P173" s="45" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="Q173" s="9" t="s">
-        <v>473</v>
+        <v>884</v>
       </c>
       <c r="R173" s="9" t="s">
         <v>158</v>
@@ -21338,7 +21335,7 @@
         <v>4</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F174" s="14">
         <v>230</v>
@@ -21370,13 +21367,13 @@
         <v>0</v>
       </c>
       <c r="O174" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P174" s="45" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="Q174" s="9" t="s">
-        <v>473</v>
+        <v>884</v>
       </c>
       <c r="R174" s="9" t="s">
         <v>159</v>
@@ -21400,7 +21397,7 @@
         <v>4</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F175" s="14">
         <v>55</v>
@@ -21432,10 +21429,10 @@
         <v>0</v>
       </c>
       <c r="O175" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P175" s="45" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="Q175" s="9" t="s">
         <v>474</v>
@@ -21462,7 +21459,7 @@
         <v>4</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F176" s="14">
         <v>75</v>
@@ -21494,10 +21491,10 @@
         <v>0</v>
       </c>
       <c r="O176" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P176" s="45" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="Q176" s="9" t="s">
         <v>474</v>
@@ -21524,7 +21521,7 @@
         <v>4</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F177" s="14">
         <v>50</v>
@@ -21556,10 +21553,10 @@
         <v>0</v>
       </c>
       <c r="O177" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P177" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q177" s="9" t="s">
         <v>475</v>
@@ -21586,7 +21583,7 @@
         <v>4</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F178" s="14">
         <v>58</v>
@@ -21618,10 +21615,10 @@
         <v>0</v>
       </c>
       <c r="O178" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P178" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q178" s="9" t="s">
         <v>475</v>
@@ -21648,7 +21645,7 @@
         <v>4</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F179" s="14">
         <v>150</v>
@@ -21680,10 +21677,10 @@
         <v>29.89</v>
       </c>
       <c r="O179" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P179" s="45" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="Q179" s="9" t="s">
         <v>475</v>
@@ -21698,7 +21695,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B180" s="14">
         <v>2015</v>
@@ -21710,7 +21707,7 @@
         <v>4</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F180" s="17">
         <v>170</v>
@@ -21742,10 +21739,10 @@
         <v>0</v>
       </c>
       <c r="O180" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P180" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q180" s="9" t="s">
         <v>474</v>
@@ -21760,7 +21757,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B181" s="14">
         <v>2015</v>
@@ -21772,7 +21769,7 @@
         <v>4</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F181" s="14">
         <v>181</v>
@@ -21804,10 +21801,10 @@
         <v>0</v>
       </c>
       <c r="O181" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P181" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q181" s="9" t="s">
         <v>477</v>
@@ -21822,7 +21819,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B182" s="14">
         <v>2014</v>
@@ -21834,13 +21831,13 @@
         <v>4</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F182" s="14">
         <v>232</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H182" s="9">
         <f t="shared" si="12"/>
@@ -21866,13 +21863,13 @@
         <v>0</v>
       </c>
       <c r="O182" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P182" s="45" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="Q182" s="9" t="s">
-        <v>473</v>
+        <v>884</v>
       </c>
       <c r="R182" s="9" t="s">
         <v>159</v>
@@ -21884,7 +21881,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B183" s="14">
         <v>2013</v>
@@ -21896,13 +21893,13 @@
         <v>4</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F183" s="14">
         <v>71</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H183" s="9">
         <f t="shared" si="12"/>
@@ -21928,10 +21925,10 @@
         <v>0</v>
       </c>
       <c r="O183" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P183" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q183" s="9" t="s">
         <v>474</v>
@@ -21946,7 +21943,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B184" s="14">
         <v>2016</v>
@@ -21958,13 +21955,13 @@
         <v>4</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F184" s="14">
         <v>58</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H184" s="9">
         <f t="shared" si="12"/>
@@ -21990,13 +21987,13 @@
         <v>0</v>
       </c>
       <c r="O184" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P184" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q184" s="9" t="s">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="R184" s="9" t="s">
         <v>159</v>
@@ -22008,7 +22005,7 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B185" s="14">
         <v>2019</v>
@@ -22020,13 +22017,13 @@
         <v>4</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F185" s="14">
         <v>102</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H185" s="9">
         <f t="shared" si="12"/>
@@ -22052,13 +22049,13 @@
         <v>21.15</v>
       </c>
       <c r="O185" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P185" s="45" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="Q185" s="9" t="s">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="R185" s="9" t="s">
         <v>158</v>
@@ -22070,7 +22067,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B186" s="14">
         <v>2012</v>
@@ -22082,13 +22079,13 @@
         <v>4</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F186" s="14">
         <v>416</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H186" s="9">
         <f t="shared" si="12"/>
@@ -22114,13 +22111,13 @@
         <v>54.27</v>
       </c>
       <c r="O186" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P186" s="45" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="Q186" s="9" t="s">
-        <v>480</v>
+        <v>887</v>
       </c>
       <c r="R186" s="9" t="s">
         <v>158</v>
@@ -22132,7 +22129,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B187" s="14">
         <v>2015</v>
@@ -22144,13 +22141,13 @@
         <v>4</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F187" s="14">
         <v>407</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H187" s="9">
         <f t="shared" si="12"/>
@@ -22176,13 +22173,13 @@
         <v>45.69</v>
       </c>
       <c r="O187" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P187" s="45" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="Q187" s="9" t="s">
-        <v>480</v>
+        <v>887</v>
       </c>
       <c r="R187" s="9" t="s">
         <v>158</v>
@@ -22194,7 +22191,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B188" s="14">
         <v>2017</v>
@@ -22206,13 +22203,13 @@
         <v>4</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F188" s="14">
         <v>161</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H188" s="9">
         <f t="shared" si="12"/>
@@ -22229,7 +22226,7 @@
         <v>159</v>
       </c>
       <c r="L188" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M188" s="14">
         <v>2</v>
@@ -22238,10 +22235,10 @@
         <v>11.64</v>
       </c>
       <c r="O188" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P188" s="45" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="Q188" s="9" t="s">
         <v>475</v>
@@ -22256,7 +22253,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B189" s="14">
         <v>2016</v>
@@ -22268,13 +22265,13 @@
         <v>4</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F189" s="17">
         <v>340</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H189" s="9">
         <f t="shared" si="12"/>
@@ -22300,13 +22297,13 @@
         <v>59.4</v>
       </c>
       <c r="O189" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P189" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q189" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R189" s="9" t="s">
         <v>159</v>
@@ -22318,7 +22315,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B190" s="14">
         <v>2016</v>
@@ -22330,13 +22327,13 @@
         <v>4</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F190" s="14">
         <v>80</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H190" s="9">
         <f t="shared" si="12"/>
@@ -22362,13 +22359,13 @@
         <v>0</v>
       </c>
       <c r="O190" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P190" s="45" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="Q190" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="R190" s="9" t="s">
         <v>159</v>
@@ -22380,7 +22377,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B191" s="14">
         <v>2017</v>
@@ -22392,13 +22389,13 @@
         <v>4</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F191" s="14">
         <v>44</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H191" s="9">
         <f t="shared" si="12"/>
@@ -22424,10 +22421,10 @@
         <v>0</v>
       </c>
       <c r="O191" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P191" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q191" s="9" t="s">
         <v>474</v>
@@ -22442,7 +22439,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B192" s="14">
         <v>2014</v>
@@ -22454,13 +22451,13 @@
         <v>4</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F192" s="14">
         <v>79</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H192" s="9">
         <f t="shared" si="12"/>
@@ -22486,10 +22483,10 @@
         <v>0</v>
       </c>
       <c r="O192" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P192" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q192" s="9" t="s">
         <v>474</v>
@@ -22504,7 +22501,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B193" s="14">
         <v>2017</v>
@@ -22516,13 +22513,13 @@
         <v>4</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F193" s="14">
         <v>348</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H193" s="9">
         <f t="shared" si="12"/>
@@ -22548,7 +22545,7 @@
         <v>45</v>
       </c>
       <c r="O193" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P193" s="45" t="s">
         <v>60</v>
@@ -22566,7 +22563,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B194" s="14">
         <v>2019</v>
@@ -22578,13 +22575,13 @@
         <v>4</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F194" s="14">
         <v>96</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H194" s="9">
         <f t="shared" si="12"/>
@@ -22601,7 +22598,7 @@
         <v>159</v>
       </c>
       <c r="L194" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M194" s="14">
         <v>3</v>
@@ -22610,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="O194" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P194" s="45" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="Q194" s="9" t="s">
         <v>474</v>
@@ -22628,7 +22625,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B195" s="14">
         <v>2015</v>
@@ -22640,13 +22637,13 @@
         <v>4</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F195" s="14">
         <v>54</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H195" s="9">
         <f t="shared" si="12"/>
@@ -22672,10 +22669,10 @@
         <v>0</v>
       </c>
       <c r="O195" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P195" s="45" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="Q195" s="9" t="s">
         <v>474</v>
@@ -22690,7 +22687,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B196" s="14">
         <v>2008</v>
@@ -22702,13 +22699,13 @@
         <v>4</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F196" s="14">
         <v>794</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H196" s="9">
         <f t="shared" si="12"/>
@@ -22725,7 +22722,7 @@
         <v>159</v>
       </c>
       <c r="L196" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M196" s="14">
         <v>3</v>
@@ -22734,10 +22731,10 @@
         <v>55</v>
       </c>
       <c r="O196" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P196" s="45" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="Q196" s="9" t="s">
         <v>474</v>
@@ -22752,7 +22749,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B197" s="14">
         <v>2018</v>
@@ -22764,13 +22761,13 @@
         <v>4</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F197" s="14">
         <v>1259</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H197" s="9">
         <f t="shared" si="12"/>
@@ -22796,10 +22793,10 @@
         <v>39.75</v>
       </c>
       <c r="O197" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P197" s="45" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="Q197" s="9" t="s">
         <v>475</v>
@@ -22814,7 +22811,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B198" s="8">
         <v>2018</v>
@@ -22826,13 +22823,13 @@
         <v>4</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F198" s="14">
         <v>736</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H198" s="9">
         <f t="shared" si="12"/>
@@ -22858,13 +22855,13 @@
         <v>44.99</v>
       </c>
       <c r="O198" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P198" s="45" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="Q198" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R198" s="9" t="s">
         <v>158</v>
@@ -22876,7 +22873,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B199" s="14">
         <v>2019</v>
@@ -22888,13 +22885,13 @@
         <v>4</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F199" s="14">
         <v>98</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H199" s="9">
         <f t="shared" si="12"/>
@@ -22920,13 +22917,13 @@
         <v>21.3</v>
       </c>
       <c r="O199" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P199" s="45" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="Q199" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R199" s="9" t="s">
         <v>159</v>
@@ -22938,7 +22935,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B200" s="14">
         <v>2019</v>
@@ -22950,13 +22947,13 @@
         <v>4</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F200" s="14">
         <v>709</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H200" s="9">
         <f t="shared" si="12"/>
@@ -22982,13 +22979,13 @@
         <v>39.99</v>
       </c>
       <c r="O200" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P200" s="45" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="Q200" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R200" s="9" t="s">
         <v>158</v>
@@ -23000,7 +22997,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B201" s="14">
         <v>2016</v>
@@ -23012,13 +23009,13 @@
         <v>4</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F201" s="14">
         <v>44</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H201" s="9">
         <f t="shared" si="12"/>
@@ -23044,10 +23041,10 @@
         <v>0</v>
       </c>
       <c r="O201" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P201" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q201" s="9" t="s">
         <v>474</v>
@@ -23062,7 +23059,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B202" s="14">
         <v>2020</v>
@@ -23074,13 +23071,13 @@
         <v>4</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F202" s="14">
         <v>294</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H202" s="9">
         <f t="shared" si="12"/>
@@ -23106,13 +23103,13 @@
         <v>26.16</v>
       </c>
       <c r="O202" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P202" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q202" s="9" t="s">
-        <v>478</v>
+        <v>885</v>
       </c>
       <c r="R202" s="9" t="s">
         <v>159</v>
@@ -23124,7 +23121,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B203" s="14">
         <v>2012</v>
@@ -23136,13 +23133,13 @@
         <v>4</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F203" s="14">
         <v>28</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H203" s="9">
         <f t="shared" si="12"/>
@@ -23168,13 +23165,13 @@
         <v>0</v>
       </c>
       <c r="O203" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P203" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q203" s="9" t="s">
-        <v>478</v>
+        <v>885</v>
       </c>
       <c r="R203" s="9" t="s">
         <v>159</v>
@@ -23186,7 +23183,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B204" s="14">
         <v>2017</v>
@@ -23198,13 +23195,13 @@
         <v>4</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F204" s="14">
         <v>49</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H204" s="9">
         <f t="shared" si="12"/>
@@ -23230,10 +23227,10 @@
         <v>0</v>
       </c>
       <c r="O204" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P204" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q204" s="9" t="s">
         <v>474</v>
@@ -23248,7 +23245,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B205" s="14">
         <v>2019</v>
@@ -23260,13 +23257,13 @@
         <v>4</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F205" s="14">
         <v>164</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H205" s="9">
         <f t="shared" si="12"/>
@@ -23283,7 +23280,7 @@
         <v>159</v>
       </c>
       <c r="L205" s="9" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M205" s="14">
         <v>2</v>
@@ -23292,13 +23289,13 @@
         <v>15</v>
       </c>
       <c r="O205" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P205" s="45" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="Q205" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R205" s="9" t="s">
         <v>159</v>
@@ -23310,7 +23307,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B206" s="14">
         <v>2017</v>
@@ -23322,13 +23319,13 @@
         <v>4</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F206" s="14">
         <v>104</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H206" s="9">
         <f t="shared" si="12"/>
@@ -23354,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="O206" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P206" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q206" s="9" t="s">
         <v>474</v>
@@ -23372,7 +23369,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B207" s="14">
         <v>1996</v>
@@ -23384,13 +23381,13 @@
         <v>4</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F207" s="14">
         <v>883</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H207" s="9">
         <f t="shared" si="12"/>
@@ -23407,7 +23404,7 @@
         <v>159</v>
       </c>
       <c r="L207" s="9" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M207" s="14">
         <v>2</v>
@@ -23416,10 +23413,10 @@
         <v>52</v>
       </c>
       <c r="O207" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P207" s="45" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="Q207" s="9" t="s">
         <v>475</v>
@@ -23434,7 +23431,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B208" s="14">
         <v>2014</v>
@@ -23446,13 +23443,13 @@
         <v>4</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F208" s="14">
         <v>79</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H208" s="9">
         <f t="shared" si="12"/>
@@ -23478,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="O208" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P208" s="45" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="Q208" s="9" t="s">
         <v>474</v>
@@ -23496,7 +23493,7 @@
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B209" s="14">
         <v>2018</v>
@@ -23508,13 +23505,13 @@
         <v>4</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F209" s="14">
         <v>71</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H209" s="9">
         <f t="shared" si="12"/>
@@ -23540,13 +23537,13 @@
         <v>0</v>
       </c>
       <c r="O209" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P209" s="45" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="Q209" s="9" t="s">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="R209" s="9" t="s">
         <v>159</v>
@@ -23558,7 +23555,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B210" s="14">
         <v>2017</v>
@@ -23570,13 +23567,13 @@
         <v>4</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F210" s="14">
         <v>160</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H210" s="9">
         <f t="shared" si="12"/>
@@ -23593,7 +23590,7 @@
         <v>159</v>
       </c>
       <c r="L210" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M210" s="14">
         <v>1</v>
@@ -23602,13 +23599,13 @@
         <v>13.59</v>
       </c>
       <c r="O210" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P210" s="45" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="Q210" s="9" t="s">
-        <v>491</v>
+        <v>886</v>
       </c>
       <c r="R210" s="9" t="s">
         <v>159</v>
@@ -23620,7 +23617,7 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B211" s="14">
         <v>2009</v>
@@ -23632,13 +23629,13 @@
         <v>4</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F211" s="14">
         <v>569</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H211" s="9">
         <f t="shared" si="12"/>
@@ -23664,13 +23661,13 @@
         <v>27.1</v>
       </c>
       <c r="O211" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P211" s="45" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="Q211" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R211" s="9" t="s">
         <v>159</v>
@@ -23682,7 +23679,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B212" s="14">
         <v>2019</v>
@@ -23694,13 +23691,13 @@
         <v>4</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F212" s="14">
         <v>179</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H212" s="9">
         <f t="shared" si="12"/>
@@ -23717,7 +23714,7 @@
         <v>159</v>
       </c>
       <c r="L212" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M212" s="14">
         <v>2</v>
@@ -23726,13 +23723,13 @@
         <v>23.21</v>
       </c>
       <c r="O212" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P212" s="45" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="Q212" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R212" s="9" t="s">
         <v>159</v>
@@ -23744,7 +23741,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B213" s="14">
         <v>2003</v>
@@ -23756,13 +23753,13 @@
         <v>4</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F213" s="14">
         <v>799</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H213" s="9">
         <f t="shared" si="12"/>
@@ -23788,10 +23785,10 @@
         <v>47</v>
       </c>
       <c r="O213" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P213" s="45" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="Q213" s="9" t="s">
         <v>474</v>
@@ -23806,7 +23803,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B214" s="14">
         <v>2007</v>
@@ -23818,13 +23815,13 @@
         <v>4</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F214" s="14">
         <v>86</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H214" s="9">
         <f t="shared" si="12"/>
@@ -23841,7 +23838,7 @@
         <v>159</v>
       </c>
       <c r="L214" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M214" s="14">
         <v>2</v>
@@ -23850,13 +23847,13 @@
         <v>12.67</v>
       </c>
       <c r="O214" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P214" s="45" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="Q214" s="9" t="s">
-        <v>491</v>
+        <v>886</v>
       </c>
       <c r="R214" s="9" t="s">
         <v>159</v>
@@ -23868,7 +23865,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B215" s="14">
         <v>2015</v>
@@ -23880,13 +23877,13 @@
         <v>4</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F215" s="14">
         <v>154</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H215" s="9">
         <f t="shared" si="12"/>
@@ -23912,10 +23909,10 @@
         <v>32.86</v>
       </c>
       <c r="O215" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P215" s="45" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="Q215" s="9" t="s">
         <v>475</v>
@@ -23930,7 +23927,7 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B216" s="14">
         <v>2015</v>
@@ -23942,13 +23939,13 @@
         <v>4</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F216" s="14">
         <v>223</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H216" s="9">
         <f t="shared" si="12"/>
@@ -23974,10 +23971,10 @@
         <v>59</v>
       </c>
       <c r="O216" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P216" s="45" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="Q216" s="9" t="s">
         <v>475</v>
@@ -23992,7 +23989,7 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B217" s="14">
         <v>2012</v>
@@ -24004,13 +24001,13 @@
         <v>4</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F217" s="14">
         <v>270</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H217" s="9">
         <f t="shared" si="12"/>
@@ -24027,7 +24024,7 @@
         <v>159</v>
       </c>
       <c r="L217" s="9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M217" s="14">
         <v>2</v>
@@ -24036,13 +24033,13 @@
         <v>14.99</v>
       </c>
       <c r="O217" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P217" s="45" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="Q217" s="9" t="s">
-        <v>491</v>
+        <v>886</v>
       </c>
       <c r="R217" s="9" t="s">
         <v>159</v>
@@ -24054,7 +24051,7 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B218" s="14">
         <v>2014</v>
@@ -24066,13 +24063,13 @@
         <v>4</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F218" s="17">
         <v>184</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H218" s="9">
         <f t="shared" si="12"/>
@@ -24098,13 +24095,13 @@
         <v>30.9</v>
       </c>
       <c r="O218" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P218" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q218" s="9" t="s">
-        <v>491</v>
+        <v>886</v>
       </c>
       <c r="R218" s="9" t="s">
         <v>159</v>
@@ -24116,7 +24113,7 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B219" s="14">
         <v>2017</v>
@@ -24128,13 +24125,13 @@
         <v>4</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F219" s="17">
         <v>284</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H219" s="9">
         <f t="shared" si="12"/>
@@ -24160,10 +24157,10 @@
         <v>39.99</v>
       </c>
       <c r="O219" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P219" s="45" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q219" s="9" t="s">
         <v>474</v>
@@ -24178,7 +24175,7 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B220" s="14">
         <v>2018</v>
@@ -24190,13 +24187,13 @@
         <v>4</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F220" s="17">
         <v>435</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H220" s="9">
         <f t="shared" si="12"/>
@@ -24222,10 +24219,10 @@
         <v>38</v>
       </c>
       <c r="O220" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P220" s="45" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q220" s="9" t="s">
         <v>474</v>
@@ -24240,7 +24237,7 @@
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B221" s="14">
         <v>2016</v>
@@ -24252,13 +24249,13 @@
         <v>4</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F221" s="17">
         <v>18</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H221" s="9">
         <f t="shared" si="12"/>
@@ -24284,13 +24281,13 @@
         <v>0</v>
       </c>
       <c r="O221" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P221" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q221" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R221" s="9" t="s">
         <v>159</v>
@@ -24302,7 +24299,7 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B222" s="14">
         <v>2019</v>
@@ -24314,13 +24311,13 @@
         <v>4</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F222" s="17">
         <v>38</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H222" s="9">
         <f t="shared" si="12"/>
@@ -24346,10 +24343,10 @@
         <v>0</v>
       </c>
       <c r="O222" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P222" s="45" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="Q222" s="9" t="s">
         <v>474</v>
@@ -24364,7 +24361,7 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B223" s="14">
         <v>2018</v>
@@ -24376,13 +24373,13 @@
         <v>4</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F223" s="17">
         <v>45</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H223" s="9">
         <f t="shared" si="12"/>
@@ -24408,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="O223" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P223" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q223" s="9" t="s">
-        <v>625</v>
+        <v>883</v>
       </c>
       <c r="R223" s="9" t="s">
         <v>159</v>
@@ -24426,7 +24423,7 @@
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B224" s="14">
         <v>2020</v>
@@ -24438,13 +24435,13 @@
         <v>4</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F224" s="17">
         <v>68</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H224" s="9">
         <f t="shared" ref="H224:H225" si="18">YEAR(G224)</f>
@@ -24470,13 +24467,13 @@
         <v>0</v>
       </c>
       <c r="O224" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P224" s="45" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="Q224" s="9" t="s">
-        <v>625</v>
+        <v>883</v>
       </c>
       <c r="R224" s="9" t="s">
         <v>159</v>
@@ -24488,7 +24485,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B225" s="14">
         <v>2019</v>
@@ -24500,13 +24497,13 @@
         <v>4</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F225" s="17">
         <v>44</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H225" s="9">
         <f t="shared" si="18"/>
@@ -24532,10 +24529,10 @@
         <v>0</v>
       </c>
       <c r="O225" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P225" s="45" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="Q225" s="9" t="s">
         <v>474</v>
@@ -24550,7 +24547,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B226" s="14">
         <v>2019</v>
@@ -24562,13 +24559,13 @@
         <v>4</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F226" s="17">
         <v>60</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H226" s="9">
         <f t="shared" ref="H226" si="20">YEAR(G226)</f>
@@ -24594,7 +24591,7 @@
         <v>0</v>
       </c>
       <c r="O226" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P226" s="47" t="s">
         <v>60</v>
@@ -24612,7 +24609,7 @@
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B227" s="14">
         <v>2018</v>
@@ -24624,13 +24621,13 @@
         <v>4</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F227" s="17">
         <v>411</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H227" s="9">
         <f t="shared" ref="H227" si="22">YEAR(G227)</f>
@@ -24656,13 +24653,13 @@
         <v>34.99</v>
       </c>
       <c r="O227" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P227" s="45" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="Q227" s="9" t="s">
-        <v>633</v>
+        <v>885</v>
       </c>
       <c r="R227" s="9" t="s">
         <v>158</v>
@@ -24674,7 +24671,7 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B228" s="14">
         <v>2015</v>
@@ -24686,13 +24683,13 @@
         <v>4</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F228" s="17">
         <v>426</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H228" s="9">
         <f t="shared" ref="H228" si="24">YEAR(G228)</f>
@@ -24718,13 +24715,13 @@
         <v>44.99</v>
       </c>
       <c r="O228" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P228" s="45" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="Q228" s="9" t="s">
-        <v>633</v>
+        <v>885</v>
       </c>
       <c r="R228" s="9" t="s">
         <v>158</v>
@@ -24736,7 +24733,7 @@
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B229" s="14">
         <v>2019</v>
@@ -24748,13 +24745,13 @@
         <v>4</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F229" s="17">
         <v>57</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="H229" s="9">
         <f t="shared" ref="H229:H230" si="26">YEAR(G229)</f>
@@ -24780,13 +24777,13 @@
         <v>0</v>
       </c>
       <c r="O229" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P229" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q229" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R229" s="9" t="s">
         <v>158</v>
@@ -24798,7 +24795,7 @@
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B230" s="14">
         <v>2019</v>
@@ -24810,13 +24807,13 @@
         <v>4</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F230" s="17">
         <v>47</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="H230" s="9">
         <f t="shared" si="26"/>
@@ -24842,10 +24839,10 @@
         <v>0</v>
       </c>
       <c r="O230" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P230" s="45" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="Q230" s="9" t="s">
         <v>474</v>
@@ -24860,7 +24857,7 @@
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B231" s="14">
         <v>2020</v>
@@ -24872,13 +24869,13 @@
         <v>4</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F231" s="17">
         <v>75</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H231" s="9">
         <f t="shared" ref="H231" si="28">YEAR(G231)</f>
@@ -24904,13 +24901,13 @@
         <v>0</v>
       </c>
       <c r="O231" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P231" s="47" t="s">
         <v>60</v>
       </c>
       <c r="Q231" s="9" t="s">
-        <v>633</v>
+        <v>885</v>
       </c>
       <c r="R231" s="9" t="s">
         <v>159</v>
@@ -24922,7 +24919,7 @@
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B232" s="14">
         <v>2016</v>
@@ -24934,13 +24931,13 @@
         <v>4</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F232" s="17">
         <v>562</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H232" s="9">
         <f t="shared" ref="H232:H247" si="30">YEAR(G232)</f>
@@ -24966,13 +24963,13 @@
         <v>39.950000000000003</v>
       </c>
       <c r="O232" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P232" s="45" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="Q232" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R232" s="9" t="s">
         <v>158</v>
@@ -24984,7 +24981,7 @@
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B233" s="14">
         <v>2020</v>
@@ -24996,13 +24993,13 @@
         <v>4</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F233" s="17">
         <v>50</v>
       </c>
       <c r="G233" s="9" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H233" s="9">
         <f t="shared" si="30"/>
@@ -25028,13 +25025,13 @@
         <v>49.99</v>
       </c>
       <c r="O233" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P233" s="45" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="Q233" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R233" s="9" t="s">
         <v>158</v>
@@ -25058,13 +25055,13 @@
         <v>4</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F234" s="17">
         <v>360</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H234" s="9">
         <f t="shared" si="30"/>
@@ -25090,13 +25087,13 @@
         <v>49.99</v>
       </c>
       <c r="O234" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P234" s="45" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="Q234" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R234" s="9" t="s">
         <v>159</v>
@@ -25108,7 +25105,7 @@
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B235" s="14">
         <v>2020</v>
@@ -25120,13 +25117,13 @@
         <v>24</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F235" s="17">
         <v>139</v>
       </c>
       <c r="G235" s="9" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="H235" s="9">
         <f t="shared" si="30"/>
@@ -25143,7 +25140,7 @@
         <v>159</v>
       </c>
       <c r="L235" s="9" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="M235" s="14">
         <v>2</v>
@@ -25152,10 +25149,10 @@
         <v>5</v>
       </c>
       <c r="O235" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P235" s="45" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="Q235" s="9" t="s">
         <v>475</v>
@@ -25170,7 +25167,7 @@
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B236" s="14">
         <v>2020</v>
@@ -25182,13 +25179,13 @@
         <v>24</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F236" s="17">
         <v>139</v>
       </c>
       <c r="G236" s="9" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="H236" s="9">
         <f t="shared" si="30"/>
@@ -25205,7 +25202,7 @@
         <v>159</v>
       </c>
       <c r="L236" s="9" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="M236" s="14">
         <v>2</v>
@@ -25214,13 +25211,13 @@
         <v>5</v>
       </c>
       <c r="O236" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P236" s="45" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="Q236" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R236" s="9" t="s">
         <v>159</v>
@@ -25232,7 +25229,7 @@
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B237" s="14">
         <v>2021</v>
@@ -25244,13 +25241,13 @@
         <v>4</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F237" s="17">
         <v>91</v>
       </c>
       <c r="G237" s="9" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="H237" s="9">
         <f t="shared" si="30"/>
@@ -25276,13 +25273,13 @@
         <v>47.99</v>
       </c>
       <c r="O237" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P237" s="28" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="Q237" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R237" s="9" t="s">
         <v>159</v>
@@ -25294,7 +25291,7 @@
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B238" s="14">
         <v>2021</v>
@@ -25306,13 +25303,13 @@
         <v>4</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F238" s="17">
         <v>19</v>
       </c>
       <c r="G238" s="9" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="H238" s="9">
         <f t="shared" si="30"/>
@@ -25329,7 +25326,7 @@
         <v>159</v>
       </c>
       <c r="L238" s="9" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="M238" s="14">
         <v>1</v>
@@ -25338,13 +25335,13 @@
         <v>0</v>
       </c>
       <c r="O238" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P238" s="28" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="Q238" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R238" s="9" t="s">
         <v>159</v>
@@ -25356,7 +25353,7 @@
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B239" s="14">
         <v>2014</v>
@@ -25368,13 +25365,13 @@
         <v>4</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F239" s="17">
         <v>59</v>
       </c>
       <c r="G239" s="9" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="H239" s="9">
         <f t="shared" si="30"/>
@@ -25400,7 +25397,7 @@
         <v>29.99</v>
       </c>
       <c r="O239" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P239" s="28" t="s">
         <v>60</v>
@@ -25418,7 +25415,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B240" s="14">
         <v>2023</v>
@@ -25430,13 +25427,13 @@
         <v>4</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F240" s="17">
         <v>25</v>
       </c>
       <c r="G240" s="9" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="H240" s="9">
         <f t="shared" si="30"/>
@@ -25453,7 +25450,7 @@
         <v>159</v>
       </c>
       <c r="L240" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M240" s="17">
         <v>3</v>
@@ -25462,13 +25459,13 @@
         <v>0</v>
       </c>
       <c r="O240" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P240" s="28" t="s">
         <v>58</v>
       </c>
       <c r="Q240" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R240" s="9" t="s">
         <v>159</v>
@@ -25480,7 +25477,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B241" s="14">
         <v>2021</v>
@@ -25492,13 +25489,13 @@
         <v>4</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F241" s="17">
         <v>151</v>
       </c>
       <c r="G241" s="9" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="H241" s="9">
         <f t="shared" si="30"/>
@@ -25515,7 +25512,7 @@
         <v>159</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="M241" s="17">
         <v>3</v>
@@ -25524,13 +25521,13 @@
         <v>26.35</v>
       </c>
       <c r="O241" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P241" s="28" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q241" s="9" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="R241" s="9" t="s">
         <v>159</v>
@@ -25542,7 +25539,7 @@
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B242" s="14">
         <v>2020</v>
@@ -25554,13 +25551,13 @@
         <v>4</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F242" s="14">
         <v>75</v>
       </c>
       <c r="G242" s="9" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="H242" s="9">
         <f t="shared" si="30"/>
@@ -25577,7 +25574,7 @@
         <v>159</v>
       </c>
       <c r="L242" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M242" s="14">
         <v>2</v>
@@ -25586,13 +25583,13 @@
         <v>0</v>
       </c>
       <c r="O242" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P242" s="28" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q242" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R242" s="9" t="s">
         <v>159</v>
@@ -25604,7 +25601,7 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B243" s="14">
         <v>2023</v>
@@ -25616,13 +25613,13 @@
         <v>4</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F243" s="14">
         <v>83</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="H243" s="9">
         <f t="shared" si="30"/>
@@ -25639,7 +25636,7 @@
         <v>159</v>
       </c>
       <c r="L243" s="9" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="M243" s="14">
         <v>1</v>
@@ -25648,13 +25645,13 @@
         <v>12.71</v>
       </c>
       <c r="O243" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P243" s="28" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="Q243" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R243" s="9" t="s">
         <v>159</v>
@@ -25666,7 +25663,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B244" s="14">
         <v>2019</v>
@@ -25678,13 +25675,13 @@
         <v>4</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F244" s="14">
         <v>175</v>
       </c>
       <c r="G244" s="9" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="H244" s="9">
         <f t="shared" si="30"/>
@@ -25701,7 +25698,7 @@
         <v>159</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M244" s="14">
         <v>3</v>
@@ -25710,13 +25707,13 @@
         <v>29.9</v>
       </c>
       <c r="O244" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P244" s="28" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="Q244" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R244" s="9" t="s">
         <v>159</v>
@@ -25728,7 +25725,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B245" s="14">
         <v>2015</v>
@@ -25740,13 +25737,13 @@
         <v>4</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F245" s="14">
         <v>766</v>
       </c>
       <c r="G245" s="9" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="H245" s="9">
         <f t="shared" si="30"/>
@@ -25772,13 +25769,13 @@
         <v>49.99</v>
       </c>
       <c r="O245" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P245" s="16" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="Q245" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R245" s="9" t="s">
         <v>159</v>
@@ -25790,7 +25787,7 @@
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B246" s="14">
         <v>2023</v>
@@ -25802,13 +25799,13 @@
         <v>4</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F246" s="14">
         <v>42</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="H246" s="9">
         <f t="shared" si="30"/>
@@ -25825,7 +25822,7 @@
         <v>159</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="M246" s="14">
         <v>1</v>
@@ -25834,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="O246" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P246" s="28" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="Q246" s="9" t="s">
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="R246" s="9" t="s">
         <v>159</v>
@@ -25852,7 +25849,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B247" s="17">
         <v>2022</v>
@@ -25864,13 +25861,13 @@
         <v>4</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F247" s="14">
         <v>187</v>
       </c>
       <c r="G247" s="9" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="H247" s="9">
         <f t="shared" si="30"/>
@@ -25896,13 +25893,13 @@
         <v>49.99</v>
       </c>
       <c r="O247" s="9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P247" s="13" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="Q247" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R247" s="9" t="s">
         <v>159</v>
@@ -26131,31 +26128,31 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>364</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>8</v>
@@ -26164,10 +26161,10 @@
         <v>476</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -28916,7 +28913,7 @@
         <v>72</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P52" s="9"/>
       <c r="Q52" s="17">
@@ -29240,7 +29237,7 @@
         <v>50</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="P58" s="9"/>
       <c r="Q58" s="17">
@@ -29574,7 +29571,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B65" s="14">
         <v>2017</v>
@@ -29589,7 +29586,7 @@
         <v>56</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G65" s="9">
         <f t="shared" ref="G65" si="9">YEAR(F65)</f>
@@ -29615,7 +29612,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O65" s="9" t="s">
         <v>480</v>
@@ -29628,7 +29625,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>50</v>
@@ -29643,7 +29640,7 @@
         <v>5</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G66" s="9">
         <f t="shared" ref="G66:G92" si="12">YEAR(F66)</f>
@@ -29669,7 +29666,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O66" s="9" t="s">
         <v>474</v>
@@ -29682,7 +29679,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>50</v>
@@ -29697,7 +29694,7 @@
         <v>10</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G67" s="9">
         <f t="shared" si="12"/>
@@ -29736,7 +29733,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>50</v>
@@ -29751,7 +29748,7 @@
         <v>8</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G68" s="9">
         <f t="shared" si="12"/>
@@ -29790,7 +29787,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>50</v>
@@ -29805,7 +29802,7 @@
         <v>6</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G69" s="9">
         <f t="shared" si="12"/>
@@ -29831,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O69" s="9" t="s">
         <v>479</v>
@@ -29844,7 +29841,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>50</v>
@@ -29859,7 +29856,7 @@
         <v>3</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G70" s="9">
         <f t="shared" si="12"/>
@@ -29898,7 +29895,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>50</v>
@@ -29913,7 +29910,7 @@
         <v>10</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G71" s="9">
         <f t="shared" si="12"/>
@@ -29952,7 +29949,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>50</v>
@@ -29967,7 +29964,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G72" s="9">
         <f t="shared" si="12"/>
@@ -29993,7 +29990,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="O72" s="9" t="s">
         <v>474</v>
@@ -30006,7 +30003,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>50</v>
@@ -30021,7 +30018,7 @@
         <v>6</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G73" s="9">
         <f t="shared" si="12"/>
@@ -30047,7 +30044,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="13" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="O73" s="9" t="s">
         <v>474</v>
@@ -30060,7 +30057,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>50</v>
@@ -30075,7 +30072,7 @@
         <v>24</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G74" s="9">
         <f t="shared" si="12"/>
@@ -30114,7 +30111,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>50</v>
@@ -30129,7 +30126,7 @@
         <v>15</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G75" s="9">
         <f t="shared" si="12"/>
@@ -30155,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="O75" s="9" t="s">
         <v>474</v>
@@ -30168,7 +30165,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>50</v>
@@ -30183,7 +30180,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G76" s="9">
         <f t="shared" si="12"/>
@@ -30222,7 +30219,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>50</v>
@@ -30237,7 +30234,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G77" s="9">
         <f t="shared" si="12"/>
@@ -30263,7 +30260,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="13" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="O77" s="9" t="s">
         <v>479</v>
@@ -30276,7 +30273,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>50</v>
@@ -30291,7 +30288,7 @@
         <v>15</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G78" s="9">
         <f t="shared" si="12"/>
@@ -30317,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="13" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="O78" s="9" t="s">
         <v>474</v>
@@ -30330,7 +30327,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>50</v>
@@ -30345,7 +30342,7 @@
         <v>35</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G79" s="9">
         <f t="shared" si="12"/>
@@ -30384,7 +30381,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>50</v>
@@ -30399,7 +30396,7 @@
         <v>17</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="12"/>
@@ -30438,7 +30435,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>50</v>
@@ -30453,7 +30450,7 @@
         <v>12</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G81" s="9">
         <f t="shared" si="12"/>
@@ -30492,7 +30489,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>50</v>
@@ -30507,7 +30504,7 @@
         <v>9</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G82" s="9">
         <f t="shared" si="12"/>
@@ -30533,7 +30530,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O82" s="9" t="s">
         <v>479</v>
@@ -30546,7 +30543,7 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>50</v>
@@ -30561,7 +30558,7 @@
         <v>5</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G83" s="9">
         <f t="shared" si="12"/>
@@ -30600,7 +30597,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>50</v>
@@ -30615,7 +30612,7 @@
         <v>14</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G84" s="9">
         <f t="shared" si="12"/>
@@ -30654,7 +30651,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>50</v>
@@ -30669,7 +30666,7 @@
         <v>48</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G85" s="9">
         <f t="shared" si="12"/>
@@ -30695,7 +30692,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="13" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="O85" s="9" t="s">
         <v>477</v>
@@ -30708,7 +30705,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>50</v>
@@ -30723,7 +30720,7 @@
         <v>11</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G86" s="9">
         <f t="shared" si="12"/>
@@ -30762,7 +30759,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>50</v>
@@ -30777,7 +30774,7 @@
         <v>12</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G87" s="9">
         <f t="shared" si="12"/>
@@ -30816,7 +30813,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>50</v>
@@ -30831,7 +30828,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G88" s="9">
         <f t="shared" si="12"/>
@@ -30857,7 +30854,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="13" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="O88" s="9" t="s">
         <v>475</v>
@@ -30870,7 +30867,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>50</v>
@@ -30885,7 +30882,7 @@
         <v>12</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G89" s="9">
         <f t="shared" si="12"/>
@@ -30924,7 +30921,7 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>50</v>
@@ -30939,7 +30936,7 @@
         <v>6</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G90" s="9">
         <f t="shared" si="12"/>
@@ -30978,7 +30975,7 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>50</v>
@@ -30993,7 +30990,7 @@
         <v>11</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="12"/>
@@ -31019,7 +31016,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="28" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="O91" s="9" t="s">
         <v>475</v>
@@ -31032,7 +31029,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>50</v>
@@ -31047,7 +31044,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G92" s="9">
         <f t="shared" si="12"/>
@@ -31073,10 +31070,10 @@
         <v>0</v>
       </c>
       <c r="N92" s="28" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="P92" s="9"/>
       <c r="Q92" s="17">
@@ -31086,7 +31083,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>50</v>
@@ -31101,7 +31098,7 @@
         <v>9</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G93" s="9">
         <f t="shared" ref="G93:G104" si="16">YEAR(F93)</f>
@@ -31140,7 +31137,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>50</v>
@@ -31155,7 +31152,7 @@
         <v>7</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="16"/>
@@ -31194,7 +31191,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>50</v>
@@ -31209,7 +31206,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G95" s="9">
         <f t="shared" si="16"/>
@@ -31248,7 +31245,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>50</v>
@@ -31263,7 +31260,7 @@
         <v>6</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="16"/>
@@ -31302,7 +31299,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>50</v>
@@ -31317,7 +31314,7 @@
         <v>8</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G97" s="9">
         <f t="shared" si="16"/>
@@ -31343,7 +31340,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="13" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="O97" s="9" t="s">
         <v>471</v>
@@ -31356,7 +31353,7 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>50</v>
@@ -31371,7 +31368,7 @@
         <v>6</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G98" s="9">
         <f t="shared" si="16"/>
@@ -31410,7 +31407,7 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>50</v>
@@ -31425,7 +31422,7 @@
         <v>9</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G99" s="9">
         <f t="shared" si="16"/>
@@ -31451,7 +31448,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="13" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="O99" s="9" t="s">
         <v>474</v>
@@ -31464,7 +31461,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>50</v>
@@ -31479,7 +31476,7 @@
         <v>16</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G100" s="9">
         <f t="shared" si="16"/>
@@ -31518,7 +31515,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>50</v>
@@ -31533,7 +31530,7 @@
         <v>5</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G101" s="9">
         <f t="shared" si="16"/>
@@ -31572,7 +31569,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>50</v>
@@ -31587,7 +31584,7 @@
         <v>7</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G102" s="9">
         <f t="shared" si="16"/>
@@ -31626,7 +31623,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>50</v>
@@ -31641,7 +31638,7 @@
         <v>9</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="16"/>
@@ -31667,7 +31664,7 @@
         <v>0</v>
       </c>
       <c r="N103" s="28" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="O103" s="9" t="s">
         <v>474</v>
@@ -31680,7 +31677,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>50</v>
@@ -31695,7 +31692,7 @@
         <v>14</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="16"/>
@@ -31724,7 +31721,7 @@
         <v>58</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="P104" s="9"/>
       <c r="Q104" s="17">

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="917">
   <si>
     <t>Format</t>
   </si>
@@ -2708,6 +2708,90 @@
   </si>
   <si>
     <t>Electronics, IoT</t>
+  </si>
+  <si>
+    <t>Pandas in 7 Days</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>BPB Publications</t>
+  </si>
+  <si>
+    <t>Useful. A decent "Getting Started" book about Pandas, but nothing extraordinary. My copy lacks of bold fonts, which makes it a bit hard to read.</t>
+  </si>
+  <si>
+    <t>Effective Pandas: Patterns for Data Manipulation</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>Useful. The book indeed contains information that other books about Pandas don't - for ex. about performances -, but the author advocates for big blocks of chained methods which it's a quite debatable way to write maintanable code.</t>
+  </si>
+  <si>
+    <t>Clean Architecture in Python</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>Useful. Good overview for whom knows nothing about the topic and quite language-agnostic as well. But it advocates too much for the TDD methodology, which makes the book less objective.</t>
+  </si>
+  <si>
+    <t>Machine Learning Yearning (Draft)</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Useful. A lightweight introduction to neural networks and image classification. </t>
+  </si>
+  <si>
+    <t>Open Source Projects: Beyond Code</t>
+  </si>
+  <si>
+    <t>Useful. A good introduction for beginners, but nothing new for advanced users.</t>
+  </si>
+  <si>
+    <t>Useful Python</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>SitePoint</t>
+  </si>
+  <si>
+    <t>Useful. Fifty pages of basic Python knowledge for beginners.</t>
+  </si>
+  <si>
+    <t>Be Data Analytical</t>
+  </si>
+  <si>
+    <t>KoganPage</t>
+  </si>
+  <si>
+    <t>Useful. A decent introduction for beginners, but it could have been shorter without impacting the content, because it's a but repetitive.</t>
+  </si>
+  <si>
+    <t>Creating Software with Modern Diagramming Techniques</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>The Pragmatic Bookshelf</t>
+  </si>
+  <si>
+    <t>Useful. A comprehensive "Getting Started" book for Mermaid beginners, but nothing new for advanced users.</t>
+  </si>
+  <si>
+    <t>Python for Excel</t>
+  </si>
+  <si>
+    <t>Useful. It contains knowledge I didn't find in other books about Python and it's well written.</t>
   </si>
 </sst>
 </file>
@@ -2847,7 +2931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2974,33 +3058,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3319,16 +3385,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54">
+      <c r="A1" s="47">
         <v>2016</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -4845,16 +4911,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54">
+      <c r="A1" s="47">
         <v>2017</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -5801,16 +5867,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54">
+      <c r="A1" s="47">
         <v>2018</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -6757,16 +6823,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54">
+      <c r="A1" s="47">
         <v>2019</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -7713,16 +7779,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54">
+      <c r="A1" s="47">
         <v>2020</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -8669,16 +8735,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54">
+      <c r="A1" s="47">
         <v>2021</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -9625,16 +9691,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54">
+      <c r="A1" s="47">
         <v>2022</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -10569,11 +10635,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:S255"/>
+  <dimension ref="A1:S263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G256" sqref="G256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11698,7 +11764,7 @@
       <c r="O18" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P18" s="47" t="s">
+      <c r="P18" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q18" s="9" t="s">
@@ -11946,7 +12012,7 @@
       <c r="O22" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P22" s="47" t="s">
+      <c r="P22" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q22" s="9" t="s">
@@ -12690,7 +12756,7 @@
       <c r="O34" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P34" s="47" t="s">
+      <c r="P34" s="46" t="s">
         <v>682</v>
       </c>
       <c r="Q34" s="9" t="s">
@@ -13372,7 +13438,7 @@
       <c r="O45" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P45" s="47" t="s">
+      <c r="P45" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q45" s="9" t="s">
@@ -13434,7 +13500,7 @@
       <c r="O46" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P46" s="47" t="s">
+      <c r="P46" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q46" s="9" t="s">
@@ -13558,7 +13624,7 @@
       <c r="O48" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P48" s="47" t="s">
+      <c r="P48" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q48" s="9" t="s">
@@ -13868,7 +13934,7 @@
       <c r="O53" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P53" s="47" t="s">
+      <c r="P53" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q53" s="9" t="s">
@@ -14240,7 +14306,7 @@
       <c r="O59" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P59" s="47" t="s">
+      <c r="P59" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q59" s="9" t="s">
@@ -14364,7 +14430,7 @@
       <c r="O61" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P61" s="47" t="s">
+      <c r="P61" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q61" s="9" t="s">
@@ -14426,7 +14492,7 @@
       <c r="O62" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P62" s="47" t="s">
+      <c r="P62" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q62" s="9" t="s">
@@ -15418,7 +15484,7 @@
       <c r="O78" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P78" s="47" t="s">
+      <c r="P78" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q78" s="9" t="s">
@@ -15790,7 +15856,7 @@
       <c r="O84" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P84" s="47" t="s">
+      <c r="P84" s="46" t="s">
         <v>736</v>
       </c>
       <c r="Q84" s="9" t="s">
@@ -17898,7 +17964,7 @@
       <c r="O118" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P118" s="47" t="s">
+      <c r="P118" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q118" s="9" t="s">
@@ -17960,7 +18026,7 @@
       <c r="O119" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P119" s="47" t="s">
+      <c r="P119" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q119" s="9" t="s">
@@ -18145,7 +18211,7 @@
       <c r="O122" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P122" s="47" t="s">
+      <c r="P122" s="46" t="s">
         <v>767</v>
       </c>
       <c r="Q122" s="9" t="s">
@@ -18207,7 +18273,7 @@
       <c r="O123" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P123" s="47" t="s">
+      <c r="P123" s="46" t="s">
         <v>768</v>
       </c>
       <c r="Q123" s="9" t="s">
@@ -24283,7 +24349,7 @@
       <c r="O221" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P221" s="47" t="s">
+      <c r="P221" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q221" s="9" t="s">
@@ -24593,7 +24659,7 @@
       <c r="O226" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P226" s="47" t="s">
+      <c r="P226" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q226" s="9" t="s">
@@ -24903,7 +24969,7 @@
       <c r="O231" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="P231" s="47" t="s">
+      <c r="P231" s="46" t="s">
         <v>60</v>
       </c>
       <c r="Q231" s="9" t="s">
@@ -24940,11 +25006,11 @@
         <v>659</v>
       </c>
       <c r="H232" s="9">
-        <f t="shared" ref="H232:H247" si="30">YEAR(G232)</f>
+        <f t="shared" ref="H232:H256" si="30">YEAR(G232)</f>
         <v>2021</v>
       </c>
       <c r="I232" s="9">
-        <f t="shared" ref="I232:I247" si="31">MONTH(G232)</f>
+        <f t="shared" ref="I232:I256" si="31">MONTH(G232)</f>
         <v>3</v>
       </c>
       <c r="J232" s="9" t="s">
@@ -24975,7 +25041,7 @@
         <v>158</v>
       </c>
       <c r="S232" s="17">
-        <f t="shared" ref="S232:S247" si="32">LEN(P232)</f>
+        <f t="shared" ref="S232:S256" si="32">LEN(P232)</f>
         <v>54</v>
       </c>
     </row>
@@ -25910,172 +25976,709 @@
       </c>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A248" s="46"/>
-      <c r="B248" s="48"/>
-      <c r="C248" s="48"/>
-      <c r="D248" s="48"/>
-      <c r="E248" s="48"/>
-      <c r="F248" s="49"/>
-      <c r="G248" s="48"/>
-      <c r="H248" s="50"/>
-      <c r="I248" s="50"/>
-      <c r="J248" s="51"/>
-      <c r="K248" s="48"/>
-      <c r="L248" s="51"/>
-      <c r="M248" s="52"/>
-      <c r="N248" s="53"/>
-      <c r="O248" s="53"/>
-      <c r="P248" s="9"/>
-      <c r="Q248" s="9"/>
-      <c r="R248" s="9"/>
-      <c r="S248" s="17"/>
+      <c r="A248" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="B248" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E248" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F248" s="14">
+        <v>280</v>
+      </c>
+      <c r="G248" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="H248" s="17">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I248" s="17">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="J248" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K248" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L248" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="M248" s="8">
+        <v>2</v>
+      </c>
+      <c r="N248" s="43">
+        <v>29.95</v>
+      </c>
+      <c r="O248" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="P248" s="16" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q248" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="R248" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S248" s="17">
+        <f t="shared" si="32"/>
+        <v>144</v>
+      </c>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A249" s="13"/>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="9"/>
-      <c r="F249" s="14"/>
-      <c r="G249" s="9"/>
-      <c r="H249" s="9"/>
-      <c r="I249" s="9"/>
-      <c r="J249" s="9"/>
-      <c r="K249" s="9"/>
-      <c r="L249" s="9"/>
-      <c r="M249" s="14"/>
-      <c r="N249" s="9"/>
-      <c r="O249" s="9"/>
-      <c r="P249" s="9"/>
-      <c r="Q249" s="9"/>
-      <c r="R249" s="9"/>
-      <c r="S249" s="17"/>
+      <c r="A249" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="B249" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F249" s="14">
+        <v>391</v>
+      </c>
+      <c r="G249" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="H249" s="17">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I249" s="17">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="J249" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K249" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L249" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="M249" s="14">
+        <v>3</v>
+      </c>
+      <c r="N249" s="43">
+        <v>39</v>
+      </c>
+      <c r="O249" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="P249" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q249" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="R249" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S249" s="17">
+        <f t="shared" si="32"/>
+        <v>231</v>
+      </c>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A250" s="13"/>
-      <c r="B250" s="9"/>
-      <c r="C250" s="9"/>
-      <c r="D250" s="9"/>
-      <c r="E250" s="9"/>
-      <c r="F250" s="14"/>
-      <c r="G250" s="9"/>
-      <c r="H250" s="9"/>
-      <c r="I250" s="9"/>
-      <c r="J250" s="9"/>
-      <c r="K250" s="9"/>
-      <c r="L250" s="9"/>
-      <c r="M250" s="14"/>
-      <c r="N250" s="9"/>
-      <c r="O250" s="9"/>
-      <c r="P250" s="9"/>
-      <c r="Q250" s="9"/>
-      <c r="R250" s="9"/>
-      <c r="S250" s="17"/>
+      <c r="A250" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="B250" s="17">
+        <v>2020</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E250" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F250" s="14">
+        <v>177</v>
+      </c>
+      <c r="G250" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="H250" s="17">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I250" s="17">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="J250" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K250" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L250" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="M250" s="14">
+        <v>2</v>
+      </c>
+      <c r="N250" s="43">
+        <v>0</v>
+      </c>
+      <c r="O250" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="P250" s="16" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q250" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="R250" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S250" s="17">
+        <f t="shared" si="32"/>
+        <v>185</v>
+      </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A251" s="13"/>
-      <c r="B251" s="9"/>
-      <c r="C251" s="9"/>
-      <c r="D251" s="9"/>
-      <c r="E251" s="9"/>
-      <c r="F251" s="14"/>
-      <c r="G251" s="9"/>
-      <c r="H251" s="9"/>
-      <c r="I251" s="9"/>
-      <c r="J251" s="9"/>
-      <c r="K251" s="9"/>
-      <c r="L251" s="9"/>
-      <c r="M251" s="14"/>
-      <c r="N251" s="9"/>
-      <c r="O251" s="9"/>
-      <c r="P251" s="9"/>
-      <c r="Q251" s="9"/>
-      <c r="R251" s="9"/>
-      <c r="S251" s="17"/>
+      <c r="A251" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="B251" s="17">
+        <v>2018</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F251" s="14">
+        <v>105</v>
+      </c>
+      <c r="G251" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="H251" s="17">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I251" s="17">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="J251" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K251" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L251" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="M251" s="14">
+        <v>2</v>
+      </c>
+      <c r="N251" s="43">
+        <v>0</v>
+      </c>
+      <c r="O251" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="P251" s="49" t="s">
+        <v>901</v>
+      </c>
+      <c r="Q251" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="R251" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S251" s="17">
+        <f t="shared" si="32"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A252" s="13"/>
-      <c r="B252" s="9"/>
-      <c r="C252" s="9"/>
-      <c r="D252" s="9"/>
-      <c r="E252" s="9"/>
-      <c r="F252" s="14"/>
-      <c r="G252" s="9"/>
-      <c r="H252" s="9"/>
-      <c r="I252" s="9"/>
-      <c r="J252" s="9"/>
-      <c r="K252" s="9"/>
-      <c r="L252" s="9"/>
-      <c r="M252" s="14"/>
-      <c r="N252" s="9"/>
-      <c r="O252" s="9"/>
-      <c r="P252" s="9"/>
-      <c r="Q252" s="9"/>
-      <c r="R252" s="9"/>
-      <c r="S252" s="17"/>
+      <c r="A252" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="B252" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F252" s="14">
+        <v>240</v>
+      </c>
+      <c r="G252" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="H252" s="17">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I252" s="17">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="J252" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K252" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L252" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="M252" s="14">
+        <v>3</v>
+      </c>
+      <c r="N252" s="43">
+        <v>39.99</v>
+      </c>
+      <c r="O252" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="P252" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q252" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="R252" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S252" s="17">
+        <f t="shared" si="32"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A253" s="13"/>
-      <c r="B253" s="9"/>
-      <c r="C253" s="9"/>
-      <c r="D253" s="9"/>
-      <c r="E253" s="9"/>
-      <c r="F253" s="14"/>
-      <c r="G253" s="9"/>
-      <c r="H253" s="9"/>
-      <c r="I253" s="9"/>
-      <c r="J253" s="9"/>
-      <c r="K253" s="9"/>
-      <c r="L253" s="9"/>
-      <c r="M253" s="14"/>
-      <c r="N253" s="9"/>
-      <c r="O253" s="9"/>
-      <c r="P253" s="9"/>
-      <c r="Q253" s="9"/>
-      <c r="R253" s="9"/>
-      <c r="S253" s="17"/>
+      <c r="A253" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="B253" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F253" s="14">
+        <v>51</v>
+      </c>
+      <c r="G253" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="H253" s="17">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I253" s="17">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="J253" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K253" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L253" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="M253" s="14">
+        <v>2</v>
+      </c>
+      <c r="N253" s="43">
+        <v>0</v>
+      </c>
+      <c r="O253" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="P253" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q253" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="R253" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S253" s="17">
+        <f t="shared" si="32"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A254" s="13"/>
-      <c r="B254" s="9"/>
-      <c r="C254" s="9"/>
-      <c r="D254" s="9"/>
-      <c r="E254" s="9"/>
-      <c r="F254" s="14"/>
-      <c r="G254" s="9"/>
-      <c r="H254" s="9"/>
-      <c r="I254" s="9"/>
-      <c r="J254" s="9"/>
-      <c r="K254" s="9"/>
-      <c r="L254" s="9"/>
-      <c r="M254" s="14"/>
-      <c r="N254" s="9"/>
-      <c r="O254" s="9"/>
-      <c r="P254" s="9"/>
-      <c r="Q254" s="9"/>
-      <c r="R254" s="9"/>
-      <c r="S254" s="17"/>
+      <c r="A254" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="B254" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F254" s="14">
+        <v>184</v>
+      </c>
+      <c r="G254" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="H254" s="17">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I254" s="17">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="J254" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K254" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L254" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="M254" s="14">
+        <v>2</v>
+      </c>
+      <c r="N254" s="43">
+        <v>29.99</v>
+      </c>
+      <c r="O254" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="P254" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q254" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="R254" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S254" s="17">
+        <f t="shared" si="32"/>
+        <v>137</v>
+      </c>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A255" s="13"/>
-      <c r="B255" s="9"/>
-      <c r="C255" s="9"/>
-      <c r="D255" s="9"/>
-      <c r="E255" s="9"/>
-      <c r="F255" s="14"/>
-      <c r="G255" s="9"/>
-      <c r="H255" s="9"/>
-      <c r="I255" s="9"/>
-      <c r="J255" s="9"/>
-      <c r="K255" s="9"/>
-      <c r="L255" s="9"/>
-      <c r="M255" s="14"/>
-      <c r="N255" s="9"/>
-      <c r="O255" s="9"/>
-      <c r="P255" s="9"/>
-      <c r="Q255" s="9"/>
-      <c r="R255" s="9"/>
-      <c r="S255" s="17"/>
+      <c r="A255" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="B255" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F255" s="14">
+        <v>203</v>
+      </c>
+      <c r="G255" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="H255" s="17">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I255" s="17">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="J255" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K255" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L255" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="M255" s="14">
+        <v>2</v>
+      </c>
+      <c r="N255" s="43">
+        <v>29.49</v>
+      </c>
+      <c r="O255" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="P255" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q255" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="R255" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S255" s="17">
+        <f t="shared" si="32"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A256" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="B256" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F256" s="17">
+        <v>338</v>
+      </c>
+      <c r="G256" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="H256" s="17">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I256" s="17">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="J256" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K256" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L256" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="M256" s="17">
+        <v>3</v>
+      </c>
+      <c r="N256" s="43">
+        <v>36.49</v>
+      </c>
+      <c r="O256" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="P256" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q256" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="R256" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S256" s="17">
+        <f t="shared" si="32"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A257" s="9"/>
+      <c r="B257" s="9"/>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="9"/>
+      <c r="G257" s="9"/>
+      <c r="H257" s="9"/>
+      <c r="I257" s="9"/>
+      <c r="J257" s="9"/>
+      <c r="K257" s="9"/>
+      <c r="L257" s="9"/>
+      <c r="M257" s="9"/>
+      <c r="N257" s="9"/>
+      <c r="O257" s="9"/>
+      <c r="P257" s="9"/>
+      <c r="Q257" s="9"/>
+      <c r="R257" s="9"/>
+      <c r="S257" s="17"/>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A258" s="9"/>
+      <c r="B258" s="9"/>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="9"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="9"/>
+      <c r="K258" s="9"/>
+      <c r="L258" s="9"/>
+      <c r="M258" s="9"/>
+      <c r="N258" s="9"/>
+      <c r="O258" s="9"/>
+      <c r="P258" s="9"/>
+      <c r="Q258" s="9"/>
+      <c r="R258" s="9"/>
+      <c r="S258" s="17"/>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A259" s="9"/>
+      <c r="B259" s="9"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="9"/>
+      <c r="K259" s="9"/>
+      <c r="L259" s="9"/>
+      <c r="M259" s="9"/>
+      <c r="N259" s="9"/>
+      <c r="O259" s="9"/>
+      <c r="P259" s="9"/>
+      <c r="Q259" s="9"/>
+      <c r="R259" s="9"/>
+      <c r="S259" s="17"/>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A260" s="9"/>
+      <c r="B260" s="9"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="9"/>
+      <c r="I260" s="9"/>
+      <c r="J260" s="9"/>
+      <c r="K260" s="9"/>
+      <c r="L260" s="9"/>
+      <c r="M260" s="9"/>
+      <c r="N260" s="9"/>
+      <c r="O260" s="9"/>
+      <c r="P260" s="9"/>
+      <c r="Q260" s="9"/>
+      <c r="R260" s="9"/>
+      <c r="S260" s="17"/>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A261" s="9"/>
+      <c r="B261" s="9"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="9"/>
+      <c r="I261" s="9"/>
+      <c r="J261" s="9"/>
+      <c r="K261" s="9"/>
+      <c r="L261" s="9"/>
+      <c r="M261" s="9"/>
+      <c r="N261" s="9"/>
+      <c r="O261" s="9"/>
+      <c r="P261" s="9"/>
+      <c r="Q261" s="9"/>
+      <c r="R261" s="9"/>
+      <c r="S261" s="17"/>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A262" s="9"/>
+      <c r="B262" s="9"/>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="9"/>
+      <c r="H262" s="9"/>
+      <c r="I262" s="9"/>
+      <c r="J262" s="9"/>
+      <c r="K262" s="9"/>
+      <c r="L262" s="9"/>
+      <c r="M262" s="9"/>
+      <c r="N262" s="9"/>
+      <c r="O262" s="9"/>
+      <c r="P262" s="9"/>
+      <c r="Q262" s="9"/>
+      <c r="R262" s="9"/>
+      <c r="S262" s="17"/>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A263" s="9"/>
+      <c r="B263" s="9"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="9"/>
+      <c r="G263" s="9"/>
+      <c r="H263" s="9"/>
+      <c r="I263" s="9"/>
+      <c r="J263" s="9"/>
+      <c r="K263" s="9"/>
+      <c r="L263" s="9"/>
+      <c r="M263" s="9"/>
+      <c r="N263" s="9"/>
+      <c r="O263" s="9"/>
+      <c r="P263" s="9"/>
+      <c r="Q263" s="9"/>
+      <c r="R263" s="9"/>
+      <c r="S263" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Articles!$A$1:$Q$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Books!$A$1:$S$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Books!$A$1:$S$256</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Others!$A$1:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -2704,9 +2704,6 @@
     <t>Entrepreneurship, Learning</t>
   </si>
   <si>
-    <t>Data Science, ML</t>
-  </si>
-  <si>
     <t>Electronics, IoT</t>
   </si>
   <si>
@@ -2792,6 +2789,9 @@
   </si>
   <si>
     <t>Useful. It contains knowledge I didn't find in other books about Python and it's well written.</t>
+  </si>
+  <si>
+    <t>Data Analysis, Data Science, ML</t>
   </si>
 </sst>
 </file>
@@ -3059,14 +3059,14 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3385,16 +3385,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47">
+      <c r="A1" s="48">
         <v>2016</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -4911,16 +4911,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47">
+      <c r="A1" s="48">
         <v>2017</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -5867,16 +5867,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47">
+      <c r="A1" s="48">
         <v>2018</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -6823,16 +6823,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47">
+      <c r="A1" s="48">
         <v>2019</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -7779,16 +7779,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47">
+      <c r="A1" s="48">
         <v>2020</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -8735,16 +8735,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47">
+      <c r="A1" s="48">
         <v>2021</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -9691,16 +9691,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47">
+      <c r="A1" s="48">
         <v>2022</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -10637,9 +10637,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G256" sqref="G256"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q261" sqref="Q261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11706,7 +11706,7 @@
         <v>696</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>159</v>
@@ -11768,7 +11768,7 @@
         <v>60</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>159</v>
@@ -11954,7 +11954,7 @@
         <v>704</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>159</v>
@@ -12326,7 +12326,7 @@
         <v>707</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>159</v>
@@ -12388,7 +12388,7 @@
         <v>708</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R28" s="9" t="s">
         <v>159</v>
@@ -12450,7 +12450,7 @@
         <v>677</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>159</v>
@@ -13442,7 +13442,7 @@
         <v>60</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="R45" s="9" t="s">
         <v>159</v>
@@ -13504,7 +13504,7 @@
         <v>60</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>159</v>
@@ -13566,7 +13566,7 @@
         <v>684</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>159</v>
@@ -14310,7 +14310,7 @@
         <v>60</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R59" s="9" t="s">
         <v>159</v>
@@ -14620,7 +14620,7 @@
         <v>720</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R64" s="9" t="s">
         <v>159</v>
@@ -16232,7 +16232,7 @@
         <v>742</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R90" s="9" t="s">
         <v>159</v>
@@ -16914,7 +16914,7 @@
         <v>749</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="R101" s="9" t="s">
         <v>159</v>
@@ -17038,7 +17038,7 @@
         <v>751</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R103" s="9" t="s">
         <v>159</v>
@@ -17100,7 +17100,7 @@
         <v>752</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R104" s="9" t="s">
         <v>159</v>
@@ -17224,7 +17224,7 @@
         <v>754</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R106" s="9" t="s">
         <v>159</v>
@@ -17286,7 +17286,7 @@
         <v>755</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R107" s="9" t="s">
         <v>159</v>
@@ -18215,7 +18215,7 @@
         <v>767</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R122" s="9" t="s">
         <v>159</v>
@@ -18525,7 +18525,7 @@
         <v>772</v>
       </c>
       <c r="Q127" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R127" s="9" t="s">
         <v>159</v>
@@ -18587,7 +18587,7 @@
         <v>773</v>
       </c>
       <c r="Q128" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R128" s="9" t="s">
         <v>159</v>
@@ -18835,7 +18835,7 @@
         <v>777</v>
       </c>
       <c r="Q132" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R132" s="9" t="s">
         <v>159</v>
@@ -19269,7 +19269,7 @@
         <v>784</v>
       </c>
       <c r="Q139" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R139" s="9" t="s">
         <v>159</v>
@@ -19331,7 +19331,7 @@
         <v>785</v>
       </c>
       <c r="Q140" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R140" s="9" t="s">
         <v>159</v>
@@ -19703,7 +19703,7 @@
         <v>789</v>
       </c>
       <c r="Q146" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R146" s="9" t="s">
         <v>159</v>
@@ -19765,7 +19765,7 @@
         <v>683</v>
       </c>
       <c r="Q147" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R147" s="9" t="s">
         <v>159</v>
@@ -20323,7 +20323,7 @@
         <v>796</v>
       </c>
       <c r="Q156" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R156" s="9" t="s">
         <v>158</v>
@@ -21315,7 +21315,7 @@
         <v>809</v>
       </c>
       <c r="Q172" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R172" s="9" t="s">
         <v>158</v>
@@ -22183,7 +22183,7 @@
         <v>816</v>
       </c>
       <c r="Q186" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R186" s="9" t="s">
         <v>158</v>
@@ -22245,7 +22245,7 @@
         <v>817</v>
       </c>
       <c r="Q187" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R187" s="9" t="s">
         <v>158</v>
@@ -22369,7 +22369,7 @@
         <v>683</v>
       </c>
       <c r="Q189" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R189" s="9" t="s">
         <v>159</v>
@@ -23733,7 +23733,7 @@
         <v>831</v>
       </c>
       <c r="Q211" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R211" s="9" t="s">
         <v>159</v>
@@ -23795,7 +23795,7 @@
         <v>832</v>
       </c>
       <c r="Q212" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R212" s="9" t="s">
         <v>159</v>
@@ -25159,7 +25159,7 @@
         <v>847</v>
       </c>
       <c r="Q234" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R234" s="9" t="s">
         <v>159</v>
@@ -25283,7 +25283,7 @@
         <v>869</v>
       </c>
       <c r="Q236" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R236" s="9" t="s">
         <v>159</v>
@@ -25407,7 +25407,7 @@
         <v>857</v>
       </c>
       <c r="Q238" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R238" s="9" t="s">
         <v>159</v>
@@ -25531,7 +25531,7 @@
         <v>58</v>
       </c>
       <c r="Q240" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R240" s="9" t="s">
         <v>159</v>
@@ -25903,7 +25903,7 @@
         <v>879</v>
       </c>
       <c r="Q246" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R246" s="9" t="s">
         <v>159</v>
@@ -25977,7 +25977,7 @@
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B248" s="17">
         <v>2023</v>
@@ -25995,7 +25995,7 @@
         <v>280</v>
       </c>
       <c r="G248" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H248" s="17">
         <f t="shared" si="30"/>
@@ -26012,7 +26012,7 @@
         <v>159</v>
       </c>
       <c r="L248" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M248" s="8">
         <v>2</v>
@@ -26024,7 +26024,7 @@
         <v>673</v>
       </c>
       <c r="P248" s="16" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q248" s="9" t="s">
         <v>575</v>
@@ -26039,7 +26039,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B249" s="17">
         <v>2021</v>
@@ -26057,7 +26057,7 @@
         <v>391</v>
       </c>
       <c r="G249" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H249" s="17">
         <f t="shared" si="30"/>
@@ -26086,7 +26086,7 @@
         <v>673</v>
       </c>
       <c r="P249" s="16" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="Q249" s="9" t="s">
         <v>575</v>
@@ -26101,7 +26101,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B250" s="17">
         <v>2020</v>
@@ -26119,7 +26119,7 @@
         <v>177</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H250" s="17">
         <f t="shared" si="30"/>
@@ -26148,7 +26148,7 @@
         <v>673</v>
       </c>
       <c r="P250" s="16" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Q250" s="9" t="s">
         <v>575</v>
@@ -26163,7 +26163,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B251" s="17">
         <v>2018</v>
@@ -26181,7 +26181,7 @@
         <v>105</v>
       </c>
       <c r="G251" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H251" s="17">
         <f t="shared" si="30"/>
@@ -26209,11 +26209,11 @@
       <c r="O251" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="P251" s="49" t="s">
-        <v>901</v>
+      <c r="P251" s="47" t="s">
+        <v>900</v>
       </c>
       <c r="Q251" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R251" s="9" t="s">
         <v>159</v>
@@ -26225,7 +26225,7 @@
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B252" s="17">
         <v>2023</v>
@@ -26243,7 +26243,7 @@
         <v>240</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H252" s="17">
         <f t="shared" si="30"/>
@@ -26272,7 +26272,7 @@
         <v>673</v>
       </c>
       <c r="P252" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Q252" s="9" t="s">
         <v>475</v>
@@ -26287,7 +26287,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B253" s="17">
         <v>2023</v>
@@ -26305,7 +26305,7 @@
         <v>51</v>
       </c>
       <c r="G253" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H253" s="17">
         <f t="shared" si="30"/>
@@ -26322,7 +26322,7 @@
         <v>159</v>
       </c>
       <c r="L253" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M253" s="14">
         <v>2</v>
@@ -26334,7 +26334,7 @@
         <v>673</v>
       </c>
       <c r="P253" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="Q253" s="9" t="s">
         <v>575</v>
@@ -26349,7 +26349,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B254" s="17">
         <v>2023</v>
@@ -26367,7 +26367,7 @@
         <v>184</v>
       </c>
       <c r="G254" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H254" s="17">
         <f t="shared" si="30"/>
@@ -26384,7 +26384,7 @@
         <v>159</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M254" s="14">
         <v>2</v>
@@ -26396,10 +26396,10 @@
         <v>673</v>
       </c>
       <c r="P254" s="16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="Q254" s="9" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="R254" s="9" t="s">
         <v>159</v>
@@ -26411,7 +26411,7 @@
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B255" s="17">
         <v>2023</v>
@@ -26429,7 +26429,7 @@
         <v>203</v>
       </c>
       <c r="G255" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H255" s="17">
         <f t="shared" si="30"/>
@@ -26446,7 +26446,7 @@
         <v>159</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M255" s="14">
         <v>2</v>
@@ -26458,7 +26458,7 @@
         <v>673</v>
       </c>
       <c r="P255" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q255" s="9" t="s">
         <v>475</v>
@@ -26473,7 +26473,7 @@
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B256" s="17">
         <v>2021</v>
@@ -26491,7 +26491,7 @@
         <v>338</v>
       </c>
       <c r="G256" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H256" s="17">
         <f t="shared" si="30"/>
@@ -26520,7 +26520,7 @@
         <v>673</v>
       </c>
       <c r="P256" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="Q256" s="9" t="s">
         <v>575</v>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4278" uniqueCount="909">
   <si>
     <t>Format</t>
   </si>
@@ -2765,6 +2765,9 @@
   </si>
   <si>
     <t>Red Gate Books</t>
+  </si>
+  <si>
+    <t>KBSize</t>
   </si>
 </sst>
 </file>
@@ -10608,11 +10611,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:S263"/>
+  <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10638,7 +10641,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -10696,8 +10699,11 @@
       <c r="S1" s="6" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -10758,8 +10764,11 @@
         <f t="shared" ref="S2:S30" si="2">LEN(P2)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="14">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -10820,8 +10829,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="14">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -10882,8 +10894,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" s="14">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>604</v>
       </c>
@@ -10944,8 +10959,9 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -11006,8 +11022,9 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -11068,8 +11085,9 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -11130,8 +11148,9 @@
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -11192,8 +11211,9 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -11254,8 +11274,9 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
@@ -11316,8 +11337,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -11378,8 +11400,9 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>62</v>
       </c>
@@ -11440,8 +11463,9 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>63</v>
       </c>
@@ -11502,8 +11526,9 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>70</v>
       </c>
@@ -11564,8 +11589,9 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>73</v>
       </c>
@@ -11626,8 +11652,9 @@
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>75</v>
       </c>
@@ -11688,8 +11715,9 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>83</v>
       </c>
@@ -11750,8 +11778,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>84</v>
       </c>
@@ -11812,8 +11841,9 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="14"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>91</v>
       </c>
@@ -11874,8 +11904,9 @@
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>99</v>
       </c>
@@ -11936,8 +11967,9 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="14"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>102</v>
       </c>
@@ -11998,8 +12030,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="14"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>103</v>
       </c>
@@ -12060,8 +12093,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="14"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>105</v>
       </c>
@@ -12122,8 +12156,9 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="14"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>107</v>
       </c>
@@ -12184,8 +12219,9 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="14"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>109</v>
       </c>
@@ -12246,8 +12282,9 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="14"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>111</v>
       </c>
@@ -12308,8 +12345,9 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>117</v>
       </c>
@@ -12370,8 +12408,9 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="14"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>119</v>
       </c>
@@ -12432,8 +12471,9 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="14"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>121</v>
       </c>
@@ -12494,8 +12534,9 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="14"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>123</v>
       </c>
@@ -12556,8 +12597,9 @@
         <f t="shared" ref="S31:S80" si="5">LEN(P31)</f>
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="14"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>125</v>
       </c>
@@ -12618,8 +12660,9 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="14"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>127</v>
       </c>
@@ -12680,8 +12723,9 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="14"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>128</v>
       </c>
@@ -12742,8 +12786,9 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="14"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>130</v>
       </c>
@@ -12804,8 +12849,9 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="14"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>132</v>
       </c>
@@ -12866,8 +12912,9 @@
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36" s="14"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>133</v>
       </c>
@@ -12928,8 +12975,9 @@
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37" s="14"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>135</v>
       </c>
@@ -12990,8 +13038,9 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="14"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>139</v>
       </c>
@@ -13052,8 +13101,9 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="14"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>141</v>
       </c>
@@ -13114,8 +13164,9 @@
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="14"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>142</v>
       </c>
@@ -13176,8 +13227,9 @@
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="14"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>143</v>
       </c>
@@ -13238,8 +13290,9 @@
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="14"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>145</v>
       </c>
@@ -13300,8 +13353,9 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="14"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>146</v>
       </c>
@@ -13362,8 +13416,9 @@
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="14"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>151</v>
       </c>
@@ -13424,8 +13479,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="14"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>153</v>
       </c>
@@ -13486,8 +13542,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="14"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>154</v>
       </c>
@@ -13548,8 +13605,9 @@
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="14"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>155</v>
       </c>
@@ -13610,8 +13668,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="14"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>156</v>
       </c>
@@ -13672,8 +13731,9 @@
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="14"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>160</v>
       </c>
@@ -13734,8 +13794,9 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="14"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>380</v>
       </c>
@@ -13796,8 +13857,9 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="14"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>161</v>
       </c>
@@ -13858,8 +13920,9 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="14"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>163</v>
       </c>
@@ -13920,8 +13983,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="14"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>164</v>
       </c>
@@ -13982,8 +14046,9 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="14"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>166</v>
       </c>
@@ -14044,8 +14109,9 @@
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="14"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>167</v>
       </c>
@@ -14106,8 +14172,9 @@
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="14"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>168</v>
       </c>
@@ -14168,8 +14235,9 @@
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="14"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>382</v>
       </c>
@@ -14230,8 +14298,9 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="14"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>175</v>
       </c>
@@ -14292,8 +14361,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="14"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>183</v>
       </c>
@@ -14354,8 +14424,9 @@
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="14"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>185</v>
       </c>
@@ -14416,8 +14487,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="14"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>187</v>
       </c>
@@ -14478,8 +14550,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="14"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>188</v>
       </c>
@@ -14540,8 +14613,9 @@
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="14"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>190</v>
       </c>
@@ -14602,8 +14676,9 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="14"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>191</v>
       </c>
@@ -14664,8 +14739,9 @@
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="14"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>193</v>
       </c>
@@ -14726,8 +14802,9 @@
         <f t="shared" si="5"/>
         <v>143</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="14"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>195</v>
       </c>
@@ -14788,8 +14865,9 @@
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="14"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>196</v>
       </c>
@@ -14850,8 +14928,9 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="14"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>197</v>
       </c>
@@ -14912,8 +14991,9 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="14"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>199</v>
       </c>
@@ -14974,8 +15054,9 @@
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="14"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>200</v>
       </c>
@@ -15036,8 +15117,9 @@
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="14"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>202</v>
       </c>
@@ -15098,8 +15180,9 @@
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="14"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>204</v>
       </c>
@@ -15160,8 +15243,9 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="14"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>207</v>
       </c>
@@ -15222,8 +15306,9 @@
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="14"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>233</v>
       </c>
@@ -15284,8 +15369,9 @@
         <f t="shared" si="5"/>
         <v>282</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="14"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>232</v>
       </c>
@@ -15346,8 +15432,9 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="14"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>209</v>
       </c>
@@ -15408,8 +15495,9 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="14"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>210</v>
       </c>
@@ -15470,8 +15558,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T78" s="14"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>212</v>
       </c>
@@ -15532,8 +15621,9 @@
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T79" s="14"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>218</v>
       </c>
@@ -15594,8 +15684,9 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="14"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>224</v>
       </c>
@@ -15656,8 +15747,9 @@
         <f t="shared" ref="S81:S127" si="8">LEN(P81)</f>
         <v>133</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="14"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>226</v>
       </c>
@@ -15718,8 +15810,9 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="14"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>227</v>
       </c>
@@ -15780,8 +15873,9 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="14"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>228</v>
       </c>
@@ -15842,8 +15936,9 @@
         <f t="shared" si="8"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="14"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>841</v>
       </c>
@@ -15904,8 +15999,9 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="14"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>231</v>
       </c>
@@ -15966,8 +16062,9 @@
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="14"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>230</v>
       </c>
@@ -16028,8 +16125,9 @@
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="14"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>238</v>
       </c>
@@ -16090,8 +16188,9 @@
         <f t="shared" si="8"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="14"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>239</v>
       </c>
@@ -16152,8 +16251,9 @@
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="14"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>241</v>
       </c>
@@ -16214,8 +16314,9 @@
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="14"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>243</v>
       </c>
@@ -16276,8 +16377,9 @@
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="14"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>245</v>
       </c>
@@ -16338,8 +16440,9 @@
         <f t="shared" si="8"/>
         <v>227</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="14"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>247</v>
       </c>
@@ -16400,8 +16503,9 @@
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="14"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>248</v>
       </c>
@@ -16462,8 +16566,9 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="14"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>250</v>
       </c>
@@ -16524,8 +16629,9 @@
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="14"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>252</v>
       </c>
@@ -16586,8 +16692,9 @@
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="14"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>254</v>
       </c>
@@ -16648,8 +16755,9 @@
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="14"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>256</v>
       </c>
@@ -16710,8 +16818,9 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="14"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>257</v>
       </c>
@@ -16772,8 +16881,9 @@
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="14"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>262</v>
       </c>
@@ -16834,8 +16944,9 @@
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="14"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>264</v>
       </c>
@@ -16896,8 +17007,9 @@
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="14"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>266</v>
       </c>
@@ -16958,8 +17070,9 @@
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T102" s="14"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>268</v>
       </c>
@@ -17020,8 +17133,9 @@
         <f t="shared" si="8"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T103" s="14"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>270</v>
       </c>
@@ -17082,8 +17196,9 @@
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T104" s="14"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>274</v>
       </c>
@@ -17144,8 +17259,9 @@
         <f t="shared" si="8"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T105" s="14"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>272</v>
       </c>
@@ -17206,8 +17322,9 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T106" s="14"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>273</v>
       </c>
@@ -17268,8 +17385,9 @@
         <f t="shared" si="8"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T107" s="14"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>304</v>
       </c>
@@ -17330,8 +17448,9 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T108" s="14"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>305</v>
       </c>
@@ -17392,8 +17511,9 @@
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T109" s="14"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>308</v>
       </c>
@@ -17454,8 +17574,9 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T110" s="14"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>311</v>
       </c>
@@ -17516,8 +17637,9 @@
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T111" s="14"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>313</v>
       </c>
@@ -17578,8 +17700,9 @@
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T112" s="14"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>842</v>
       </c>
@@ -17640,8 +17763,9 @@
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T113" s="14"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>316</v>
       </c>
@@ -17702,8 +17826,9 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T114" s="14"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>317</v>
       </c>
@@ -17764,8 +17889,9 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T115" s="14"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>320</v>
       </c>
@@ -17826,8 +17952,9 @@
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T116" s="14"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>321</v>
       </c>
@@ -17888,8 +18015,9 @@
         <f t="shared" si="8"/>
         <v>146</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T117" s="14"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>204</v>
       </c>
@@ -17950,8 +18078,9 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T118" s="14"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>322</v>
       </c>
@@ -18012,8 +18141,9 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T119" s="14"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>324</v>
       </c>
@@ -18074,8 +18204,9 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T120" s="14"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>423</v>
       </c>
@@ -18135,8 +18266,9 @@
         <f t="shared" si="8"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T121" s="14"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>343</v>
       </c>
@@ -18197,8 +18329,9 @@
         <f t="shared" si="8"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T122" s="14"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>345</v>
       </c>
@@ -18259,8 +18392,9 @@
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T123" s="14"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>843</v>
       </c>
@@ -18321,8 +18455,9 @@
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T124" s="14"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>348</v>
       </c>
@@ -18383,8 +18518,9 @@
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T125" s="14"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>350</v>
       </c>
@@ -18445,8 +18581,9 @@
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T126" s="14"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>351</v>
       </c>
@@ -18507,8 +18644,9 @@
         <f t="shared" si="8"/>
         <v>242</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T127" s="14"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>339</v>
       </c>
@@ -18569,8 +18707,9 @@
         <f t="shared" ref="S128:S190" si="11">LEN(P128)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T128" s="14"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>338</v>
       </c>
@@ -18631,8 +18770,9 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T129" s="14"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>341</v>
       </c>
@@ -18693,8 +18833,9 @@
         <f t="shared" si="11"/>
         <v>266</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T130" s="14"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>395</v>
       </c>
@@ -18755,8 +18896,9 @@
         <f t="shared" si="11"/>
         <v>382</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T131" s="14"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>340</v>
       </c>
@@ -18817,8 +18959,9 @@
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T132" s="14"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>342</v>
       </c>
@@ -18879,8 +19022,9 @@
         <f t="shared" si="11"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T133" s="14"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>358</v>
       </c>
@@ -18941,8 +19085,9 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T134" s="14"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>331</v>
       </c>
@@ -19003,8 +19148,9 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T135" s="14"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>334</v>
       </c>
@@ -19065,8 +19211,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T136" s="14"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>335</v>
       </c>
@@ -19127,8 +19274,9 @@
         <f t="shared" si="11"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T137" s="14"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>336</v>
       </c>
@@ -19189,8 +19337,9 @@
         <f t="shared" si="11"/>
         <v>311</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T138" s="14"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>332</v>
       </c>
@@ -19251,8 +19400,9 @@
         <f t="shared" si="11"/>
         <v>143</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T139" s="14"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>337</v>
       </c>
@@ -19313,8 +19463,9 @@
         <f t="shared" si="11"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T140" s="14"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>333</v>
       </c>
@@ -19375,8 +19526,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T141" s="14"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>399</v>
       </c>
@@ -19437,8 +19589,9 @@
         <f t="shared" si="11"/>
         <v>385</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T142" s="14"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>401</v>
       </c>
@@ -19499,8 +19652,9 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T143" s="14"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>402</v>
       </c>
@@ -19561,8 +19715,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T144" s="14"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>404</v>
       </c>
@@ -19623,8 +19778,9 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T145" s="14"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>406</v>
       </c>
@@ -19685,8 +19841,9 @@
         <f t="shared" si="11"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T146" s="14"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>407</v>
       </c>
@@ -19747,8 +19904,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T147" s="14"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>409</v>
       </c>
@@ -19809,8 +19967,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T148" s="14"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>411</v>
       </c>
@@ -19871,8 +20030,9 @@
         <f t="shared" si="11"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T149" s="14"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>413</v>
       </c>
@@ -19933,8 +20093,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T150" s="14"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>415</v>
       </c>
@@ -19995,8 +20156,9 @@
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T151" s="14"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>416</v>
       </c>
@@ -20057,8 +20219,9 @@
         <f t="shared" si="11"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T152" s="14"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>418</v>
       </c>
@@ -20119,8 +20282,9 @@
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T153" s="14"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>419</v>
       </c>
@@ -20181,8 +20345,9 @@
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T154" s="14"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>421</v>
       </c>
@@ -20243,8 +20408,9 @@
         <f t="shared" si="11"/>
         <v>207</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T155" s="14"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>425</v>
       </c>
@@ -20305,8 +20471,9 @@
         <f t="shared" si="11"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T156" s="14"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>426</v>
       </c>
@@ -20367,8 +20534,9 @@
         <f t="shared" si="11"/>
         <v>221</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T157" s="14"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>427</v>
       </c>
@@ -20429,8 +20597,9 @@
         <f t="shared" si="11"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T158" s="14"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>428</v>
       </c>
@@ -20491,8 +20660,9 @@
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T159" s="14"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>429</v>
       </c>
@@ -20553,8 +20723,9 @@
         <f t="shared" si="11"/>
         <v>195</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T160" s="14"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>430</v>
       </c>
@@ -20615,8 +20786,9 @@
         <f t="shared" si="11"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T161" s="14"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>431</v>
       </c>
@@ -20677,8 +20849,9 @@
         <f t="shared" si="11"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T162" s="14"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>432</v>
       </c>
@@ -20739,8 +20912,9 @@
         <f t="shared" si="11"/>
         <v>201</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T163" s="14"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>433</v>
       </c>
@@ -20801,8 +20975,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T164" s="14"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>434</v>
       </c>
@@ -20863,8 +21038,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T165" s="14"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>435</v>
       </c>
@@ -20925,8 +21101,9 @@
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T166" s="14"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>436</v>
       </c>
@@ -20987,8 +21164,9 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T167" s="14"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>437</v>
       </c>
@@ -21049,8 +21227,9 @@
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T168" s="14"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>438</v>
       </c>
@@ -21111,8 +21290,9 @@
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T169" s="14"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>439</v>
       </c>
@@ -21173,8 +21353,9 @@
         <f t="shared" si="11"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T170" s="14"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>440</v>
       </c>
@@ -21235,8 +21416,9 @@
         <f t="shared" si="11"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T171" s="14"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>441</v>
       </c>
@@ -21297,8 +21479,9 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T172" s="14"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>442</v>
       </c>
@@ -21359,8 +21542,9 @@
         <f t="shared" si="11"/>
         <v>295</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T173" s="14"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>443</v>
       </c>
@@ -21421,8 +21605,9 @@
         <f t="shared" si="11"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T174" s="14"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>444</v>
       </c>
@@ -21483,8 +21668,9 @@
         <f t="shared" si="11"/>
         <v>287</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T175" s="14"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>460</v>
       </c>
@@ -21545,8 +21731,9 @@
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T176" s="14"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>462</v>
       </c>
@@ -21607,8 +21794,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T177" s="14"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>462</v>
       </c>
@@ -21669,8 +21857,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T178" s="14"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>463</v>
       </c>
@@ -21731,8 +21920,9 @@
         <f t="shared" si="11"/>
         <v>208</v>
       </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T179" s="14"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>487</v>
       </c>
@@ -21793,8 +21983,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T180" s="14"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>488</v>
       </c>
@@ -21855,8 +22046,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T181" s="14"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>489</v>
       </c>
@@ -21917,8 +22109,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T182" s="14"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>491</v>
       </c>
@@ -21979,8 +22172,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T183" s="14"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
         <v>492</v>
       </c>
@@ -22041,8 +22235,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T184" s="14"/>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>493</v>
       </c>
@@ -22103,8 +22298,9 @@
         <f t="shared" si="11"/>
         <v>242</v>
       </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T185" s="14"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="16" t="s">
         <v>494</v>
       </c>
@@ -22165,8 +22361,9 @@
         <f t="shared" si="11"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T186" s="14"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="16" t="s">
         <v>496</v>
       </c>
@@ -22227,8 +22424,9 @@
         <f t="shared" si="11"/>
         <v>260</v>
       </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T187" s="14"/>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>497</v>
       </c>
@@ -22289,8 +22487,9 @@
         <f t="shared" si="11"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T188" s="14"/>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>500</v>
       </c>
@@ -22351,8 +22550,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T189" s="14"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>501</v>
       </c>
@@ -22413,8 +22613,9 @@
         <f t="shared" si="11"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T190" s="14"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>506</v>
       </c>
@@ -22475,8 +22676,9 @@
         <f t="shared" ref="S191:S231" si="16">LEN(P191)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T191" s="14"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>507</v>
       </c>
@@ -22537,8 +22739,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T192" s="14"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>510</v>
       </c>
@@ -22599,8 +22802,9 @@
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T193" s="14"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
         <v>512</v>
       </c>
@@ -22661,8 +22865,9 @@
         <f t="shared" si="16"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T194" s="14"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>515</v>
       </c>
@@ -22723,8 +22928,9 @@
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T195" s="14"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>517</v>
       </c>
@@ -22785,8 +22991,9 @@
         <f t="shared" si="16"/>
         <v>155</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T196" s="14"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>520</v>
       </c>
@@ -22847,8 +23054,9 @@
         <f t="shared" si="16"/>
         <v>297</v>
       </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T197" s="14"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
         <v>554</v>
       </c>
@@ -22909,8 +23117,9 @@
         <f t="shared" si="16"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T198" s="14"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
         <v>556</v>
       </c>
@@ -22971,8 +23180,9 @@
         <f t="shared" si="16"/>
         <v>280</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T199" s="14"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
         <v>558</v>
       </c>
@@ -23033,8 +23243,9 @@
         <f t="shared" si="16"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T200" s="14"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>561</v>
       </c>
@@ -23095,8 +23306,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T201" s="14"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
         <v>562</v>
       </c>
@@ -23157,8 +23369,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T202" s="14"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>564</v>
       </c>
@@ -23219,8 +23432,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T203" s="14"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>565</v>
       </c>
@@ -23281,8 +23495,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T204" s="14"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>566</v>
       </c>
@@ -23343,8 +23558,9 @@
         <f t="shared" si="16"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T205" s="14"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>569</v>
       </c>
@@ -23405,8 +23621,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T206" s="14"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>574</v>
       </c>
@@ -23467,8 +23684,9 @@
         <f t="shared" si="16"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T207" s="14"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>507</v>
       </c>
@@ -23529,8 +23747,9 @@
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T208" s="14"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>577</v>
       </c>
@@ -23591,8 +23810,9 @@
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T209" s="14"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>578</v>
       </c>
@@ -23653,8 +23873,9 @@
         <f t="shared" si="16"/>
         <v>352</v>
       </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T210" s="14"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>579</v>
       </c>
@@ -23715,8 +23936,9 @@
         <f t="shared" si="16"/>
         <v>277</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T211" s="14"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>580</v>
       </c>
@@ -23777,8 +23999,9 @@
         <f t="shared" si="16"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T212" s="14"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>581</v>
       </c>
@@ -23839,8 +24062,9 @@
         <f t="shared" si="16"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T213" s="14"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>582</v>
       </c>
@@ -23901,8 +24125,9 @@
         <f t="shared" si="16"/>
         <v>195</v>
       </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T214" s="14"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>583</v>
       </c>
@@ -23963,8 +24188,9 @@
         <f t="shared" si="16"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T215" s="14"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>584</v>
       </c>
@@ -24025,8 +24251,9 @@
         <f t="shared" si="16"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T216" s="14"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
         <v>585</v>
       </c>
@@ -24087,8 +24314,9 @@
         <f t="shared" si="16"/>
         <v>174</v>
       </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T217" s="14"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>586</v>
       </c>
@@ -24149,8 +24377,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T218" s="14"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
         <v>587</v>
       </c>
@@ -24211,8 +24440,9 @@
         <f t="shared" si="16"/>
         <v>564</v>
       </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T219" s="14"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>588</v>
       </c>
@@ -24273,8 +24503,9 @@
         <f t="shared" si="16"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T220" s="14"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>610</v>
       </c>
@@ -24335,8 +24566,9 @@
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T221" s="14"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>612</v>
       </c>
@@ -24397,8 +24629,9 @@
         <f t="shared" si="16"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T222" s="14"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>613</v>
       </c>
@@ -24459,8 +24692,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T223" s="14"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>615</v>
       </c>
@@ -24521,8 +24755,9 @@
         <f t="shared" si="16"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T224" s="14"/>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>616</v>
       </c>
@@ -24583,8 +24818,9 @@
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T225" s="14"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
         <v>618</v>
       </c>
@@ -24645,8 +24881,9 @@
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T226" s="14"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
         <v>619</v>
       </c>
@@ -24707,8 +24944,9 @@
         <f t="shared" si="16"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T227" s="14"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
         <v>621</v>
       </c>
@@ -24769,8 +25007,9 @@
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T228" s="14"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>622</v>
       </c>
@@ -24831,8 +25070,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T229" s="14"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
         <v>624</v>
       </c>
@@ -24893,8 +25133,9 @@
         <f t="shared" si="16"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T230" s="14"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
         <v>625</v>
       </c>
@@ -24955,8 +25196,9 @@
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T231" s="14"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>650</v>
       </c>
@@ -25017,8 +25259,9 @@
         <f t="shared" ref="S232:S256" si="32">LEN(P232)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T232" s="14"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
         <v>652</v>
       </c>
@@ -25079,8 +25322,9 @@
         <f t="shared" si="32"/>
         <v>417</v>
       </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T233" s="14"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>273</v>
       </c>
@@ -25141,8 +25385,9 @@
         <f t="shared" si="32"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T234" s="14"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
         <v>654</v>
       </c>
@@ -25203,8 +25448,9 @@
         <f t="shared" si="32"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T235" s="14"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
         <v>859</v>
       </c>
@@ -25265,8 +25511,9 @@
         <f t="shared" si="32"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T236" s="14"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
         <v>844</v>
       </c>
@@ -25327,8 +25574,9 @@
         <f t="shared" si="32"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T237" s="14"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
         <v>847</v>
       </c>
@@ -25389,8 +25637,9 @@
         <f t="shared" si="32"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T238" s="14"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
         <v>850</v>
       </c>
@@ -25451,8 +25700,9 @@
         <f t="shared" si="32"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T239" s="14"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>851</v>
       </c>
@@ -25513,8 +25763,9 @@
         <f t="shared" si="32"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T240" s="14"/>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>852</v>
       </c>
@@ -25575,8 +25826,9 @@
         <f t="shared" si="32"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T241" s="14"/>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>854</v>
       </c>
@@ -25637,8 +25889,9 @@
         <f t="shared" si="32"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T242" s="14"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>856</v>
       </c>
@@ -25699,8 +25952,9 @@
         <f t="shared" si="32"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T243" s="14"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>863</v>
       </c>
@@ -25761,8 +26015,9 @@
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T244" s="14"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>866</v>
       </c>
@@ -25823,8 +26078,9 @@
         <f t="shared" si="32"/>
         <v>325</v>
       </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T245" s="14"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>868</v>
       </c>
@@ -25885,8 +26141,9 @@
         <f t="shared" si="32"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T246" s="14"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>872</v>
       </c>
@@ -25947,8 +26204,9 @@
         <f t="shared" si="32"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T247" s="14"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
         <v>880</v>
       </c>
@@ -26009,8 +26267,9 @@
         <f t="shared" si="32"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T248" s="14"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>884</v>
       </c>
@@ -26071,8 +26330,9 @@
         <f t="shared" si="32"/>
         <v>231</v>
       </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T249" s="14"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
         <v>887</v>
       </c>
@@ -26133,8 +26393,9 @@
         <f t="shared" si="32"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T250" s="14"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
         <v>890</v>
       </c>
@@ -26195,8 +26456,9 @@
         <f t="shared" si="32"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T251" s="14"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
         <v>893</v>
       </c>
@@ -26257,8 +26519,9 @@
         <f t="shared" si="32"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T252" s="14"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
         <v>895</v>
       </c>
@@ -26319,8 +26582,9 @@
         <f t="shared" si="32"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T253" s="14"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
         <v>899</v>
       </c>
@@ -26381,8 +26645,9 @@
         <f t="shared" si="32"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T254" s="14"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>901</v>
       </c>
@@ -26443,8 +26708,9 @@
         <f t="shared" si="32"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T255" s="14"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
         <v>904</v>
       </c>
@@ -26505,8 +26771,9 @@
         <f t="shared" si="32"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T256" s="14"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -26526,8 +26793,9 @@
       <c r="Q257" s="9"/>
       <c r="R257" s="9"/>
       <c r="S257" s="17"/>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T257" s="14"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -26547,8 +26815,9 @@
       <c r="Q258" s="9"/>
       <c r="R258" s="9"/>
       <c r="S258" s="17"/>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T258" s="14"/>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -26568,8 +26837,9 @@
       <c r="Q259" s="9"/>
       <c r="R259" s="9"/>
       <c r="S259" s="17"/>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T259" s="14"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -26589,8 +26859,9 @@
       <c r="Q260" s="9"/>
       <c r="R260" s="9"/>
       <c r="S260" s="17"/>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T260" s="14"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -26610,8 +26881,9 @@
       <c r="Q261" s="9"/>
       <c r="R261" s="9"/>
       <c r="S261" s="17"/>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T261" s="14"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -26631,8 +26903,9 @@
       <c r="Q262" s="9"/>
       <c r="R262" s="9"/>
       <c r="S262" s="17"/>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T262" s="14"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -26652,6 +26925,7 @@
       <c r="Q263" s="9"/>
       <c r="R263" s="9"/>
       <c r="S263" s="17"/>
+      <c r="T263" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -10613,9 +10613,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="T259" sqref="T259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10959,7 +10959,9 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="T5" s="14"/>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -11022,7 +11024,9 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="T6" s="14"/>
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -11085,7 +11089,9 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="T7" s="14"/>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
@@ -11148,7 +11154,9 @@
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="T8" s="14"/>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -11211,7 +11219,9 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="T9" s="14"/>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -11274,7 +11284,9 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="T10" s="14"/>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
@@ -11337,7 +11349,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T11" s="14"/>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -11400,7 +11414,9 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="T12" s="14"/>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -11463,7 +11479,9 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="T13" s="14"/>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -11526,7 +11544,9 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="T14" s="14"/>
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -11589,7 +11609,9 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T15" s="14"/>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -11652,7 +11674,9 @@
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="T16" s="14"/>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -11715,7 +11739,9 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="T17" s="14"/>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -11778,7 +11804,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="T18" s="14"/>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -11841,7 +11869,9 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="T19" s="14"/>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -11904,7 +11934,9 @@
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="T20" s="14"/>
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
@@ -11967,7 +11999,9 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="T21" s="14"/>
+      <c r="T21" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
@@ -12030,7 +12064,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="T22" s="14"/>
+      <c r="T22" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
@@ -12093,7 +12129,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="T23" s="14"/>
+      <c r="T23" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
@@ -12156,7 +12194,9 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="T24" s="14"/>
+      <c r="T24" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
@@ -12219,7 +12259,9 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="T25" s="14"/>
+      <c r="T25" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
@@ -12282,7 +12324,9 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="T26" s="14"/>
+      <c r="T26" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
@@ -12345,7 +12389,9 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="T27" s="14"/>
+      <c r="T27" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
@@ -12408,7 +12454,9 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="T28" s="14"/>
+      <c r="T28" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
@@ -12471,7 +12519,9 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="T29" s="14"/>
+      <c r="T29" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
@@ -12534,7 +12584,9 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="T30" s="14"/>
+      <c r="T30" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
@@ -12597,7 +12649,9 @@
         <f t="shared" ref="S31:S80" si="5">LEN(P31)</f>
         <v>94</v>
       </c>
-      <c r="T31" s="14"/>
+      <c r="T31" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
@@ -12660,7 +12714,9 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="T32" s="14"/>
+      <c r="T32" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
@@ -12723,7 +12779,9 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="T33" s="14"/>
+      <c r="T33" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
@@ -12786,7 +12844,9 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="T34" s="14"/>
+      <c r="T34" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
@@ -12849,7 +12909,9 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="T35" s="14"/>
+      <c r="T35" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -12912,7 +12974,9 @@
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="T36" s="14"/>
+      <c r="T36" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
@@ -12975,7 +13039,9 @@
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
-      <c r="T37" s="14"/>
+      <c r="T37" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -13038,7 +13104,9 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="T38" s="14"/>
+      <c r="T38" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
@@ -13101,7 +13169,9 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="T39" s="14"/>
+      <c r="T39" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -13164,7 +13234,9 @@
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="T40" s="14"/>
+      <c r="T40" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
@@ -13227,7 +13299,9 @@
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="T41" s="14"/>
+      <c r="T41" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
@@ -13290,7 +13364,9 @@
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="T42" s="14"/>
+      <c r="T42" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
@@ -13353,7 +13429,9 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="T43" s="14"/>
+      <c r="T43" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
@@ -13416,7 +13494,9 @@
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="T44" s="14"/>
+      <c r="T44" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
@@ -13479,7 +13559,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="T45" s="14"/>
+      <c r="T45" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
@@ -13542,7 +13624,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="T46" s="14"/>
+      <c r="T46" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
@@ -13605,7 +13689,9 @@
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="T47" s="14"/>
+      <c r="T47" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
@@ -13668,7 +13754,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="T48" s="14"/>
+      <c r="T48" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
@@ -13731,7 +13819,9 @@
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
-      <c r="T49" s="14"/>
+      <c r="T49" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
@@ -13794,7 +13884,9 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="T50" s="14"/>
+      <c r="T50" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
@@ -13857,7 +13949,9 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="T51" s="14"/>
+      <c r="T51" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
@@ -13920,7 +14014,9 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="T52" s="14"/>
+      <c r="T52" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
@@ -13983,7 +14079,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="T53" s="14"/>
+      <c r="T53" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
@@ -14046,7 +14144,9 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="T54" s="14"/>
+      <c r="T54" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -14109,7 +14209,9 @@
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="T55" s="14"/>
+      <c r="T55" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
@@ -14172,7 +14274,9 @@
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="T56" s="14"/>
+      <c r="T56" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
@@ -14235,7 +14339,9 @@
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="T57" s="14"/>
+      <c r="T57" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -14298,7 +14404,9 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="T58" s="14"/>
+      <c r="T58" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
@@ -14361,7 +14469,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="T59" s="14"/>
+      <c r="T59" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
@@ -14424,7 +14534,9 @@
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="T60" s="14"/>
+      <c r="T60" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -14487,7 +14599,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="T61" s="14"/>
+      <c r="T61" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
@@ -14550,7 +14664,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="T62" s="14"/>
+      <c r="T62" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
@@ -14613,7 +14729,9 @@
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="T63" s="14"/>
+      <c r="T63" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
@@ -14676,7 +14794,9 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="T64" s="14"/>
+      <c r="T64" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
@@ -14739,7 +14859,9 @@
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
-      <c r="T65" s="14"/>
+      <c r="T65" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
@@ -14802,7 +14924,9 @@
         <f t="shared" si="5"/>
         <v>143</v>
       </c>
-      <c r="T66" s="14"/>
+      <c r="T66" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
@@ -14865,7 +14989,9 @@
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="T67" s="14"/>
+      <c r="T67" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
@@ -14928,7 +15054,9 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="T68" s="14"/>
+      <c r="T68" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
@@ -14991,7 +15119,9 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="T69" s="14"/>
+      <c r="T69" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
@@ -15054,7 +15184,9 @@
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="T70" s="14"/>
+      <c r="T70" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
@@ -15117,7 +15249,9 @@
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="T71" s="14"/>
+      <c r="T71" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
@@ -15180,7 +15314,9 @@
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="T72" s="14"/>
+      <c r="T72" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
@@ -15243,7 +15379,9 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="T73" s="14"/>
+      <c r="T73" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -15306,7 +15444,9 @@
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="T74" s="14"/>
+      <c r="T74" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
@@ -15369,7 +15509,9 @@
         <f t="shared" si="5"/>
         <v>282</v>
       </c>
-      <c r="T75" s="14"/>
+      <c r="T75" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
@@ -15432,7 +15574,9 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="T76" s="14"/>
+      <c r="T76" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
@@ -15495,7 +15639,9 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="T77" s="14"/>
+      <c r="T77" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -15558,7 +15704,9 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="T78" s="14"/>
+      <c r="T78" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
@@ -15621,7 +15769,9 @@
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="T79" s="14"/>
+      <c r="T79" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
@@ -15684,7 +15834,9 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="T80" s="14"/>
+      <c r="T80" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
@@ -15747,7 +15899,9 @@
         <f t="shared" ref="S81:S127" si="8">LEN(P81)</f>
         <v>133</v>
       </c>
-      <c r="T81" s="14"/>
+      <c r="T81" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -15810,7 +15964,9 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="T82" s="14"/>
+      <c r="T82" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
@@ -15873,7 +16029,9 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="T83" s="14"/>
+      <c r="T83" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
@@ -15936,7 +16094,9 @@
         <f t="shared" si="8"/>
         <v>154</v>
       </c>
-      <c r="T84" s="14"/>
+      <c r="T84" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
@@ -15999,7 +16159,9 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="T85" s="14"/>
+      <c r="T85" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
@@ -16062,7 +16224,9 @@
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
-      <c r="T86" s="14"/>
+      <c r="T86" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
@@ -16125,7 +16289,9 @@
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="T87" s="14"/>
+      <c r="T87" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
@@ -16188,7 +16354,9 @@
         <f t="shared" si="8"/>
         <v>61</v>
       </c>
-      <c r="T88" s="14"/>
+      <c r="T88" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
@@ -16251,7 +16419,9 @@
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
-      <c r="T89" s="14"/>
+      <c r="T89" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
@@ -16314,7 +16484,9 @@
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
-      <c r="T90" s="14"/>
+      <c r="T90" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
@@ -16377,7 +16549,9 @@
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
-      <c r="T91" s="14"/>
+      <c r="T91" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -16440,7 +16614,9 @@
         <f t="shared" si="8"/>
         <v>227</v>
       </c>
-      <c r="T92" s="14"/>
+      <c r="T92" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
@@ -16503,7 +16679,9 @@
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="T93" s="14"/>
+      <c r="T93" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
@@ -16566,7 +16744,9 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="T94" s="14"/>
+      <c r="T94" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
@@ -16629,7 +16809,9 @@
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
-      <c r="T95" s="14"/>
+      <c r="T95" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
@@ -16692,7 +16874,9 @@
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="T96" s="14"/>
+      <c r="T96" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -16755,7 +16939,9 @@
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="T97" s="14"/>
+      <c r="T97" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
@@ -16818,7 +17004,9 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="T98" s="14"/>
+      <c r="T98" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
@@ -16881,7 +17069,9 @@
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="T99" s="14"/>
+      <c r="T99" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
@@ -16944,7 +17134,9 @@
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="T100" s="14"/>
+      <c r="T100" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
@@ -17007,7 +17199,9 @@
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="T101" s="14"/>
+      <c r="T101" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -17070,7 +17264,9 @@
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
-      <c r="T102" s="14"/>
+      <c r="T102" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
@@ -17133,7 +17329,9 @@
         <f t="shared" si="8"/>
         <v>205</v>
       </c>
-      <c r="T103" s="14"/>
+      <c r="T103" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
@@ -17196,7 +17394,9 @@
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="T104" s="14"/>
+      <c r="T104" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
@@ -17259,7 +17459,9 @@
         <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="T105" s="14"/>
+      <c r="T105" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
@@ -17322,7 +17524,9 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="T106" s="14"/>
+      <c r="T106" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
@@ -17385,7 +17589,9 @@
         <f t="shared" si="8"/>
         <v>175</v>
       </c>
-      <c r="T107" s="14"/>
+      <c r="T107" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
@@ -17448,7 +17654,9 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="T108" s="14"/>
+      <c r="T108" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
@@ -17511,7 +17719,9 @@
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="T109" s="14"/>
+      <c r="T109" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
@@ -17574,7 +17784,9 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="T110" s="14"/>
+      <c r="T110" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -17637,7 +17849,9 @@
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="T111" s="14"/>
+      <c r="T111" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
@@ -17700,7 +17914,9 @@
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
-      <c r="T112" s="14"/>
+      <c r="T112" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
@@ -17763,7 +17979,9 @@
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="T113" s="14"/>
+      <c r="T113" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
@@ -17826,7 +18044,9 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="T114" s="14"/>
+      <c r="T114" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
@@ -17889,7 +18109,9 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="T115" s="14"/>
+      <c r="T115" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
@@ -17952,7 +18174,9 @@
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="T116" s="14"/>
+      <c r="T116" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -18015,7 +18239,9 @@
         <f t="shared" si="8"/>
         <v>146</v>
       </c>
-      <c r="T117" s="14"/>
+      <c r="T117" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
@@ -18078,7 +18304,9 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="T118" s="14"/>
+      <c r="T118" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
@@ -18141,7 +18369,9 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="T119" s="14"/>
+      <c r="T119" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
@@ -18204,7 +18434,9 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="T120" s="14"/>
+      <c r="T120" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
@@ -18266,7 +18498,9 @@
         <f t="shared" si="8"/>
         <v>163</v>
       </c>
-      <c r="T121" s="14"/>
+      <c r="T121" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
@@ -18329,7 +18563,9 @@
         <f t="shared" si="8"/>
         <v>163</v>
       </c>
-      <c r="T122" s="14"/>
+      <c r="T122" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -18392,7 +18628,9 @@
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
-      <c r="T123" s="14"/>
+      <c r="T123" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
@@ -18455,7 +18693,9 @@
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="T124" s="14"/>
+      <c r="T124" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
@@ -18518,7 +18758,9 @@
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="T125" s="14"/>
+      <c r="T125" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
@@ -18581,7 +18823,9 @@
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="T126" s="14"/>
+      <c r="T126" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
@@ -18644,7 +18888,9 @@
         <f t="shared" si="8"/>
         <v>242</v>
       </c>
-      <c r="T127" s="14"/>
+      <c r="T127" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
@@ -18707,7 +18953,9 @@
         <f t="shared" ref="S128:S190" si="11">LEN(P128)</f>
         <v>159</v>
       </c>
-      <c r="T128" s="14"/>
+      <c r="T128" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
@@ -18770,7 +19018,9 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="T129" s="14"/>
+      <c r="T129" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -18833,7 +19083,9 @@
         <f t="shared" si="11"/>
         <v>266</v>
       </c>
-      <c r="T130" s="14"/>
+      <c r="T130" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
@@ -18896,7 +19148,9 @@
         <f t="shared" si="11"/>
         <v>382</v>
       </c>
-      <c r="T131" s="14"/>
+      <c r="T131" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
@@ -18959,7 +19213,9 @@
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
-      <c r="T132" s="14"/>
+      <c r="T132" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
@@ -19022,7 +19278,9 @@
         <f t="shared" si="11"/>
         <v>338</v>
       </c>
-      <c r="T133" s="14"/>
+      <c r="T133" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
@@ -19085,7 +19343,9 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="T134" s="14"/>
+      <c r="T134" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
@@ -19148,7 +19408,9 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="T135" s="14"/>
+      <c r="T135" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
@@ -19211,7 +19473,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T136" s="14"/>
+      <c r="T136" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -19274,7 +19538,9 @@
         <f t="shared" si="11"/>
         <v>62</v>
       </c>
-      <c r="T137" s="14"/>
+      <c r="T137" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
@@ -19337,7 +19603,9 @@
         <f t="shared" si="11"/>
         <v>311</v>
       </c>
-      <c r="T138" s="14"/>
+      <c r="T138" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
@@ -19400,7 +19668,9 @@
         <f t="shared" si="11"/>
         <v>143</v>
       </c>
-      <c r="T139" s="14"/>
+      <c r="T139" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
@@ -19463,7 +19733,9 @@
         <f t="shared" si="11"/>
         <v>86</v>
       </c>
-      <c r="T140" s="14"/>
+      <c r="T140" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
@@ -19526,7 +19798,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T141" s="14"/>
+      <c r="T141" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
@@ -19589,7 +19863,9 @@
         <f t="shared" si="11"/>
         <v>385</v>
       </c>
-      <c r="T142" s="14"/>
+      <c r="T142" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
@@ -19652,7 +19928,9 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="T143" s="14"/>
+      <c r="T143" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -19715,7 +19993,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T144" s="14"/>
+      <c r="T144" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
@@ -19778,7 +20058,9 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="T145" s="14"/>
+      <c r="T145" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
@@ -19841,7 +20123,9 @@
         <f t="shared" si="11"/>
         <v>149</v>
       </c>
-      <c r="T146" s="14"/>
+      <c r="T146" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
@@ -19904,7 +20188,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T147" s="14"/>
+      <c r="T147" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
@@ -19967,7 +20253,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T148" s="14"/>
+      <c r="T148" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
@@ -20030,7 +20318,9 @@
         <f t="shared" si="11"/>
         <v>49</v>
       </c>
-      <c r="T149" s="14"/>
+      <c r="T149" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
@@ -20093,7 +20383,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T150" s="14"/>
+      <c r="T150" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
@@ -20156,7 +20448,9 @@
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="T151" s="14"/>
+      <c r="T151" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
@@ -20219,7 +20513,9 @@
         <f t="shared" si="11"/>
         <v>55</v>
       </c>
-      <c r="T152" s="14"/>
+      <c r="T152" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
@@ -20282,7 +20578,9 @@
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="T153" s="14"/>
+      <c r="T153" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
@@ -20345,7 +20643,9 @@
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="T154" s="14"/>
+      <c r="T154" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
@@ -20408,7 +20708,9 @@
         <f t="shared" si="11"/>
         <v>207</v>
       </c>
-      <c r="T155" s="14"/>
+      <c r="T155" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
@@ -20471,7 +20773,9 @@
         <f t="shared" si="11"/>
         <v>140</v>
       </c>
-      <c r="T156" s="14"/>
+      <c r="T156" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
@@ -20534,7 +20838,9 @@
         <f t="shared" si="11"/>
         <v>221</v>
       </c>
-      <c r="T157" s="14"/>
+      <c r="T157" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
@@ -20597,7 +20903,9 @@
         <f t="shared" si="11"/>
         <v>55</v>
       </c>
-      <c r="T158" s="14"/>
+      <c r="T158" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
@@ -20660,7 +20968,9 @@
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="T159" s="14"/>
+      <c r="T159" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
@@ -20723,7 +21033,9 @@
         <f t="shared" si="11"/>
         <v>195</v>
       </c>
-      <c r="T160" s="14"/>
+      <c r="T160" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
@@ -20786,7 +21098,9 @@
         <f t="shared" si="11"/>
         <v>122</v>
       </c>
-      <c r="T161" s="14"/>
+      <c r="T161" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
@@ -20849,7 +21163,9 @@
         <f t="shared" si="11"/>
         <v>53</v>
       </c>
-      <c r="T162" s="14"/>
+      <c r="T162" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
@@ -20912,7 +21228,9 @@
         <f t="shared" si="11"/>
         <v>201</v>
       </c>
-      <c r="T163" s="14"/>
+      <c r="T163" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
@@ -20975,7 +21293,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T164" s="14"/>
+      <c r="T164" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
@@ -21038,7 +21358,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T165" s="14"/>
+      <c r="T165" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
@@ -21101,7 +21423,9 @@
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="T166" s="14"/>
+      <c r="T166" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
@@ -21164,7 +21488,9 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-      <c r="T167" s="14"/>
+      <c r="T167" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
@@ -21227,7 +21553,9 @@
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="T168" s="14"/>
+      <c r="T168" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
@@ -21290,7 +21618,9 @@
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="T169" s="14"/>
+      <c r="T169" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
@@ -21353,7 +21683,9 @@
         <f t="shared" si="11"/>
         <v>127</v>
       </c>
-      <c r="T170" s="14"/>
+      <c r="T170" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
@@ -21416,7 +21748,9 @@
         <f t="shared" si="11"/>
         <v>68</v>
       </c>
-      <c r="T171" s="14"/>
+      <c r="T171" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
@@ -21479,7 +21813,9 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="T172" s="14"/>
+      <c r="T172" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
@@ -21542,7 +21878,9 @@
         <f t="shared" si="11"/>
         <v>295</v>
       </c>
-      <c r="T173" s="14"/>
+      <c r="T173" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
@@ -21605,7 +21943,9 @@
         <f t="shared" si="11"/>
         <v>76</v>
       </c>
-      <c r="T174" s="14"/>
+      <c r="T174" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
@@ -21668,7 +22008,9 @@
         <f t="shared" si="11"/>
         <v>287</v>
       </c>
-      <c r="T175" s="14"/>
+      <c r="T175" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
@@ -21731,7 +22073,9 @@
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="T176" s="14"/>
+      <c r="T176" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
@@ -21794,7 +22138,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T177" s="14"/>
+      <c r="T177" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
@@ -21857,7 +22203,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T178" s="14"/>
+      <c r="T178" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
@@ -21920,7 +22268,9 @@
         <f t="shared" si="11"/>
         <v>208</v>
       </c>
-      <c r="T179" s="14"/>
+      <c r="T179" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
@@ -21983,7 +22333,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T180" s="14"/>
+      <c r="T180" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
@@ -22046,7 +22398,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T181" s="14"/>
+      <c r="T181" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
@@ -22109,7 +22463,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="T182" s="14"/>
+      <c r="T182" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
@@ -22172,7 +22528,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T183" s="14"/>
+      <c r="T183" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
@@ -22235,7 +22593,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T184" s="14"/>
+      <c r="T184" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
@@ -22298,7 +22658,9 @@
         <f t="shared" si="11"/>
         <v>242</v>
       </c>
-      <c r="T185" s="14"/>
+      <c r="T185" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="16" t="s">
@@ -22361,7 +22723,9 @@
         <f t="shared" si="11"/>
         <v>292</v>
       </c>
-      <c r="T186" s="14"/>
+      <c r="T186" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="16" t="s">
@@ -22424,7 +22788,9 @@
         <f t="shared" si="11"/>
         <v>260</v>
       </c>
-      <c r="T187" s="14"/>
+      <c r="T187" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
@@ -22487,7 +22853,9 @@
         <f t="shared" si="11"/>
         <v>74</v>
       </c>
-      <c r="T188" s="14"/>
+      <c r="T188" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
@@ -22550,7 +22918,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T189" s="14"/>
+      <c r="T189" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
@@ -22613,7 +22983,9 @@
         <f t="shared" si="11"/>
         <v>186</v>
       </c>
-      <c r="T190" s="14"/>
+      <c r="T190" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
@@ -22676,7 +23048,9 @@
         <f t="shared" ref="S191:S231" si="16">LEN(P191)</f>
         <v>16</v>
       </c>
-      <c r="T191" s="14"/>
+      <c r="T191" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
@@ -22739,7 +23113,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="T192" s="14"/>
+      <c r="T192" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
@@ -22802,7 +23178,9 @@
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="T193" s="14"/>
+      <c r="T193" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
@@ -22865,7 +23243,9 @@
         <f t="shared" si="16"/>
         <v>21</v>
       </c>
-      <c r="T194" s="14"/>
+      <c r="T194" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
@@ -22928,7 +23308,9 @@
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-      <c r="T195" s="14"/>
+      <c r="T195" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
@@ -22991,7 +23373,9 @@
         <f t="shared" si="16"/>
         <v>155</v>
       </c>
-      <c r="T196" s="14"/>
+      <c r="T196" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
@@ -23054,7 +23438,9 @@
         <f t="shared" si="16"/>
         <v>297</v>
       </c>
-      <c r="T197" s="14"/>
+      <c r="T197" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
@@ -23117,7 +23503,9 @@
         <f t="shared" si="16"/>
         <v>254</v>
       </c>
-      <c r="T198" s="14"/>
+      <c r="T198" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
@@ -23180,7 +23568,9 @@
         <f t="shared" si="16"/>
         <v>280</v>
       </c>
-      <c r="T199" s="14"/>
+      <c r="T199" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
@@ -23243,7 +23633,9 @@
         <f t="shared" si="16"/>
         <v>232</v>
       </c>
-      <c r="T200" s="14"/>
+      <c r="T200" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
@@ -23306,7 +23698,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="T201" s="14"/>
+      <c r="T201" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
@@ -23369,7 +23763,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="T202" s="14"/>
+      <c r="T202" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
@@ -23432,7 +23828,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="T203" s="14"/>
+      <c r="T203" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
@@ -23495,7 +23893,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="T204" s="14"/>
+      <c r="T204" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
@@ -23558,7 +23958,9 @@
         <f t="shared" si="16"/>
         <v>215</v>
       </c>
-      <c r="T205" s="14"/>
+      <c r="T205" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
@@ -23621,7 +24023,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="T206" s="14"/>
+      <c r="T206" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
@@ -23684,7 +24088,9 @@
         <f t="shared" si="16"/>
         <v>254</v>
       </c>
-      <c r="T207" s="14"/>
+      <c r="T207" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
@@ -23747,7 +24153,9 @@
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="T208" s="14"/>
+      <c r="T208" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
@@ -23810,7 +24218,9 @@
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="T209" s="14"/>
+      <c r="T209" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
@@ -23873,7 +24283,9 @@
         <f t="shared" si="16"/>
         <v>352</v>
       </c>
-      <c r="T210" s="14"/>
+      <c r="T210" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
@@ -23936,7 +24348,9 @@
         <f t="shared" si="16"/>
         <v>277</v>
       </c>
-      <c r="T211" s="14"/>
+      <c r="T211" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
@@ -23999,7 +24413,9 @@
         <f t="shared" si="16"/>
         <v>57</v>
       </c>
-      <c r="T212" s="14"/>
+      <c r="T212" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
@@ -24062,7 +24478,9 @@
         <f t="shared" si="16"/>
         <v>149</v>
       </c>
-      <c r="T213" s="14"/>
+      <c r="T213" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
@@ -24125,7 +24543,9 @@
         <f t="shared" si="16"/>
         <v>195</v>
       </c>
-      <c r="T214" s="14"/>
+      <c r="T214" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
@@ -24188,7 +24608,9 @@
         <f t="shared" si="16"/>
         <v>83</v>
       </c>
-      <c r="T215" s="14"/>
+      <c r="T215" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
@@ -24251,7 +24673,9 @@
         <f t="shared" si="16"/>
         <v>86</v>
       </c>
-      <c r="T216" s="14"/>
+      <c r="T216" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
@@ -24314,7 +24738,9 @@
         <f t="shared" si="16"/>
         <v>174</v>
       </c>
-      <c r="T217" s="14"/>
+      <c r="T217" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
@@ -24377,7 +24803,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="T218" s="14"/>
+      <c r="T218" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
@@ -24440,7 +24868,9 @@
         <f t="shared" si="16"/>
         <v>564</v>
       </c>
-      <c r="T219" s="14"/>
+      <c r="T219" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
@@ -24503,7 +24933,9 @@
         <f t="shared" si="16"/>
         <v>77</v>
       </c>
-      <c r="T220" s="14"/>
+      <c r="T220" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
@@ -24566,7 +24998,9 @@
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="T221" s="14"/>
+      <c r="T221" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
@@ -24629,7 +25063,9 @@
         <f t="shared" si="16"/>
         <v>60</v>
       </c>
-      <c r="T222" s="14"/>
+      <c r="T222" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
@@ -24692,7 +25128,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="T223" s="14"/>
+      <c r="T223" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
@@ -24755,7 +25193,9 @@
         <f t="shared" si="16"/>
         <v>56</v>
       </c>
-      <c r="T224" s="14"/>
+      <c r="T224" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
@@ -24818,7 +25258,9 @@
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
-      <c r="T225" s="14"/>
+      <c r="T225" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
@@ -24881,7 +25323,9 @@
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="T226" s="14"/>
+      <c r="T226" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
@@ -24944,7 +25388,9 @@
         <f t="shared" si="16"/>
         <v>119</v>
       </c>
-      <c r="T227" s="14"/>
+      <c r="T227" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
@@ -25007,7 +25453,9 @@
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
-      <c r="T228" s="14"/>
+      <c r="T228" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
@@ -25070,7 +25518,9 @@
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="T229" s="14"/>
+      <c r="T229" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
@@ -25133,7 +25583,9 @@
         <f t="shared" si="16"/>
         <v>59</v>
       </c>
-      <c r="T230" s="14"/>
+      <c r="T230" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
@@ -25196,7 +25648,9 @@
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="T231" s="14"/>
+      <c r="T231" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
@@ -25259,7 +25713,9 @@
         <f t="shared" ref="S232:S256" si="32">LEN(P232)</f>
         <v>54</v>
       </c>
-      <c r="T232" s="14"/>
+      <c r="T232" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
@@ -25322,7 +25778,9 @@
         <f t="shared" si="32"/>
         <v>417</v>
       </c>
-      <c r="T233" s="14"/>
+      <c r="T233" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
@@ -25385,7 +25843,9 @@
         <f t="shared" si="32"/>
         <v>99</v>
       </c>
-      <c r="T234" s="14"/>
+      <c r="T234" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
@@ -25448,7 +25908,9 @@
         <f t="shared" si="32"/>
         <v>136</v>
       </c>
-      <c r="T235" s="14"/>
+      <c r="T235" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
@@ -25511,7 +25973,9 @@
         <f t="shared" si="32"/>
         <v>68</v>
       </c>
-      <c r="T236" s="14"/>
+      <c r="T236" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
@@ -25574,7 +26038,9 @@
         <f t="shared" si="32"/>
         <v>37</v>
       </c>
-      <c r="T237" s="14"/>
+      <c r="T237" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
@@ -25637,7 +26103,9 @@
         <f t="shared" si="32"/>
         <v>78</v>
       </c>
-      <c r="T238" s="14"/>
+      <c r="T238" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
@@ -25700,7 +26168,9 @@
         <f t="shared" si="32"/>
         <v>8</v>
       </c>
-      <c r="T239" s="14"/>
+      <c r="T239" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
@@ -25763,7 +26233,9 @@
         <f t="shared" si="32"/>
         <v>7</v>
       </c>
-      <c r="T240" s="14"/>
+      <c r="T240" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
@@ -25826,7 +26298,9 @@
         <f t="shared" si="32"/>
         <v>16</v>
       </c>
-      <c r="T241" s="14"/>
+      <c r="T241" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
@@ -25889,7 +26363,9 @@
         <f t="shared" si="32"/>
         <v>16</v>
       </c>
-      <c r="T242" s="14"/>
+      <c r="T242" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
@@ -25952,7 +26428,9 @@
         <f t="shared" si="32"/>
         <v>91</v>
       </c>
-      <c r="T243" s="14"/>
+      <c r="T243" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
@@ -26015,7 +26493,9 @@
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="T244" s="14"/>
+      <c r="T244" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
@@ -26078,7 +26558,9 @@
         <f t="shared" si="32"/>
         <v>325</v>
       </c>
-      <c r="T245" s="14"/>
+      <c r="T245" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
@@ -26141,7 +26623,9 @@
         <f t="shared" si="32"/>
         <v>43</v>
       </c>
-      <c r="T246" s="14"/>
+      <c r="T246" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
@@ -26204,7 +26688,9 @@
         <f t="shared" si="32"/>
         <v>50</v>
       </c>
-      <c r="T247" s="14"/>
+      <c r="T247" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
@@ -26267,7 +26753,9 @@
         <f t="shared" si="32"/>
         <v>144</v>
       </c>
-      <c r="T248" s="14"/>
+      <c r="T248" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
@@ -26330,7 +26818,9 @@
         <f t="shared" si="32"/>
         <v>231</v>
       </c>
-      <c r="T249" s="14"/>
+      <c r="T249" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
@@ -26393,7 +26883,9 @@
         <f t="shared" si="32"/>
         <v>185</v>
       </c>
-      <c r="T250" s="14"/>
+      <c r="T250" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
@@ -26456,7 +26948,9 @@
         <f t="shared" si="32"/>
         <v>80</v>
       </c>
-      <c r="T251" s="14"/>
+      <c r="T251" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
@@ -26519,7 +27013,9 @@
         <f t="shared" si="32"/>
         <v>78</v>
       </c>
-      <c r="T252" s="14"/>
+      <c r="T252" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
@@ -26582,7 +27078,9 @@
         <f t="shared" si="32"/>
         <v>60</v>
       </c>
-      <c r="T253" s="14"/>
+      <c r="T253" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
@@ -26645,7 +27143,9 @@
         <f t="shared" si="32"/>
         <v>137</v>
       </c>
-      <c r="T254" s="14"/>
+      <c r="T254" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
@@ -26708,7 +27208,9 @@
         <f t="shared" si="32"/>
         <v>105</v>
       </c>
-      <c r="T255" s="14"/>
+      <c r="T255" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
@@ -26771,7 +27273,9 @@
         <f t="shared" si="32"/>
         <v>94</v>
       </c>
-      <c r="T256" s="14"/>
+      <c r="T256" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -10607,9 +10607,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13142,7 +13142,7 @@
         <v>367</v>
       </c>
       <c r="M39" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="43">
         <v>20.97</v>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="912">
   <si>
     <t>Format</t>
   </si>
@@ -2762,6 +2762,21 @@
   </si>
   <si>
     <t>KBSize</t>
+  </si>
+  <si>
+    <t>Learning AWS IoT</t>
+  </si>
+  <si>
+    <t>2023-12-21</t>
+  </si>
+  <si>
+    <t>Useful. Ok as a "Getting Started" guide.</t>
+  </si>
+  <si>
+    <t>Building Python Web APIs with FastAPI</t>
+  </si>
+  <si>
+    <t>Useful. A concise but comprehensive book.</t>
   </si>
 </sst>
 </file>
@@ -10607,9 +10622,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K260" sqref="K260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -25604,11 +25619,11 @@
         <v>650</v>
       </c>
       <c r="H231" s="9">
-        <f t="shared" ref="H231:H255" si="30">YEAR(G231)</f>
+        <f t="shared" ref="H231:H256" si="30">YEAR(G231)</f>
         <v>2021</v>
       </c>
       <c r="I231" s="9">
-        <f t="shared" ref="I231:I255" si="31">MONTH(G231)</f>
+        <f t="shared" ref="I231:I256" si="31">MONTH(G231)</f>
         <v>3</v>
       </c>
       <c r="J231" s="9" t="s">
@@ -25639,7 +25654,7 @@
         <v>158</v>
       </c>
       <c r="S231" s="17">
-        <f t="shared" ref="S231:S255" si="32">LEN(P231)</f>
+        <f t="shared" ref="S231:S257" si="32">LEN(P231)</f>
         <v>54</v>
       </c>
       <c r="T231" s="14">
@@ -27207,51 +27222,137 @@
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A256" s="9"/>
-      <c r="B256" s="9"/>
-      <c r="C256" s="9"/>
-      <c r="D256" s="9"/>
-      <c r="E256" s="9"/>
-      <c r="F256" s="9"/>
-      <c r="G256" s="9"/>
-      <c r="H256" s="9"/>
-      <c r="I256" s="9"/>
-      <c r="J256" s="9"/>
-      <c r="K256" s="9"/>
-      <c r="L256" s="9"/>
-      <c r="M256" s="9"/>
-      <c r="N256" s="9"/>
-      <c r="O256" s="9"/>
-      <c r="P256" s="9"/>
-      <c r="Q256" s="9"/>
-      <c r="R256" s="9"/>
-      <c r="S256" s="17"/>
-      <c r="T256" s="14"/>
+      <c r="A256" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="B256" s="17">
+        <v>2018</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F256" s="17">
+        <v>229</v>
+      </c>
+      <c r="G256" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="H256" s="17">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="I256" s="17">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="J256" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K256" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L256" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M256" s="17">
+        <v>3</v>
+      </c>
+      <c r="N256" s="17">
+        <v>43.99</v>
+      </c>
+      <c r="O256" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P256" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="Q256" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="R256" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S256" s="17">
+        <f t="shared" si="32"/>
+        <v>40</v>
+      </c>
+      <c r="T256" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A257" s="9"/>
-      <c r="B257" s="9"/>
-      <c r="C257" s="9"/>
-      <c r="D257" s="9"/>
-      <c r="E257" s="9"/>
-      <c r="F257" s="9"/>
-      <c r="G257" s="9"/>
-      <c r="H257" s="9"/>
-      <c r="I257" s="9"/>
-      <c r="J257" s="9"/>
-      <c r="K257" s="9"/>
-      <c r="L257" s="9"/>
-      <c r="M257" s="9"/>
-      <c r="N257" s="9"/>
-      <c r="O257" s="9"/>
-      <c r="P257" s="9"/>
-      <c r="Q257" s="9"/>
-      <c r="R257" s="9"/>
-      <c r="S257" s="17"/>
-      <c r="T257" s="14"/>
+      <c r="A257" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="B257" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F257" s="17">
+        <v>94</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="H257" s="17">
+        <f t="shared" ref="H257" si="33">YEAR(G257)</f>
+        <v>2023</v>
+      </c>
+      <c r="I257" s="17">
+        <f t="shared" ref="I257" si="34">MONTH(G257)</f>
+        <v>12</v>
+      </c>
+      <c r="J257" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K257" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L257" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M257" s="17">
+        <v>4</v>
+      </c>
+      <c r="N257" s="17">
+        <v>41.99</v>
+      </c>
+      <c r="O257" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P257" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q257" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R257" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S257" s="17">
+        <f t="shared" si="32"/>
+        <v>41</v>
+      </c>
+      <c r="T257" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A258" s="9"/>
+      <c r="A258" s="13"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
@@ -27266,14 +27367,14 @@
       <c r="M258" s="9"/>
       <c r="N258" s="9"/>
       <c r="O258" s="9"/>
-      <c r="P258" s="9"/>
+      <c r="P258" s="13"/>
       <c r="Q258" s="9"/>
       <c r="R258" s="9"/>
       <c r="S258" s="17"/>
       <c r="T258" s="14"/>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A259" s="9"/>
+      <c r="A259" s="13"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
@@ -27288,14 +27389,14 @@
       <c r="M259" s="9"/>
       <c r="N259" s="9"/>
       <c r="O259" s="9"/>
-      <c r="P259" s="9"/>
+      <c r="P259" s="13"/>
       <c r="Q259" s="9"/>
       <c r="R259" s="9"/>
       <c r="S259" s="17"/>
       <c r="T259" s="14"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A260" s="9"/>
+      <c r="A260" s="13"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
@@ -27310,14 +27411,14 @@
       <c r="M260" s="9"/>
       <c r="N260" s="9"/>
       <c r="O260" s="9"/>
-      <c r="P260" s="9"/>
+      <c r="P260" s="13"/>
       <c r="Q260" s="9"/>
       <c r="R260" s="9"/>
       <c r="S260" s="17"/>
       <c r="T260" s="14"/>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A261" s="9"/>
+      <c r="A261" s="13"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
@@ -27332,14 +27433,14 @@
       <c r="M261" s="9"/>
       <c r="N261" s="9"/>
       <c r="O261" s="9"/>
-      <c r="P261" s="9"/>
+      <c r="P261" s="13"/>
       <c r="Q261" s="9"/>
       <c r="R261" s="9"/>
       <c r="S261" s="17"/>
       <c r="T261" s="14"/>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A262" s="9"/>
+      <c r="A262" s="13"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
@@ -27354,7 +27455,7 @@
       <c r="M262" s="9"/>
       <c r="N262" s="9"/>
       <c r="O262" s="9"/>
-      <c r="P262" s="9"/>
+      <c r="P262" s="13"/>
       <c r="Q262" s="9"/>
       <c r="R262" s="9"/>
       <c r="S262" s="17"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="915">
   <si>
     <t>Format</t>
   </si>
@@ -2777,6 +2777,15 @@
   </si>
   <si>
     <t>Useful. A concise but comprehensive book.</t>
+  </si>
+  <si>
+    <t>Building Python Microservices with FastAPI (1st Ed.)</t>
+  </si>
+  <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>Useful. It's unstructed and caotic like most of the Packt books, but it contains some useful bits of information.</t>
   </si>
 </sst>
 </file>
@@ -10624,7 +10633,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K260" sqref="K260"/>
+      <selection pane="bottomLeft" activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -25654,7 +25663,7 @@
         <v>158</v>
       </c>
       <c r="S231" s="17">
-        <f t="shared" ref="S231:S257" si="32">LEN(P231)</f>
+        <f t="shared" ref="S231:S258" si="32">LEN(P231)</f>
         <v>54</v>
       </c>
       <c r="T231" s="14">
@@ -27309,11 +27318,11 @@
         <v>908</v>
       </c>
       <c r="H257" s="17">
-        <f t="shared" ref="H257" si="33">YEAR(G257)</f>
+        <f t="shared" ref="H257:H258" si="33">YEAR(G257)</f>
         <v>2023</v>
       </c>
       <c r="I257" s="17">
-        <f t="shared" ref="I257" si="34">MONTH(G257)</f>
+        <f t="shared" ref="I257:I258" si="34">MONTH(G257)</f>
         <v>12</v>
       </c>
       <c r="J257" s="9" t="s">
@@ -27352,26 +27361,69 @@
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A258" s="13"/>
-      <c r="B258" s="9"/>
-      <c r="C258" s="9"/>
-      <c r="D258" s="9"/>
-      <c r="E258" s="9"/>
-      <c r="F258" s="9"/>
-      <c r="G258" s="9"/>
-      <c r="H258" s="9"/>
-      <c r="I258" s="9"/>
-      <c r="J258" s="9"/>
-      <c r="K258" s="9"/>
-      <c r="L258" s="9"/>
-      <c r="M258" s="9"/>
-      <c r="N258" s="9"/>
-      <c r="O258" s="9"/>
-      <c r="P258" s="13"/>
-      <c r="Q258" s="9"/>
-      <c r="R258" s="9"/>
-      <c r="S258" s="17"/>
-      <c r="T258" s="14"/>
+      <c r="A258" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B258" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E258" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F258" s="17">
+        <v>265</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="H258" s="17">
+        <f t="shared" si="33"/>
+        <v>2023</v>
+      </c>
+      <c r="I258" s="17">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="J258" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K258" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L258" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M258" s="17">
+        <v>3</v>
+      </c>
+      <c r="N258" s="17">
+        <v>46.99</v>
+      </c>
+      <c r="O258" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P258" s="16" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q258" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R258" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S258" s="17">
+        <f t="shared" si="32"/>
+        <v>113</v>
+      </c>
+      <c r="T258" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="13"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="923">
   <si>
     <t>Format</t>
   </si>
@@ -2786,6 +2786,30 @@
   </si>
   <si>
     <t>Useful. It's unstructed and caotic like most of the Packt books, but it contains some useful bits of information.</t>
+  </si>
+  <si>
+    <t>Building Sata Science Applications with FastAPI</t>
+  </si>
+  <si>
+    <t>Useful. It contains some useful information, but it's unstructured and it has a low readiblity layout due of the Github links at the bottom of every code example.</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>The Rules of Programming (Early Release)</t>
+  </si>
+  <si>
+    <t>2024-01-06</t>
+  </si>
+  <si>
+    <t>Useless. Well written, but nothing new under the sun. Pretty useless book.</t>
+  </si>
+  <si>
+    <t>Concise Guide to Software Engineering</t>
+  </si>
+  <si>
+    <t>Useless. I guess that for a beginner this book could have a certain degree of usefullness, but for a software developer with some years of experience it has none.</t>
   </si>
 </sst>
 </file>
@@ -10629,11 +10653,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T262"/>
+  <dimension ref="A1:T269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F260" sqref="F260"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -25663,7 +25687,7 @@
         <v>158</v>
       </c>
       <c r="S231" s="17">
-        <f t="shared" ref="S231:S258" si="32">LEN(P231)</f>
+        <f t="shared" ref="S231:S261" si="32">LEN(P231)</f>
         <v>54</v>
       </c>
       <c r="T231" s="14">
@@ -27318,11 +27342,11 @@
         <v>908</v>
       </c>
       <c r="H257" s="17">
-        <f t="shared" ref="H257:H258" si="33">YEAR(G257)</f>
+        <f t="shared" ref="H257:H259" si="33">YEAR(G257)</f>
         <v>2023</v>
       </c>
       <c r="I257" s="17">
-        <f t="shared" ref="I257:I258" si="34">MONTH(G257)</f>
+        <f t="shared" ref="I257:I259" si="34">MONTH(G257)</f>
         <v>12</v>
       </c>
       <c r="J257" s="9" t="s">
@@ -27426,70 +27450,199 @@
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A259" s="13"/>
-      <c r="B259" s="9"/>
-      <c r="C259" s="9"/>
-      <c r="D259" s="9"/>
-      <c r="E259" s="9"/>
-      <c r="F259" s="9"/>
-      <c r="G259" s="9"/>
-      <c r="H259" s="9"/>
-      <c r="I259" s="9"/>
-      <c r="J259" s="9"/>
-      <c r="K259" s="9"/>
-      <c r="L259" s="9"/>
-      <c r="M259" s="9"/>
-      <c r="N259" s="9"/>
-      <c r="O259" s="9"/>
-      <c r="P259" s="13"/>
-      <c r="Q259" s="9"/>
-      <c r="R259" s="9"/>
-      <c r="S259" s="17"/>
-      <c r="T259" s="14"/>
+      <c r="A259" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="B259" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E259" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F259" s="17">
+        <v>288</v>
+      </c>
+      <c r="G259" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="H259" s="9">
+        <f t="shared" si="33"/>
+        <v>2024</v>
+      </c>
+      <c r="I259" s="9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="J259" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K259" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L259" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M259" s="17">
+        <v>2</v>
+      </c>
+      <c r="N259" s="17">
+        <v>51.99</v>
+      </c>
+      <c r="O259" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P259" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q259" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R259" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S259" s="17">
+        <f t="shared" si="32"/>
+        <v>162</v>
+      </c>
+      <c r="T259" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A260" s="13"/>
-      <c r="B260" s="9"/>
-      <c r="C260" s="9"/>
-      <c r="D260" s="9"/>
-      <c r="E260" s="9"/>
-      <c r="F260" s="9"/>
-      <c r="G260" s="9"/>
-      <c r="H260" s="9"/>
-      <c r="I260" s="9"/>
-      <c r="J260" s="9"/>
-      <c r="K260" s="9"/>
-      <c r="L260" s="9"/>
-      <c r="M260" s="9"/>
-      <c r="N260" s="9"/>
-      <c r="O260" s="9"/>
-      <c r="P260" s="13"/>
-      <c r="Q260" s="9"/>
-      <c r="R260" s="9"/>
-      <c r="S260" s="17"/>
-      <c r="T260" s="14"/>
+      <c r="A260" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="B260" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E260" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F260" s="17">
+        <v>151</v>
+      </c>
+      <c r="G260" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="H260" s="9">
+        <f t="shared" ref="H260" si="35">YEAR(G260)</f>
+        <v>2024</v>
+      </c>
+      <c r="I260" s="9">
+        <f t="shared" ref="I260" si="36">MONTH(G260)</f>
+        <v>1</v>
+      </c>
+      <c r="J260" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K260" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L260" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M260" s="17">
+        <v>1</v>
+      </c>
+      <c r="N260" s="17">
+        <v>30.49</v>
+      </c>
+      <c r="O260" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P260" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q260" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R260" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S260" s="17">
+        <f t="shared" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="T260" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A261" s="13"/>
-      <c r="B261" s="9"/>
-      <c r="C261" s="9"/>
-      <c r="D261" s="9"/>
-      <c r="E261" s="9"/>
-      <c r="F261" s="9"/>
-      <c r="G261" s="9"/>
-      <c r="H261" s="9"/>
-      <c r="I261" s="9"/>
-      <c r="J261" s="9"/>
-      <c r="K261" s="9"/>
-      <c r="L261" s="9"/>
-      <c r="M261" s="9"/>
-      <c r="N261" s="9"/>
-      <c r="O261" s="9"/>
-      <c r="P261" s="13"/>
-      <c r="Q261" s="9"/>
-      <c r="R261" s="9"/>
-      <c r="S261" s="17"/>
-      <c r="T261" s="14"/>
+      <c r="A261" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="B261" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F261" s="17">
+        <v>416</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="H261" s="9">
+        <f t="shared" ref="H261" si="37">YEAR(G261)</f>
+        <v>2024</v>
+      </c>
+      <c r="I261" s="9">
+        <f t="shared" ref="I261" si="38">MONTH(G261)</f>
+        <v>1</v>
+      </c>
+      <c r="J261" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K261" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L261" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="M261" s="17">
+        <v>1</v>
+      </c>
+      <c r="N261" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O261" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P261" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q261" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R261" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S261" s="17">
+        <f t="shared" si="32"/>
+        <v>162</v>
+      </c>
+      <c r="T261" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="13"/>
@@ -27512,6 +27665,160 @@
       <c r="R262" s="9"/>
       <c r="S262" s="17"/>
       <c r="T262" s="14"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A263" s="9"/>
+      <c r="B263" s="9"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="9"/>
+      <c r="G263" s="9"/>
+      <c r="H263" s="9"/>
+      <c r="I263" s="9"/>
+      <c r="J263" s="9"/>
+      <c r="K263" s="9"/>
+      <c r="L263" s="9"/>
+      <c r="M263" s="9"/>
+      <c r="N263" s="9"/>
+      <c r="O263" s="9"/>
+      <c r="P263" s="9"/>
+      <c r="Q263" s="9"/>
+      <c r="R263" s="9"/>
+      <c r="S263" s="17"/>
+      <c r="T263" s="9"/>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A264" s="9"/>
+      <c r="B264" s="9"/>
+      <c r="C264" s="9"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="9"/>
+      <c r="H264" s="9"/>
+      <c r="I264" s="9"/>
+      <c r="J264" s="9"/>
+      <c r="K264" s="9"/>
+      <c r="L264" s="9"/>
+      <c r="M264" s="9"/>
+      <c r="N264" s="9"/>
+      <c r="O264" s="9"/>
+      <c r="P264" s="9"/>
+      <c r="Q264" s="9"/>
+      <c r="R264" s="9"/>
+      <c r="S264" s="17"/>
+      <c r="T264" s="9"/>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A265" s="9"/>
+      <c r="B265" s="9"/>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="9"/>
+      <c r="H265" s="9"/>
+      <c r="I265" s="9"/>
+      <c r="J265" s="9"/>
+      <c r="K265" s="9"/>
+      <c r="L265" s="9"/>
+      <c r="M265" s="9"/>
+      <c r="N265" s="9"/>
+      <c r="O265" s="9"/>
+      <c r="P265" s="9"/>
+      <c r="Q265" s="9"/>
+      <c r="R265" s="9"/>
+      <c r="S265" s="17"/>
+      <c r="T265" s="9"/>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A266" s="9"/>
+      <c r="B266" s="9"/>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="9"/>
+      <c r="H266" s="9"/>
+      <c r="I266" s="9"/>
+      <c r="J266" s="9"/>
+      <c r="K266" s="9"/>
+      <c r="L266" s="9"/>
+      <c r="M266" s="9"/>
+      <c r="N266" s="9"/>
+      <c r="O266" s="9"/>
+      <c r="P266" s="9"/>
+      <c r="Q266" s="9"/>
+      <c r="R266" s="9"/>
+      <c r="S266" s="17"/>
+      <c r="T266" s="9"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A267" s="9"/>
+      <c r="B267" s="9"/>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="9"/>
+      <c r="I267" s="9"/>
+      <c r="J267" s="9"/>
+      <c r="K267" s="9"/>
+      <c r="L267" s="9"/>
+      <c r="M267" s="9"/>
+      <c r="N267" s="9"/>
+      <c r="O267" s="9"/>
+      <c r="P267" s="9"/>
+      <c r="Q267" s="9"/>
+      <c r="R267" s="9"/>
+      <c r="S267" s="17"/>
+      <c r="T267" s="9"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A268" s="9"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="9"/>
+      <c r="I268" s="9"/>
+      <c r="J268" s="9"/>
+      <c r="K268" s="9"/>
+      <c r="L268" s="9"/>
+      <c r="M268" s="9"/>
+      <c r="N268" s="9"/>
+      <c r="O268" s="9"/>
+      <c r="P268" s="9"/>
+      <c r="Q268" s="9"/>
+      <c r="R268" s="9"/>
+      <c r="S268" s="17"/>
+      <c r="T268" s="9"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A269" s="9"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
+      <c r="H269" s="9"/>
+      <c r="I269" s="9"/>
+      <c r="J269" s="9"/>
+      <c r="K269" s="9"/>
+      <c r="L269" s="9"/>
+      <c r="M269" s="9"/>
+      <c r="N269" s="9"/>
+      <c r="O269" s="9"/>
+      <c r="P269" s="9"/>
+      <c r="Q269" s="9"/>
+      <c r="R269" s="9"/>
+      <c r="S269" s="17"/>
+      <c r="T269" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -10655,9 +10655,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A266" sqref="A266"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R257" sqref="R257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -26471,7 +26471,7 @@
         <v>33</v>
       </c>
       <c r="T243" s="14">
-        <v>0</v>
+        <v>488</v>
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.2">
@@ -26536,7 +26536,7 @@
         <v>325</v>
       </c>
       <c r="T244" s="14">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.2">
@@ -26666,7 +26666,7 @@
         <v>50</v>
       </c>
       <c r="T246" s="14">
-        <v>0</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.2">
@@ -26731,7 +26731,7 @@
         <v>144</v>
       </c>
       <c r="T247" s="14">
-        <v>0</v>
+        <v>431</v>
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.2">
@@ -26796,7 +26796,7 @@
         <v>231</v>
       </c>
       <c r="T248" s="14">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -10657,7 +10657,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R257" sqref="R257"/>
+      <selection pane="bottomLeft" activeCell="S265" sqref="S265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -26861,7 +26861,7 @@
         <v>185</v>
       </c>
       <c r="T249" s="14">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.2">
@@ -26926,7 +26926,7 @@
         <v>80</v>
       </c>
       <c r="T250" s="14">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.2">
@@ -26991,7 +26991,7 @@
         <v>78</v>
       </c>
       <c r="T251" s="14">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.2">
@@ -27056,7 +27056,7 @@
         <v>60</v>
       </c>
       <c r="T252" s="14">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.2">
@@ -27121,7 +27121,7 @@
         <v>137</v>
       </c>
       <c r="T253" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.2">
@@ -27186,7 +27186,7 @@
         <v>105</v>
       </c>
       <c r="T254" s="14">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.2">
@@ -27251,7 +27251,7 @@
         <v>94</v>
       </c>
       <c r="T255" s="14">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">
@@ -27316,7 +27316,7 @@
         <v>40</v>
       </c>
       <c r="T256" s="14">
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
@@ -27381,7 +27381,7 @@
         <v>41</v>
       </c>
       <c r="T257" s="14">
-        <v>0</v>
+        <v>747</v>
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -2788,9 +2788,6 @@
     <t>Useful. It's unstructed and caotic like most of the Packt books, but it contains some useful bits of information.</t>
   </si>
   <si>
-    <t>Building Sata Science Applications with FastAPI</t>
-  </si>
-  <si>
     <t>Useful. It contains some useful information, but it's unstructured and it has a low readiblity layout due of the Github links at the bottom of every code example.</t>
   </si>
   <si>
@@ -2810,6 +2807,9 @@
   </si>
   <si>
     <t>Useless. I guess that for a beginner this book could have a certain degree of usefullness, but for a software developer with some years of experience it has none.</t>
+  </si>
+  <si>
+    <t>Building Data Science Applications with FastAPI</t>
   </si>
 </sst>
 </file>
@@ -10655,9 +10655,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S265" sqref="S265"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -27446,12 +27446,12 @@
         <v>113</v>
       </c>
       <c r="T258" s="14">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="B259" s="17">
         <v>2023</v>
@@ -27469,7 +27469,7 @@
         <v>288</v>
       </c>
       <c r="G259" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H259" s="9">
         <f t="shared" si="33"/>
@@ -27498,7 +27498,7 @@
         <v>664</v>
       </c>
       <c r="P259" s="16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="Q259" s="9" t="s">
         <v>569</v>
@@ -27511,12 +27511,12 @@
         <v>162</v>
       </c>
       <c r="T259" s="14">
-        <v>0</v>
+        <v>326</v>
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B260" s="17">
         <v>2023</v>
@@ -27534,7 +27534,7 @@
         <v>151</v>
       </c>
       <c r="G260" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H260" s="9">
         <f t="shared" ref="H260" si="35">YEAR(G260)</f>
@@ -27563,7 +27563,7 @@
         <v>664</v>
       </c>
       <c r="P260" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="Q260" s="9" t="s">
         <v>469</v>
@@ -27576,12 +27576,12 @@
         <v>74</v>
       </c>
       <c r="T260" s="14">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B261" s="17">
         <v>2022</v>
@@ -27599,7 +27599,7 @@
         <v>416</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H261" s="9">
         <f t="shared" ref="H261" si="37">YEAR(G261)</f>
@@ -27628,7 +27628,7 @@
         <v>664</v>
       </c>
       <c r="P261" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="Q261" s="9" t="s">
         <v>469</v>
@@ -27641,7 +27641,7 @@
         <v>162</v>
       </c>
       <c r="T261" s="14">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4506" uniqueCount="957">
   <si>
     <t>Format</t>
   </si>
@@ -2779,9 +2779,6 @@
     <t>Useful. A concise but comprehensive book.</t>
   </si>
   <si>
-    <t>Building Python Microservices with FastAPI (1st Ed.)</t>
-  </si>
-  <si>
     <t>2023-12-31</t>
   </si>
   <si>
@@ -2809,7 +2806,112 @@
     <t>Useless. I guess that for a beginner this book could have a certain degree of usefullness, but for a software developer with some years of experience it has none.</t>
   </si>
   <si>
-    <t>Building Data Science Applications with FastAPI</t>
+    <t>Building Data Science Applications with FastAPI (2nd Edition)</t>
+  </si>
+  <si>
+    <t>Building Python Microservices with FastAPI (1st Edition)</t>
+  </si>
+  <si>
+    <t>ProxMox VE Administration Guide - Release 7.2</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>Useful. It shows how well ProxMox has been designed.</t>
+  </si>
+  <si>
+    <t>Clean Architecture</t>
+  </si>
+  <si>
+    <t>Useful. A good book for beginners, well-written and clear. The last part about the history of computers could be easily removed.</t>
+  </si>
+  <si>
+    <t>Python How-To</t>
+  </si>
+  <si>
+    <t>2024-02-20</t>
+  </si>
+  <si>
+    <t>Useless. Well-written, but it contains no original nor well-structured knowledge. In addition, the second half of the book is not about Python but about Flask. Totally useless book.</t>
+  </si>
+  <si>
+    <t>Python Foundation</t>
+  </si>
+  <si>
+    <t>Useless. Very basic overview about multiple Python-related topics. The layout of the book is horrible (dense, lack of bold face, ...).</t>
+  </si>
+  <si>
+    <t>Python Unit Test Automation (2nd Edition)</t>
+  </si>
+  <si>
+    <t>Useless. Just a walkthrough of Python unit test frameworks. No original content.</t>
+  </si>
+  <si>
+    <t>Testing in Python</t>
+  </si>
+  <si>
+    <t>Useless. Too much opinionated towards pytest, not able to explain why pytest is better than unittest in a convincing way.</t>
+  </si>
+  <si>
+    <t>2024-02-25</t>
+  </si>
+  <si>
+    <t>Python Object-Oriented Programming (4th Edition)</t>
+  </si>
+  <si>
+    <t>Useful. An ok getting started guide for whom wants to learn OOP and Python from scratch at the same time.</t>
+  </si>
+  <si>
+    <t>Intermediate Python [MLI]</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>Useless. Well-written (organized like a recipe book and without ramblings), but contains no different knowledge than hundreds of Python books.</t>
+  </si>
+  <si>
+    <t>Learning Advanced Python By Studying Open-Source Projects</t>
+  </si>
+  <si>
+    <t>CRC Press</t>
+  </si>
+  <si>
+    <t>Useless. The book title is misleading: the author doesn't study any open-source project. It's just a Python cookbook like hundreds others.</t>
+  </si>
+  <si>
+    <t>Python in a Nutshell (4th Edition)</t>
+  </si>
+  <si>
+    <t>Useful. Well-written and comprehensive, it contains few bits of information I didn't know.</t>
+  </si>
+  <si>
+    <t>Python 3 And Feature Engineering</t>
+  </si>
+  <si>
+    <t>Useful. No-frills introduction to feature engineering in a cookbook format.</t>
+  </si>
+  <si>
+    <t>Python Testing Cookbook (2nd Edition)</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>Useful. It's a long list of testing techniques and Python tools to perform them. Good to have all collected in the same book.</t>
+  </si>
+  <si>
+    <t>Python Testing with pytest (2nd Edition)</t>
+  </si>
+  <si>
+    <t>Useful. A well-written and comprehensive book about pytest.</t>
+  </si>
+  <si>
+    <t>Python Packages</t>
+  </si>
+  <si>
+    <t>Useful. Excellent book about the topic. It's well-written, comprehensive and pragmatic. It would become perfect by removing the repetitions.</t>
   </si>
 </sst>
 </file>
@@ -10653,11 +10755,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T269"/>
+  <dimension ref="A1:T288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -25687,7 +25789,7 @@
         <v>158</v>
       </c>
       <c r="S231" s="17">
-        <f t="shared" ref="S231:S261" si="32">LEN(P231)</f>
+        <f t="shared" ref="S231:S275" si="32">LEN(P231)</f>
         <v>54</v>
       </c>
       <c r="T231" s="14">
@@ -27386,7 +27488,7 @@
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="B258" s="17">
         <v>2022</v>
@@ -27404,7 +27506,7 @@
         <v>265</v>
       </c>
       <c r="G258" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H258" s="17">
         <f t="shared" si="33"/>
@@ -27433,7 +27535,7 @@
         <v>664</v>
       </c>
       <c r="P258" s="16" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q258" s="9" t="s">
         <v>569</v>
@@ -27451,7 +27553,7 @@
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B259" s="17">
         <v>2023</v>
@@ -27469,7 +27571,7 @@
         <v>288</v>
       </c>
       <c r="G259" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H259" s="9">
         <f t="shared" si="33"/>
@@ -27498,7 +27600,7 @@
         <v>664</v>
       </c>
       <c r="P259" s="16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q259" s="9" t="s">
         <v>569</v>
@@ -27516,7 +27618,7 @@
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B260" s="17">
         <v>2023</v>
@@ -27534,7 +27636,7 @@
         <v>151</v>
       </c>
       <c r="G260" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H260" s="9">
         <f t="shared" ref="H260" si="35">YEAR(G260)</f>
@@ -27563,7 +27665,7 @@
         <v>664</v>
       </c>
       <c r="P260" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q260" s="9" t="s">
         <v>469</v>
@@ -27581,7 +27683,7 @@
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B261" s="17">
         <v>2022</v>
@@ -27599,14 +27701,14 @@
         <v>416</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H261" s="9">
-        <f t="shared" ref="H261" si="37">YEAR(G261)</f>
+        <f t="shared" ref="H261:H263" si="37">YEAR(G261)</f>
         <v>2024</v>
       </c>
       <c r="I261" s="9">
-        <f t="shared" ref="I261" si="38">MONTH(G261)</f>
+        <f t="shared" ref="I261:I263" si="38">MONTH(G261)</f>
         <v>1</v>
       </c>
       <c r="J261" s="9" t="s">
@@ -27628,7 +27730,7 @@
         <v>664</v>
       </c>
       <c r="P261" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="Q261" s="9" t="s">
         <v>469</v>
@@ -27645,180 +27747,1200 @@
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A262" s="13"/>
-      <c r="B262" s="9"/>
-      <c r="C262" s="9"/>
-      <c r="D262" s="9"/>
-      <c r="E262" s="9"/>
-      <c r="F262" s="9"/>
-      <c r="G262" s="9"/>
-      <c r="H262" s="9"/>
-      <c r="I262" s="9"/>
-      <c r="J262" s="9"/>
-      <c r="K262" s="9"/>
-      <c r="L262" s="9"/>
-      <c r="M262" s="9"/>
-      <c r="N262" s="9"/>
-      <c r="O262" s="9"/>
-      <c r="P262" s="13"/>
-      <c r="Q262" s="9"/>
-      <c r="R262" s="9"/>
-      <c r="S262" s="17"/>
-      <c r="T262" s="14"/>
+      <c r="A262" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="B262" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E262" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F262" s="17">
+        <v>535</v>
+      </c>
+      <c r="G262" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="H262" s="9">
+        <f t="shared" si="37"/>
+        <v>2024</v>
+      </c>
+      <c r="I262" s="9">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="J262" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K262" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L262" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M262" s="17">
+        <v>2</v>
+      </c>
+      <c r="N262" s="43">
+        <v>0</v>
+      </c>
+      <c r="O262" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P262" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="Q262" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="R262" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S262" s="17">
+        <f t="shared" si="32"/>
+        <v>52</v>
+      </c>
+      <c r="T262" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A263" s="9"/>
-      <c r="B263" s="9"/>
-      <c r="C263" s="9"/>
-      <c r="D263" s="9"/>
-      <c r="E263" s="9"/>
-      <c r="F263" s="9"/>
-      <c r="G263" s="9"/>
-      <c r="H263" s="9"/>
-      <c r="I263" s="9"/>
-      <c r="J263" s="9"/>
-      <c r="K263" s="9"/>
-      <c r="L263" s="9"/>
-      <c r="M263" s="9"/>
-      <c r="N263" s="9"/>
-      <c r="O263" s="9"/>
-      <c r="P263" s="9"/>
-      <c r="Q263" s="9"/>
-      <c r="R263" s="9"/>
-      <c r="S263" s="17"/>
-      <c r="T263" s="9"/>
+      <c r="A263" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="B263" s="17">
+        <v>2018</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E263" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F263" s="17">
+        <v>429</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="H263" s="9">
+        <f t="shared" si="37"/>
+        <v>2024</v>
+      </c>
+      <c r="I263" s="9">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="J263" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K263" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L263" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="M263" s="17">
+        <v>3</v>
+      </c>
+      <c r="N263" s="17">
+        <v>30.39</v>
+      </c>
+      <c r="O263" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P263" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q263" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R263" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S263" s="17">
+        <f t="shared" si="32"/>
+        <v>128</v>
+      </c>
+      <c r="T263" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A264" s="9"/>
-      <c r="B264" s="9"/>
-      <c r="C264" s="9"/>
-      <c r="D264" s="9"/>
-      <c r="E264" s="9"/>
-      <c r="F264" s="9"/>
-      <c r="G264" s="9"/>
-      <c r="H264" s="9"/>
-      <c r="I264" s="9"/>
-      <c r="J264" s="9"/>
-      <c r="K264" s="9"/>
-      <c r="L264" s="9"/>
-      <c r="M264" s="9"/>
-      <c r="N264" s="9"/>
-      <c r="O264" s="9"/>
-      <c r="P264" s="9"/>
-      <c r="Q264" s="9"/>
-      <c r="R264" s="9"/>
-      <c r="S264" s="17"/>
-      <c r="T264" s="9"/>
+      <c r="A264" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="B264" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E264" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F264" s="17">
+        <v>455</v>
+      </c>
+      <c r="G264" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="H264" s="9">
+        <f t="shared" ref="H264" si="39">YEAR(G264)</f>
+        <v>2024</v>
+      </c>
+      <c r="I264" s="9">
+        <f t="shared" ref="I264" si="40">MONTH(G264)</f>
+        <v>2</v>
+      </c>
+      <c r="J264" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K264" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L264" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="M264" s="17">
+        <v>1</v>
+      </c>
+      <c r="N264" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O264" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P264" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="Q264" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R264" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S264" s="17">
+        <f t="shared" si="32"/>
+        <v>181</v>
+      </c>
+      <c r="T264" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A265" s="9"/>
-      <c r="B265" s="9"/>
-      <c r="C265" s="9"/>
-      <c r="D265" s="9"/>
-      <c r="E265" s="9"/>
-      <c r="F265" s="9"/>
-      <c r="G265" s="9"/>
-      <c r="H265" s="9"/>
-      <c r="I265" s="9"/>
-      <c r="J265" s="9"/>
-      <c r="K265" s="9"/>
-      <c r="L265" s="9"/>
-      <c r="M265" s="9"/>
-      <c r="N265" s="9"/>
-      <c r="O265" s="9"/>
-      <c r="P265" s="9"/>
-      <c r="Q265" s="9"/>
-      <c r="R265" s="9"/>
-      <c r="S265" s="17"/>
-      <c r="T265" s="9"/>
+      <c r="A265" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="B265" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E265" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F265" s="17">
+        <v>205</v>
+      </c>
+      <c r="G265" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="H265" s="9">
+        <f t="shared" ref="H265" si="41">YEAR(G265)</f>
+        <v>2024</v>
+      </c>
+      <c r="I265" s="9">
+        <f t="shared" ref="I265" si="42">MONTH(G265)</f>
+        <v>2</v>
+      </c>
+      <c r="J265" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K265" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L265" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M265" s="17">
+        <v>1</v>
+      </c>
+      <c r="N265" s="17">
+        <v>22.49</v>
+      </c>
+      <c r="O265" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P265" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q265" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R265" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S265" s="17">
+        <f t="shared" si="32"/>
+        <v>134</v>
+      </c>
+      <c r="T265" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A266" s="9"/>
-      <c r="B266" s="9"/>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9"/>
-      <c r="E266" s="9"/>
-      <c r="F266" s="9"/>
-      <c r="G266" s="9"/>
-      <c r="H266" s="9"/>
-      <c r="I266" s="9"/>
-      <c r="J266" s="9"/>
-      <c r="K266" s="9"/>
-      <c r="L266" s="9"/>
-      <c r="M266" s="9"/>
-      <c r="N266" s="9"/>
-      <c r="O266" s="9"/>
-      <c r="P266" s="9"/>
-      <c r="Q266" s="9"/>
-      <c r="R266" s="9"/>
-      <c r="S266" s="17"/>
-      <c r="T266" s="9"/>
+      <c r="A266" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="B266" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E266" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F266" s="17">
+        <v>94</v>
+      </c>
+      <c r="G266" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="H266" s="9">
+        <f t="shared" ref="H266" si="43">YEAR(G266)</f>
+        <v>2024</v>
+      </c>
+      <c r="I266" s="9">
+        <f t="shared" ref="I266" si="44">MONTH(G266)</f>
+        <v>2</v>
+      </c>
+      <c r="J266" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K266" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L266" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="M266" s="17">
+        <v>1</v>
+      </c>
+      <c r="N266" s="17">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="O266" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P266" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q266" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R266" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S266" s="17">
+        <f t="shared" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="T266" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A267" s="9"/>
-      <c r="B267" s="9"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9"/>
-      <c r="E267" s="9"/>
-      <c r="F267" s="9"/>
-      <c r="G267" s="9"/>
-      <c r="H267" s="9"/>
-      <c r="I267" s="9"/>
-      <c r="J267" s="9"/>
-      <c r="K267" s="9"/>
-      <c r="L267" s="9"/>
-      <c r="M267" s="9"/>
-      <c r="N267" s="9"/>
-      <c r="O267" s="9"/>
-      <c r="P267" s="9"/>
-      <c r="Q267" s="9"/>
-      <c r="R267" s="9"/>
-      <c r="S267" s="17"/>
-      <c r="T267" s="9"/>
+      <c r="A267" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="B267" s="17">
+        <v>2020</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E267" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F267" s="17">
+        <v>132</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="H267" s="9">
+        <f t="shared" ref="H267:H268" si="45">YEAR(G267)</f>
+        <v>2024</v>
+      </c>
+      <c r="I267" s="9">
+        <f t="shared" ref="I267:I268" si="46">MONTH(G267)</f>
+        <v>2</v>
+      </c>
+      <c r="J267" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K267" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L267" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M267" s="17">
+        <v>1</v>
+      </c>
+      <c r="N267" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O267" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P267" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q267" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R267" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S267" s="17">
+        <f t="shared" si="32"/>
+        <v>121</v>
+      </c>
+      <c r="T267" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A268" s="9"/>
-      <c r="B268" s="9"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9"/>
-      <c r="E268" s="9"/>
-      <c r="F268" s="9"/>
-      <c r="G268" s="9"/>
-      <c r="H268" s="9"/>
-      <c r="I268" s="9"/>
-      <c r="J268" s="9"/>
-      <c r="K268" s="9"/>
-      <c r="L268" s="9"/>
-      <c r="M268" s="9"/>
-      <c r="N268" s="9"/>
-      <c r="O268" s="9"/>
-      <c r="P268" s="9"/>
-      <c r="Q268" s="9"/>
-      <c r="R268" s="9"/>
-      <c r="S268" s="17"/>
-      <c r="T268" s="9"/>
+      <c r="A268" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="B268" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E268" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F268" s="17">
+        <v>715</v>
+      </c>
+      <c r="G268" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="H268" s="9">
+        <f t="shared" si="45"/>
+        <v>2024</v>
+      </c>
+      <c r="I268" s="9">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="J268" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K268" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L268" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M268" s="17">
+        <v>2</v>
+      </c>
+      <c r="N268" s="17">
+        <v>38.24</v>
+      </c>
+      <c r="O268" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P268" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="Q268" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R268" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S268" s="17">
+        <f t="shared" si="32"/>
+        <v>105</v>
+      </c>
+      <c r="T268" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A269" s="9"/>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
-      <c r="E269" s="9"/>
-      <c r="F269" s="9"/>
-      <c r="G269" s="9"/>
-      <c r="H269" s="9"/>
-      <c r="I269" s="9"/>
-      <c r="J269" s="9"/>
-      <c r="K269" s="9"/>
-      <c r="L269" s="9"/>
-      <c r="M269" s="9"/>
-      <c r="N269" s="9"/>
-      <c r="O269" s="9"/>
-      <c r="P269" s="9"/>
-      <c r="Q269" s="9"/>
-      <c r="R269" s="9"/>
-      <c r="S269" s="17"/>
-      <c r="T269" s="9"/>
+      <c r="A269" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="B269" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E269" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F269" s="17">
+        <v>192</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="H269" s="9">
+        <f t="shared" ref="H269" si="47">YEAR(G269)</f>
+        <v>2024</v>
+      </c>
+      <c r="I269" s="9">
+        <f t="shared" ref="I269" si="48">MONTH(G269)</f>
+        <v>2</v>
+      </c>
+      <c r="J269" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K269" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L269" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="M269" s="17">
+        <v>1</v>
+      </c>
+      <c r="N269" s="17">
+        <v>54.99</v>
+      </c>
+      <c r="O269" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P269" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q269" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R269" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S269" s="17">
+        <f t="shared" si="32"/>
+        <v>142</v>
+      </c>
+      <c r="T269" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A270" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="B270" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F270" s="17">
+        <v>139</v>
+      </c>
+      <c r="G270" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="H270" s="9">
+        <f t="shared" ref="H270" si="49">YEAR(G270)</f>
+        <v>2024</v>
+      </c>
+      <c r="I270" s="9">
+        <f t="shared" ref="I270" si="50">MONTH(G270)</f>
+        <v>2</v>
+      </c>
+      <c r="J270" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K270" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L270" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="M270" s="17">
+        <v>1</v>
+      </c>
+      <c r="N270" s="17">
+        <v>59.95</v>
+      </c>
+      <c r="O270" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P270" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q270" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R270" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S270" s="17">
+        <f t="shared" si="32"/>
+        <v>138</v>
+      </c>
+      <c r="T270" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A271" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="B271" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E271" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F271" s="17">
+        <v>963</v>
+      </c>
+      <c r="G271" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="H271" s="9">
+        <f t="shared" ref="H271" si="51">YEAR(G271)</f>
+        <v>2024</v>
+      </c>
+      <c r="I271" s="9">
+        <f t="shared" ref="I271" si="52">MONTH(G271)</f>
+        <v>2</v>
+      </c>
+      <c r="J271" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K271" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L271" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M271" s="17">
+        <v>3</v>
+      </c>
+      <c r="N271" s="17">
+        <v>65.23</v>
+      </c>
+      <c r="O271" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P271" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="Q271" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R271" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S271" s="17">
+        <f t="shared" si="32"/>
+        <v>90</v>
+      </c>
+      <c r="T271" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A272" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="B272" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E272" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F272" s="17">
+        <v>229</v>
+      </c>
+      <c r="G272" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="H272" s="9">
+        <f t="shared" ref="H272:H273" si="53">YEAR(G272)</f>
+        <v>2024</v>
+      </c>
+      <c r="I272" s="9">
+        <f t="shared" ref="I272:I273" si="54">MONTH(G272)</f>
+        <v>2</v>
+      </c>
+      <c r="J272" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K272" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L272" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="M272" s="17">
+        <v>2</v>
+      </c>
+      <c r="N272" s="17">
+        <v>54.99</v>
+      </c>
+      <c r="O272" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P272" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q272" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R272" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S272" s="17">
+        <f t="shared" si="32"/>
+        <v>75</v>
+      </c>
+      <c r="T272" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A273" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="B273" s="17">
+        <v>2018</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F273" s="17">
+        <v>978</v>
+      </c>
+      <c r="G273" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="H273" s="9">
+        <f t="shared" si="53"/>
+        <v>2024</v>
+      </c>
+      <c r="I273" s="9">
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="J273" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K273" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L273" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M273" s="17">
+        <v>2</v>
+      </c>
+      <c r="N273" s="17">
+        <v>33.99</v>
+      </c>
+      <c r="O273" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P273" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="Q273" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R273" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S273" s="17">
+        <f t="shared" si="32"/>
+        <v>125</v>
+      </c>
+      <c r="T273" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A274" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="B274" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F274" s="17">
+        <v>264</v>
+      </c>
+      <c r="G274" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="H274" s="9">
+        <f t="shared" ref="H274" si="55">YEAR(G274)</f>
+        <v>2024</v>
+      </c>
+      <c r="I274" s="9">
+        <f t="shared" ref="I274" si="56">MONTH(G274)</f>
+        <v>2</v>
+      </c>
+      <c r="J274" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K274" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L274" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M274" s="17">
+        <v>3</v>
+      </c>
+      <c r="N274" s="17">
+        <v>39.49</v>
+      </c>
+      <c r="O274" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P274" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q274" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R274" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S274" s="17">
+        <f t="shared" si="32"/>
+        <v>59</v>
+      </c>
+      <c r="T274" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A275" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="B275" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E275" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F275" s="17">
+        <v>243</v>
+      </c>
+      <c r="G275" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="H275" s="9">
+        <f t="shared" ref="H275" si="57">YEAR(G275)</f>
+        <v>2024</v>
+      </c>
+      <c r="I275" s="9">
+        <f t="shared" ref="I275" si="58">MONTH(G275)</f>
+        <v>2</v>
+      </c>
+      <c r="J275" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K275" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L275" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="M275" s="17">
+        <v>4</v>
+      </c>
+      <c r="N275" s="17">
+        <v>48.95</v>
+      </c>
+      <c r="O275" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P275" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q275" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R275" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S275" s="17">
+        <f t="shared" si="32"/>
+        <v>140</v>
+      </c>
+      <c r="T275" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A276" s="13"/>
+      <c r="B276" s="9"/>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
+      <c r="I276" s="9"/>
+      <c r="J276" s="9"/>
+      <c r="K276" s="9"/>
+      <c r="L276" s="9"/>
+      <c r="M276" s="9"/>
+      <c r="N276" s="9"/>
+      <c r="O276" s="9"/>
+      <c r="P276" s="13"/>
+      <c r="Q276" s="9"/>
+      <c r="R276" s="9"/>
+      <c r="S276" s="17"/>
+      <c r="T276" s="9"/>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A277" s="13"/>
+      <c r="B277" s="9"/>
+      <c r="C277" s="9"/>
+      <c r="D277" s="9"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="9"/>
+      <c r="H277" s="9"/>
+      <c r="I277" s="9"/>
+      <c r="J277" s="9"/>
+      <c r="K277" s="9"/>
+      <c r="L277" s="9"/>
+      <c r="M277" s="9"/>
+      <c r="N277" s="9"/>
+      <c r="O277" s="9"/>
+      <c r="P277" s="13"/>
+      <c r="Q277" s="9"/>
+      <c r="R277" s="9"/>
+      <c r="S277" s="17"/>
+      <c r="T277" s="9"/>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A278" s="13"/>
+      <c r="B278" s="9"/>
+      <c r="C278" s="9"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="9"/>
+      <c r="I278" s="9"/>
+      <c r="J278" s="9"/>
+      <c r="K278" s="9"/>
+      <c r="L278" s="9"/>
+      <c r="M278" s="9"/>
+      <c r="N278" s="9"/>
+      <c r="O278" s="9"/>
+      <c r="P278" s="13"/>
+      <c r="Q278" s="9"/>
+      <c r="R278" s="9"/>
+      <c r="S278" s="17"/>
+      <c r="T278" s="9"/>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A279" s="13"/>
+      <c r="B279" s="9"/>
+      <c r="C279" s="9"/>
+      <c r="D279" s="9"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="9"/>
+      <c r="H279" s="9"/>
+      <c r="I279" s="9"/>
+      <c r="J279" s="9"/>
+      <c r="K279" s="9"/>
+      <c r="L279" s="9"/>
+      <c r="M279" s="9"/>
+      <c r="N279" s="9"/>
+      <c r="O279" s="9"/>
+      <c r="P279" s="13"/>
+      <c r="Q279" s="9"/>
+      <c r="R279" s="9"/>
+      <c r="S279" s="17"/>
+      <c r="T279" s="9"/>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A280" s="13"/>
+      <c r="B280" s="9"/>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="9"/>
+      <c r="I280" s="9"/>
+      <c r="J280" s="9"/>
+      <c r="K280" s="9"/>
+      <c r="L280" s="9"/>
+      <c r="M280" s="9"/>
+      <c r="N280" s="9"/>
+      <c r="O280" s="9"/>
+      <c r="P280" s="13"/>
+      <c r="Q280" s="9"/>
+      <c r="R280" s="9"/>
+      <c r="S280" s="17"/>
+      <c r="T280" s="9"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A281" s="13"/>
+      <c r="B281" s="9"/>
+      <c r="C281" s="9"/>
+      <c r="D281" s="9"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="9"/>
+      <c r="I281" s="9"/>
+      <c r="J281" s="9"/>
+      <c r="K281" s="9"/>
+      <c r="L281" s="9"/>
+      <c r="M281" s="9"/>
+      <c r="N281" s="9"/>
+      <c r="O281" s="9"/>
+      <c r="P281" s="13"/>
+      <c r="Q281" s="9"/>
+      <c r="R281" s="9"/>
+      <c r="S281" s="17"/>
+      <c r="T281" s="9"/>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A282" s="13"/>
+      <c r="B282" s="9"/>
+      <c r="C282" s="9"/>
+      <c r="D282" s="9"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="9"/>
+      <c r="I282" s="9"/>
+      <c r="J282" s="9"/>
+      <c r="K282" s="9"/>
+      <c r="L282" s="9"/>
+      <c r="M282" s="9"/>
+      <c r="N282" s="9"/>
+      <c r="O282" s="9"/>
+      <c r="P282" s="13"/>
+      <c r="Q282" s="9"/>
+      <c r="R282" s="9"/>
+      <c r="S282" s="17"/>
+      <c r="T282" s="9"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A283" s="13"/>
+      <c r="B283" s="9"/>
+      <c r="C283" s="9"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="9"/>
+      <c r="H283" s="9"/>
+      <c r="I283" s="9"/>
+      <c r="J283" s="9"/>
+      <c r="K283" s="9"/>
+      <c r="L283" s="9"/>
+      <c r="M283" s="9"/>
+      <c r="N283" s="9"/>
+      <c r="O283" s="9"/>
+      <c r="P283" s="13"/>
+      <c r="Q283" s="9"/>
+      <c r="R283" s="9"/>
+      <c r="S283" s="17"/>
+      <c r="T283" s="9"/>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A284" s="13"/>
+      <c r="B284" s="9"/>
+      <c r="C284" s="9"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="9"/>
+      <c r="I284" s="9"/>
+      <c r="J284" s="9"/>
+      <c r="K284" s="9"/>
+      <c r="L284" s="9"/>
+      <c r="M284" s="9"/>
+      <c r="N284" s="9"/>
+      <c r="O284" s="9"/>
+      <c r="P284" s="13"/>
+      <c r="Q284" s="9"/>
+      <c r="R284" s="9"/>
+      <c r="S284" s="17"/>
+      <c r="T284" s="9"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A285" s="13"/>
+      <c r="B285" s="9"/>
+      <c r="C285" s="9"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="9"/>
+      <c r="I285" s="9"/>
+      <c r="J285" s="9"/>
+      <c r="K285" s="9"/>
+      <c r="L285" s="9"/>
+      <c r="M285" s="9"/>
+      <c r="N285" s="9"/>
+      <c r="O285" s="9"/>
+      <c r="P285" s="13"/>
+      <c r="Q285" s="9"/>
+      <c r="R285" s="9"/>
+      <c r="S285" s="17"/>
+      <c r="T285" s="9"/>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A286" s="13"/>
+      <c r="B286" s="9"/>
+      <c r="C286" s="9"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
+      <c r="I286" s="9"/>
+      <c r="J286" s="9"/>
+      <c r="K286" s="9"/>
+      <c r="L286" s="9"/>
+      <c r="M286" s="9"/>
+      <c r="N286" s="9"/>
+      <c r="O286" s="9"/>
+      <c r="P286" s="13"/>
+      <c r="Q286" s="9"/>
+      <c r="R286" s="9"/>
+      <c r="S286" s="17"/>
+      <c r="T286" s="9"/>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A287" s="13"/>
+      <c r="B287" s="9"/>
+      <c r="C287" s="9"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="9"/>
+      <c r="I287" s="9"/>
+      <c r="J287" s="9"/>
+      <c r="K287" s="9"/>
+      <c r="L287" s="9"/>
+      <c r="M287" s="9"/>
+      <c r="N287" s="9"/>
+      <c r="O287" s="9"/>
+      <c r="P287" s="13"/>
+      <c r="Q287" s="9"/>
+      <c r="R287" s="9"/>
+      <c r="S287" s="17"/>
+      <c r="T287" s="9"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A288" s="13"/>
+      <c r="B288" s="9"/>
+      <c r="C288" s="9"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="9"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="9"/>
+      <c r="I288" s="9"/>
+      <c r="J288" s="9"/>
+      <c r="K288" s="9"/>
+      <c r="L288" s="9"/>
+      <c r="M288" s="9"/>
+      <c r="N288" s="9"/>
+      <c r="O288" s="9"/>
+      <c r="P288" s="13"/>
+      <c r="Q288" s="9"/>
+      <c r="R288" s="9"/>
+      <c r="S288" s="17"/>
+      <c r="T288" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Repositories\jupnb-nwreadinglistmanager\nwreadinglistmanager\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Repositories\jupnb-nwreadinglist\nwreadinglist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4506" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="963">
   <si>
     <t>Format</t>
   </si>
@@ -2912,6 +2912,24 @@
   </si>
   <si>
     <t>Useful. Excellent book about the topic. It's well-written, comprehensive and pragmatic. It would become perfect by removing the repetitions.</t>
+  </si>
+  <si>
+    <t>The Quick Guide to Prompt Engineering</t>
+  </si>
+  <si>
+    <t>2024-05-19</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Useless. Extremely repetitive, the same content could have been written in 40 pages. No practical or hands-on knowledge, just obvious and superficial statements. Avoid.</t>
+  </si>
+  <si>
+    <t>Writing AI Prompts For Dummies</t>
+  </si>
+  <si>
+    <t>Useless. It's a list of online AI services and a soup of obvious statements. No hands-on knowledge.</t>
   </si>
 </sst>
 </file>
@@ -10758,8 +10776,8 @@
   <dimension ref="A1:T288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C277" sqref="C277"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -25789,7 +25807,7 @@
         <v>158</v>
       </c>
       <c r="S231" s="17">
-        <f t="shared" ref="S231:S275" si="32">LEN(P231)</f>
+        <f t="shared" ref="S231:S277" si="32">LEN(P231)</f>
         <v>54</v>
       </c>
       <c r="T231" s="14">
@@ -28614,11 +28632,11 @@
         <v>951</v>
       </c>
       <c r="H275" s="9">
-        <f t="shared" ref="H275" si="57">YEAR(G275)</f>
+        <f t="shared" ref="H275:H277" si="57">YEAR(G275)</f>
         <v>2024</v>
       </c>
       <c r="I275" s="9">
-        <f t="shared" ref="I275" si="58">MONTH(G275)</f>
+        <f t="shared" ref="I275:I276" si="58">MONTH(G275)</f>
         <v>2</v>
       </c>
       <c r="J275" s="9" t="s">
@@ -28657,48 +28675,134 @@
       </c>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A276" s="13"/>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9"/>
-      <c r="D276" s="9"/>
-      <c r="E276" s="9"/>
-      <c r="F276" s="9"/>
-      <c r="G276" s="9"/>
-      <c r="H276" s="9"/>
-      <c r="I276" s="9"/>
-      <c r="J276" s="9"/>
-      <c r="K276" s="9"/>
-      <c r="L276" s="9"/>
-      <c r="M276" s="9"/>
-      <c r="N276" s="9"/>
-      <c r="O276" s="9"/>
-      <c r="P276" s="13"/>
-      <c r="Q276" s="9"/>
-      <c r="R276" s="9"/>
-      <c r="S276" s="17"/>
-      <c r="T276" s="9"/>
+      <c r="A276" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="B276" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E276" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F276" s="17">
+        <v>337</v>
+      </c>
+      <c r="G276" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="H276" s="9">
+        <f t="shared" si="57"/>
+        <v>2024</v>
+      </c>
+      <c r="I276" s="9">
+        <f>MONTH(G276)</f>
+        <v>5</v>
+      </c>
+      <c r="J276" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K276" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L276" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="M276" s="17">
+        <v>1</v>
+      </c>
+      <c r="N276" s="17">
+        <v>24.99</v>
+      </c>
+      <c r="O276" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P276" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q276" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="R276" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S276" s="17">
+        <f t="shared" si="32"/>
+        <v>168</v>
+      </c>
+      <c r="T276" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A277" s="13"/>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
-      <c r="E277" s="9"/>
-      <c r="F277" s="9"/>
-      <c r="G277" s="9"/>
-      <c r="H277" s="9"/>
-      <c r="I277" s="9"/>
-      <c r="J277" s="9"/>
-      <c r="K277" s="9"/>
-      <c r="L277" s="9"/>
-      <c r="M277" s="9"/>
-      <c r="N277" s="9"/>
-      <c r="O277" s="9"/>
-      <c r="P277" s="13"/>
-      <c r="Q277" s="9"/>
-      <c r="R277" s="9"/>
-      <c r="S277" s="17"/>
-      <c r="T277" s="9"/>
+      <c r="A277" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="B277" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F277" s="17">
+        <v>253</v>
+      </c>
+      <c r="G277" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="H277" s="9">
+        <f t="shared" si="57"/>
+        <v>2024</v>
+      </c>
+      <c r="I277" s="9">
+        <f>MONTH(G277)</f>
+        <v>5</v>
+      </c>
+      <c r="J277" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K277" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L277" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="M277" s="17">
+        <v>1</v>
+      </c>
+      <c r="N277" s="17">
+        <v>24.99</v>
+      </c>
+      <c r="O277" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P277" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q277" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="R277" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S277" s="17">
+        <f t="shared" si="32"/>
+        <v>99</v>
+      </c>
+      <c r="T277" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="13"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="971">
   <si>
     <t>Format</t>
   </si>
@@ -2930,6 +2930,30 @@
   </si>
   <si>
     <t>Useless. It's a list of online AI services and a soup of obvious statements. No hands-on knowledge.</t>
+  </si>
+  <si>
+    <t>Product Management</t>
+  </si>
+  <si>
+    <t>Unlocking The Secrets of Prompt Engineering</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>Useful. Despite being a book published by Packt, it's reasonably well written, clear and structured, and not the usual copy&amp;paste of random blocks of text taken from the internet. It's not a masterpiece, but it contains a couple of use cases that stimulate your critical thinking.</t>
+  </si>
+  <si>
+    <t>API as a Product</t>
+  </si>
+  <si>
+    <t>Useful. Concise and comprehensive book about product management and API development.</t>
+  </si>
+  <si>
+    <t>Building an API Product</t>
+  </si>
+  <si>
+    <t>Useful. Decent book, but as many published by Packt contains many repetitions and redundancy. It could be easily shrinked be 1/3 without losing content.</t>
   </si>
 </sst>
 </file>
@@ -10776,8 +10800,8 @@
   <dimension ref="A1:T288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -24696,7 +24720,7 @@
         <v>825</v>
       </c>
       <c r="Q214" s="9" t="s">
-        <v>469</v>
+        <v>963</v>
       </c>
       <c r="R214" s="9" t="s">
         <v>159</v>
@@ -25807,7 +25831,7 @@
         <v>158</v>
       </c>
       <c r="S231" s="17">
-        <f t="shared" ref="S231:S277" si="32">LEN(P231)</f>
+        <f t="shared" ref="S231:S280" si="32">LEN(P231)</f>
         <v>54</v>
       </c>
       <c r="T231" s="14">
@@ -28632,11 +28656,11 @@
         <v>951</v>
       </c>
       <c r="H275" s="9">
-        <f t="shared" ref="H275:H277" si="57">YEAR(G275)</f>
+        <f t="shared" ref="H275:H278" si="57">YEAR(G275)</f>
         <v>2024</v>
       </c>
       <c r="I275" s="9">
-        <f t="shared" ref="I275:I276" si="58">MONTH(G275)</f>
+        <f t="shared" ref="I275" si="58">MONTH(G275)</f>
         <v>2</v>
       </c>
       <c r="J275" s="9" t="s">
@@ -28805,70 +28829,199 @@
       </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A278" s="13"/>
-      <c r="B278" s="9"/>
-      <c r="C278" s="9"/>
-      <c r="D278" s="9"/>
-      <c r="E278" s="9"/>
-      <c r="F278" s="9"/>
-      <c r="G278" s="9"/>
-      <c r="H278" s="9"/>
-      <c r="I278" s="9"/>
-      <c r="J278" s="9"/>
-      <c r="K278" s="9"/>
-      <c r="L278" s="9"/>
-      <c r="M278" s="9"/>
-      <c r="N278" s="9"/>
-      <c r="O278" s="9"/>
-      <c r="P278" s="13"/>
-      <c r="Q278" s="9"/>
-      <c r="R278" s="9"/>
-      <c r="S278" s="17"/>
-      <c r="T278" s="9"/>
+      <c r="A278" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="B278" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E278" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F278" s="17">
+        <v>316</v>
+      </c>
+      <c r="G278" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="H278" s="9">
+        <f t="shared" si="57"/>
+        <v>2024</v>
+      </c>
+      <c r="I278" s="9">
+        <f>MONTH(G278)</f>
+        <v>6</v>
+      </c>
+      <c r="J278" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K278" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L278" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M278" s="17">
+        <v>3</v>
+      </c>
+      <c r="N278" s="17">
+        <v>44.99</v>
+      </c>
+      <c r="O278" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P278" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q278" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="R278" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S278" s="17">
+        <f t="shared" si="32"/>
+        <v>280</v>
+      </c>
+      <c r="T278" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A279" s="13"/>
-      <c r="B279" s="9"/>
-      <c r="C279" s="9"/>
-      <c r="D279" s="9"/>
-      <c r="E279" s="9"/>
-      <c r="F279" s="9"/>
-      <c r="G279" s="9"/>
-      <c r="H279" s="9"/>
-      <c r="I279" s="9"/>
-      <c r="J279" s="9"/>
-      <c r="K279" s="9"/>
-      <c r="L279" s="9"/>
-      <c r="M279" s="9"/>
-      <c r="N279" s="9"/>
-      <c r="O279" s="9"/>
-      <c r="P279" s="13"/>
-      <c r="Q279" s="9"/>
-      <c r="R279" s="9"/>
-      <c r="S279" s="17"/>
-      <c r="T279" s="9"/>
+      <c r="A279" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="B279" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F279" s="17">
+        <v>112</v>
+      </c>
+      <c r="G279" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="H279" s="9">
+        <f t="shared" ref="H279" si="59">YEAR(G279)</f>
+        <v>2024</v>
+      </c>
+      <c r="I279" s="9">
+        <f>MONTH(G279)</f>
+        <v>6</v>
+      </c>
+      <c r="J279" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K279" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L279" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M279" s="17">
+        <v>3</v>
+      </c>
+      <c r="N279" s="43">
+        <v>0</v>
+      </c>
+      <c r="O279" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P279" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q279" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R279" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S279" s="17">
+        <f t="shared" si="32"/>
+        <v>84</v>
+      </c>
+      <c r="T279" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A280" s="13"/>
-      <c r="B280" s="9"/>
-      <c r="C280" s="9"/>
-      <c r="D280" s="9"/>
-      <c r="E280" s="9"/>
-      <c r="F280" s="9"/>
-      <c r="G280" s="9"/>
-      <c r="H280" s="9"/>
-      <c r="I280" s="9"/>
-      <c r="J280" s="9"/>
-      <c r="K280" s="9"/>
-      <c r="L280" s="9"/>
-      <c r="M280" s="9"/>
-      <c r="N280" s="9"/>
-      <c r="O280" s="9"/>
-      <c r="P280" s="13"/>
-      <c r="Q280" s="9"/>
-      <c r="R280" s="9"/>
-      <c r="S280" s="17"/>
-      <c r="T280" s="9"/>
+      <c r="A280" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="B280" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F280" s="17">
+        <v>1779</v>
+      </c>
+      <c r="G280" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="H280" s="9">
+        <f t="shared" ref="H280" si="60">YEAR(G280)</f>
+        <v>2024</v>
+      </c>
+      <c r="I280" s="9">
+        <f>MONTH(G280)</f>
+        <v>6</v>
+      </c>
+      <c r="J280" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K280" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L280" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M280" s="17">
+        <v>3</v>
+      </c>
+      <c r="N280" s="17">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="O280" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P280" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q280" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R280" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S280" s="17">
+        <f t="shared" si="32"/>
+        <v>152</v>
+      </c>
+      <c r="T280" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="13"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="978">
   <si>
     <t>Format</t>
   </si>
@@ -2954,6 +2954,27 @@
   </si>
   <si>
     <t>Useful. Decent book, but as many published by Packt contains many repetitions and redundancy. It could be easily shrinked be 1/3 without losing content.</t>
+  </si>
+  <si>
+    <t>The Kaggle Book</t>
+  </si>
+  <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
+    <t>Useless. No actionable knowledge, just a very wordy description of how Kaggle works, with a bunch of random data science theory blocks in the mix. [STOPPED 152]</t>
+  </si>
+  <si>
+    <t>Microservice API</t>
+  </si>
+  <si>
+    <t>2024-07-04</t>
+  </si>
+  <si>
+    <t>Useful. It contains some useful bits of knowledge about FastAPI.</t>
+  </si>
+  <si>
+    <t>Building and Delivering Microservices on AWS</t>
   </si>
 </sst>
 </file>
@@ -10797,11 +10818,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T288"/>
+  <dimension ref="A1:T300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -25831,7 +25852,7 @@
         <v>158</v>
       </c>
       <c r="S231" s="17">
-        <f t="shared" ref="S231:S280" si="32">LEN(P231)</f>
+        <f t="shared" ref="S231:S282" si="32">LEN(P231)</f>
         <v>54</v>
       </c>
       <c r="T231" s="14">
@@ -28981,7 +29002,7 @@
         <v>965</v>
       </c>
       <c r="H280" s="9">
-        <f t="shared" ref="H280" si="60">YEAR(G280)</f>
+        <f t="shared" ref="H280:H282" si="60">YEAR(G280)</f>
         <v>2024</v>
       </c>
       <c r="I280" s="9">
@@ -29024,68 +29045,176 @@
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A281" s="13"/>
-      <c r="B281" s="9"/>
-      <c r="C281" s="9"/>
-      <c r="D281" s="9"/>
-      <c r="E281" s="9"/>
-      <c r="F281" s="9"/>
-      <c r="G281" s="9"/>
-      <c r="H281" s="9"/>
-      <c r="I281" s="9"/>
-      <c r="J281" s="9"/>
-      <c r="K281" s="9"/>
-      <c r="L281" s="9"/>
-      <c r="M281" s="9"/>
-      <c r="N281" s="9"/>
-      <c r="O281" s="9"/>
-      <c r="P281" s="13"/>
-      <c r="Q281" s="9"/>
-      <c r="R281" s="9"/>
-      <c r="S281" s="17"/>
-      <c r="T281" s="9"/>
+      <c r="A281" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="B281" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F281" s="17">
+        <v>365</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="H281" s="9">
+        <f t="shared" si="60"/>
+        <v>2024</v>
+      </c>
+      <c r="I281" s="9">
+        <f>MONTH(G281)</f>
+        <v>6</v>
+      </c>
+      <c r="J281" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K281" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L281" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M281" s="17">
+        <v>1</v>
+      </c>
+      <c r="N281" s="17">
+        <v>49.15</v>
+      </c>
+      <c r="O281" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P281" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="Q281" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="R281" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S281" s="17">
+        <f t="shared" si="32"/>
+        <v>160</v>
+      </c>
+      <c r="T281" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A282" s="13"/>
-      <c r="B282" s="9"/>
-      <c r="C282" s="9"/>
-      <c r="D282" s="9"/>
-      <c r="E282" s="9"/>
-      <c r="F282" s="9"/>
-      <c r="G282" s="9"/>
-      <c r="H282" s="9"/>
-      <c r="I282" s="9"/>
-      <c r="J282" s="9"/>
-      <c r="K282" s="9"/>
-      <c r="L282" s="9"/>
-      <c r="M282" s="9"/>
-      <c r="N282" s="9"/>
-      <c r="O282" s="9"/>
-      <c r="P282" s="13"/>
-      <c r="Q282" s="9"/>
-      <c r="R282" s="9"/>
-      <c r="S282" s="17"/>
-      <c r="T282" s="9"/>
+      <c r="A282" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="B282" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F282" s="17">
+        <v>340</v>
+      </c>
+      <c r="G282" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="H282" s="9">
+        <f t="shared" si="60"/>
+        <v>2024</v>
+      </c>
+      <c r="I282" s="9">
+        <f>MONTH(G282)</f>
+        <v>7</v>
+      </c>
+      <c r="J282" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K282" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L282" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="M282" s="17">
+        <v>2</v>
+      </c>
+      <c r="N282" s="17">
+        <v>50.21</v>
+      </c>
+      <c r="O282" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P282" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="Q282" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R282" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S282" s="17">
+        <f t="shared" si="32"/>
+        <v>64</v>
+      </c>
+      <c r="T282" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A283" s="13"/>
-      <c r="B283" s="9"/>
-      <c r="C283" s="9"/>
-      <c r="D283" s="9"/>
-      <c r="E283" s="9"/>
-      <c r="F283" s="9"/>
+      <c r="A283" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="B283" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F283" s="17">
+        <v>600</v>
+      </c>
       <c r="G283" s="9"/>
       <c r="H283" s="9"/>
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
       <c r="K283" s="9"/>
-      <c r="L283" s="9"/>
+      <c r="L283" s="9" t="s">
+        <v>365</v>
+      </c>
       <c r="M283" s="9"/>
-      <c r="N283" s="9"/>
-      <c r="O283" s="9"/>
+      <c r="N283" s="17">
+        <v>43.13</v>
+      </c>
+      <c r="O283" s="9" t="s">
+        <v>664</v>
+      </c>
       <c r="P283" s="13"/>
-      <c r="Q283" s="9"/>
-      <c r="R283" s="9"/>
+      <c r="Q283" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R283" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="S283" s="17"/>
       <c r="T283" s="9"/>
     </row>
@@ -29198,6 +29327,270 @@
       <c r="R288" s="9"/>
       <c r="S288" s="17"/>
       <c r="T288" s="9"/>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A289" s="9"/>
+      <c r="B289" s="9"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="9"/>
+      <c r="G289" s="9"/>
+      <c r="H289" s="9"/>
+      <c r="I289" s="9"/>
+      <c r="J289" s="9"/>
+      <c r="K289" s="9"/>
+      <c r="L289" s="9"/>
+      <c r="M289" s="9"/>
+      <c r="N289" s="9"/>
+      <c r="O289" s="9"/>
+      <c r="P289" s="9"/>
+      <c r="Q289" s="9"/>
+      <c r="R289" s="9"/>
+      <c r="S289" s="17"/>
+      <c r="T289" s="9"/>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A290" s="9"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="9"/>
+      <c r="D290" s="9"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="9"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="9"/>
+      <c r="I290" s="9"/>
+      <c r="J290" s="9"/>
+      <c r="K290" s="9"/>
+      <c r="L290" s="9"/>
+      <c r="M290" s="9"/>
+      <c r="N290" s="9"/>
+      <c r="O290" s="9"/>
+      <c r="P290" s="9"/>
+      <c r="Q290" s="9"/>
+      <c r="R290" s="9"/>
+      <c r="S290" s="17"/>
+      <c r="T290" s="9"/>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A291" s="9"/>
+      <c r="B291" s="9"/>
+      <c r="C291" s="9"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="9"/>
+      <c r="G291" s="9"/>
+      <c r="H291" s="9"/>
+      <c r="I291" s="9"/>
+      <c r="J291" s="9"/>
+      <c r="K291" s="9"/>
+      <c r="L291" s="9"/>
+      <c r="M291" s="9"/>
+      <c r="N291" s="9"/>
+      <c r="O291" s="9"/>
+      <c r="P291" s="9"/>
+      <c r="Q291" s="9"/>
+      <c r="R291" s="9"/>
+      <c r="S291" s="17"/>
+      <c r="T291" s="9"/>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A292" s="9"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="9"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="9"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="9"/>
+      <c r="I292" s="9"/>
+      <c r="J292" s="9"/>
+      <c r="K292" s="9"/>
+      <c r="L292" s="9"/>
+      <c r="M292" s="9"/>
+      <c r="N292" s="9"/>
+      <c r="O292" s="9"/>
+      <c r="P292" s="9"/>
+      <c r="Q292" s="9"/>
+      <c r="R292" s="9"/>
+      <c r="S292" s="17"/>
+      <c r="T292" s="9"/>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A293" s="9"/>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="9"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="9"/>
+      <c r="I293" s="9"/>
+      <c r="J293" s="9"/>
+      <c r="K293" s="9"/>
+      <c r="L293" s="9"/>
+      <c r="M293" s="9"/>
+      <c r="N293" s="9"/>
+      <c r="O293" s="9"/>
+      <c r="P293" s="9"/>
+      <c r="Q293" s="9"/>
+      <c r="R293" s="9"/>
+      <c r="S293" s="17"/>
+      <c r="T293" s="9"/>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A294" s="9"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="9"/>
+      <c r="D294" s="9"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="9"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="9"/>
+      <c r="I294" s="9"/>
+      <c r="J294" s="9"/>
+      <c r="K294" s="9"/>
+      <c r="L294" s="9"/>
+      <c r="M294" s="9"/>
+      <c r="N294" s="9"/>
+      <c r="O294" s="9"/>
+      <c r="P294" s="9"/>
+      <c r="Q294" s="9"/>
+      <c r="R294" s="9"/>
+      <c r="S294" s="17"/>
+      <c r="T294" s="9"/>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A295" s="9"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="9"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="9"/>
+      <c r="G295" s="9"/>
+      <c r="H295" s="9"/>
+      <c r="I295" s="9"/>
+      <c r="J295" s="9"/>
+      <c r="K295" s="9"/>
+      <c r="L295" s="9"/>
+      <c r="M295" s="9"/>
+      <c r="N295" s="9"/>
+      <c r="O295" s="9"/>
+      <c r="P295" s="9"/>
+      <c r="Q295" s="9"/>
+      <c r="R295" s="9"/>
+      <c r="S295" s="17"/>
+      <c r="T295" s="9"/>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A296" s="9"/>
+      <c r="B296" s="9"/>
+      <c r="C296" s="9"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="9"/>
+      <c r="I296" s="9"/>
+      <c r="J296" s="9"/>
+      <c r="K296" s="9"/>
+      <c r="L296" s="9"/>
+      <c r="M296" s="9"/>
+      <c r="N296" s="9"/>
+      <c r="O296" s="9"/>
+      <c r="P296" s="9"/>
+      <c r="Q296" s="9"/>
+      <c r="R296" s="9"/>
+      <c r="S296" s="17"/>
+      <c r="T296" s="9"/>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A297" s="9"/>
+      <c r="B297" s="9"/>
+      <c r="C297" s="9"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="9"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="9"/>
+      <c r="K297" s="9"/>
+      <c r="L297" s="9"/>
+      <c r="M297" s="9"/>
+      <c r="N297" s="9"/>
+      <c r="O297" s="9"/>
+      <c r="P297" s="9"/>
+      <c r="Q297" s="9"/>
+      <c r="R297" s="9"/>
+      <c r="S297" s="17"/>
+      <c r="T297" s="9"/>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A298" s="9"/>
+      <c r="B298" s="9"/>
+      <c r="C298" s="9"/>
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="9"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="9"/>
+      <c r="K298" s="9"/>
+      <c r="L298" s="9"/>
+      <c r="M298" s="9"/>
+      <c r="N298" s="9"/>
+      <c r="O298" s="9"/>
+      <c r="P298" s="9"/>
+      <c r="Q298" s="9"/>
+      <c r="R298" s="9"/>
+      <c r="S298" s="17"/>
+      <c r="T298" s="9"/>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A299" s="9"/>
+      <c r="B299" s="9"/>
+      <c r="C299" s="9"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="9"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="9"/>
+      <c r="K299" s="9"/>
+      <c r="L299" s="9"/>
+      <c r="M299" s="9"/>
+      <c r="N299" s="9"/>
+      <c r="O299" s="9"/>
+      <c r="P299" s="9"/>
+      <c r="Q299" s="9"/>
+      <c r="R299" s="9"/>
+      <c r="S299" s="17"/>
+      <c r="T299" s="9"/>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A300" s="9"/>
+      <c r="B300" s="9"/>
+      <c r="C300" s="9"/>
+      <c r="D300" s="9"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="9"/>
+      <c r="G300" s="9"/>
+      <c r="H300" s="9"/>
+      <c r="I300" s="9"/>
+      <c r="J300" s="9"/>
+      <c r="K300" s="9"/>
+      <c r="L300" s="9"/>
+      <c r="M300" s="9"/>
+      <c r="N300" s="9"/>
+      <c r="O300" s="9"/>
+      <c r="P300" s="9"/>
+      <c r="Q300" s="9"/>
+      <c r="R300" s="9"/>
+      <c r="S300" s="17"/>
+      <c r="T300" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4638" uniqueCount="986">
   <si>
     <t>Format</t>
   </si>
@@ -2975,6 +2975,30 @@
   </si>
   <si>
     <t>Building and Delivering Microservices on AWS</t>
+  </si>
+  <si>
+    <t>2024-07-09</t>
+  </si>
+  <si>
+    <t>Useful. A soup of different topics as every Packt book, but it contains some actionable bits of knowledge.</t>
+  </si>
+  <si>
+    <t>Better Python Code</t>
+  </si>
+  <si>
+    <t>Useless. For the author of this book, writing "better" code is often equal to write terse and less readable code, just because according to him, it's more "pythonic" that way - i.e. enumerate() instead of for...range(len()).</t>
+  </si>
+  <si>
+    <t>The Art of Leadership: Small Things, Done Well</t>
+  </si>
+  <si>
+    <t>Useful. It contains soem good advices, but it's a very wordy and painful-to-read book. Its readability could be massively improved by adopting a recipe book layout and cut 4/5 of the content. If I want to read a novel, I buy a novel.</t>
+  </si>
+  <si>
+    <t>Think One Team</t>
+  </si>
+  <si>
+    <t>Useless. Very wordy and repetitive, the exact same content coulkd have been expressed in 50 pages. It contains very idealistic and unrealistic advices that purposely ignore human nature.</t>
   </si>
 </sst>
 </file>
@@ -10822,7 +10846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
+      <selection pane="bottomLeft" activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -25852,7 +25876,7 @@
         <v>158</v>
       </c>
       <c r="S231" s="17">
-        <f t="shared" ref="S231:S282" si="32">LEN(P231)</f>
+        <f t="shared" ref="S231:S286" si="32">LEN(P231)</f>
         <v>54</v>
       </c>
       <c r="T231" s="14">
@@ -28746,7 +28770,7 @@
         <v>2024</v>
       </c>
       <c r="I276" s="9">
-        <f>MONTH(G276)</f>
+        <f t="shared" ref="I276:I282" si="59">MONTH(G276)</f>
         <v>5</v>
       </c>
       <c r="J276" s="9" t="s">
@@ -28811,7 +28835,7 @@
         <v>2024</v>
       </c>
       <c r="I277" s="9">
-        <f>MONTH(G277)</f>
+        <f t="shared" si="59"/>
         <v>5</v>
       </c>
       <c r="J277" s="9" t="s">
@@ -28876,7 +28900,7 @@
         <v>2024</v>
       </c>
       <c r="I278" s="9">
-        <f>MONTH(G278)</f>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="J278" s="9" t="s">
@@ -28937,11 +28961,11 @@
         <v>965</v>
       </c>
       <c r="H279" s="9">
-        <f t="shared" ref="H279" si="59">YEAR(G279)</f>
+        <f t="shared" ref="H279" si="60">YEAR(G279)</f>
         <v>2024</v>
       </c>
       <c r="I279" s="9">
-        <f>MONTH(G279)</f>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="J279" s="9" t="s">
@@ -29002,11 +29026,11 @@
         <v>965</v>
       </c>
       <c r="H280" s="9">
-        <f t="shared" ref="H280:H282" si="60">YEAR(G280)</f>
+        <f t="shared" ref="H280:H282" si="61">YEAR(G280)</f>
         <v>2024</v>
       </c>
       <c r="I280" s="9">
-        <f>MONTH(G280)</f>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="J280" s="9" t="s">
@@ -29067,11 +29091,11 @@
         <v>972</v>
       </c>
       <c r="H281" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>2024</v>
       </c>
       <c r="I281" s="9">
-        <f>MONTH(G281)</f>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="J281" s="9" t="s">
@@ -29132,11 +29156,11 @@
         <v>975</v>
       </c>
       <c r="H282" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>2024</v>
       </c>
       <c r="I282" s="9">
-        <f>MONTH(G282)</f>
+        <f t="shared" si="59"/>
         <v>7</v>
       </c>
       <c r="J282" s="9" t="s">
@@ -29193,96 +29217,246 @@
       <c r="F283" s="17">
         <v>600</v>
       </c>
-      <c r="G283" s="9"/>
-      <c r="H283" s="9"/>
-      <c r="I283" s="9"/>
-      <c r="J283" s="9"/>
-      <c r="K283" s="9"/>
+      <c r="G283" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="H283" s="9">
+        <f t="shared" ref="H283" si="62">YEAR(G283)</f>
+        <v>2024</v>
+      </c>
+      <c r="I283" s="9">
+        <f t="shared" ref="I283" si="63">MONTH(G283)</f>
+        <v>7</v>
+      </c>
+      <c r="J283" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K283" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="L283" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="M283" s="9"/>
+      <c r="M283" s="17">
+        <v>2</v>
+      </c>
       <c r="N283" s="17">
         <v>43.13</v>
       </c>
       <c r="O283" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P283" s="13"/>
+      <c r="P283" s="13" t="s">
+        <v>979</v>
+      </c>
       <c r="Q283" s="9" t="s">
         <v>469</v>
       </c>
       <c r="R283" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="S283" s="17"/>
-      <c r="T283" s="9"/>
+      <c r="S283" s="17">
+        <f t="shared" si="32"/>
+        <v>106</v>
+      </c>
+      <c r="T283" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A284" s="13"/>
-      <c r="B284" s="9"/>
-      <c r="C284" s="9"/>
-      <c r="D284" s="9"/>
-      <c r="E284" s="9"/>
-      <c r="F284" s="9"/>
-      <c r="G284" s="9"/>
-      <c r="H284" s="9"/>
-      <c r="I284" s="9"/>
-      <c r="J284" s="9"/>
-      <c r="K284" s="9"/>
-      <c r="L284" s="9"/>
-      <c r="M284" s="9"/>
-      <c r="N284" s="9"/>
-      <c r="O284" s="9"/>
-      <c r="P284" s="13"/>
-      <c r="Q284" s="9"/>
-      <c r="R284" s="9"/>
-      <c r="S284" s="17"/>
-      <c r="T284" s="9"/>
+      <c r="A284" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="B284" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F284" s="17">
+        <v>289</v>
+      </c>
+      <c r="G284" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="H284" s="9">
+        <f t="shared" ref="H284" si="64">YEAR(G284)</f>
+        <v>2024</v>
+      </c>
+      <c r="I284" s="9">
+        <f t="shared" ref="I284" si="65">MONTH(G284)</f>
+        <v>7</v>
+      </c>
+      <c r="J284" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K284" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L284" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="M284" s="17">
+        <v>1</v>
+      </c>
+      <c r="N284" s="17">
+        <v>49.71</v>
+      </c>
+      <c r="O284" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P284" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q284" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R284" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S284" s="17">
+        <f t="shared" si="32"/>
+        <v>224</v>
+      </c>
+      <c r="T284" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A285" s="13"/>
-      <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
-      <c r="D285" s="9"/>
-      <c r="E285" s="9"/>
-      <c r="F285" s="9"/>
-      <c r="G285" s="9"/>
-      <c r="H285" s="9"/>
-      <c r="I285" s="9"/>
-      <c r="J285" s="9"/>
-      <c r="K285" s="9"/>
-      <c r="L285" s="9"/>
-      <c r="M285" s="9"/>
-      <c r="N285" s="9"/>
-      <c r="O285" s="9"/>
-      <c r="P285" s="13"/>
-      <c r="Q285" s="9"/>
-      <c r="R285" s="9"/>
-      <c r="S285" s="17"/>
-      <c r="T285" s="9"/>
+      <c r="A285" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="B285" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F285" s="17">
+        <v>198</v>
+      </c>
+      <c r="G285" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="H285" s="9">
+        <f t="shared" ref="H285" si="66">YEAR(G285)</f>
+        <v>2024</v>
+      </c>
+      <c r="I285" s="9">
+        <f t="shared" ref="I285" si="67">MONTH(G285)</f>
+        <v>7</v>
+      </c>
+      <c r="J285" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K285" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L285" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M285" s="17">
+        <v>2</v>
+      </c>
+      <c r="N285" s="17">
+        <v>22.94</v>
+      </c>
+      <c r="O285" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P285" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q285" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R285" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S285" s="17">
+        <f t="shared" si="32"/>
+        <v>233</v>
+      </c>
+      <c r="T285" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A286" s="13"/>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9"/>
-      <c r="D286" s="9"/>
-      <c r="E286" s="9"/>
-      <c r="F286" s="9"/>
-      <c r="G286" s="9"/>
-      <c r="H286" s="9"/>
-      <c r="I286" s="9"/>
-      <c r="J286" s="9"/>
-      <c r="K286" s="9"/>
-      <c r="L286" s="9"/>
-      <c r="M286" s="9"/>
-      <c r="N286" s="9"/>
-      <c r="O286" s="9"/>
-      <c r="P286" s="13"/>
-      <c r="Q286" s="9"/>
-      <c r="R286" s="9"/>
-      <c r="S286" s="17"/>
-      <c r="T286" s="9"/>
+      <c r="A286" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="B286" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F286" s="17">
+        <v>224</v>
+      </c>
+      <c r="G286" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="H286" s="9">
+        <f t="shared" ref="H286" si="68">YEAR(G286)</f>
+        <v>2024</v>
+      </c>
+      <c r="I286" s="9">
+        <f t="shared" ref="I286" si="69">MONTH(G286)</f>
+        <v>7</v>
+      </c>
+      <c r="J286" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K286" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L286" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="M286" s="17">
+        <v>1</v>
+      </c>
+      <c r="N286" s="17">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="O286" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P286" s="16" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q286" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R286" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S286" s="17">
+        <f t="shared" si="32"/>
+        <v>186</v>
+      </c>
+      <c r="T286" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="13"/>
@@ -29300,7 +29474,7 @@
       <c r="M287" s="9"/>
       <c r="N287" s="9"/>
       <c r="O287" s="9"/>
-      <c r="P287" s="13"/>
+      <c r="P287" s="16"/>
       <c r="Q287" s="9"/>
       <c r="R287" s="9"/>
       <c r="S287" s="17"/>
@@ -29322,7 +29496,7 @@
       <c r="M288" s="9"/>
       <c r="N288" s="9"/>
       <c r="O288" s="9"/>
-      <c r="P288" s="13"/>
+      <c r="P288" s="16"/>
       <c r="Q288" s="9"/>
       <c r="R288" s="9"/>
       <c r="S288" s="17"/>
@@ -29344,7 +29518,7 @@
       <c r="M289" s="9"/>
       <c r="N289" s="9"/>
       <c r="O289" s="9"/>
-      <c r="P289" s="9"/>
+      <c r="P289" s="16"/>
       <c r="Q289" s="9"/>
       <c r="R289" s="9"/>
       <c r="S289" s="17"/>
@@ -29366,7 +29540,7 @@
       <c r="M290" s="9"/>
       <c r="N290" s="9"/>
       <c r="O290" s="9"/>
-      <c r="P290" s="9"/>
+      <c r="P290" s="16"/>
       <c r="Q290" s="9"/>
       <c r="R290" s="9"/>
       <c r="S290" s="17"/>
@@ -29388,7 +29562,7 @@
       <c r="M291" s="9"/>
       <c r="N291" s="9"/>
       <c r="O291" s="9"/>
-      <c r="P291" s="9"/>
+      <c r="P291" s="16"/>
       <c r="Q291" s="9"/>
       <c r="R291" s="9"/>
       <c r="S291" s="17"/>
@@ -29410,7 +29584,7 @@
       <c r="M292" s="9"/>
       <c r="N292" s="9"/>
       <c r="O292" s="9"/>
-      <c r="P292" s="9"/>
+      <c r="P292" s="16"/>
       <c r="Q292" s="9"/>
       <c r="R292" s="9"/>
       <c r="S292" s="17"/>
@@ -29432,7 +29606,7 @@
       <c r="M293" s="9"/>
       <c r="N293" s="9"/>
       <c r="O293" s="9"/>
-      <c r="P293" s="9"/>
+      <c r="P293" s="16"/>
       <c r="Q293" s="9"/>
       <c r="R293" s="9"/>
       <c r="S293" s="17"/>
@@ -29454,7 +29628,7 @@
       <c r="M294" s="9"/>
       <c r="N294" s="9"/>
       <c r="O294" s="9"/>
-      <c r="P294" s="9"/>
+      <c r="P294" s="16"/>
       <c r="Q294" s="9"/>
       <c r="R294" s="9"/>
       <c r="S294" s="17"/>
@@ -29476,7 +29650,7 @@
       <c r="M295" s="9"/>
       <c r="N295" s="9"/>
       <c r="O295" s="9"/>
-      <c r="P295" s="9"/>
+      <c r="P295" s="16"/>
       <c r="Q295" s="9"/>
       <c r="R295" s="9"/>
       <c r="S295" s="17"/>
@@ -29498,7 +29672,7 @@
       <c r="M296" s="9"/>
       <c r="N296" s="9"/>
       <c r="O296" s="9"/>
-      <c r="P296" s="9"/>
+      <c r="P296" s="16"/>
       <c r="Q296" s="9"/>
       <c r="R296" s="9"/>
       <c r="S296" s="17"/>
@@ -29520,7 +29694,7 @@
       <c r="M297" s="9"/>
       <c r="N297" s="9"/>
       <c r="O297" s="9"/>
-      <c r="P297" s="9"/>
+      <c r="P297" s="16"/>
       <c r="Q297" s="9"/>
       <c r="R297" s="9"/>
       <c r="S297" s="17"/>
@@ -29542,7 +29716,7 @@
       <c r="M298" s="9"/>
       <c r="N298" s="9"/>
       <c r="O298" s="9"/>
-      <c r="P298" s="9"/>
+      <c r="P298" s="16"/>
       <c r="Q298" s="9"/>
       <c r="R298" s="9"/>
       <c r="S298" s="17"/>
@@ -29564,7 +29738,7 @@
       <c r="M299" s="9"/>
       <c r="N299" s="9"/>
       <c r="O299" s="9"/>
-      <c r="P299" s="9"/>
+      <c r="P299" s="16"/>
       <c r="Q299" s="9"/>
       <c r="R299" s="9"/>
       <c r="S299" s="17"/>
@@ -29586,7 +29760,7 @@
       <c r="M300" s="9"/>
       <c r="N300" s="9"/>
       <c r="O300" s="9"/>
-      <c r="P300" s="9"/>
+      <c r="P300" s="16"/>
       <c r="Q300" s="9"/>
       <c r="R300" s="9"/>
       <c r="S300" s="17"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4638" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4698" uniqueCount="998">
   <si>
     <t>Format</t>
   </si>
@@ -2999,6 +2999,42 @@
   </si>
   <si>
     <t>Useless. Very wordy and repetitive, the exact same content coulkd have been expressed in 50 pages. It contains very idealistic and unrealistic advices that purposely ignore human nature.</t>
+  </si>
+  <si>
+    <t>Product Management In Practice (2nd Edition)</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>Useful. Well written but very wordy, the exact same content could have been expressed in 50 pages.</t>
+  </si>
+  <si>
+    <t>Software Requirements Essentials</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>Useful. A valid book for beginners in product management.</t>
+  </si>
+  <si>
+    <t>Senior Engineer Mindset</t>
+  </si>
+  <si>
+    <t>Nordic APIs</t>
+  </si>
+  <si>
+    <t>Useful. Nothing new, but a good summary written in a straight-to-the-point language.</t>
+  </si>
+  <si>
+    <t>The Art of Crafting User Stories</t>
+  </si>
+  <si>
+    <t>Useless. It's well written, but it's very repetitive. The same content could have been written in 1/3 of the pages. Packt's book lack of proper editing.</t>
+  </si>
+  <si>
+    <t>Developing the API Mindset</t>
   </si>
 </sst>
 </file>
@@ -10845,8 +10881,8 @@
   <dimension ref="A1:T300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A287" sqref="A287"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -28975,7 +29011,7 @@
         <v>159</v>
       </c>
       <c r="L279" s="9" t="s">
-        <v>602</v>
+        <v>993</v>
       </c>
       <c r="M279" s="17">
         <v>3</v>
@@ -29459,117 +29495,332 @@
       </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A287" s="13"/>
-      <c r="B287" s="9"/>
-      <c r="C287" s="9"/>
-      <c r="D287" s="9"/>
-      <c r="E287" s="9"/>
-      <c r="F287" s="9"/>
-      <c r="G287" s="9"/>
-      <c r="H287" s="9"/>
-      <c r="I287" s="9"/>
-      <c r="J287" s="9"/>
-      <c r="K287" s="9"/>
-      <c r="L287" s="9"/>
-      <c r="M287" s="9"/>
-      <c r="N287" s="9"/>
-      <c r="O287" s="9"/>
-      <c r="P287" s="16"/>
-      <c r="Q287" s="9"/>
-      <c r="R287" s="9"/>
-      <c r="S287" s="17"/>
-      <c r="T287" s="9"/>
+      <c r="A287" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="B287" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F287" s="17">
+        <v>296</v>
+      </c>
+      <c r="G287" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="H287" s="9">
+        <f t="shared" ref="H287" si="70">YEAR(G287)</f>
+        <v>2024</v>
+      </c>
+      <c r="I287" s="9">
+        <f t="shared" ref="I287" si="71">MONTH(G287)</f>
+        <v>7</v>
+      </c>
+      <c r="J287" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K287" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L287" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M287" s="17">
+        <v>3</v>
+      </c>
+      <c r="N287" s="17">
+        <v>31.99</v>
+      </c>
+      <c r="O287" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P287" s="16" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q287" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R287" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S287" s="17">
+        <f t="shared" ref="S287" si="72">LEN(P287)</f>
+        <v>98</v>
+      </c>
+      <c r="T287" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A288" s="13"/>
-      <c r="B288" s="9"/>
-      <c r="C288" s="9"/>
-      <c r="D288" s="9"/>
-      <c r="E288" s="9"/>
-      <c r="F288" s="9"/>
-      <c r="G288" s="9"/>
-      <c r="H288" s="9"/>
-      <c r="I288" s="9"/>
-      <c r="J288" s="9"/>
-      <c r="K288" s="9"/>
-      <c r="L288" s="9"/>
-      <c r="M288" s="9"/>
-      <c r="N288" s="9"/>
-      <c r="O288" s="9"/>
-      <c r="P288" s="16"/>
-      <c r="Q288" s="9"/>
-      <c r="R288" s="9"/>
-      <c r="S288" s="17"/>
-      <c r="T288" s="9"/>
+      <c r="A288" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="B288" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F288" s="17">
+        <v>200</v>
+      </c>
+      <c r="G288" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="H288" s="9">
+        <f t="shared" ref="H288" si="73">YEAR(G288)</f>
+        <v>2024</v>
+      </c>
+      <c r="I288" s="9">
+        <f t="shared" ref="I288" si="74">MONTH(G288)</f>
+        <v>7</v>
+      </c>
+      <c r="J288" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K288" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L288" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="M288" s="17">
+        <v>3</v>
+      </c>
+      <c r="N288" s="17">
+        <v>27.99</v>
+      </c>
+      <c r="O288" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P288" s="16" t="s">
+        <v>991</v>
+      </c>
+      <c r="Q288" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R288" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S288" s="17">
+        <f t="shared" ref="S288:S289" si="75">LEN(P288)</f>
+        <v>57</v>
+      </c>
+      <c r="T288" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A289" s="9"/>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9"/>
-      <c r="D289" s="9"/>
-      <c r="E289" s="9"/>
-      <c r="F289" s="9"/>
-      <c r="G289" s="9"/>
-      <c r="H289" s="9"/>
-      <c r="I289" s="9"/>
-      <c r="J289" s="9"/>
-      <c r="K289" s="9"/>
-      <c r="L289" s="9"/>
-      <c r="M289" s="9"/>
-      <c r="N289" s="9"/>
-      <c r="O289" s="9"/>
-      <c r="P289" s="16"/>
-      <c r="Q289" s="9"/>
-      <c r="R289" s="9"/>
-      <c r="S289" s="17"/>
-      <c r="T289" s="9"/>
+      <c r="A289" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="B289" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F289" s="17">
+        <v>255</v>
+      </c>
+      <c r="G289" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="H289" s="9">
+        <f t="shared" ref="H289" si="76">YEAR(G289)</f>
+        <v>2024</v>
+      </c>
+      <c r="I289" s="9">
+        <f t="shared" ref="I289" si="77">MONTH(G289)</f>
+        <v>7</v>
+      </c>
+      <c r="J289" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K289" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L289" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M289" s="17">
+        <v>3</v>
+      </c>
+      <c r="N289" s="43">
+        <v>49</v>
+      </c>
+      <c r="O289" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P289" s="16" t="s">
+        <v>994</v>
+      </c>
+      <c r="Q289" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R289" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S289" s="17">
+        <f t="shared" ref="S289" si="78">LEN(P289)</f>
+        <v>84</v>
+      </c>
+      <c r="T289" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A290" s="9"/>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
-      <c r="D290" s="9"/>
-      <c r="E290" s="9"/>
-      <c r="F290" s="9"/>
-      <c r="G290" s="9"/>
-      <c r="H290" s="9"/>
-      <c r="I290" s="9"/>
-      <c r="J290" s="9"/>
-      <c r="K290" s="9"/>
-      <c r="L290" s="9"/>
-      <c r="M290" s="9"/>
-      <c r="N290" s="9"/>
-      <c r="O290" s="9"/>
-      <c r="P290" s="16"/>
-      <c r="Q290" s="9"/>
-      <c r="R290" s="9"/>
-      <c r="S290" s="17"/>
-      <c r="T290" s="9"/>
+      <c r="A290" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B290" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E290" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F290" s="17">
+        <v>192</v>
+      </c>
+      <c r="G290" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="H290" s="9">
+        <f t="shared" ref="H290" si="79">YEAR(G290)</f>
+        <v>2024</v>
+      </c>
+      <c r="I290" s="9">
+        <f t="shared" ref="I290" si="80">MONTH(G290)</f>
+        <v>7</v>
+      </c>
+      <c r="J290" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K290" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L290" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M290" s="17">
+        <v>2</v>
+      </c>
+      <c r="N290" s="17">
+        <v>26.01</v>
+      </c>
+      <c r="O290" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P290" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q290" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R290" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S290" s="17">
+        <f t="shared" ref="S290:S291" si="81">LEN(P290)</f>
+        <v>152</v>
+      </c>
+      <c r="T290" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A291" s="9"/>
-      <c r="B291" s="9"/>
-      <c r="C291" s="9"/>
-      <c r="D291" s="9"/>
-      <c r="E291" s="9"/>
-      <c r="F291" s="9"/>
-      <c r="G291" s="9"/>
-      <c r="H291" s="9"/>
-      <c r="I291" s="9"/>
-      <c r="J291" s="9"/>
-      <c r="K291" s="9"/>
-      <c r="L291" s="9"/>
-      <c r="M291" s="9"/>
-      <c r="N291" s="9"/>
-      <c r="O291" s="9"/>
-      <c r="P291" s="16"/>
-      <c r="Q291" s="9"/>
-      <c r="R291" s="9"/>
-      <c r="S291" s="17"/>
-      <c r="T291" s="9"/>
+      <c r="A291" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="B291" s="17">
+        <v>2015</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F291" s="17">
+        <v>96</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="H291" s="9">
+        <f t="shared" ref="H291" si="82">YEAR(G291)</f>
+        <v>2024</v>
+      </c>
+      <c r="I291" s="9">
+        <f t="shared" ref="I291" si="83">MONTH(G291)</f>
+        <v>7</v>
+      </c>
+      <c r="J291" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K291" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L291" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="M291" s="17">
+        <v>3</v>
+      </c>
+      <c r="N291" s="43">
+        <v>0</v>
+      </c>
+      <c r="O291" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P291" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q291" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R291" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S291" s="17">
+        <f t="shared" si="81"/>
+        <v>26</v>
+      </c>
+      <c r="T291" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A292" s="9"/>
+      <c r="A292" s="13"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
       <c r="D292" s="9"/>
@@ -29591,7 +29842,7 @@
       <c r="T292" s="9"/>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A293" s="9"/>
+      <c r="A293" s="13"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
       <c r="D293" s="9"/>
@@ -29613,7 +29864,7 @@
       <c r="T293" s="9"/>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A294" s="9"/>
+      <c r="A294" s="13"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
       <c r="D294" s="9"/>
@@ -29635,7 +29886,7 @@
       <c r="T294" s="9"/>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A295" s="9"/>
+      <c r="A295" s="13"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
@@ -29657,7 +29908,7 @@
       <c r="T295" s="9"/>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A296" s="9"/>
+      <c r="A296" s="13"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
       <c r="D296" s="9"/>
@@ -29679,7 +29930,7 @@
       <c r="T296" s="9"/>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A297" s="9"/>
+      <c r="A297" s="13"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
       <c r="D297" s="9"/>
@@ -29701,7 +29952,7 @@
       <c r="T297" s="9"/>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A298" s="9"/>
+      <c r="A298" s="13"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
@@ -29723,7 +29974,7 @@
       <c r="T298" s="9"/>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A299" s="9"/>
+      <c r="A299" s="13"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
@@ -29745,7 +29996,7 @@
       <c r="T299" s="9"/>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A300" s="9"/>
+      <c r="A300" s="13"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4698" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4758" uniqueCount="1014">
   <si>
     <t>Format</t>
   </si>
@@ -3035,6 +3035,54 @@
   </si>
   <si>
     <t>Developing the API Mindset</t>
+  </si>
+  <si>
+    <t>How To Successfully Market an API</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>Useful. An ok summary about the topic.</t>
+  </si>
+  <si>
+    <t>A Philosophy of Software Design</t>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
+    <t>Yaknyam Press</t>
+  </si>
+  <si>
+    <t>Useful. Finally an author who writes about a topic using his own words and examples, and not by copy'n'paste. It's clear that the author has plenty of experience and critical thinking, and he used both to summarize all the root causes of complexity in software design.</t>
+  </si>
+  <si>
+    <t>Expert Python Programming (4th Edition)</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>Useful. It's repetitive and redundant, but it contains some pieces of knowledge that I didn't read in any other Python book so far.</t>
+  </si>
+  <si>
+    <t>Modern Data Architectures with Python</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>Useless. Random showcase of different technologies without telling any story.</t>
+  </si>
+  <si>
+    <t>Cost-Effective Data Pipelines</t>
+  </si>
+  <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
+    <t>Useless. A soup of different technologies and concepts.</t>
   </si>
 </sst>
 </file>
@@ -10878,11 +10926,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T300"/>
+  <dimension ref="A1:T307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A292" sqref="A292"/>
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -29617,7 +29665,7 @@
         <v>159</v>
       </c>
       <c r="S288" s="17">
-        <f t="shared" ref="S288:S289" si="75">LEN(P288)</f>
+        <f t="shared" ref="S288" si="75">LEN(P288)</f>
         <v>57</v>
       </c>
       <c r="T288" s="14">
@@ -29747,7 +29795,7 @@
         <v>159</v>
       </c>
       <c r="S290" s="17">
-        <f t="shared" ref="S290:S291" si="81">LEN(P290)</f>
+        <f t="shared" ref="S290:S296" si="81">LEN(P290)</f>
         <v>152</v>
       </c>
       <c r="T290" s="14">
@@ -29820,114 +29868,329 @@
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A292" s="13"/>
-      <c r="B292" s="9"/>
-      <c r="C292" s="9"/>
-      <c r="D292" s="9"/>
-      <c r="E292" s="9"/>
-      <c r="F292" s="9"/>
-      <c r="G292" s="9"/>
-      <c r="H292" s="9"/>
-      <c r="I292" s="9"/>
-      <c r="J292" s="9"/>
-      <c r="K292" s="9"/>
-      <c r="L292" s="9"/>
-      <c r="M292" s="9"/>
-      <c r="N292" s="9"/>
-      <c r="O292" s="9"/>
-      <c r="P292" s="16"/>
-      <c r="Q292" s="9"/>
-      <c r="R292" s="9"/>
-      <c r="S292" s="17"/>
-      <c r="T292" s="9"/>
+      <c r="A292" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="B292" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F292" s="17">
+        <v>194</v>
+      </c>
+      <c r="G292" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="H292" s="9">
+        <f t="shared" ref="H292" si="84">YEAR(G292)</f>
+        <v>2024</v>
+      </c>
+      <c r="I292" s="9">
+        <f t="shared" ref="I292" si="85">MONTH(G292)</f>
+        <v>7</v>
+      </c>
+      <c r="J292" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K292" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L292" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="M292" s="17">
+        <v>3</v>
+      </c>
+      <c r="N292" s="43">
+        <v>0</v>
+      </c>
+      <c r="O292" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P292" s="28" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q292" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R292" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S292" s="17">
+        <f t="shared" si="81"/>
+        <v>38</v>
+      </c>
+      <c r="T292" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A293" s="13"/>
-      <c r="B293" s="9"/>
-      <c r="C293" s="9"/>
-      <c r="D293" s="9"/>
-      <c r="E293" s="9"/>
-      <c r="F293" s="9"/>
-      <c r="G293" s="9"/>
-      <c r="H293" s="9"/>
-      <c r="I293" s="9"/>
-      <c r="J293" s="9"/>
-      <c r="K293" s="9"/>
-      <c r="L293" s="9"/>
-      <c r="M293" s="9"/>
-      <c r="N293" s="9"/>
-      <c r="O293" s="9"/>
-      <c r="P293" s="16"/>
-      <c r="Q293" s="9"/>
-      <c r="R293" s="9"/>
-      <c r="S293" s="17"/>
-      <c r="T293" s="9"/>
+      <c r="A293" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B293" s="17">
+        <v>2018</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E293" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F293" s="17">
+        <v>188</v>
+      </c>
+      <c r="G293" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H293" s="9">
+        <f t="shared" ref="H293:H295" si="86">YEAR(G293)</f>
+        <v>2024</v>
+      </c>
+      <c r="I293" s="9">
+        <f t="shared" ref="I293:I295" si="87">MONTH(G293)</f>
+        <v>7</v>
+      </c>
+      <c r="J293" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K293" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L293" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M293" s="17">
+        <v>4</v>
+      </c>
+      <c r="N293" s="43">
+        <v>48</v>
+      </c>
+      <c r="O293" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P293" s="16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q293" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R293" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S293" s="17">
+        <f t="shared" si="81"/>
+        <v>268</v>
+      </c>
+      <c r="T293" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A294" s="13"/>
-      <c r="B294" s="9"/>
-      <c r="C294" s="9"/>
-      <c r="D294" s="9"/>
-      <c r="E294" s="9"/>
-      <c r="F294" s="9"/>
-      <c r="G294" s="9"/>
-      <c r="H294" s="9"/>
-      <c r="I294" s="9"/>
-      <c r="J294" s="9"/>
-      <c r="K294" s="9"/>
-      <c r="L294" s="9"/>
-      <c r="M294" s="9"/>
-      <c r="N294" s="9"/>
-      <c r="O294" s="9"/>
-      <c r="P294" s="16"/>
-      <c r="Q294" s="9"/>
-      <c r="R294" s="9"/>
-      <c r="S294" s="17"/>
-      <c r="T294" s="9"/>
+      <c r="A294" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B294" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D294" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E294" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F294" s="17">
+        <v>631</v>
+      </c>
+      <c r="G294" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H294" s="9">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="I294" s="9">
+        <f t="shared" si="87"/>
+        <v>7</v>
+      </c>
+      <c r="J294" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K294" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L294" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M294" s="17">
+        <v>3</v>
+      </c>
+      <c r="N294" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O294" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P294" s="16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q294" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R294" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S294" s="17">
+        <f t="shared" si="81"/>
+        <v>131</v>
+      </c>
+      <c r="T294" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A295" s="13"/>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
-      <c r="E295" s="9"/>
-      <c r="F295" s="9"/>
-      <c r="G295" s="9"/>
-      <c r="H295" s="9"/>
-      <c r="I295" s="9"/>
-      <c r="J295" s="9"/>
-      <c r="K295" s="9"/>
-      <c r="L295" s="9"/>
-      <c r="M295" s="9"/>
-      <c r="N295" s="9"/>
-      <c r="O295" s="9"/>
-      <c r="P295" s="16"/>
-      <c r="Q295" s="9"/>
-      <c r="R295" s="9"/>
-      <c r="S295" s="17"/>
-      <c r="T295" s="9"/>
+      <c r="A295" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B295" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F295" s="17">
+        <v>318</v>
+      </c>
+      <c r="G295" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H295" s="9">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="I295" s="9">
+        <f t="shared" si="87"/>
+        <v>7</v>
+      </c>
+      <c r="J295" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K295" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L295" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M295" s="17">
+        <v>1</v>
+      </c>
+      <c r="N295" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O295" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P295" s="16" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q295" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="R295" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S295" s="17">
+        <f t="shared" si="81"/>
+        <v>77</v>
+      </c>
+      <c r="T295" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A296" s="13"/>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9"/>
-      <c r="E296" s="9"/>
-      <c r="F296" s="9"/>
-      <c r="G296" s="9"/>
-      <c r="H296" s="9"/>
-      <c r="I296" s="9"/>
-      <c r="J296" s="9"/>
-      <c r="K296" s="9"/>
-      <c r="L296" s="9"/>
-      <c r="M296" s="9"/>
-      <c r="N296" s="9"/>
-      <c r="O296" s="9"/>
-      <c r="P296" s="16"/>
-      <c r="Q296" s="9"/>
-      <c r="R296" s="9"/>
-      <c r="S296" s="17"/>
-      <c r="T296" s="9"/>
+      <c r="A296" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B296" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E296" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F296" s="17">
+        <v>298</v>
+      </c>
+      <c r="G296" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H296" s="9">
+        <f t="shared" ref="H296" si="88">YEAR(G296)</f>
+        <v>2024</v>
+      </c>
+      <c r="I296" s="9">
+        <f t="shared" ref="I296" si="89">MONTH(G296)</f>
+        <v>7</v>
+      </c>
+      <c r="J296" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K296" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L296" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M296" s="17">
+        <v>1</v>
+      </c>
+      <c r="N296" s="17">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="O296" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P296" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Q296" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="R296" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S296" s="17">
+        <f t="shared" si="81"/>
+        <v>55</v>
+      </c>
+      <c r="T296" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="13"/>
@@ -30016,6 +30279,160 @@
       <c r="R300" s="9"/>
       <c r="S300" s="17"/>
       <c r="T300" s="9"/>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A301" s="9"/>
+      <c r="B301" s="9"/>
+      <c r="C301" s="9"/>
+      <c r="D301" s="9"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="9"/>
+      <c r="H301" s="9"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="9"/>
+      <c r="K301" s="9"/>
+      <c r="L301" s="9"/>
+      <c r="M301" s="9"/>
+      <c r="N301" s="9"/>
+      <c r="O301" s="9"/>
+      <c r="P301" s="9"/>
+      <c r="Q301" s="9"/>
+      <c r="R301" s="9"/>
+      <c r="S301" s="17"/>
+      <c r="T301" s="9"/>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A302" s="9"/>
+      <c r="B302" s="9"/>
+      <c r="C302" s="9"/>
+      <c r="D302" s="9"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="9"/>
+      <c r="I302" s="9"/>
+      <c r="J302" s="9"/>
+      <c r="K302" s="9"/>
+      <c r="L302" s="9"/>
+      <c r="M302" s="9"/>
+      <c r="N302" s="9"/>
+      <c r="O302" s="9"/>
+      <c r="P302" s="9"/>
+      <c r="Q302" s="9"/>
+      <c r="R302" s="9"/>
+      <c r="S302" s="17"/>
+      <c r="T302" s="9"/>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A303" s="9"/>
+      <c r="B303" s="9"/>
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9"/>
+      <c r="H303" s="9"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="9"/>
+      <c r="L303" s="9"/>
+      <c r="M303" s="9"/>
+      <c r="N303" s="9"/>
+      <c r="O303" s="9"/>
+      <c r="P303" s="9"/>
+      <c r="Q303" s="9"/>
+      <c r="R303" s="9"/>
+      <c r="S303" s="17"/>
+      <c r="T303" s="9"/>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A304" s="9"/>
+      <c r="B304" s="9"/>
+      <c r="C304" s="9"/>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="9"/>
+      <c r="G304" s="9"/>
+      <c r="H304" s="9"/>
+      <c r="I304" s="9"/>
+      <c r="J304" s="9"/>
+      <c r="K304" s="9"/>
+      <c r="L304" s="9"/>
+      <c r="M304" s="9"/>
+      <c r="N304" s="9"/>
+      <c r="O304" s="9"/>
+      <c r="P304" s="9"/>
+      <c r="Q304" s="9"/>
+      <c r="R304" s="9"/>
+      <c r="S304" s="17"/>
+      <c r="T304" s="9"/>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A305" s="9"/>
+      <c r="B305" s="9"/>
+      <c r="C305" s="9"/>
+      <c r="D305" s="9"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="9"/>
+      <c r="G305" s="9"/>
+      <c r="H305" s="9"/>
+      <c r="I305" s="9"/>
+      <c r="J305" s="9"/>
+      <c r="K305" s="9"/>
+      <c r="L305" s="9"/>
+      <c r="M305" s="9"/>
+      <c r="N305" s="9"/>
+      <c r="O305" s="9"/>
+      <c r="P305" s="9"/>
+      <c r="Q305" s="9"/>
+      <c r="R305" s="9"/>
+      <c r="S305" s="17"/>
+      <c r="T305" s="9"/>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A306" s="9"/>
+      <c r="B306" s="9"/>
+      <c r="C306" s="9"/>
+      <c r="D306" s="9"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="9"/>
+      <c r="H306" s="9"/>
+      <c r="I306" s="9"/>
+      <c r="J306" s="9"/>
+      <c r="K306" s="9"/>
+      <c r="L306" s="9"/>
+      <c r="M306" s="9"/>
+      <c r="N306" s="9"/>
+      <c r="O306" s="9"/>
+      <c r="P306" s="9"/>
+      <c r="Q306" s="9"/>
+      <c r="R306" s="9"/>
+      <c r="S306" s="17"/>
+      <c r="T306" s="9"/>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A307" s="9"/>
+      <c r="B307" s="9"/>
+      <c r="C307" s="9"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="9"/>
+      <c r="H307" s="9"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="9"/>
+      <c r="K307" s="9"/>
+      <c r="L307" s="9"/>
+      <c r="M307" s="9"/>
+      <c r="N307" s="9"/>
+      <c r="O307" s="9"/>
+      <c r="P307" s="9"/>
+      <c r="Q307" s="9"/>
+      <c r="R307" s="9"/>
+      <c r="S307" s="17"/>
+      <c r="T307" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4758" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="1027">
   <si>
     <t>Format</t>
   </si>
@@ -3083,6 +3083,45 @@
   </si>
   <si>
     <t>Useless. A soup of different technologies and concepts.</t>
+  </si>
+  <si>
+    <t>Learn Enough Python To Be Dangerous</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>Professional Python: Object-Oriented Approaches To Efficient Software Development</t>
+  </si>
+  <si>
+    <t>Useless. A book for beginners that has nothing to do with the term "professional", and with an awfully colored layout that it's very difficult to read. One positive aspect: it contains concise code examples to illustrate design patterns in Python.</t>
+  </si>
+  <si>
+    <t>The Pythonic Way</t>
+  </si>
+  <si>
+    <t>2024-07-23</t>
+  </si>
+  <si>
+    <t>Useful. This book follows an approach very unique and personal to talk about Python. The author built the book around PEP documents and other conventions. On the contrary to dozens of Python books, this contains original content.</t>
+  </si>
+  <si>
+    <t>LangChain: A Hands-On Guide To Modern AI Applications</t>
+  </si>
+  <si>
+    <t>Useful. A short introduction about Langchain.</t>
+  </si>
+  <si>
+    <t>Data Analysis: A Gentle Introduction For Future Data Scientists</t>
+  </si>
+  <si>
+    <t>Useful. This book starts well, but then it loses itself into too much theory and no practical examples.</t>
+  </si>
+  <si>
+    <t>The Creative Programmer</t>
+  </si>
+  <si>
+    <t>Useless. Well written, but the author didn't write any original content, but just listed theories and concepts written by others. This book is below the Manning's average rate.</t>
   </si>
 </sst>
 </file>
@@ -10926,11 +10965,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T307"/>
+  <dimension ref="A1:T314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -29795,7 +29834,7 @@
         <v>159</v>
       </c>
       <c r="S290" s="17">
-        <f t="shared" ref="S290:S296" si="81">LEN(P290)</f>
+        <f t="shared" ref="S290:S302" si="81">LEN(P290)</f>
         <v>152</v>
       </c>
       <c r="T290" s="14">
@@ -30193,139 +30232,397 @@
       </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A297" s="13"/>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9"/>
-      <c r="D297" s="9"/>
-      <c r="E297" s="9"/>
-      <c r="F297" s="9"/>
-      <c r="G297" s="9"/>
-      <c r="H297" s="9"/>
-      <c r="I297" s="9"/>
-      <c r="J297" s="9"/>
-      <c r="K297" s="9"/>
-      <c r="L297" s="9"/>
-      <c r="M297" s="9"/>
-      <c r="N297" s="9"/>
-      <c r="O297" s="9"/>
-      <c r="P297" s="16"/>
-      <c r="Q297" s="9"/>
-      <c r="R297" s="9"/>
-      <c r="S297" s="17"/>
-      <c r="T297" s="9"/>
+      <c r="A297" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B297" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E297" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F297" s="17">
+        <v>636</v>
+      </c>
+      <c r="G297" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H297" s="9">
+        <f t="shared" ref="H297" si="90">YEAR(G297)</f>
+        <v>2024</v>
+      </c>
+      <c r="I297" s="9">
+        <f t="shared" ref="I297" si="91">MONTH(G297)</f>
+        <v>7</v>
+      </c>
+      <c r="J297" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K297" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L297" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="M297" s="17">
+        <v>1</v>
+      </c>
+      <c r="N297" s="17">
+        <v>39.99</v>
+      </c>
+      <c r="O297" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P297" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Q297" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R297" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S297" s="17">
+        <f t="shared" si="81"/>
+        <v>55</v>
+      </c>
+      <c r="T297" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A298" s="13"/>
-      <c r="B298" s="9"/>
-      <c r="C298" s="9"/>
-      <c r="D298" s="9"/>
-      <c r="E298" s="9"/>
-      <c r="F298" s="9"/>
-      <c r="G298" s="9"/>
-      <c r="H298" s="9"/>
-      <c r="I298" s="9"/>
-      <c r="J298" s="9"/>
-      <c r="K298" s="9"/>
-      <c r="L298" s="9"/>
-      <c r="M298" s="9"/>
-      <c r="N298" s="9"/>
-      <c r="O298" s="9"/>
-      <c r="P298" s="16"/>
-      <c r="Q298" s="9"/>
-      <c r="R298" s="9"/>
-      <c r="S298" s="17"/>
-      <c r="T298" s="9"/>
+      <c r="A298" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B298" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E298" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F298" s="17">
+        <v>218</v>
+      </c>
+      <c r="G298" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H298" s="9">
+        <f t="shared" ref="H298" si="92">YEAR(G298)</f>
+        <v>2024</v>
+      </c>
+      <c r="I298" s="9">
+        <f t="shared" ref="I298" si="93">MONTH(G298)</f>
+        <v>7</v>
+      </c>
+      <c r="J298" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K298" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L298" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M298" s="17">
+        <v>1</v>
+      </c>
+      <c r="N298" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="O298" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P298" s="16" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Q298" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R298" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S298" s="17">
+        <f t="shared" si="81"/>
+        <v>247</v>
+      </c>
+      <c r="T298" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A299" s="13"/>
-      <c r="B299" s="9"/>
-      <c r="C299" s="9"/>
-      <c r="D299" s="9"/>
-      <c r="E299" s="9"/>
-      <c r="F299" s="9"/>
-      <c r="G299" s="9"/>
-      <c r="H299" s="9"/>
-      <c r="I299" s="9"/>
-      <c r="J299" s="9"/>
-      <c r="K299" s="9"/>
-      <c r="L299" s="9"/>
-      <c r="M299" s="9"/>
-      <c r="N299" s="9"/>
-      <c r="O299" s="9"/>
-      <c r="P299" s="16"/>
-      <c r="Q299" s="9"/>
-      <c r="R299" s="9"/>
-      <c r="S299" s="17"/>
-      <c r="T299" s="9"/>
+      <c r="A299" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B299" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F299" s="17">
+        <v>464</v>
+      </c>
+      <c r="G299" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H299" s="9">
+        <f t="shared" ref="H299" si="94">YEAR(G299)</f>
+        <v>2024</v>
+      </c>
+      <c r="I299" s="9">
+        <f t="shared" ref="I299" si="95">MONTH(G299)</f>
+        <v>7</v>
+      </c>
+      <c r="J299" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K299" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L299" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="M299" s="17">
+        <v>3</v>
+      </c>
+      <c r="N299" s="17">
+        <v>24.95</v>
+      </c>
+      <c r="O299" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P299" s="16" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Q299" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R299" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S299" s="17">
+        <f t="shared" si="81"/>
+        <v>229</v>
+      </c>
+      <c r="T299" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A300" s="13"/>
-      <c r="B300" s="9"/>
-      <c r="C300" s="9"/>
-      <c r="D300" s="9"/>
-      <c r="E300" s="9"/>
-      <c r="F300" s="9"/>
-      <c r="G300" s="9"/>
-      <c r="H300" s="9"/>
-      <c r="I300" s="9"/>
-      <c r="J300" s="9"/>
-      <c r="K300" s="9"/>
-      <c r="L300" s="9"/>
-      <c r="M300" s="9"/>
-      <c r="N300" s="9"/>
-      <c r="O300" s="9"/>
-      <c r="P300" s="16"/>
-      <c r="Q300" s="9"/>
-      <c r="R300" s="9"/>
-      <c r="S300" s="17"/>
-      <c r="T300" s="9"/>
+      <c r="A300" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B300" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E300" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F300" s="17">
+        <v>58</v>
+      </c>
+      <c r="G300" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H300" s="9">
+        <f t="shared" ref="H300" si="96">YEAR(G300)</f>
+        <v>2024</v>
+      </c>
+      <c r="I300" s="9">
+        <f t="shared" ref="I300" si="97">MONTH(G300)</f>
+        <v>7</v>
+      </c>
+      <c r="J300" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K300" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L300" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M300" s="17">
+        <v>2</v>
+      </c>
+      <c r="N300" s="17">
+        <v>14.95</v>
+      </c>
+      <c r="O300" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P300" s="28" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q300" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="R300" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S300" s="17">
+        <f t="shared" si="81"/>
+        <v>45</v>
+      </c>
+      <c r="T300" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A301" s="9"/>
-      <c r="B301" s="9"/>
-      <c r="C301" s="9"/>
-      <c r="D301" s="9"/>
-      <c r="E301" s="9"/>
-      <c r="F301" s="9"/>
-      <c r="G301" s="9"/>
-      <c r="H301" s="9"/>
-      <c r="I301" s="9"/>
-      <c r="J301" s="9"/>
-      <c r="K301" s="9"/>
-      <c r="L301" s="9"/>
-      <c r="M301" s="9"/>
-      <c r="N301" s="9"/>
-      <c r="O301" s="9"/>
-      <c r="P301" s="9"/>
-      <c r="Q301" s="9"/>
-      <c r="R301" s="9"/>
-      <c r="S301" s="17"/>
-      <c r="T301" s="9"/>
+      <c r="A301" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B301" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E301" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F301" s="17">
+        <v>161</v>
+      </c>
+      <c r="G301" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H301" s="9">
+        <f t="shared" ref="H301" si="98">YEAR(G301)</f>
+        <v>2024</v>
+      </c>
+      <c r="I301" s="9">
+        <f t="shared" ref="I301" si="99">MONTH(G301)</f>
+        <v>7</v>
+      </c>
+      <c r="J301" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K301" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L301" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M301" s="17">
+        <v>2</v>
+      </c>
+      <c r="N301" s="43">
+        <v>35</v>
+      </c>
+      <c r="O301" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P301" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Q301" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="R301" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S301" s="17">
+        <f t="shared" si="81"/>
+        <v>103</v>
+      </c>
+      <c r="T301" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A302" s="9"/>
-      <c r="B302" s="9"/>
-      <c r="C302" s="9"/>
-      <c r="D302" s="9"/>
-      <c r="E302" s="9"/>
-      <c r="F302" s="9"/>
-      <c r="G302" s="9"/>
-      <c r="H302" s="9"/>
-      <c r="I302" s="9"/>
-      <c r="J302" s="9"/>
-      <c r="K302" s="9"/>
-      <c r="L302" s="9"/>
-      <c r="M302" s="9"/>
-      <c r="N302" s="9"/>
-      <c r="O302" s="9"/>
-      <c r="P302" s="9"/>
-      <c r="Q302" s="9"/>
-      <c r="R302" s="9"/>
-      <c r="S302" s="17"/>
-      <c r="T302" s="9"/>
+      <c r="A302" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B302" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E302" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F302" s="17">
+        <v>331</v>
+      </c>
+      <c r="G302" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H302" s="9">
+        <f t="shared" ref="H302" si="100">YEAR(G302)</f>
+        <v>2024</v>
+      </c>
+      <c r="I302" s="9">
+        <f t="shared" ref="I302" si="101">MONTH(G302)</f>
+        <v>7</v>
+      </c>
+      <c r="J302" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K302" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L302" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="M302" s="17">
+        <v>2</v>
+      </c>
+      <c r="N302" s="43">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="O302" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P302" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q302" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R302" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S302" s="17">
+        <f t="shared" si="81"/>
+        <v>176</v>
+      </c>
+      <c r="T302" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A303" s="9"/>
+      <c r="A303" s="13"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
@@ -30340,14 +30637,14 @@
       <c r="M303" s="9"/>
       <c r="N303" s="9"/>
       <c r="O303" s="9"/>
-      <c r="P303" s="9"/>
+      <c r="P303" s="13"/>
       <c r="Q303" s="9"/>
       <c r="R303" s="9"/>
       <c r="S303" s="17"/>
       <c r="T303" s="9"/>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A304" s="9"/>
+      <c r="A304" s="13"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
@@ -30362,14 +30659,14 @@
       <c r="M304" s="9"/>
       <c r="N304" s="9"/>
       <c r="O304" s="9"/>
-      <c r="P304" s="9"/>
+      <c r="P304" s="13"/>
       <c r="Q304" s="9"/>
       <c r="R304" s="9"/>
       <c r="S304" s="17"/>
       <c r="T304" s="9"/>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A305" s="9"/>
+      <c r="A305" s="13"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
       <c r="D305" s="9"/>
@@ -30384,14 +30681,14 @@
       <c r="M305" s="9"/>
       <c r="N305" s="9"/>
       <c r="O305" s="9"/>
-      <c r="P305" s="9"/>
+      <c r="P305" s="13"/>
       <c r="Q305" s="9"/>
       <c r="R305" s="9"/>
       <c r="S305" s="17"/>
       <c r="T305" s="9"/>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A306" s="9"/>
+      <c r="A306" s="13"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
       <c r="D306" s="9"/>
@@ -30406,14 +30703,14 @@
       <c r="M306" s="9"/>
       <c r="N306" s="9"/>
       <c r="O306" s="9"/>
-      <c r="P306" s="9"/>
+      <c r="P306" s="13"/>
       <c r="Q306" s="9"/>
       <c r="R306" s="9"/>
       <c r="S306" s="17"/>
       <c r="T306" s="9"/>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A307" s="9"/>
+      <c r="A307" s="13"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
@@ -30428,11 +30725,165 @@
       <c r="M307" s="9"/>
       <c r="N307" s="9"/>
       <c r="O307" s="9"/>
-      <c r="P307" s="9"/>
+      <c r="P307" s="13"/>
       <c r="Q307" s="9"/>
       <c r="R307" s="9"/>
       <c r="S307" s="17"/>
       <c r="T307" s="9"/>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A308" s="13"/>
+      <c r="B308" s="9"/>
+      <c r="C308" s="9"/>
+      <c r="D308" s="9"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="9"/>
+      <c r="H308" s="9"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="9"/>
+      <c r="K308" s="9"/>
+      <c r="L308" s="9"/>
+      <c r="M308" s="9"/>
+      <c r="N308" s="9"/>
+      <c r="O308" s="9"/>
+      <c r="P308" s="13"/>
+      <c r="Q308" s="9"/>
+      <c r="R308" s="9"/>
+      <c r="S308" s="17"/>
+      <c r="T308" s="9"/>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A309" s="13"/>
+      <c r="B309" s="9"/>
+      <c r="C309" s="9"/>
+      <c r="D309" s="9"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="9"/>
+      <c r="G309" s="9"/>
+      <c r="H309" s="9"/>
+      <c r="I309" s="9"/>
+      <c r="J309" s="9"/>
+      <c r="K309" s="9"/>
+      <c r="L309" s="9"/>
+      <c r="M309" s="9"/>
+      <c r="N309" s="9"/>
+      <c r="O309" s="9"/>
+      <c r="P309" s="13"/>
+      <c r="Q309" s="9"/>
+      <c r="R309" s="9"/>
+      <c r="S309" s="17"/>
+      <c r="T309" s="9"/>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A310" s="13"/>
+      <c r="B310" s="9"/>
+      <c r="C310" s="9"/>
+      <c r="D310" s="9"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="9"/>
+      <c r="G310" s="9"/>
+      <c r="H310" s="9"/>
+      <c r="I310" s="9"/>
+      <c r="J310" s="9"/>
+      <c r="K310" s="9"/>
+      <c r="L310" s="9"/>
+      <c r="M310" s="9"/>
+      <c r="N310" s="9"/>
+      <c r="O310" s="9"/>
+      <c r="P310" s="13"/>
+      <c r="Q310" s="9"/>
+      <c r="R310" s="9"/>
+      <c r="S310" s="17"/>
+      <c r="T310" s="9"/>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A311" s="13"/>
+      <c r="B311" s="9"/>
+      <c r="C311" s="9"/>
+      <c r="D311" s="9"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="9"/>
+      <c r="G311" s="9"/>
+      <c r="H311" s="9"/>
+      <c r="I311" s="9"/>
+      <c r="J311" s="9"/>
+      <c r="K311" s="9"/>
+      <c r="L311" s="9"/>
+      <c r="M311" s="9"/>
+      <c r="N311" s="9"/>
+      <c r="O311" s="9"/>
+      <c r="P311" s="13"/>
+      <c r="Q311" s="9"/>
+      <c r="R311" s="9"/>
+      <c r="S311" s="17"/>
+      <c r="T311" s="9"/>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A312" s="13"/>
+      <c r="B312" s="9"/>
+      <c r="C312" s="9"/>
+      <c r="D312" s="9"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="9"/>
+      <c r="G312" s="9"/>
+      <c r="H312" s="9"/>
+      <c r="I312" s="9"/>
+      <c r="J312" s="9"/>
+      <c r="K312" s="9"/>
+      <c r="L312" s="9"/>
+      <c r="M312" s="9"/>
+      <c r="N312" s="9"/>
+      <c r="O312" s="9"/>
+      <c r="P312" s="13"/>
+      <c r="Q312" s="9"/>
+      <c r="R312" s="9"/>
+      <c r="S312" s="17"/>
+      <c r="T312" s="9"/>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A313" s="13"/>
+      <c r="B313" s="9"/>
+      <c r="C313" s="9"/>
+      <c r="D313" s="9"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="9"/>
+      <c r="G313" s="9"/>
+      <c r="H313" s="9"/>
+      <c r="I313" s="9"/>
+      <c r="J313" s="9"/>
+      <c r="K313" s="9"/>
+      <c r="L313" s="9"/>
+      <c r="M313" s="9"/>
+      <c r="N313" s="9"/>
+      <c r="O313" s="9"/>
+      <c r="P313" s="13"/>
+      <c r="Q313" s="9"/>
+      <c r="R313" s="9"/>
+      <c r="S313" s="17"/>
+      <c r="T313" s="9"/>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A314" s="13"/>
+      <c r="B314" s="9"/>
+      <c r="C314" s="9"/>
+      <c r="D314" s="9"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="9"/>
+      <c r="G314" s="9"/>
+      <c r="H314" s="9"/>
+      <c r="I314" s="9"/>
+      <c r="J314" s="9"/>
+      <c r="K314" s="9"/>
+      <c r="L314" s="9"/>
+      <c r="M314" s="9"/>
+      <c r="N314" s="9"/>
+      <c r="O314" s="9"/>
+      <c r="P314" s="13"/>
+      <c r="Q314" s="9"/>
+      <c r="R314" s="9"/>
+      <c r="S314" s="17"/>
+      <c r="T314" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="1033">
   <si>
     <t>Format</t>
   </si>
@@ -3122,6 +3122,24 @@
   </si>
   <si>
     <t>Useless. Well written, but the author didn't write any original content, but just listed theories and concepts written by others. This book is below the Manning's average rate.</t>
+  </si>
+  <si>
+    <t>NixOS &amp; Flakes Book v0.4.3</t>
+  </si>
+  <si>
+    <t>Useful. It's an amateur book, but it's the first one available about NixOS, therefore we apprecciate the author's effort. The book contains some useful hints, but it's also a bit repetitive and in need of some editing.</t>
+  </si>
+  <si>
+    <t>NixOS in Production</t>
+  </si>
+  <si>
+    <t>2024-07-26</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>Useless. It focalizes on the internals of Nix modules and on how to deploy NixOS to AWS.</t>
   </si>
 </sst>
 </file>
@@ -10967,9 +10985,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P307" sqref="P307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -29834,7 +29852,7 @@
         <v>159</v>
       </c>
       <c r="S290" s="17">
-        <f t="shared" ref="S290:S302" si="81">LEN(P290)</f>
+        <f t="shared" ref="S290:S303" si="81">LEN(P290)</f>
         <v>152</v>
       </c>
       <c r="T290" s="14">
@@ -30622,48 +30640,134 @@
       </c>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A303" s="13"/>
-      <c r="B303" s="9"/>
-      <c r="C303" s="9"/>
-      <c r="D303" s="9"/>
-      <c r="E303" s="9"/>
-      <c r="F303" s="9"/>
-      <c r="G303" s="9"/>
-      <c r="H303" s="9"/>
-      <c r="I303" s="9"/>
-      <c r="J303" s="9"/>
-      <c r="K303" s="9"/>
-      <c r="L303" s="9"/>
-      <c r="M303" s="9"/>
-      <c r="N303" s="9"/>
-      <c r="O303" s="9"/>
-      <c r="P303" s="13"/>
-      <c r="Q303" s="9"/>
-      <c r="R303" s="9"/>
-      <c r="S303" s="17"/>
-      <c r="T303" s="9"/>
+      <c r="A303" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B303" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E303" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F303" s="17">
+        <v>179</v>
+      </c>
+      <c r="G303" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H303" s="9">
+        <f t="shared" ref="H303" si="102">YEAR(G303)</f>
+        <v>2024</v>
+      </c>
+      <c r="I303" s="9">
+        <f t="shared" ref="I303" si="103">MONTH(G303)</f>
+        <v>7</v>
+      </c>
+      <c r="J303" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K303" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L303" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M303" s="17">
+        <v>3</v>
+      </c>
+      <c r="N303" s="43">
+        <v>0</v>
+      </c>
+      <c r="O303" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P303" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q303" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="R303" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S303" s="17">
+        <f t="shared" si="81"/>
+        <v>218</v>
+      </c>
+      <c r="T303" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A304" s="13"/>
-      <c r="B304" s="9"/>
-      <c r="C304" s="9"/>
-      <c r="D304" s="9"/>
-      <c r="E304" s="9"/>
-      <c r="F304" s="9"/>
-      <c r="G304" s="9"/>
-      <c r="H304" s="9"/>
-      <c r="I304" s="9"/>
-      <c r="J304" s="9"/>
-      <c r="K304" s="9"/>
-      <c r="L304" s="9"/>
-      <c r="M304" s="9"/>
-      <c r="N304" s="9"/>
-      <c r="O304" s="9"/>
-      <c r="P304" s="13"/>
-      <c r="Q304" s="9"/>
-      <c r="R304" s="9"/>
-      <c r="S304" s="17"/>
-      <c r="T304" s="9"/>
+      <c r="A304" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B304" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E304" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F304" s="17">
+        <v>123</v>
+      </c>
+      <c r="G304" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H304" s="9">
+        <f t="shared" ref="H304" si="104">YEAR(G304)</f>
+        <v>2024</v>
+      </c>
+      <c r="I304" s="9">
+        <f t="shared" ref="I304" si="105">MONTH(G304)</f>
+        <v>8</v>
+      </c>
+      <c r="J304" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K304" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L304" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M304" s="17">
+        <v>1</v>
+      </c>
+      <c r="N304" s="43">
+        <v>40</v>
+      </c>
+      <c r="O304" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P304" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Q304" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="R304" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S304" s="17">
+        <f t="shared" ref="S304" si="106">LEN(P304)</f>
+        <v>88</v>
+      </c>
+      <c r="T304" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="13"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="1036">
   <si>
     <t>Format</t>
   </si>
@@ -3140,6 +3140,15 @@
   </si>
   <si>
     <t>Useless. It focalizes on the internals of Nix modules and on how to deploy NixOS to AWS.</t>
+  </si>
+  <si>
+    <t>Building Data-Driven Applications with LLamaIndex</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>Useful. It's definitely the most comprehensive book about RAG I read so far and it covers everything you need in depth. As every Packt book would require some editing and restructuring, because it tends to be repetitive and caotic.</t>
   </si>
 </sst>
 </file>
@@ -10985,9 +10994,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P307" sqref="P307"/>
+      <selection pane="bottomLeft" activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -30762,7 +30771,7 @@
         <v>159</v>
       </c>
       <c r="S304" s="17">
-        <f t="shared" ref="S304" si="106">LEN(P304)</f>
+        <f t="shared" ref="S304:S305" si="106">LEN(P304)</f>
         <v>88</v>
       </c>
       <c r="T304" s="14">
@@ -30770,26 +30779,69 @@
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A305" s="13"/>
-      <c r="B305" s="9"/>
-      <c r="C305" s="9"/>
-      <c r="D305" s="9"/>
-      <c r="E305" s="9"/>
-      <c r="F305" s="9"/>
-      <c r="G305" s="9"/>
-      <c r="H305" s="9"/>
-      <c r="I305" s="9"/>
-      <c r="J305" s="9"/>
-      <c r="K305" s="9"/>
-      <c r="L305" s="9"/>
-      <c r="M305" s="9"/>
-      <c r="N305" s="9"/>
-      <c r="O305" s="9"/>
-      <c r="P305" s="13"/>
-      <c r="Q305" s="9"/>
-      <c r="R305" s="9"/>
-      <c r="S305" s="17"/>
-      <c r="T305" s="9"/>
+      <c r="A305" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B305" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E305" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F305" s="17">
+        <v>368</v>
+      </c>
+      <c r="G305" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H305" s="9">
+        <f t="shared" ref="H305" si="107">YEAR(G305)</f>
+        <v>2024</v>
+      </c>
+      <c r="I305" s="9">
+        <f t="shared" ref="I305" si="108">MONTH(G305)</f>
+        <v>8</v>
+      </c>
+      <c r="J305" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K305" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L305" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M305" s="17">
+        <v>4</v>
+      </c>
+      <c r="N305" s="17">
+        <v>43.13</v>
+      </c>
+      <c r="O305" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P305" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q305" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="R305" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S305" s="17">
+        <f t="shared" si="106"/>
+        <v>231</v>
+      </c>
+      <c r="T305" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="13"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1038">
   <si>
     <t>Format</t>
   </si>
@@ -3149,6 +3149,12 @@
   </si>
   <si>
     <t>Useful. It's definitely the most comprehensive book about RAG I read so far and it covers everything you need in depth. As every Packt book would require some editing and restructuring, because it tends to be repetitive and caotic.</t>
+  </si>
+  <si>
+    <t>The Well-Grounded Python Developer</t>
+  </si>
+  <si>
+    <t>Useful. It contains some useful bits of information, but the use of a bigger font instead of bold face to make important words to "pop" is massively annoying and it makes the reading experience a pain.</t>
   </si>
 </sst>
 </file>
@@ -3288,7 +3294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3424,6 +3430,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10992,11 +11001,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T314"/>
+  <dimension ref="A1:T315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A293" sqref="A293"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U281" sqref="U281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -26026,7 +26035,7 @@
         <v>158</v>
       </c>
       <c r="S231" s="17">
-        <f t="shared" ref="S231:S286" si="32">LEN(P231)</f>
+        <f t="shared" ref="S231:S287" si="32">LEN(P231)</f>
         <v>54</v>
       </c>
       <c r="T231" s="14">
@@ -28045,7 +28054,7 @@
         <v>52</v>
       </c>
       <c r="T262" s="14">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.2">
@@ -28110,7 +28119,7 @@
         <v>128</v>
       </c>
       <c r="T263" s="14">
-        <v>0</v>
+        <v>509</v>
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.2">
@@ -28136,11 +28145,11 @@
         <v>929</v>
       </c>
       <c r="H264" s="9">
-        <f t="shared" ref="H264" si="39">YEAR(G264)</f>
+        <f t="shared" ref="H264:H265" si="39">YEAR(G264)</f>
         <v>2024</v>
       </c>
       <c r="I264" s="9">
-        <f t="shared" ref="I264" si="40">MONTH(G264)</f>
+        <f t="shared" ref="I264:I265" si="40">MONTH(G264)</f>
         <v>2</v>
       </c>
       <c r="J264" s="9" t="s">
@@ -28161,8 +28170,8 @@
       <c r="O264" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P264" s="16" t="s">
-        <v>930</v>
+      <c r="P264" s="50" t="s">
+        <v>1037</v>
       </c>
       <c r="Q264" s="9" t="s">
         <v>569</v>
@@ -28172,18 +28181,18 @@
       </c>
       <c r="S264" s="17">
         <f t="shared" si="32"/>
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="T264" s="14">
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
-        <v>931</v>
+        <v>1036</v>
       </c>
       <c r="B265" s="17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>21</v>
@@ -28195,17 +28204,17 @@
         <v>666</v>
       </c>
       <c r="F265" s="17">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="G265" s="9" t="s">
         <v>929</v>
       </c>
       <c r="H265" s="9">
-        <f t="shared" ref="H265" si="41">YEAR(G265)</f>
+        <f t="shared" si="39"/>
         <v>2024</v>
       </c>
       <c r="I265" s="9">
-        <f t="shared" ref="I265" si="42">MONTH(G265)</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J265" s="9" t="s">
@@ -28215,19 +28224,19 @@
         <v>159</v>
       </c>
       <c r="L265" s="9" t="s">
-        <v>602</v>
+        <v>369</v>
       </c>
       <c r="M265" s="17">
         <v>1</v>
       </c>
       <c r="N265" s="17">
-        <v>22.49</v>
+        <v>59.99</v>
       </c>
       <c r="O265" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P265" s="16" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="Q265" s="9" t="s">
         <v>569</v>
@@ -28237,15 +28246,15 @@
       </c>
       <c r="S265" s="17">
         <f t="shared" si="32"/>
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="T265" s="14">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B266" s="17">
         <v>2022</v>
@@ -28260,17 +28269,17 @@
         <v>666</v>
       </c>
       <c r="F266" s="17">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="G266" s="9" t="s">
         <v>929</v>
       </c>
       <c r="H266" s="9">
-        <f t="shared" ref="H266" si="43">YEAR(G266)</f>
+        <f t="shared" ref="H266" si="41">YEAR(G266)</f>
         <v>2024</v>
       </c>
       <c r="I266" s="9">
-        <f t="shared" ref="I266" si="44">MONTH(G266)</f>
+        <f t="shared" ref="I266" si="42">MONTH(G266)</f>
         <v>2</v>
       </c>
       <c r="J266" s="9" t="s">
@@ -28280,19 +28289,19 @@
         <v>159</v>
       </c>
       <c r="L266" s="9" t="s">
-        <v>372</v>
+        <v>602</v>
       </c>
       <c r="M266" s="17">
         <v>1</v>
       </c>
       <c r="N266" s="17">
-        <v>38.880000000000003</v>
+        <v>22.49</v>
       </c>
       <c r="O266" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P266" s="13" t="s">
-        <v>934</v>
+      <c r="P266" s="16" t="s">
+        <v>932</v>
       </c>
       <c r="Q266" s="9" t="s">
         <v>569</v>
@@ -28302,7 +28311,7 @@
       </c>
       <c r="S266" s="17">
         <f t="shared" si="32"/>
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="T266" s="14">
         <v>0</v>
@@ -28310,10 +28319,10 @@
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B267" s="17">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>21</v>
@@ -28325,17 +28334,17 @@
         <v>666</v>
       </c>
       <c r="F267" s="17">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="G267" s="9" t="s">
         <v>929</v>
       </c>
       <c r="H267" s="9">
-        <f t="shared" ref="H267:H268" si="45">YEAR(G267)</f>
+        <f t="shared" ref="H267" si="43">YEAR(G267)</f>
         <v>2024</v>
       </c>
       <c r="I267" s="9">
-        <f t="shared" ref="I267:I268" si="46">MONTH(G267)</f>
+        <f t="shared" ref="I267" si="44">MONTH(G267)</f>
         <v>2</v>
       </c>
       <c r="J267" s="9" t="s">
@@ -28345,19 +28354,19 @@
         <v>159</v>
       </c>
       <c r="L267" s="9" t="s">
-        <v>602</v>
+        <v>372</v>
       </c>
       <c r="M267" s="17">
         <v>1</v>
       </c>
       <c r="N267" s="17">
-        <v>49.99</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="O267" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P267" s="13" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="Q267" s="9" t="s">
         <v>569</v>
@@ -28367,18 +28376,18 @@
       </c>
       <c r="S267" s="17">
         <f t="shared" si="32"/>
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="T267" s="14">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B268" s="17">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>21</v>
@@ -28390,577 +28399,577 @@
         <v>666</v>
       </c>
       <c r="F268" s="17">
+        <v>132</v>
+      </c>
+      <c r="G268" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="H268" s="9">
+        <f t="shared" ref="H268:H269" si="45">YEAR(G268)</f>
+        <v>2024</v>
+      </c>
+      <c r="I268" s="9">
+        <f t="shared" ref="I268:I269" si="46">MONTH(G268)</f>
+        <v>2</v>
+      </c>
+      <c r="J268" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K268" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L268" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M268" s="17">
+        <v>1</v>
+      </c>
+      <c r="N268" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O268" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P268" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q268" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R268" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S268" s="17">
+        <f t="shared" si="32"/>
+        <v>121</v>
+      </c>
+      <c r="T268" s="14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A269" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="B269" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E269" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F269" s="17">
         <v>715</v>
       </c>
-      <c r="G268" s="9" t="s">
+      <c r="G269" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="H268" s="9">
+      <c r="H269" s="9">
         <f t="shared" si="45"/>
         <v>2024</v>
       </c>
-      <c r="I268" s="9">
+      <c r="I269" s="9">
         <f t="shared" si="46"/>
         <v>2</v>
       </c>
-      <c r="J268" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K268" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L268" s="9" t="s">
+      <c r="J269" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K269" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L269" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="M268" s="17">
+      <c r="M269" s="17">
         <v>2</v>
       </c>
-      <c r="N268" s="17">
+      <c r="N269" s="17">
         <v>38.24</v>
       </c>
-      <c r="O268" s="9" t="s">
+      <c r="O269" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P268" s="13" t="s">
+      <c r="P269" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="Q268" s="9" t="s">
+      <c r="Q269" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="R268" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S268" s="17">
+      <c r="R269" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S269" s="17">
         <f t="shared" si="32"/>
         <v>105</v>
       </c>
-      <c r="T268" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A269" s="13" t="s">
+      <c r="T269" s="14">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A270" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="B269" s="17">
+      <c r="B270" s="17">
         <v>2023</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C270" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D269" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E269" s="9" t="s">
+      <c r="D270" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F269" s="17">
+      <c r="F270" s="17">
         <v>192</v>
       </c>
-      <c r="G269" s="9" t="s">
+      <c r="G270" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="H269" s="9">
-        <f t="shared" ref="H269" si="47">YEAR(G269)</f>
+      <c r="H270" s="9">
+        <f t="shared" ref="H270" si="47">YEAR(G270)</f>
         <v>2024</v>
       </c>
-      <c r="I269" s="9">
-        <f t="shared" ref="I269" si="48">MONTH(G269)</f>
+      <c r="I270" s="9">
+        <f t="shared" ref="I270" si="48">MONTH(G270)</f>
         <v>2</v>
       </c>
-      <c r="J269" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K269" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L269" s="9" t="s">
+      <c r="J270" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K270" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L270" s="9" t="s">
         <v>941</v>
       </c>
-      <c r="M269" s="17">
+      <c r="M270" s="17">
         <v>1</v>
       </c>
-      <c r="N269" s="17">
+      <c r="N270" s="17">
         <v>54.99</v>
       </c>
-      <c r="O269" s="9" t="s">
+      <c r="O270" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P269" s="13" t="s">
+      <c r="P270" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="Q269" s="9" t="s">
+      <c r="Q270" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="R269" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S269" s="17">
+      <c r="R270" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S270" s="17">
         <f t="shared" si="32"/>
         <v>142</v>
       </c>
-      <c r="T269" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A270" s="13" t="s">
+      <c r="T270" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A271" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="B270" s="17">
+      <c r="B271" s="17">
         <v>2024</v>
       </c>
-      <c r="C270" s="9" t="s">
+      <c r="C271" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D270" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E270" s="9" t="s">
+      <c r="D271" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E271" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F270" s="17">
+      <c r="F271" s="17">
         <v>139</v>
       </c>
-      <c r="G270" s="9" t="s">
+      <c r="G271" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="H270" s="9">
-        <f t="shared" ref="H270" si="49">YEAR(G270)</f>
+      <c r="H271" s="9">
+        <f t="shared" ref="H271" si="49">YEAR(G271)</f>
         <v>2024</v>
       </c>
-      <c r="I270" s="9">
-        <f t="shared" ref="I270" si="50">MONTH(G270)</f>
+      <c r="I271" s="9">
+        <f t="shared" ref="I271" si="50">MONTH(G271)</f>
         <v>2</v>
       </c>
-      <c r="J270" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K270" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L270" s="9" t="s">
+      <c r="J271" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K271" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L271" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="M270" s="17">
+      <c r="M271" s="17">
         <v>1</v>
       </c>
-      <c r="N270" s="17">
+      <c r="N271" s="17">
         <v>59.95</v>
       </c>
-      <c r="O270" s="9" t="s">
+      <c r="O271" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P270" s="13" t="s">
+      <c r="P271" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="Q270" s="9" t="s">
+      <c r="Q271" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="R270" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S270" s="17">
+      <c r="R271" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S271" s="17">
         <f t="shared" si="32"/>
         <v>138</v>
       </c>
-      <c r="T270" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A271" s="13" t="s">
+      <c r="T271" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A272" s="13" t="s">
         <v>946</v>
       </c>
-      <c r="B271" s="17">
+      <c r="B272" s="17">
         <v>2023</v>
       </c>
-      <c r="C271" s="9" t="s">
+      <c r="C272" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D271" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E271" s="9" t="s">
+      <c r="D272" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E272" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F271" s="17">
+      <c r="F272" s="17">
         <v>963</v>
       </c>
-      <c r="G271" s="9" t="s">
+      <c r="G272" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="H271" s="9">
-        <f t="shared" ref="H271" si="51">YEAR(G271)</f>
+      <c r="H272" s="9">
+        <f t="shared" ref="H272" si="51">YEAR(G272)</f>
         <v>2024</v>
       </c>
-      <c r="I271" s="9">
-        <f t="shared" ref="I271" si="52">MONTH(G271)</f>
+      <c r="I272" s="9">
+        <f t="shared" ref="I272" si="52">MONTH(G272)</f>
         <v>2</v>
       </c>
-      <c r="J271" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K271" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L271" s="9" t="s">
+      <c r="J272" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K272" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L272" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="M271" s="17">
+      <c r="M272" s="17">
         <v>3</v>
       </c>
-      <c r="N271" s="17">
+      <c r="N272" s="17">
         <v>65.23</v>
       </c>
-      <c r="O271" s="9" t="s">
+      <c r="O272" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P271" s="13" t="s">
+      <c r="P272" s="13" t="s">
         <v>947</v>
       </c>
-      <c r="Q271" s="9" t="s">
+      <c r="Q272" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="R271" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S271" s="17">
+      <c r="R272" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S272" s="17">
         <f t="shared" si="32"/>
         <v>90</v>
       </c>
-      <c r="T271" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A272" s="13" t="s">
+      <c r="T272" s="14">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A273" s="13" t="s">
         <v>948</v>
       </c>
-      <c r="B272" s="17">
+      <c r="B273" s="17">
         <v>2024</v>
       </c>
-      <c r="C272" s="9" t="s">
+      <c r="C273" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D272" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E272" s="9" t="s">
+      <c r="D273" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F272" s="17">
+      <c r="F273" s="17">
         <v>229</v>
       </c>
-      <c r="G272" s="9" t="s">
+      <c r="G273" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="H272" s="9">
-        <f t="shared" ref="H272:H273" si="53">YEAR(G272)</f>
+      <c r="H273" s="9">
+        <f t="shared" ref="H273:H274" si="53">YEAR(G273)</f>
         <v>2024</v>
       </c>
-      <c r="I272" s="9">
-        <f t="shared" ref="I272:I273" si="54">MONTH(G272)</f>
+      <c r="I273" s="9">
+        <f t="shared" ref="I273:I274" si="54">MONTH(G273)</f>
         <v>2</v>
       </c>
-      <c r="J272" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K272" s="9" t="s">
+      <c r="J273" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K273" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L272" s="9" t="s">
+      <c r="L273" s="9" t="s">
         <v>941</v>
       </c>
-      <c r="M272" s="17">
+      <c r="M273" s="17">
         <v>2</v>
       </c>
-      <c r="N272" s="17">
+      <c r="N273" s="17">
         <v>54.99</v>
       </c>
-      <c r="O272" s="9" t="s">
+      <c r="O273" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P272" s="13" t="s">
+      <c r="P273" s="13" t="s">
         <v>949</v>
       </c>
-      <c r="Q272" s="9" t="s">
+      <c r="Q273" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="R272" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S272" s="17">
+      <c r="R273" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S273" s="17">
         <f t="shared" si="32"/>
         <v>75</v>
       </c>
-      <c r="T272" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A273" s="13" t="s">
+      <c r="T273" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A274" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="B273" s="17">
+      <c r="B274" s="17">
         <v>2018</v>
       </c>
-      <c r="C273" s="9" t="s">
+      <c r="C274" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D273" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E273" s="9" t="s">
+      <c r="D274" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F273" s="17">
+      <c r="F274" s="17">
         <v>978</v>
       </c>
-      <c r="G273" s="9" t="s">
+      <c r="G274" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="H273" s="9">
+      <c r="H274" s="9">
         <f t="shared" si="53"/>
         <v>2024</v>
       </c>
-      <c r="I273" s="9">
+      <c r="I274" s="9">
         <f t="shared" si="54"/>
         <v>2</v>
       </c>
-      <c r="J273" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K273" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L273" s="9" t="s">
+      <c r="J274" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K274" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L274" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="M273" s="17">
+      <c r="M274" s="17">
         <v>2</v>
       </c>
-      <c r="N273" s="17">
+      <c r="N274" s="17">
         <v>33.99</v>
       </c>
-      <c r="O273" s="9" t="s">
+      <c r="O274" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P273" s="13" t="s">
+      <c r="P274" s="13" t="s">
         <v>952</v>
       </c>
-      <c r="Q273" s="9" t="s">
+      <c r="Q274" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="R273" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S273" s="17">
+      <c r="R274" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S274" s="17">
         <f t="shared" si="32"/>
         <v>125</v>
       </c>
-      <c r="T273" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A274" s="13" t="s">
+      <c r="T274" s="14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A275" s="13" t="s">
         <v>953</v>
       </c>
-      <c r="B274" s="17">
+      <c r="B275" s="17">
         <v>2022</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="C275" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D274" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E274" s="9" t="s">
+      <c r="D275" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E275" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F274" s="17">
+      <c r="F275" s="17">
         <v>264</v>
       </c>
-      <c r="G274" s="9" t="s">
+      <c r="G275" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="H274" s="9">
-        <f t="shared" ref="H274" si="55">YEAR(G274)</f>
+      <c r="H275" s="9">
+        <f t="shared" ref="H275" si="55">YEAR(G275)</f>
         <v>2024</v>
       </c>
-      <c r="I274" s="9">
-        <f t="shared" ref="I274" si="56">MONTH(G274)</f>
+      <c r="I275" s="9">
+        <f t="shared" ref="I275" si="56">MONTH(G275)</f>
         <v>2</v>
       </c>
-      <c r="J274" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K274" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L274" s="9" t="s">
+      <c r="J275" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K275" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L275" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="M274" s="17">
+      <c r="M275" s="17">
         <v>3</v>
       </c>
-      <c r="N274" s="17">
+      <c r="N275" s="17">
         <v>39.49</v>
       </c>
-      <c r="O274" s="9" t="s">
+      <c r="O275" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P274" s="13" t="s">
+      <c r="P275" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="Q274" s="9" t="s">
+      <c r="Q275" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="R274" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S274" s="17">
+      <c r="R275" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S275" s="17">
         <f t="shared" si="32"/>
         <v>59</v>
       </c>
-      <c r="T274" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A275" s="13" t="s">
+      <c r="T275" s="14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A276" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="B275" s="17">
+      <c r="B276" s="17">
         <v>2022</v>
       </c>
-      <c r="C275" s="9" t="s">
+      <c r="C276" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D275" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E275" s="9" t="s">
+      <c r="D276" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E276" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F275" s="17">
+      <c r="F276" s="17">
         <v>243</v>
       </c>
-      <c r="G275" s="9" t="s">
+      <c r="G276" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="H275" s="9">
-        <f t="shared" ref="H275:H278" si="57">YEAR(G275)</f>
+      <c r="H276" s="9">
+        <f t="shared" ref="H276:H279" si="57">YEAR(G276)</f>
         <v>2024</v>
       </c>
-      <c r="I275" s="9">
-        <f t="shared" ref="I275" si="58">MONTH(G275)</f>
+      <c r="I276" s="9">
+        <f t="shared" ref="I276" si="58">MONTH(G276)</f>
         <v>2</v>
       </c>
-      <c r="J275" s="9" t="s">
+      <c r="J276" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K275" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L275" s="9" t="s">
+      <c r="K276" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L276" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="M275" s="17">
-        <v>4</v>
-      </c>
-      <c r="N275" s="17">
+      <c r="M276" s="17">
+        <v>4</v>
+      </c>
+      <c r="N276" s="17">
         <v>48.95</v>
       </c>
-      <c r="O275" s="9" t="s">
+      <c r="O276" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P275" s="13" t="s">
+      <c r="P276" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="Q275" s="9" t="s">
+      <c r="Q276" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="R275" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S275" s="17">
+      <c r="R276" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S276" s="17">
         <f t="shared" si="32"/>
         <v>140</v>
       </c>
-      <c r="T275" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A276" s="13" t="s">
-        <v>957</v>
-      </c>
-      <c r="B276" s="17">
-        <v>2024</v>
-      </c>
-      <c r="C276" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D276" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E276" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="F276" s="17">
-        <v>337</v>
-      </c>
-      <c r="G276" s="9" t="s">
-        <v>958</v>
-      </c>
-      <c r="H276" s="9">
-        <f t="shared" si="57"/>
-        <v>2024</v>
-      </c>
-      <c r="I276" s="9">
-        <f t="shared" ref="I276:I282" si="59">MONTH(G276)</f>
-        <v>5</v>
-      </c>
-      <c r="J276" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K276" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L276" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="M276" s="17">
-        <v>1</v>
-      </c>
-      <c r="N276" s="17">
-        <v>24.99</v>
-      </c>
-      <c r="O276" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="P276" s="13" t="s">
-        <v>960</v>
-      </c>
-      <c r="Q276" s="9" t="s">
-        <v>959</v>
-      </c>
-      <c r="R276" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S276" s="17">
-        <f t="shared" si="32"/>
-        <v>168</v>
-      </c>
       <c r="T276" s="14">
-        <v>0</v>
+        <v>354</v>
       </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B277" s="17">
         <v>2024</v>
@@ -28975,7 +28984,7 @@
         <v>666</v>
       </c>
       <c r="F277" s="17">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="G277" s="9" t="s">
         <v>958</v>
@@ -28985,7 +28994,7 @@
         <v>2024</v>
       </c>
       <c r="I277" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="I277:I283" si="59">MONTH(G277)</f>
         <v>5</v>
       </c>
       <c r="J277" s="9" t="s">
@@ -29007,7 +29016,7 @@
         <v>664</v>
       </c>
       <c r="P277" s="13" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="Q277" s="9" t="s">
         <v>959</v>
@@ -29017,15 +29026,15 @@
       </c>
       <c r="S277" s="17">
         <f t="shared" si="32"/>
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="T277" s="14">
-        <v>0</v>
+        <v>317</v>
       </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B278" s="17">
         <v>2024</v>
@@ -29040,10 +29049,10 @@
         <v>666</v>
       </c>
       <c r="F278" s="17">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="H278" s="9">
         <f t="shared" si="57"/>
@@ -29051,7 +29060,7 @@
       </c>
       <c r="I278" s="9">
         <f t="shared" si="59"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J278" s="9" t="s">
         <v>159</v>
@@ -29060,19 +29069,19 @@
         <v>159</v>
       </c>
       <c r="L278" s="9" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="M278" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N278" s="17">
-        <v>44.99</v>
+        <v>24.99</v>
       </c>
       <c r="O278" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P278" s="13" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="Q278" s="9" t="s">
         <v>959</v>
@@ -29082,15 +29091,15 @@
       </c>
       <c r="S278" s="17">
         <f t="shared" si="32"/>
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="T278" s="14">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B279" s="17">
         <v>2024</v>
@@ -29105,13 +29114,13 @@
         <v>666</v>
       </c>
       <c r="F279" s="17">
-        <v>112</v>
+        <v>316</v>
       </c>
       <c r="G279" s="9" t="s">
         <v>965</v>
       </c>
       <c r="H279" s="9">
-        <f t="shared" ref="H279" si="60">YEAR(G279)</f>
+        <f t="shared" si="57"/>
         <v>2024</v>
       </c>
       <c r="I279" s="9">
@@ -29125,37 +29134,37 @@
         <v>159</v>
       </c>
       <c r="L279" s="9" t="s">
-        <v>993</v>
+        <v>365</v>
       </c>
       <c r="M279" s="17">
         <v>3</v>
       </c>
-      <c r="N279" s="43">
-        <v>0</v>
+      <c r="N279" s="17">
+        <v>44.99</v>
       </c>
       <c r="O279" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P279" s="13" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="Q279" s="9" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="R279" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S279" s="17">
         <f t="shared" si="32"/>
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="T279" s="14">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B280" s="17">
         <v>2024</v>
@@ -29170,13 +29179,13 @@
         <v>666</v>
       </c>
       <c r="F280" s="17">
-        <v>1779</v>
+        <v>112</v>
       </c>
       <c r="G280" s="9" t="s">
         <v>965</v>
       </c>
       <c r="H280" s="9">
-        <f t="shared" ref="H280:H282" si="61">YEAR(G280)</f>
+        <f t="shared" ref="H280" si="60">YEAR(G280)</f>
         <v>2024</v>
       </c>
       <c r="I280" s="9">
@@ -29190,19 +29199,19 @@
         <v>159</v>
       </c>
       <c r="L280" s="9" t="s">
-        <v>365</v>
+        <v>993</v>
       </c>
       <c r="M280" s="17">
         <v>3</v>
       </c>
-      <c r="N280" s="17">
-        <v>40.549999999999997</v>
+      <c r="N280" s="43">
+        <v>0</v>
       </c>
       <c r="O280" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P280" s="13" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="Q280" s="9" t="s">
         <v>963</v>
@@ -29212,18 +29221,18 @@
       </c>
       <c r="S280" s="17">
         <f t="shared" si="32"/>
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="T280" s="14">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B281" s="17">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>21</v>
@@ -29235,13 +29244,13 @@
         <v>666</v>
       </c>
       <c r="F281" s="17">
-        <v>365</v>
+        <v>1779</v>
       </c>
       <c r="G281" s="9" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="H281" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="H281:H283" si="61">YEAR(G281)</f>
         <v>2024</v>
       </c>
       <c r="I281" s="9">
@@ -29258,37 +29267,37 @@
         <v>365</v>
       </c>
       <c r="M281" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N281" s="17">
-        <v>49.15</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="O281" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P281" s="16" t="s">
-        <v>973</v>
+      <c r="P281" s="13" t="s">
+        <v>970</v>
       </c>
       <c r="Q281" s="9" t="s">
-        <v>904</v>
+        <v>963</v>
       </c>
       <c r="R281" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S281" s="17">
         <f t="shared" si="32"/>
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="T281" s="14">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B282" s="17">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>21</v>
@@ -29300,10 +29309,10 @@
         <v>666</v>
       </c>
       <c r="F282" s="17">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="G282" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H282" s="9">
         <f t="shared" si="61"/>
@@ -29311,7 +29320,7 @@
       </c>
       <c r="I282" s="9">
         <f t="shared" si="59"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J282" s="9" t="s">
         <v>159</v>
@@ -29320,29 +29329,29 @@
         <v>159</v>
       </c>
       <c r="L282" s="9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M282" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N282" s="17">
-        <v>50.21</v>
+        <v>49.15</v>
       </c>
       <c r="O282" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P282" s="13" t="s">
-        <v>976</v>
+      <c r="P282" s="16" t="s">
+        <v>973</v>
       </c>
       <c r="Q282" s="9" t="s">
-        <v>469</v>
+        <v>904</v>
       </c>
       <c r="R282" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S282" s="17">
         <f t="shared" si="32"/>
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="T282" s="14">
         <v>0</v>
@@ -29350,7 +29359,7 @@
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B283" s="17">
         <v>2023</v>
@@ -29365,17 +29374,17 @@
         <v>666</v>
       </c>
       <c r="F283" s="17">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="G283" s="9" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H283" s="9">
-        <f t="shared" ref="H283" si="62">YEAR(G283)</f>
+        <f t="shared" si="61"/>
         <v>2024</v>
       </c>
       <c r="I283" s="9">
-        <f t="shared" ref="I283" si="63">MONTH(G283)</f>
+        <f t="shared" si="59"/>
         <v>7</v>
       </c>
       <c r="J283" s="9" t="s">
@@ -29385,19 +29394,19 @@
         <v>159</v>
       </c>
       <c r="L283" s="9" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M283" s="17">
         <v>2</v>
       </c>
       <c r="N283" s="17">
-        <v>43.13</v>
+        <v>50.21</v>
       </c>
       <c r="O283" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P283" s="13" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="Q283" s="9" t="s">
         <v>469</v>
@@ -29407,7 +29416,7 @@
       </c>
       <c r="S283" s="17">
         <f t="shared" si="32"/>
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="T283" s="14">
         <v>0</v>
@@ -29415,10 +29424,10 @@
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B284" s="17">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>21</v>
@@ -29430,17 +29439,17 @@
         <v>666</v>
       </c>
       <c r="F284" s="17">
-        <v>289</v>
+        <v>600</v>
       </c>
       <c r="G284" s="9" t="s">
         <v>978</v>
       </c>
       <c r="H284" s="9">
-        <f t="shared" ref="H284" si="64">YEAR(G284)</f>
+        <f t="shared" ref="H284" si="62">YEAR(G284)</f>
         <v>2024</v>
       </c>
       <c r="I284" s="9">
-        <f t="shared" ref="I284" si="65">MONTH(G284)</f>
+        <f t="shared" ref="I284" si="63">MONTH(G284)</f>
         <v>7</v>
       </c>
       <c r="J284" s="9" t="s">
@@ -29450,29 +29459,29 @@
         <v>159</v>
       </c>
       <c r="L284" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M284" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N284" s="17">
-        <v>49.71</v>
+        <v>43.13</v>
       </c>
       <c r="O284" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P284" s="13" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="Q284" s="9" t="s">
-        <v>569</v>
+        <v>469</v>
       </c>
       <c r="R284" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S284" s="17">
         <f t="shared" si="32"/>
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="T284" s="14">
         <v>0</v>
@@ -29480,7 +29489,7 @@
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B285" s="17">
         <v>2024</v>
@@ -29495,17 +29504,17 @@
         <v>666</v>
       </c>
       <c r="F285" s="17">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="G285" s="9" t="s">
         <v>978</v>
       </c>
       <c r="H285" s="9">
-        <f t="shared" ref="H285" si="66">YEAR(G285)</f>
+        <f t="shared" ref="H285" si="64">YEAR(G285)</f>
         <v>2024</v>
       </c>
       <c r="I285" s="9">
-        <f t="shared" ref="I285" si="67">MONTH(G285)</f>
+        <f t="shared" ref="I285" si="65">MONTH(G285)</f>
         <v>7</v>
       </c>
       <c r="J285" s="9" t="s">
@@ -29515,29 +29524,29 @@
         <v>159</v>
       </c>
       <c r="L285" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M285" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N285" s="17">
-        <v>22.94</v>
+        <v>49.71</v>
       </c>
       <c r="O285" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P285" s="16" t="s">
-        <v>983</v>
+      <c r="P285" s="13" t="s">
+        <v>981</v>
       </c>
       <c r="Q285" s="9" t="s">
-        <v>963</v>
+        <v>569</v>
       </c>
       <c r="R285" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S285" s="17">
         <f t="shared" si="32"/>
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="T285" s="14">
         <v>0</v>
@@ -29545,7 +29554,7 @@
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="13" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B286" s="17">
         <v>2024</v>
@@ -29560,17 +29569,17 @@
         <v>666</v>
       </c>
       <c r="F286" s="17">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G286" s="9" t="s">
         <v>978</v>
       </c>
       <c r="H286" s="9">
-        <f t="shared" ref="H286" si="68">YEAR(G286)</f>
+        <f t="shared" ref="H286" si="66">YEAR(G286)</f>
         <v>2024</v>
       </c>
       <c r="I286" s="9">
-        <f t="shared" ref="I286" si="69">MONTH(G286)</f>
+        <f t="shared" ref="I286" si="67">MONTH(G286)</f>
         <v>7</v>
       </c>
       <c r="J286" s="9" t="s">
@@ -29580,19 +29589,19 @@
         <v>159</v>
       </c>
       <c r="L286" s="9" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="M286" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N286" s="17">
-        <v>16.690000000000001</v>
+        <v>22.94</v>
       </c>
       <c r="O286" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P286" s="16" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="Q286" s="9" t="s">
         <v>963</v>
@@ -29602,7 +29611,7 @@
       </c>
       <c r="S286" s="17">
         <f t="shared" si="32"/>
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="T286" s="14">
         <v>0</v>
@@ -29610,10 +29619,10 @@
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="13" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B287" s="17">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>21</v>
@@ -29625,17 +29634,17 @@
         <v>666</v>
       </c>
       <c r="F287" s="17">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="G287" s="9" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="H287" s="9">
-        <f t="shared" ref="H287" si="70">YEAR(G287)</f>
+        <f t="shared" ref="H287" si="68">YEAR(G287)</f>
         <v>2024</v>
       </c>
       <c r="I287" s="9">
-        <f t="shared" ref="I287" si="71">MONTH(G287)</f>
+        <f t="shared" ref="I287" si="69">MONTH(G287)</f>
         <v>7</v>
       </c>
       <c r="J287" s="9" t="s">
@@ -29645,19 +29654,19 @@
         <v>159</v>
       </c>
       <c r="L287" s="9" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="M287" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N287" s="17">
-        <v>31.99</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="O287" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P287" s="16" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="Q287" s="9" t="s">
         <v>963</v>
@@ -29666,8 +29675,8 @@
         <v>159</v>
       </c>
       <c r="S287" s="17">
-        <f t="shared" ref="S287" si="72">LEN(P287)</f>
-        <v>98</v>
+        <f t="shared" si="32"/>
+        <v>186</v>
       </c>
       <c r="T287" s="14">
         <v>0</v>
@@ -29675,10 +29684,10 @@
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="13" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B288" s="17">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>21</v>
@@ -29690,17 +29699,17 @@
         <v>666</v>
       </c>
       <c r="F288" s="17">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H288" s="9">
-        <f t="shared" ref="H288" si="73">YEAR(G288)</f>
+        <f t="shared" ref="H288" si="70">YEAR(G288)</f>
         <v>2024</v>
       </c>
       <c r="I288" s="9">
-        <f t="shared" ref="I288" si="74">MONTH(G288)</f>
+        <f t="shared" ref="I288" si="71">MONTH(G288)</f>
         <v>7</v>
       </c>
       <c r="J288" s="9" t="s">
@@ -29710,19 +29719,19 @@
         <v>159</v>
       </c>
       <c r="L288" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M288" s="17">
         <v>3</v>
       </c>
       <c r="N288" s="17">
-        <v>27.99</v>
+        <v>31.99</v>
       </c>
       <c r="O288" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P288" s="16" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="Q288" s="9" t="s">
         <v>963</v>
@@ -29731,8 +29740,8 @@
         <v>159</v>
       </c>
       <c r="S288" s="17">
-        <f t="shared" ref="S288" si="75">LEN(P288)</f>
-        <v>57</v>
+        <f t="shared" ref="S288" si="72">LEN(P288)</f>
+        <v>98</v>
       </c>
       <c r="T288" s="14">
         <v>0</v>
@@ -29740,7 +29749,7 @@
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" s="13" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B289" s="17">
         <v>2023</v>
@@ -29755,17 +29764,17 @@
         <v>666</v>
       </c>
       <c r="F289" s="17">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="G289" s="9" t="s">
         <v>990</v>
       </c>
       <c r="H289" s="9">
-        <f t="shared" ref="H289" si="76">YEAR(G289)</f>
+        <f t="shared" ref="H289" si="73">YEAR(G289)</f>
         <v>2024</v>
       </c>
       <c r="I289" s="9">
-        <f t="shared" ref="I289" si="77">MONTH(G289)</f>
+        <f t="shared" ref="I289" si="74">MONTH(G289)</f>
         <v>7</v>
       </c>
       <c r="J289" s="9" t="s">
@@ -29775,29 +29784,29 @@
         <v>159</v>
       </c>
       <c r="L289" s="9" t="s">
-        <v>602</v>
+        <v>370</v>
       </c>
       <c r="M289" s="17">
         <v>3</v>
       </c>
-      <c r="N289" s="43">
-        <v>49</v>
+      <c r="N289" s="17">
+        <v>27.99</v>
       </c>
       <c r="O289" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P289" s="16" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="Q289" s="9" t="s">
-        <v>469</v>
+        <v>963</v>
       </c>
       <c r="R289" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S289" s="17">
-        <f t="shared" ref="S289" si="78">LEN(P289)</f>
-        <v>84</v>
+        <f t="shared" ref="S289" si="75">LEN(P289)</f>
+        <v>57</v>
       </c>
       <c r="T289" s="14">
         <v>0</v>
@@ -29805,7 +29814,7 @@
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B290" s="17">
         <v>2023</v>
@@ -29820,17 +29829,17 @@
         <v>666</v>
       </c>
       <c r="F290" s="17">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="G290" s="9" t="s">
         <v>990</v>
       </c>
       <c r="H290" s="9">
-        <f t="shared" ref="H290" si="79">YEAR(G290)</f>
+        <f t="shared" ref="H290" si="76">YEAR(G290)</f>
         <v>2024</v>
       </c>
       <c r="I290" s="9">
-        <f t="shared" ref="I290" si="80">MONTH(G290)</f>
+        <f t="shared" ref="I290" si="77">MONTH(G290)</f>
         <v>7</v>
       </c>
       <c r="J290" s="9" t="s">
@@ -29840,29 +29849,29 @@
         <v>159</v>
       </c>
       <c r="L290" s="9" t="s">
-        <v>365</v>
+        <v>602</v>
       </c>
       <c r="M290" s="17">
-        <v>2</v>
-      </c>
-      <c r="N290" s="17">
-        <v>26.01</v>
+        <v>3</v>
+      </c>
+      <c r="N290" s="43">
+        <v>49</v>
       </c>
       <c r="O290" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P290" s="16" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="Q290" s="9" t="s">
-        <v>963</v>
+        <v>469</v>
       </c>
       <c r="R290" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S290" s="17">
-        <f t="shared" ref="S290:S303" si="81">LEN(P290)</f>
-        <v>152</v>
+        <f t="shared" ref="S290" si="78">LEN(P290)</f>
+        <v>84</v>
       </c>
       <c r="T290" s="14">
         <v>0</v>
@@ -29870,10 +29879,10 @@
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" s="13" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B291" s="17">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>21</v>
@@ -29885,17 +29894,17 @@
         <v>666</v>
       </c>
       <c r="F291" s="17">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="G291" s="9" t="s">
         <v>990</v>
       </c>
       <c r="H291" s="9">
-        <f t="shared" ref="H291" si="82">YEAR(G291)</f>
+        <f t="shared" ref="H291" si="79">YEAR(G291)</f>
         <v>2024</v>
       </c>
       <c r="I291" s="9">
-        <f t="shared" ref="I291" si="83">MONTH(G291)</f>
+        <f t="shared" ref="I291" si="80">MONTH(G291)</f>
         <v>7</v>
       </c>
       <c r="J291" s="9" t="s">
@@ -29905,19 +29914,19 @@
         <v>159</v>
       </c>
       <c r="L291" s="9" t="s">
-        <v>993</v>
+        <v>365</v>
       </c>
       <c r="M291" s="17">
-        <v>3</v>
-      </c>
-      <c r="N291" s="43">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N291" s="17">
+        <v>26.01</v>
       </c>
       <c r="O291" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P291" s="28" t="s">
-        <v>707</v>
+      <c r="P291" s="16" t="s">
+        <v>996</v>
       </c>
       <c r="Q291" s="9" t="s">
         <v>963</v>
@@ -29926,214 +29935,214 @@
         <v>159</v>
       </c>
       <c r="S291" s="17">
+        <f t="shared" ref="S291:S304" si="81">LEN(P291)</f>
+        <v>152</v>
+      </c>
+      <c r="T291" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A292" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="B292" s="17">
+        <v>2015</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F292" s="17">
+        <v>96</v>
+      </c>
+      <c r="G292" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="H292" s="9">
+        <f t="shared" ref="H292" si="82">YEAR(G292)</f>
+        <v>2024</v>
+      </c>
+      <c r="I292" s="9">
+        <f t="shared" ref="I292" si="83">MONTH(G292)</f>
+        <v>7</v>
+      </c>
+      <c r="J292" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K292" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L292" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="M292" s="17">
+        <v>3</v>
+      </c>
+      <c r="N292" s="43">
+        <v>0</v>
+      </c>
+      <c r="O292" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P292" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q292" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R292" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S292" s="17">
         <f t="shared" si="81"/>
         <v>26</v>
       </c>
-      <c r="T291" s="14">
+      <c r="T292" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A292" s="13" t="s">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A293" s="13" t="s">
         <v>998</v>
       </c>
-      <c r="B292" s="17">
+      <c r="B293" s="17">
         <v>2022</v>
       </c>
-      <c r="C292" s="9" t="s">
+      <c r="C293" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D292" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E292" s="9" t="s">
+      <c r="D293" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E293" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F292" s="17">
+      <c r="F293" s="17">
         <v>194</v>
       </c>
-      <c r="G292" s="9" t="s">
+      <c r="G293" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="H292" s="9">
-        <f t="shared" ref="H292" si="84">YEAR(G292)</f>
+      <c r="H293" s="9">
+        <f t="shared" ref="H293" si="84">YEAR(G293)</f>
         <v>2024</v>
       </c>
-      <c r="I292" s="9">
-        <f t="shared" ref="I292" si="85">MONTH(G292)</f>
+      <c r="I293" s="9">
+        <f t="shared" ref="I293" si="85">MONTH(G293)</f>
         <v>7</v>
       </c>
-      <c r="J292" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K292" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L292" s="9" t="s">
+      <c r="J293" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K293" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L293" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="M292" s="17">
+      <c r="M293" s="17">
         <v>3</v>
       </c>
-      <c r="N292" s="43">
+      <c r="N293" s="43">
         <v>0</v>
       </c>
-      <c r="O292" s="9" t="s">
+      <c r="O293" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P292" s="28" t="s">
+      <c r="P293" s="28" t="s">
         <v>1000</v>
       </c>
-      <c r="Q292" s="9" t="s">
+      <c r="Q293" s="9" t="s">
         <v>963</v>
       </c>
-      <c r="R292" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S292" s="17">
+      <c r="R293" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S293" s="17">
         <f t="shared" si="81"/>
         <v>38</v>
       </c>
-      <c r="T292" s="14">
+      <c r="T293" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A293" s="13" t="s">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A294" s="13" t="s">
         <v>1001</v>
       </c>
-      <c r="B293" s="17">
+      <c r="B294" s="17">
         <v>2018</v>
       </c>
-      <c r="C293" s="9" t="s">
+      <c r="C294" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D293" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E293" s="9" t="s">
+      <c r="D294" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E294" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="F293" s="17">
+      <c r="F294" s="17">
         <v>188</v>
       </c>
-      <c r="G293" s="9" t="s">
+      <c r="G294" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="H293" s="9">
-        <f t="shared" ref="H293:H295" si="86">YEAR(G293)</f>
+      <c r="H294" s="9">
+        <f t="shared" ref="H294:H296" si="86">YEAR(G294)</f>
         <v>2024</v>
       </c>
-      <c r="I293" s="9">
-        <f t="shared" ref="I293:I295" si="87">MONTH(G293)</f>
+      <c r="I294" s="9">
+        <f t="shared" ref="I294:I296" si="87">MONTH(G294)</f>
         <v>7</v>
       </c>
-      <c r="J293" s="9" t="s">
+      <c r="J294" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K293" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L293" s="9" t="s">
+      <c r="K294" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L294" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="M293" s="17">
-        <v>4</v>
-      </c>
-      <c r="N293" s="43">
+      <c r="M294" s="17">
+        <v>4</v>
+      </c>
+      <c r="N294" s="43">
         <v>48</v>
       </c>
-      <c r="O293" s="9" t="s">
+      <c r="O294" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P293" s="16" t="s">
+      <c r="P294" s="16" t="s">
         <v>1004</v>
       </c>
-      <c r="Q293" s="9" t="s">
+      <c r="Q294" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="R293" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S293" s="17">
+      <c r="R294" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S294" s="17">
         <f t="shared" si="81"/>
         <v>268</v>
       </c>
-      <c r="T293" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A294" s="13" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B294" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C294" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D294" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E294" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="F294" s="17">
-        <v>631</v>
-      </c>
-      <c r="G294" s="9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H294" s="9">
-        <f t="shared" si="86"/>
-        <v>2024</v>
-      </c>
-      <c r="I294" s="9">
-        <f t="shared" si="87"/>
-        <v>7</v>
-      </c>
-      <c r="J294" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K294" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L294" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="M294" s="17">
-        <v>3</v>
-      </c>
-      <c r="N294" s="17">
-        <v>49.99</v>
-      </c>
-      <c r="O294" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="P294" s="16" t="s">
-        <v>1007</v>
-      </c>
-      <c r="Q294" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="R294" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S294" s="17">
-        <f t="shared" si="81"/>
-        <v>131</v>
-      </c>
       <c r="T294" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="13" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B295" s="17">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C295" s="9" t="s">
         <v>21</v>
@@ -30145,10 +30154,10 @@
         <v>666</v>
       </c>
       <c r="F295" s="17">
-        <v>318</v>
+        <v>631</v>
       </c>
       <c r="G295" s="9" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="H295" s="9">
         <f t="shared" si="86"/>
@@ -30168,7 +30177,7 @@
         <v>365</v>
       </c>
       <c r="M295" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N295" s="17">
         <v>49.99</v>
@@ -30177,17 +30186,17 @@
         <v>664</v>
       </c>
       <c r="P295" s="16" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="Q295" s="9" t="s">
-        <v>874</v>
+        <v>569</v>
       </c>
       <c r="R295" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S295" s="17">
         <f t="shared" si="81"/>
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="T295" s="14">
         <v>0</v>
@@ -30195,7 +30204,7 @@
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="13" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B296" s="17">
         <v>2023</v>
@@ -30210,17 +30219,17 @@
         <v>666</v>
       </c>
       <c r="F296" s="17">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="G296" s="9" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="H296" s="9">
-        <f t="shared" ref="H296" si="88">YEAR(G296)</f>
+        <f t="shared" si="86"/>
         <v>2024</v>
       </c>
       <c r="I296" s="9">
-        <f t="shared" ref="I296" si="89">MONTH(G296)</f>
+        <f t="shared" si="87"/>
         <v>7</v>
       </c>
       <c r="J296" s="9" t="s">
@@ -30230,19 +30239,19 @@
         <v>159</v>
       </c>
       <c r="L296" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M296" s="17">
         <v>1</v>
       </c>
       <c r="N296" s="17">
-        <v>65.989999999999995</v>
+        <v>49.99</v>
       </c>
       <c r="O296" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P296" s="16" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="Q296" s="9" t="s">
         <v>874</v>
@@ -30252,7 +30261,7 @@
       </c>
       <c r="S296" s="17">
         <f t="shared" si="81"/>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="T296" s="14">
         <v>0</v>
@@ -30260,7 +30269,7 @@
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="13" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B297" s="17">
         <v>2023</v>
@@ -30275,17 +30284,17 @@
         <v>666</v>
       </c>
       <c r="F297" s="17">
-        <v>636</v>
+        <v>298</v>
       </c>
       <c r="G297" s="9" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="H297" s="9">
-        <f t="shared" ref="H297" si="90">YEAR(G297)</f>
+        <f t="shared" ref="H297" si="88">YEAR(G297)</f>
         <v>2024</v>
       </c>
       <c r="I297" s="9">
-        <f t="shared" ref="I297" si="91">MONTH(G297)</f>
+        <f t="shared" ref="I297" si="89">MONTH(G297)</f>
         <v>7</v>
       </c>
       <c r="J297" s="9" t="s">
@@ -30295,13 +30304,13 @@
         <v>159</v>
       </c>
       <c r="L297" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M297" s="17">
         <v>1</v>
       </c>
       <c r="N297" s="17">
-        <v>39.99</v>
+        <v>65.989999999999995</v>
       </c>
       <c r="O297" s="9" t="s">
         <v>664</v>
@@ -30310,7 +30319,7 @@
         <v>1013</v>
       </c>
       <c r="Q297" s="9" t="s">
-        <v>569</v>
+        <v>874</v>
       </c>
       <c r="R297" s="9" t="s">
         <v>159</v>
@@ -30324,8 +30333,8 @@
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A298" s="16" t="s">
-        <v>1016</v>
+      <c r="A298" s="13" t="s">
+        <v>1014</v>
       </c>
       <c r="B298" s="17">
         <v>2023</v>
@@ -30340,17 +30349,17 @@
         <v>666</v>
       </c>
       <c r="F298" s="17">
-        <v>218</v>
+        <v>636</v>
       </c>
       <c r="G298" s="9" t="s">
         <v>1015</v>
       </c>
       <c r="H298" s="9">
-        <f t="shared" ref="H298" si="92">YEAR(G298)</f>
+        <f t="shared" ref="H298" si="90">YEAR(G298)</f>
         <v>2024</v>
       </c>
       <c r="I298" s="9">
-        <f t="shared" ref="I298" si="93">MONTH(G298)</f>
+        <f t="shared" ref="I298" si="91">MONTH(G298)</f>
         <v>7</v>
       </c>
       <c r="J298" s="9" t="s">
@@ -30360,19 +30369,19 @@
         <v>159</v>
       </c>
       <c r="L298" s="9" t="s">
-        <v>602</v>
+        <v>370</v>
       </c>
       <c r="M298" s="17">
         <v>1</v>
       </c>
       <c r="N298" s="17">
-        <v>19.989999999999998</v>
+        <v>39.99</v>
       </c>
       <c r="O298" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P298" s="16" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="Q298" s="9" t="s">
         <v>569</v>
@@ -30382,18 +30391,18 @@
       </c>
       <c r="S298" s="17">
         <f t="shared" si="81"/>
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="T298" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A299" s="13" t="s">
-        <v>1018</v>
+      <c r="A299" s="16" t="s">
+        <v>1016</v>
       </c>
       <c r="B299" s="17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C299" s="9" t="s">
         <v>21</v>
@@ -30405,39 +30414,39 @@
         <v>666</v>
       </c>
       <c r="F299" s="17">
-        <v>464</v>
+        <v>218</v>
       </c>
       <c r="G299" s="9" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="H299" s="9">
-        <f t="shared" ref="H299" si="94">YEAR(G299)</f>
+        <f t="shared" ref="H299" si="92">YEAR(G299)</f>
         <v>2024</v>
       </c>
       <c r="I299" s="9">
-        <f t="shared" ref="I299" si="95">MONTH(G299)</f>
+        <f t="shared" ref="I299" si="93">MONTH(G299)</f>
         <v>7</v>
       </c>
       <c r="J299" s="9" t="s">
         <v>159</v>
       </c>
       <c r="K299" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L299" s="9" t="s">
-        <v>880</v>
+        <v>602</v>
       </c>
       <c r="M299" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N299" s="17">
-        <v>24.95</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="O299" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P299" s="16" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q299" s="9" t="s">
         <v>569</v>
@@ -30447,7 +30456,7 @@
       </c>
       <c r="S299" s="17">
         <f t="shared" si="81"/>
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="T299" s="14">
         <v>0</v>
@@ -30455,10 +30464,10 @@
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="13" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B300" s="17">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C300" s="9" t="s">
         <v>21</v>
@@ -30470,49 +30479,49 @@
         <v>666</v>
       </c>
       <c r="F300" s="17">
-        <v>58</v>
+        <v>464</v>
       </c>
       <c r="G300" s="9" t="s">
         <v>1019</v>
       </c>
       <c r="H300" s="9">
-        <f t="shared" ref="H300" si="96">YEAR(G300)</f>
+        <f t="shared" ref="H300" si="94">YEAR(G300)</f>
         <v>2024</v>
       </c>
       <c r="I300" s="9">
-        <f t="shared" ref="I300" si="97">MONTH(G300)</f>
+        <f t="shared" ref="I300" si="95">MONTH(G300)</f>
         <v>7</v>
       </c>
       <c r="J300" s="9" t="s">
         <v>159</v>
       </c>
       <c r="K300" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L300" s="9" t="s">
-        <v>602</v>
+        <v>880</v>
       </c>
       <c r="M300" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N300" s="17">
-        <v>14.95</v>
+        <v>24.95</v>
       </c>
       <c r="O300" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P300" s="28" t="s">
-        <v>1022</v>
+      <c r="P300" s="16" t="s">
+        <v>1020</v>
       </c>
       <c r="Q300" s="9" t="s">
-        <v>959</v>
+        <v>569</v>
       </c>
       <c r="R300" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S300" s="17">
         <f t="shared" si="81"/>
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="T300" s="14">
         <v>0</v>
@@ -30520,7 +30529,7 @@
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" s="13" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B301" s="17">
         <v>2023</v>
@@ -30535,17 +30544,17 @@
         <v>666</v>
       </c>
       <c r="F301" s="17">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="G301" s="9" t="s">
         <v>1019</v>
       </c>
       <c r="H301" s="9">
-        <f t="shared" ref="H301" si="98">YEAR(G301)</f>
+        <f t="shared" ref="H301" si="96">YEAR(G301)</f>
         <v>2024</v>
       </c>
       <c r="I301" s="9">
-        <f t="shared" ref="I301" si="99">MONTH(G301)</f>
+        <f t="shared" ref="I301" si="97">MONTH(G301)</f>
         <v>7</v>
       </c>
       <c r="J301" s="9" t="s">
@@ -30555,29 +30564,29 @@
         <v>159</v>
       </c>
       <c r="L301" s="9" t="s">
-        <v>377</v>
+        <v>602</v>
       </c>
       <c r="M301" s="17">
         <v>2</v>
       </c>
-      <c r="N301" s="43">
-        <v>35</v>
+      <c r="N301" s="17">
+        <v>14.95</v>
       </c>
       <c r="O301" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P301" s="13" t="s">
-        <v>1024</v>
+      <c r="P301" s="28" t="s">
+        <v>1022</v>
       </c>
       <c r="Q301" s="9" t="s">
-        <v>904</v>
+        <v>959</v>
       </c>
       <c r="R301" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S301" s="17">
         <f t="shared" si="81"/>
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="T301" s="14">
         <v>0</v>
@@ -30585,7 +30594,7 @@
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="13" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B302" s="17">
         <v>2023</v>
@@ -30600,17 +30609,17 @@
         <v>666</v>
       </c>
       <c r="F302" s="17">
-        <v>331</v>
+        <v>161</v>
       </c>
       <c r="G302" s="9" t="s">
         <v>1019</v>
       </c>
       <c r="H302" s="9">
-        <f t="shared" ref="H302" si="100">YEAR(G302)</f>
+        <f t="shared" ref="H302" si="98">YEAR(G302)</f>
         <v>2024</v>
       </c>
       <c r="I302" s="9">
-        <f t="shared" ref="I302" si="101">MONTH(G302)</f>
+        <f t="shared" ref="I302" si="99">MONTH(G302)</f>
         <v>7</v>
       </c>
       <c r="J302" s="9" t="s">
@@ -30620,29 +30629,29 @@
         <v>159</v>
       </c>
       <c r="L302" s="9" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M302" s="17">
         <v>2</v>
       </c>
       <c r="N302" s="43">
-        <v>35.700000000000003</v>
+        <v>35</v>
       </c>
       <c r="O302" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P302" s="16" t="s">
-        <v>1026</v>
+      <c r="P302" s="13" t="s">
+        <v>1024</v>
       </c>
       <c r="Q302" s="9" t="s">
-        <v>469</v>
+        <v>904</v>
       </c>
       <c r="R302" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S302" s="17">
         <f t="shared" si="81"/>
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="T302" s="14">
         <v>0</v>
@@ -30650,10 +30659,10 @@
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" s="13" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B303" s="17">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C303" s="9" t="s">
         <v>21</v>
@@ -30665,17 +30674,17 @@
         <v>666</v>
       </c>
       <c r="F303" s="17">
-        <v>179</v>
+        <v>331</v>
       </c>
       <c r="G303" s="9" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="H303" s="9">
-        <f t="shared" ref="H303" si="102">YEAR(G303)</f>
+        <f t="shared" ref="H303" si="100">YEAR(G303)</f>
         <v>2024</v>
       </c>
       <c r="I303" s="9">
-        <f t="shared" ref="I303" si="103">MONTH(G303)</f>
+        <f t="shared" ref="I303" si="101">MONTH(G303)</f>
         <v>7</v>
       </c>
       <c r="J303" s="9" t="s">
@@ -30685,29 +30694,29 @@
         <v>159</v>
       </c>
       <c r="L303" s="9" t="s">
-        <v>602</v>
+        <v>369</v>
       </c>
       <c r="M303" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N303" s="43">
-        <v>0</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="O303" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P303" s="13" t="s">
-        <v>1028</v>
+      <c r="P303" s="16" t="s">
+        <v>1026</v>
       </c>
       <c r="Q303" s="9" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="R303" s="9" t="s">
         <v>159</v>
       </c>
       <c r="S303" s="17">
         <f t="shared" si="81"/>
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="T303" s="14">
         <v>0</v>
@@ -30715,7 +30724,7 @@
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" s="13" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B304" s="17">
         <v>2024</v>
@@ -30730,18 +30739,18 @@
         <v>666</v>
       </c>
       <c r="F304" s="17">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="G304" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H304" s="9">
-        <f t="shared" ref="H304" si="104">YEAR(G304)</f>
+        <f t="shared" ref="H304" si="102">YEAR(G304)</f>
         <v>2024</v>
       </c>
       <c r="I304" s="9">
-        <f t="shared" ref="I304" si="105">MONTH(G304)</f>
-        <v>8</v>
+        <f t="shared" ref="I304" si="103">MONTH(G304)</f>
+        <v>7</v>
       </c>
       <c r="J304" s="9" t="s">
         <v>159</v>
@@ -30753,16 +30762,16 @@
         <v>602</v>
       </c>
       <c r="M304" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N304" s="43">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O304" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P304" s="13" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="Q304" s="9" t="s">
         <v>501</v>
@@ -30771,8 +30780,8 @@
         <v>159</v>
       </c>
       <c r="S304" s="17">
-        <f t="shared" ref="S304:S305" si="106">LEN(P304)</f>
-        <v>88</v>
+        <f t="shared" si="81"/>
+        <v>218</v>
       </c>
       <c r="T304" s="14">
         <v>0</v>
@@ -30780,7 +30789,7 @@
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="13" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B305" s="17">
         <v>2024</v>
@@ -30795,75 +30804,118 @@
         <v>666</v>
       </c>
       <c r="F305" s="17">
-        <v>368</v>
+        <v>123</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="H305" s="9">
-        <f t="shared" ref="H305" si="107">YEAR(G305)</f>
+        <f t="shared" ref="H305" si="104">YEAR(G305)</f>
         <v>2024</v>
       </c>
       <c r="I305" s="9">
-        <f t="shared" ref="I305" si="108">MONTH(G305)</f>
+        <f t="shared" ref="I305" si="105">MONTH(G305)</f>
         <v>8</v>
       </c>
       <c r="J305" s="9" t="s">
         <v>159</v>
       </c>
       <c r="K305" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L305" s="9" t="s">
-        <v>365</v>
+        <v>602</v>
       </c>
       <c r="M305" s="17">
-        <v>4</v>
-      </c>
-      <c r="N305" s="17">
-        <v>43.13</v>
+        <v>1</v>
+      </c>
+      <c r="N305" s="43">
+        <v>40</v>
       </c>
       <c r="O305" s="9" t="s">
         <v>664</v>
       </c>
       <c r="P305" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Q305" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="R305" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S305" s="17">
+        <f t="shared" ref="S305:S306" si="106">LEN(P305)</f>
+        <v>88</v>
+      </c>
+      <c r="T305" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A306" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B306" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E306" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F306" s="17">
+        <v>368</v>
+      </c>
+      <c r="G306" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H306" s="9">
+        <f t="shared" ref="H306" si="107">YEAR(G306)</f>
+        <v>2024</v>
+      </c>
+      <c r="I306" s="9">
+        <f t="shared" ref="I306" si="108">MONTH(G306)</f>
+        <v>8</v>
+      </c>
+      <c r="J306" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K306" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L306" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M306" s="17">
+        <v>4</v>
+      </c>
+      <c r="N306" s="17">
+        <v>43.13</v>
+      </c>
+      <c r="O306" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P306" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="Q305" s="9" t="s">
+      <c r="Q306" s="9" t="s">
         <v>959</v>
       </c>
-      <c r="R305" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S305" s="17">
+      <c r="R306" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S306" s="17">
         <f t="shared" si="106"/>
         <v>231</v>
       </c>
-      <c r="T305" s="14">
+      <c r="T306" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A306" s="13"/>
-      <c r="B306" s="9"/>
-      <c r="C306" s="9"/>
-      <c r="D306" s="9"/>
-      <c r="E306" s="9"/>
-      <c r="F306" s="9"/>
-      <c r="G306" s="9"/>
-      <c r="H306" s="9"/>
-      <c r="I306" s="9"/>
-      <c r="J306" s="9"/>
-      <c r="K306" s="9"/>
-      <c r="L306" s="9"/>
-      <c r="M306" s="9"/>
-      <c r="N306" s="9"/>
-      <c r="O306" s="9"/>
-      <c r="P306" s="13"/>
-      <c r="Q306" s="9"/>
-      <c r="R306" s="9"/>
-      <c r="S306" s="17"/>
-      <c r="T306" s="9"/>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" s="13"/>
@@ -31040,6 +31092,28 @@
       <c r="R314" s="9"/>
       <c r="S314" s="17"/>
       <c r="T314" s="9"/>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A315" s="13"/>
+      <c r="B315" s="9"/>
+      <c r="C315" s="9"/>
+      <c r="D315" s="9"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="9"/>
+      <c r="H315" s="9"/>
+      <c r="I315" s="9"/>
+      <c r="J315" s="9"/>
+      <c r="K315" s="9"/>
+      <c r="L315" s="9"/>
+      <c r="M315" s="9"/>
+      <c r="N315" s="9"/>
+      <c r="O315" s="9"/>
+      <c r="P315" s="13"/>
+      <c r="Q315" s="9"/>
+      <c r="R315" s="9"/>
+      <c r="S315" s="17"/>
+      <c r="T315" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -3425,14 +3425,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3751,16 +3751,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48">
+      <c r="A1" s="49">
         <v>2016</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -5277,16 +5277,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48">
+      <c r="A1" s="49">
         <v>2017</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -6233,16 +6233,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48">
+      <c r="A1" s="49">
         <v>2018</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -7189,16 +7189,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48">
+      <c r="A1" s="49">
         <v>2019</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -8145,16 +8145,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48">
+      <c r="A1" s="49">
         <v>2020</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -9101,16 +9101,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48">
+      <c r="A1" s="49">
         <v>2021</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -10057,16 +10057,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48">
+      <c r="A1" s="49">
         <v>2022</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -11004,8 +11004,8 @@
   <dimension ref="A1:T315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U281" sqref="U281"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U294" sqref="U294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -28170,7 +28170,7 @@
       <c r="O264" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="P264" s="50" t="s">
+      <c r="P264" s="48" t="s">
         <v>1037</v>
       </c>
       <c r="Q264" s="9" t="s">
@@ -29354,7 +29354,7 @@
         <v>160</v>
       </c>
       <c r="T282" s="14">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.2">
@@ -29419,7 +29419,7 @@
         <v>64</v>
       </c>
       <c r="T283" s="14">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.2">
@@ -29484,7 +29484,7 @@
         <v>106</v>
       </c>
       <c r="T284" s="14">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.2">
@@ -29549,7 +29549,7 @@
         <v>224</v>
       </c>
       <c r="T285" s="14">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.2">
@@ -29614,7 +29614,7 @@
         <v>233</v>
       </c>
       <c r="T286" s="14">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
@@ -29679,7 +29679,7 @@
         <v>186</v>
       </c>
       <c r="T287" s="14">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
@@ -29744,7 +29744,7 @@
         <v>98</v>
       </c>
       <c r="T288" s="14">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.2">
@@ -29809,7 +29809,7 @@
         <v>57</v>
       </c>
       <c r="T289" s="14">
-        <v>0</v>
+        <v>479</v>
       </c>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.2">
@@ -29874,7 +29874,7 @@
         <v>84</v>
       </c>
       <c r="T290" s="14">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.2">
@@ -29939,7 +29939,7 @@
         <v>152</v>
       </c>
       <c r="T291" s="14">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.2">
@@ -30004,7 +30004,7 @@
         <v>26</v>
       </c>
       <c r="T292" s="14">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Repositories\jupnb-nwreadinglist\nwreadinglist\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Repositories\py-nwreadinglist\nwreadinglist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4902" uniqueCount="1043">
   <si>
     <t>Format</t>
   </si>
@@ -3155,6 +3155,21 @@
   </si>
   <si>
     <t>Useful. It contains some useful bits of information, but the use of a bigger font instead of bold face to make important words to "pop" is massively annoying and it makes the reading experience a pain.</t>
+  </si>
+  <si>
+    <t>Crafting Test-Driven Software with Python</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>Useful. To be a Packt book, it's quite well written and edited.</t>
+  </si>
+  <si>
+    <t>Data-Oriented Programming</t>
+  </si>
+  <si>
+    <t>Useful. This book is very hard to read due of the author abusing of diagrams and dialogues among fictional characters in every page. Without all this cumbersome and useless cognitive overhead, the book could have been reduced from 436 pages to around 80 without loss of knowledge. The good thing instead is that we finally have a book that collects all the relevant information about DOP in a single place.</t>
   </si>
 </sst>
 </file>
@@ -11003,9 +11018,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U294" sqref="U294"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H309" sqref="H309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -30845,7 +30860,7 @@
         <v>159</v>
       </c>
       <c r="S305" s="17">
-        <f t="shared" ref="S305:S306" si="106">LEN(P305)</f>
+        <f t="shared" ref="S305:S308" si="106">LEN(P305)</f>
         <v>88</v>
       </c>
       <c r="T305" s="14">
@@ -30918,48 +30933,134 @@
       </c>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A307" s="13"/>
-      <c r="B307" s="9"/>
-      <c r="C307" s="9"/>
-      <c r="D307" s="9"/>
-      <c r="E307" s="9"/>
-      <c r="F307" s="9"/>
-      <c r="G307" s="9"/>
-      <c r="H307" s="9"/>
-      <c r="I307" s="9"/>
-      <c r="J307" s="9"/>
-      <c r="K307" s="9"/>
-      <c r="L307" s="9"/>
-      <c r="M307" s="9"/>
-      <c r="N307" s="9"/>
-      <c r="O307" s="9"/>
-      <c r="P307" s="13"/>
-      <c r="Q307" s="9"/>
-      <c r="R307" s="9"/>
-      <c r="S307" s="17"/>
-      <c r="T307" s="9"/>
+      <c r="A307" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B307" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F307" s="17">
+        <v>323</v>
+      </c>
+      <c r="G307" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H307" s="9">
+        <f t="shared" ref="H307" si="109">YEAR(G307)</f>
+        <v>2024</v>
+      </c>
+      <c r="I307" s="9">
+        <f t="shared" ref="I307" si="110">MONTH(G307)</f>
+        <v>11</v>
+      </c>
+      <c r="J307" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K307" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L307" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M307" s="17">
+        <v>3</v>
+      </c>
+      <c r="N307" s="17">
+        <v>48.99</v>
+      </c>
+      <c r="O307" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P307" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q307" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R307" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S307" s="17">
+        <f t="shared" si="106"/>
+        <v>63</v>
+      </c>
+      <c r="T307" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A308" s="13"/>
-      <c r="B308" s="9"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="9"/>
-      <c r="E308" s="9"/>
-      <c r="F308" s="9"/>
-      <c r="G308" s="9"/>
-      <c r="H308" s="9"/>
-      <c r="I308" s="9"/>
-      <c r="J308" s="9"/>
-      <c r="K308" s="9"/>
-      <c r="L308" s="9"/>
-      <c r="M308" s="9"/>
-      <c r="N308" s="9"/>
-      <c r="O308" s="9"/>
-      <c r="P308" s="13"/>
-      <c r="Q308" s="9"/>
-      <c r="R308" s="9"/>
-      <c r="S308" s="17"/>
-      <c r="T308" s="9"/>
+      <c r="A308" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B308" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E308" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F308" s="17">
+        <v>426</v>
+      </c>
+      <c r="G308" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H308" s="9">
+        <f t="shared" ref="H308" si="111">YEAR(G308)</f>
+        <v>2024</v>
+      </c>
+      <c r="I308" s="9">
+        <f t="shared" ref="I308" si="112">MONTH(G308)</f>
+        <v>11</v>
+      </c>
+      <c r="J308" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K308" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L308" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="M308" s="17">
+        <v>3</v>
+      </c>
+      <c r="N308" s="17">
+        <v>59.99</v>
+      </c>
+      <c r="O308" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P308" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Q308" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R308" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S308" s="17">
+        <f t="shared" si="106"/>
+        <v>406</v>
+      </c>
+      <c r="T308" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" s="13"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4902" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4998" uniqueCount="1065">
   <si>
     <t>Format</t>
   </si>
@@ -2704,9 +2704,6 @@
     <t>2023-09-08</t>
   </si>
   <si>
-    <t>Useful. Good overview for whom knows nothing about the topic and quite language-agnostic as well. But it advocates too much for the TDD methodology, which makes the book less objective.</t>
-  </si>
-  <si>
     <t>Machine Learning Yearning (Draft)</t>
   </si>
   <si>
@@ -3170,6 +3167,75 @@
   </si>
   <si>
     <t>Useful. This book is very hard to read due of the author abusing of diagrams and dialogues among fictional characters in every page. Without all this cumbersome and useless cognitive overhead, the book could have been reduced from 436 pages to around 80 without loss of knowledge. The good thing instead is that we finally have a book that collects all the relevant information about DOP in a single place.</t>
+  </si>
+  <si>
+    <t>Useless. It couples the (brief) insights in the principles of the clean architecture with a lot of TDD boilerplate code that unnecessarely increases the cognitive load of the book. This writing approach is indeed personal and original, but not practical, because it requires the reader to surf thru a lot of noise to get to the melody.</t>
+  </si>
+  <si>
+    <t>Mastering Python Design Patterns (3rd Edition)</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
+  </si>
+  <si>
+    <t>Useless. In theory it's good to have a book about design patterns in Python for reference, but inpractice most of them applied to Python look quite cumbersome compared to other languages (C#, Java). Design patterns are intended for more OOP-friendly languages.</t>
+  </si>
+  <si>
+    <t>Hacking APIs</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>Useful. Well written and good overview, but nothing revolutionary.</t>
+  </si>
+  <si>
+    <t>Cybersecurity</t>
+  </si>
+  <si>
+    <t>API Management (2nd Edition)</t>
+  </si>
+  <si>
+    <t>Useless. Yet another totally impersonal book, a copy'n'paste list of theories and strategies, with some degree of redundancy. On the positive side, the layout relies upon a fair amount of bold face, which makes skimming useless content easier.</t>
+  </si>
+  <si>
+    <t>Architecture Modernization</t>
+  </si>
+  <si>
+    <t>Useful. The author collected many fragments of useful knowledge and created an organic and very personal path thru all of them. The book is very comprehensive and original, but it could feel too much dense of information for a beginner. It lacks of bold face, therefore it's difficult to skim redundant information. Good to read after "Building Great Software Engineering Teams".</t>
+  </si>
+  <si>
+    <t>DevOps: A Journey From Microservices to Cloud-based Containerization</t>
+  </si>
+  <si>
+    <t>River Publishers</t>
+  </si>
+  <si>
+    <t>Useless. Ok book for beginners.</t>
+  </si>
+  <si>
+    <t>Docker Deep Dive (2024 Edition)</t>
+  </si>
+  <si>
+    <t>Useless. Ok overview for beginners.</t>
+  </si>
+  <si>
+    <t>The Self-Taught Cloud Computing Engineer (1st Edition)</t>
+  </si>
+  <si>
+    <t>Useless. Just a list of services offered by cloud providers.</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>Product Roadmaps</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>Useful. The most concise but comprehensive book about Product Management. In only 68 pages it equips the reader with a big baggage of actionable knowledge.</t>
   </si>
 </sst>
 </file>
@@ -11016,11 +11082,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T315"/>
+  <dimension ref="A1:T329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H309" sqref="H309"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A317" sqref="A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11105,7 +11171,7 @@
         <v>860</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -12200,7 +12266,7 @@
         <v>60</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>159</v>
@@ -12395,7 +12461,7 @@
         <v>695</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>159</v>
@@ -12785,7 +12851,7 @@
         <v>698</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>159</v>
@@ -12850,7 +12916,7 @@
         <v>699</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R28" s="9" t="s">
         <v>159</v>
@@ -12915,7 +12981,7 @@
         <v>668</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>159</v>
@@ -13875,7 +13941,7 @@
         <v>159</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M44" s="14">
         <v>4</v>
@@ -14330,7 +14396,7 @@
         <v>159</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M51" s="14">
         <v>1</v>
@@ -14865,7 +14931,7 @@
         <v>60</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R59" s="9" t="s">
         <v>159</v>
@@ -16880,7 +16946,7 @@
         <v>733</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R90" s="9" t="s">
         <v>159</v>
@@ -17725,7 +17791,7 @@
         <v>742</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R103" s="9" t="s">
         <v>159</v>
@@ -17790,7 +17856,7 @@
         <v>743</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R104" s="9" t="s">
         <v>159</v>
@@ -17920,7 +17986,7 @@
         <v>745</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R106" s="9" t="s">
         <v>159</v>
@@ -18894,7 +18960,7 @@
         <v>757</v>
       </c>
       <c r="Q121" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R121" s="9" t="s">
         <v>159</v>
@@ -19219,7 +19285,7 @@
         <v>762</v>
       </c>
       <c r="Q126" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R126" s="9" t="s">
         <v>159</v>
@@ -19284,7 +19350,7 @@
         <v>763</v>
       </c>
       <c r="Q127" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R127" s="9" t="s">
         <v>159</v>
@@ -19544,7 +19610,7 @@
         <v>767</v>
       </c>
       <c r="Q131" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R131" s="9" t="s">
         <v>159</v>
@@ -19999,7 +20065,7 @@
         <v>774</v>
       </c>
       <c r="Q138" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R138" s="9" t="s">
         <v>159</v>
@@ -20064,7 +20130,7 @@
         <v>775</v>
       </c>
       <c r="Q139" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R139" s="9" t="s">
         <v>159</v>
@@ -20454,7 +20520,7 @@
         <v>779</v>
       </c>
       <c r="Q145" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R145" s="9" t="s">
         <v>159</v>
@@ -20519,7 +20585,7 @@
         <v>674</v>
       </c>
       <c r="Q146" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R146" s="9" t="s">
         <v>159</v>
@@ -21104,7 +21170,7 @@
         <v>786</v>
       </c>
       <c r="Q155" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R155" s="9" t="s">
         <v>158</v>
@@ -22144,7 +22210,7 @@
         <v>799</v>
       </c>
       <c r="Q171" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R171" s="9" t="s">
         <v>158</v>
@@ -23054,7 +23120,7 @@
         <v>806</v>
       </c>
       <c r="Q185" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R185" s="9" t="s">
         <v>158</v>
@@ -23119,7 +23185,7 @@
         <v>807</v>
       </c>
       <c r="Q186" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R186" s="9" t="s">
         <v>158</v>
@@ -23249,7 +23315,7 @@
         <v>674</v>
       </c>
       <c r="Q188" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R188" s="9" t="s">
         <v>159</v>
@@ -24679,7 +24745,7 @@
         <v>821</v>
       </c>
       <c r="Q210" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R210" s="9" t="s">
         <v>159</v>
@@ -24744,7 +24810,7 @@
         <v>822</v>
       </c>
       <c r="Q211" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R211" s="9" t="s">
         <v>159</v>
@@ -24939,7 +25005,7 @@
         <v>825</v>
       </c>
       <c r="Q214" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R214" s="9" t="s">
         <v>159</v>
@@ -26174,7 +26240,7 @@
         <v>837</v>
       </c>
       <c r="Q233" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R233" s="9" t="s">
         <v>159</v>
@@ -26304,7 +26370,7 @@
         <v>859</v>
       </c>
       <c r="Q235" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R235" s="9" t="s">
         <v>159</v>
@@ -26434,7 +26500,7 @@
         <v>847</v>
       </c>
       <c r="Q237" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R237" s="9" t="s">
         <v>159</v>
@@ -26564,7 +26630,7 @@
         <v>58</v>
       </c>
       <c r="Q239" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R239" s="9" t="s">
         <v>159</v>
@@ -26954,7 +27020,7 @@
         <v>869</v>
       </c>
       <c r="Q245" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R245" s="9" t="s">
         <v>159</v>
@@ -27211,7 +27277,7 @@
         <v>664</v>
       </c>
       <c r="P249" s="16" t="s">
-        <v>887</v>
+        <v>1042</v>
       </c>
       <c r="Q249" s="9" t="s">
         <v>569</v>
@@ -27221,7 +27287,7 @@
       </c>
       <c r="S249" s="17">
         <f t="shared" si="32"/>
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="T249" s="14">
         <v>280</v>
@@ -27229,7 +27295,7 @@
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B250" s="17">
         <v>2018</v>
@@ -27247,7 +27313,7 @@
         <v>105</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H250" s="17">
         <f t="shared" si="30"/>
@@ -27276,10 +27342,10 @@
         <v>664</v>
       </c>
       <c r="P250" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="Q250" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R250" s="9" t="s">
         <v>159</v>
@@ -27294,7 +27360,7 @@
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B251" s="17">
         <v>2023</v>
@@ -27312,7 +27378,7 @@
         <v>240</v>
       </c>
       <c r="G251" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H251" s="17">
         <f t="shared" si="30"/>
@@ -27341,7 +27407,7 @@
         <v>664</v>
       </c>
       <c r="P251" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q251" s="9" t="s">
         <v>469</v>
@@ -27359,7 +27425,7 @@
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B252" s="17">
         <v>2023</v>
@@ -27377,7 +27443,7 @@
         <v>51</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H252" s="17">
         <f t="shared" si="30"/>
@@ -27394,7 +27460,7 @@
         <v>159</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M252" s="14">
         <v>2</v>
@@ -27406,7 +27472,7 @@
         <v>664</v>
       </c>
       <c r="P252" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="Q252" s="9" t="s">
         <v>569</v>
@@ -27424,7 +27490,7 @@
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B253" s="17">
         <v>2023</v>
@@ -27442,7 +27508,7 @@
         <v>184</v>
       </c>
       <c r="G253" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H253" s="17">
         <f t="shared" si="30"/>
@@ -27471,10 +27537,10 @@
         <v>664</v>
       </c>
       <c r="P253" s="16" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Q253" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R253" s="9" t="s">
         <v>159</v>
@@ -27489,7 +27555,7 @@
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B254" s="17">
         <v>2023</v>
@@ -27507,7 +27573,7 @@
         <v>203</v>
       </c>
       <c r="G254" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H254" s="17">
         <f t="shared" si="30"/>
@@ -27536,7 +27602,7 @@
         <v>664</v>
       </c>
       <c r="P254" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q254" s="9" t="s">
         <v>469</v>
@@ -27554,7 +27620,7 @@
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B255" s="17">
         <v>2021</v>
@@ -27572,7 +27638,7 @@
         <v>338</v>
       </c>
       <c r="G255" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H255" s="17">
         <f t="shared" si="30"/>
@@ -27601,7 +27667,7 @@
         <v>664</v>
       </c>
       <c r="P255" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Q255" s="9" t="s">
         <v>569</v>
@@ -27619,7 +27685,7 @@
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B256" s="17">
         <v>2018</v>
@@ -27637,7 +27703,7 @@
         <v>229</v>
       </c>
       <c r="G256" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H256" s="17">
         <f t="shared" si="30"/>
@@ -27666,7 +27732,7 @@
         <v>664</v>
       </c>
       <c r="P256" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="Q256" s="9" t="s">
         <v>873</v>
@@ -27684,7 +27750,7 @@
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B257" s="17">
         <v>2022</v>
@@ -27702,7 +27768,7 @@
         <v>94</v>
       </c>
       <c r="G257" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H257" s="17">
         <f t="shared" ref="H257:H259" si="33">YEAR(G257)</f>
@@ -27731,7 +27797,7 @@
         <v>664</v>
       </c>
       <c r="P257" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q257" s="9" t="s">
         <v>569</v>
@@ -27749,7 +27815,7 @@
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B258" s="17">
         <v>2022</v>
@@ -27767,7 +27833,7 @@
         <v>265</v>
       </c>
       <c r="G258" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H258" s="17">
         <f t="shared" si="33"/>
@@ -27796,7 +27862,7 @@
         <v>664</v>
       </c>
       <c r="P258" s="16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q258" s="9" t="s">
         <v>569</v>
@@ -27814,7 +27880,7 @@
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B259" s="17">
         <v>2023</v>
@@ -27832,7 +27898,7 @@
         <v>288</v>
       </c>
       <c r="G259" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H259" s="9">
         <f t="shared" si="33"/>
@@ -27861,7 +27927,7 @@
         <v>664</v>
       </c>
       <c r="P259" s="16" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q259" s="9" t="s">
         <v>569</v>
@@ -27879,7 +27945,7 @@
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B260" s="17">
         <v>2023</v>
@@ -27897,7 +27963,7 @@
         <v>151</v>
       </c>
       <c r="G260" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H260" s="9">
         <f t="shared" ref="H260" si="35">YEAR(G260)</f>
@@ -27926,7 +27992,7 @@
         <v>664</v>
       </c>
       <c r="P260" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q260" s="9" t="s">
         <v>469</v>
@@ -27944,7 +28010,7 @@
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B261" s="17">
         <v>2022</v>
@@ -27962,7 +28028,7 @@
         <v>416</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H261" s="9">
         <f t="shared" ref="H261:H263" si="37">YEAR(G261)</f>
@@ -27991,7 +28057,7 @@
         <v>664</v>
       </c>
       <c r="P261" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="Q261" s="9" t="s">
         <v>469</v>
@@ -28009,7 +28075,7 @@
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B262" s="17">
         <v>2022</v>
@@ -28027,7 +28093,7 @@
         <v>535</v>
       </c>
       <c r="G262" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H262" s="9">
         <f t="shared" si="37"/>
@@ -28056,7 +28122,7 @@
         <v>664</v>
       </c>
       <c r="P262" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q262" s="9" t="s">
         <v>875</v>
@@ -28074,7 +28140,7 @@
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B263" s="17">
         <v>2018</v>
@@ -28092,7 +28158,7 @@
         <v>429</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H263" s="9">
         <f t="shared" si="37"/>
@@ -28121,7 +28187,7 @@
         <v>664</v>
       </c>
       <c r="P263" s="16" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Q263" s="9" t="s">
         <v>469</v>
@@ -28139,7 +28205,7 @@
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B264" s="17">
         <v>2023</v>
@@ -28157,7 +28223,7 @@
         <v>455</v>
       </c>
       <c r="G264" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H264" s="9">
         <f t="shared" ref="H264:H265" si="39">YEAR(G264)</f>
@@ -28186,7 +28252,7 @@
         <v>664</v>
       </c>
       <c r="P264" s="48" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Q264" s="9" t="s">
         <v>569</v>
@@ -28204,7 +28270,7 @@
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B265" s="17">
         <v>2023</v>
@@ -28222,7 +28288,7 @@
         <v>268</v>
       </c>
       <c r="G265" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H265" s="9">
         <f t="shared" si="39"/>
@@ -28251,7 +28317,7 @@
         <v>664</v>
       </c>
       <c r="P265" s="16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="Q265" s="9" t="s">
         <v>569</v>
@@ -28269,7 +28335,7 @@
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B266" s="17">
         <v>2022</v>
@@ -28287,7 +28353,7 @@
         <v>205</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H266" s="9">
         <f t="shared" ref="H266" si="41">YEAR(G266)</f>
@@ -28316,7 +28382,7 @@
         <v>664</v>
       </c>
       <c r="P266" s="16" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="Q266" s="9" t="s">
         <v>569</v>
@@ -28334,7 +28400,7 @@
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B267" s="17">
         <v>2022</v>
@@ -28352,7 +28418,7 @@
         <v>94</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H267" s="9">
         <f t="shared" ref="H267" si="43">YEAR(G267)</f>
@@ -28381,7 +28447,7 @@
         <v>664</v>
       </c>
       <c r="P267" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Q267" s="9" t="s">
         <v>569</v>
@@ -28399,7 +28465,7 @@
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B268" s="17">
         <v>2020</v>
@@ -28417,7 +28483,7 @@
         <v>132</v>
       </c>
       <c r="G268" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H268" s="9">
         <f t="shared" ref="H268:H269" si="45">YEAR(G268)</f>
@@ -28446,7 +28512,7 @@
         <v>664</v>
       </c>
       <c r="P268" s="13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Q268" s="9" t="s">
         <v>569</v>
@@ -28464,7 +28530,7 @@
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B269" s="17">
         <v>2021</v>
@@ -28482,7 +28548,7 @@
         <v>715</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H269" s="9">
         <f t="shared" si="45"/>
@@ -28511,7 +28577,7 @@
         <v>664</v>
       </c>
       <c r="P269" s="13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Q269" s="9" t="s">
         <v>569</v>
@@ -28529,7 +28595,7 @@
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B270" s="17">
         <v>2023</v>
@@ -28547,7 +28613,7 @@
         <v>192</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H270" s="9">
         <f t="shared" ref="H270" si="47">YEAR(G270)</f>
@@ -28564,7 +28630,7 @@
         <v>159</v>
       </c>
       <c r="L270" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M270" s="17">
         <v>1</v>
@@ -28576,7 +28642,7 @@
         <v>664</v>
       </c>
       <c r="P270" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="Q270" s="9" t="s">
         <v>569</v>
@@ -28594,7 +28660,7 @@
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B271" s="17">
         <v>2024</v>
@@ -28612,7 +28678,7 @@
         <v>139</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H271" s="9">
         <f t="shared" ref="H271" si="49">YEAR(G271)</f>
@@ -28629,7 +28695,7 @@
         <v>159</v>
       </c>
       <c r="L271" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M271" s="17">
         <v>1</v>
@@ -28641,7 +28707,7 @@
         <v>664</v>
       </c>
       <c r="P271" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="Q271" s="9" t="s">
         <v>569</v>
@@ -28659,7 +28725,7 @@
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B272" s="17">
         <v>2023</v>
@@ -28677,7 +28743,7 @@
         <v>963</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H272" s="9">
         <f t="shared" ref="H272" si="51">YEAR(G272)</f>
@@ -28706,7 +28772,7 @@
         <v>664</v>
       </c>
       <c r="P272" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="Q272" s="9" t="s">
         <v>569</v>
@@ -28724,7 +28790,7 @@
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B273" s="17">
         <v>2024</v>
@@ -28742,7 +28808,7 @@
         <v>229</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H273" s="9">
         <f t="shared" ref="H273:H274" si="53">YEAR(G273)</f>
@@ -28759,7 +28825,7 @@
         <v>158</v>
       </c>
       <c r="L273" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M273" s="17">
         <v>2</v>
@@ -28771,7 +28837,7 @@
         <v>664</v>
       </c>
       <c r="P273" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="Q273" s="9" t="s">
         <v>569</v>
@@ -28789,7 +28855,7 @@
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B274" s="17">
         <v>2018</v>
@@ -28807,7 +28873,7 @@
         <v>978</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H274" s="9">
         <f t="shared" si="53"/>
@@ -28836,7 +28902,7 @@
         <v>664</v>
       </c>
       <c r="P274" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="Q274" s="9" t="s">
         <v>569</v>
@@ -28854,7 +28920,7 @@
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B275" s="17">
         <v>2022</v>
@@ -28872,7 +28938,7 @@
         <v>264</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H275" s="9">
         <f t="shared" ref="H275" si="55">YEAR(G275)</f>
@@ -28901,7 +28967,7 @@
         <v>664</v>
       </c>
       <c r="P275" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="Q275" s="9" t="s">
         <v>569</v>
@@ -28919,7 +28985,7 @@
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B276" s="17">
         <v>2022</v>
@@ -28937,7 +29003,7 @@
         <v>243</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H276" s="9">
         <f t="shared" ref="H276:H279" si="57">YEAR(G276)</f>
@@ -28954,7 +29020,7 @@
         <v>159</v>
       </c>
       <c r="L276" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M276" s="17">
         <v>4</v>
@@ -28966,7 +29032,7 @@
         <v>664</v>
       </c>
       <c r="P276" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Q276" s="9" t="s">
         <v>569</v>
@@ -28984,7 +29050,7 @@
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B277" s="17">
         <v>2024</v>
@@ -29002,7 +29068,7 @@
         <v>337</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H277" s="9">
         <f t="shared" si="57"/>
@@ -29031,10 +29097,10 @@
         <v>664</v>
       </c>
       <c r="P277" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Q277" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="R277" s="9" t="s">
         <v>159</v>
@@ -29049,7 +29115,7 @@
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B278" s="17">
         <v>2024</v>
@@ -29067,7 +29133,7 @@
         <v>253</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H278" s="9">
         <f t="shared" si="57"/>
@@ -29096,10 +29162,10 @@
         <v>664</v>
       </c>
       <c r="P278" s="13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="Q278" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="R278" s="9" t="s">
         <v>159</v>
@@ -29114,7 +29180,7 @@
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B279" s="17">
         <v>2024</v>
@@ -29132,7 +29198,7 @@
         <v>316</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H279" s="9">
         <f t="shared" si="57"/>
@@ -29161,10 +29227,10 @@
         <v>664</v>
       </c>
       <c r="P279" s="13" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q279" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="R279" s="9" t="s">
         <v>159</v>
@@ -29179,7 +29245,7 @@
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B280" s="17">
         <v>2024</v>
@@ -29197,7 +29263,7 @@
         <v>112</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H280" s="9">
         <f t="shared" ref="H280" si="60">YEAR(G280)</f>
@@ -29214,7 +29280,7 @@
         <v>159</v>
       </c>
       <c r="L280" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M280" s="17">
         <v>3</v>
@@ -29226,10 +29292,10 @@
         <v>664</v>
       </c>
       <c r="P280" s="13" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q280" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R280" s="9" t="s">
         <v>159</v>
@@ -29244,7 +29310,7 @@
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B281" s="17">
         <v>2024</v>
@@ -29262,7 +29328,7 @@
         <v>1779</v>
       </c>
       <c r="G281" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H281" s="9">
         <f t="shared" ref="H281:H283" si="61">YEAR(G281)</f>
@@ -29291,10 +29357,10 @@
         <v>664</v>
       </c>
       <c r="P281" s="13" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q281" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R281" s="9" t="s">
         <v>159</v>
@@ -29309,7 +29375,7 @@
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B282" s="17">
         <v>2022</v>
@@ -29327,7 +29393,7 @@
         <v>365</v>
       </c>
       <c r="G282" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H282" s="9">
         <f t="shared" si="61"/>
@@ -29356,10 +29422,10 @@
         <v>664</v>
       </c>
       <c r="P282" s="16" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q282" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R282" s="9" t="s">
         <v>159</v>
@@ -29374,7 +29440,7 @@
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B283" s="17">
         <v>2023</v>
@@ -29392,7 +29458,7 @@
         <v>340</v>
       </c>
       <c r="G283" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H283" s="9">
         <f t="shared" si="61"/>
@@ -29421,7 +29487,7 @@
         <v>664</v>
       </c>
       <c r="P283" s="13" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q283" s="9" t="s">
         <v>469</v>
@@ -29439,7 +29505,7 @@
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B284" s="17">
         <v>2023</v>
@@ -29457,7 +29523,7 @@
         <v>600</v>
       </c>
       <c r="G284" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H284" s="9">
         <f t="shared" ref="H284" si="62">YEAR(G284)</f>
@@ -29486,7 +29552,7 @@
         <v>664</v>
       </c>
       <c r="P284" s="13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q284" s="9" t="s">
         <v>469</v>
@@ -29504,7 +29570,7 @@
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B285" s="17">
         <v>2024</v>
@@ -29522,7 +29588,7 @@
         <v>289</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H285" s="9">
         <f t="shared" ref="H285" si="64">YEAR(G285)</f>
@@ -29551,7 +29617,7 @@
         <v>664</v>
       </c>
       <c r="P285" s="13" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="Q285" s="9" t="s">
         <v>569</v>
@@ -29569,7 +29635,7 @@
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="13" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B286" s="17">
         <v>2024</v>
@@ -29587,7 +29653,7 @@
         <v>198</v>
       </c>
       <c r="G286" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H286" s="9">
         <f t="shared" ref="H286" si="66">YEAR(G286)</f>
@@ -29616,10 +29682,10 @@
         <v>664</v>
       </c>
       <c r="P286" s="16" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Q286" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R286" s="9" t="s">
         <v>159</v>
@@ -29634,7 +29700,7 @@
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="13" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B287" s="17">
         <v>2024</v>
@@ -29652,7 +29718,7 @@
         <v>224</v>
       </c>
       <c r="G287" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H287" s="9">
         <f t="shared" ref="H287" si="68">YEAR(G287)</f>
@@ -29681,10 +29747,10 @@
         <v>664</v>
       </c>
       <c r="P287" s="16" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="Q287" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R287" s="9" t="s">
         <v>159</v>
@@ -29699,7 +29765,7 @@
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B288" s="17">
         <v>2022</v>
@@ -29717,7 +29783,7 @@
         <v>296</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H288" s="9">
         <f t="shared" ref="H288" si="70">YEAR(G288)</f>
@@ -29746,10 +29812,10 @@
         <v>664</v>
       </c>
       <c r="P288" s="16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q288" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R288" s="9" t="s">
         <v>159</v>
@@ -29764,7 +29830,7 @@
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" s="13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B289" s="17">
         <v>2023</v>
@@ -29782,7 +29848,7 @@
         <v>200</v>
       </c>
       <c r="G289" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H289" s="9">
         <f t="shared" ref="H289" si="73">YEAR(G289)</f>
@@ -29811,10 +29877,10 @@
         <v>664</v>
       </c>
       <c r="P289" s="16" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Q289" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R289" s="9" t="s">
         <v>159</v>
@@ -29829,7 +29895,7 @@
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B290" s="17">
         <v>2023</v>
@@ -29847,7 +29913,7 @@
         <v>255</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H290" s="9">
         <f t="shared" ref="H290" si="76">YEAR(G290)</f>
@@ -29876,7 +29942,7 @@
         <v>664</v>
       </c>
       <c r="P290" s="16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q290" s="9" t="s">
         <v>469</v>
@@ -29894,7 +29960,7 @@
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" s="13" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B291" s="17">
         <v>2023</v>
@@ -29912,7 +29978,7 @@
         <v>192</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H291" s="9">
         <f t="shared" ref="H291" si="79">YEAR(G291)</f>
@@ -29941,10 +30007,10 @@
         <v>664</v>
       </c>
       <c r="P291" s="16" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q291" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R291" s="9" t="s">
         <v>159</v>
@@ -29959,7 +30025,7 @@
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="13" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B292" s="17">
         <v>2015</v>
@@ -29977,7 +30043,7 @@
         <v>96</v>
       </c>
       <c r="G292" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H292" s="9">
         <f t="shared" ref="H292" si="82">YEAR(G292)</f>
@@ -29994,7 +30060,7 @@
         <v>159</v>
       </c>
       <c r="L292" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M292" s="17">
         <v>3</v>
@@ -30009,7 +30075,7 @@
         <v>707</v>
       </c>
       <c r="Q292" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R292" s="9" t="s">
         <v>159</v>
@@ -30024,7 +30090,7 @@
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" s="13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B293" s="17">
         <v>2022</v>
@@ -30042,7 +30108,7 @@
         <v>194</v>
       </c>
       <c r="G293" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H293" s="9">
         <f t="shared" ref="H293" si="84">YEAR(G293)</f>
@@ -30059,7 +30125,7 @@
         <v>159</v>
       </c>
       <c r="L293" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M293" s="17">
         <v>3</v>
@@ -30071,10 +30137,10 @@
         <v>664</v>
       </c>
       <c r="P293" s="28" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="Q293" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R293" s="9" t="s">
         <v>159</v>
@@ -30089,7 +30155,7 @@
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" s="13" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B294" s="17">
         <v>2018</v>
@@ -30107,7 +30173,7 @@
         <v>188</v>
       </c>
       <c r="G294" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H294" s="9">
         <f t="shared" ref="H294:H296" si="86">YEAR(G294)</f>
@@ -30124,7 +30190,7 @@
         <v>159</v>
       </c>
       <c r="L294" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="M294" s="17">
         <v>4</v>
@@ -30136,7 +30202,7 @@
         <v>664</v>
       </c>
       <c r="P294" s="16" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="Q294" s="9" t="s">
         <v>469</v>
@@ -30154,7 +30220,7 @@
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="13" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B295" s="17">
         <v>2021</v>
@@ -30172,7 +30238,7 @@
         <v>631</v>
       </c>
       <c r="G295" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H295" s="9">
         <f t="shared" si="86"/>
@@ -30201,7 +30267,7 @@
         <v>664</v>
       </c>
       <c r="P295" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="Q295" s="9" t="s">
         <v>569</v>
@@ -30219,7 +30285,7 @@
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B296" s="17">
         <v>2023</v>
@@ -30237,7 +30303,7 @@
         <v>318</v>
       </c>
       <c r="G296" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H296" s="9">
         <f t="shared" si="86"/>
@@ -30266,7 +30332,7 @@
         <v>664</v>
       </c>
       <c r="P296" s="16" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q296" s="9" t="s">
         <v>874</v>
@@ -30284,7 +30350,7 @@
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B297" s="17">
         <v>2023</v>
@@ -30302,7 +30368,7 @@
         <v>298</v>
       </c>
       <c r="G297" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H297" s="9">
         <f t="shared" ref="H297" si="88">YEAR(G297)</f>
@@ -30331,7 +30397,7 @@
         <v>664</v>
       </c>
       <c r="P297" s="16" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q297" s="9" t="s">
         <v>874</v>
@@ -30349,7 +30415,7 @@
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B298" s="17">
         <v>2023</v>
@@ -30367,7 +30433,7 @@
         <v>636</v>
       </c>
       <c r="G298" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H298" s="9">
         <f t="shared" ref="H298" si="90">YEAR(G298)</f>
@@ -30396,7 +30462,7 @@
         <v>664</v>
       </c>
       <c r="P298" s="16" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q298" s="9" t="s">
         <v>569</v>
@@ -30414,7 +30480,7 @@
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B299" s="17">
         <v>2023</v>
@@ -30432,7 +30498,7 @@
         <v>218</v>
       </c>
       <c r="G299" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H299" s="9">
         <f t="shared" ref="H299" si="92">YEAR(G299)</f>
@@ -30461,7 +30527,7 @@
         <v>664</v>
       </c>
       <c r="P299" s="16" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="Q299" s="9" t="s">
         <v>569</v>
@@ -30479,7 +30545,7 @@
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B300" s="17">
         <v>2022</v>
@@ -30497,7 +30563,7 @@
         <v>464</v>
       </c>
       <c r="G300" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H300" s="9">
         <f t="shared" ref="H300" si="94">YEAR(G300)</f>
@@ -30526,7 +30592,7 @@
         <v>664</v>
       </c>
       <c r="P300" s="16" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Q300" s="9" t="s">
         <v>569</v>
@@ -30544,7 +30610,7 @@
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" s="13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B301" s="17">
         <v>2023</v>
@@ -30562,7 +30628,7 @@
         <v>58</v>
       </c>
       <c r="G301" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H301" s="9">
         <f t="shared" ref="H301" si="96">YEAR(G301)</f>
@@ -30591,10 +30657,10 @@
         <v>664</v>
       </c>
       <c r="P301" s="28" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Q301" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="R301" s="9" t="s">
         <v>159</v>
@@ -30609,7 +30675,7 @@
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B302" s="17">
         <v>2023</v>
@@ -30627,7 +30693,7 @@
         <v>161</v>
       </c>
       <c r="G302" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H302" s="9">
         <f t="shared" ref="H302" si="98">YEAR(G302)</f>
@@ -30656,10 +30722,10 @@
         <v>664</v>
       </c>
       <c r="P302" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Q302" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R302" s="9" t="s">
         <v>159</v>
@@ -30674,7 +30740,7 @@
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B303" s="17">
         <v>2023</v>
@@ -30692,7 +30758,7 @@
         <v>331</v>
       </c>
       <c r="G303" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H303" s="9">
         <f t="shared" ref="H303" si="100">YEAR(G303)</f>
@@ -30721,7 +30787,7 @@
         <v>664</v>
       </c>
       <c r="P303" s="16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="Q303" s="9" t="s">
         <v>469</v>
@@ -30739,7 +30805,7 @@
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B304" s="17">
         <v>2024</v>
@@ -30757,7 +30823,7 @@
         <v>179</v>
       </c>
       <c r="G304" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H304" s="9">
         <f t="shared" ref="H304" si="102">YEAR(G304)</f>
@@ -30786,7 +30852,7 @@
         <v>664</v>
       </c>
       <c r="P304" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="Q304" s="9" t="s">
         <v>501</v>
@@ -30804,7 +30870,7 @@
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B305" s="17">
         <v>2024</v>
@@ -30822,7 +30888,7 @@
         <v>123</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H305" s="9">
         <f t="shared" ref="H305" si="104">YEAR(G305)</f>
@@ -30851,7 +30917,7 @@
         <v>664</v>
       </c>
       <c r="P305" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q305" s="9" t="s">
         <v>501</v>
@@ -30860,7 +30926,7 @@
         <v>159</v>
       </c>
       <c r="S305" s="17">
-        <f t="shared" ref="S305:S308" si="106">LEN(P305)</f>
+        <f t="shared" ref="S305:S313" si="106">LEN(P305)</f>
         <v>88</v>
       </c>
       <c r="T305" s="14">
@@ -30869,7 +30935,7 @@
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B306" s="17">
         <v>2024</v>
@@ -30887,7 +30953,7 @@
         <v>368</v>
       </c>
       <c r="G306" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H306" s="9">
         <f t="shared" ref="H306" si="107">YEAR(G306)</f>
@@ -30916,10 +30982,10 @@
         <v>664</v>
       </c>
       <c r="P306" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="Q306" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="R306" s="9" t="s">
         <v>159</v>
@@ -30934,7 +31000,7 @@
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B307" s="17">
         <v>2021</v>
@@ -30952,7 +31018,7 @@
         <v>323</v>
       </c>
       <c r="G307" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H307" s="9">
         <f t="shared" ref="H307" si="109">YEAR(G307)</f>
@@ -30981,7 +31047,7 @@
         <v>664</v>
       </c>
       <c r="P307" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="Q307" s="9" t="s">
         <v>569</v>
@@ -30999,7 +31065,7 @@
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B308" s="17">
         <v>2022</v>
@@ -31017,14 +31083,14 @@
         <v>426</v>
       </c>
       <c r="G308" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H308" s="9">
-        <f t="shared" ref="H308" si="111">YEAR(G308)</f>
+        <f t="shared" ref="H308:H309" si="111">YEAR(G308)</f>
         <v>2024</v>
       </c>
       <c r="I308" s="9">
-        <f t="shared" ref="I308" si="112">MONTH(G308)</f>
+        <f t="shared" ref="I308:I309" si="112">MONTH(G308)</f>
         <v>11</v>
       </c>
       <c r="J308" s="9" t="s">
@@ -31046,7 +31112,7 @@
         <v>664</v>
       </c>
       <c r="P308" s="13" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q308" s="9" t="s">
         <v>469</v>
@@ -31063,158 +31129,810 @@
       </c>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A309" s="13"/>
-      <c r="B309" s="9"/>
-      <c r="C309" s="9"/>
-      <c r="D309" s="9"/>
-      <c r="E309" s="9"/>
-      <c r="F309" s="9"/>
-      <c r="G309" s="9"/>
-      <c r="H309" s="9"/>
-      <c r="I309" s="9"/>
-      <c r="J309" s="9"/>
-      <c r="K309" s="9"/>
-      <c r="L309" s="9"/>
-      <c r="M309" s="9"/>
-      <c r="N309" s="9"/>
-      <c r="O309" s="9"/>
-      <c r="P309" s="13"/>
-      <c r="Q309" s="9"/>
-      <c r="R309" s="9"/>
-      <c r="S309" s="17"/>
-      <c r="T309" s="9"/>
+      <c r="A309" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B309" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F309" s="17">
+        <v>296</v>
+      </c>
+      <c r="G309" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H309" s="9">
+        <f t="shared" si="111"/>
+        <v>2024</v>
+      </c>
+      <c r="I309" s="9">
+        <f t="shared" si="112"/>
+        <v>11</v>
+      </c>
+      <c r="J309" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K309" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L309" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M309" s="17">
+        <v>2</v>
+      </c>
+      <c r="N309" s="17">
+        <v>39.909999999999997</v>
+      </c>
+      <c r="O309" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P309" s="16" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q309" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R309" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S309" s="17">
+        <f t="shared" si="106"/>
+        <v>260</v>
+      </c>
+      <c r="T309" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A310" s="13"/>
-      <c r="B310" s="9"/>
-      <c r="C310" s="9"/>
-      <c r="D310" s="9"/>
-      <c r="E310" s="9"/>
-      <c r="F310" s="9"/>
-      <c r="G310" s="9"/>
-      <c r="H310" s="9"/>
-      <c r="I310" s="9"/>
-      <c r="J310" s="9"/>
-      <c r="K310" s="9"/>
-      <c r="L310" s="9"/>
-      <c r="M310" s="9"/>
-      <c r="N310" s="9"/>
-      <c r="O310" s="9"/>
-      <c r="P310" s="13"/>
-      <c r="Q310" s="9"/>
-      <c r="R310" s="9"/>
-      <c r="S310" s="17"/>
-      <c r="T310" s="9"/>
+      <c r="A310" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B310" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E310" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F310" s="17">
+        <v>363</v>
+      </c>
+      <c r="G310" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H310" s="9">
+        <f t="shared" ref="H310" si="113">YEAR(G310)</f>
+        <v>2024</v>
+      </c>
+      <c r="I310" s="9">
+        <f t="shared" ref="I310" si="114">MONTH(G310)</f>
+        <v>11</v>
+      </c>
+      <c r="J310" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K310" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L310" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="M310" s="17">
+        <v>2</v>
+      </c>
+      <c r="N310" s="17">
+        <v>59.99</v>
+      </c>
+      <c r="O310" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P310" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q310" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R310" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S310" s="17">
+        <f t="shared" si="106"/>
+        <v>66</v>
+      </c>
+      <c r="T310" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A311" s="13"/>
-      <c r="B311" s="9"/>
-      <c r="C311" s="9"/>
-      <c r="D311" s="9"/>
-      <c r="E311" s="9"/>
-      <c r="F311" s="9"/>
-      <c r="G311" s="9"/>
-      <c r="H311" s="9"/>
-      <c r="I311" s="9"/>
-      <c r="J311" s="9"/>
-      <c r="K311" s="9"/>
-      <c r="L311" s="9"/>
-      <c r="M311" s="9"/>
-      <c r="N311" s="9"/>
-      <c r="O311" s="9"/>
-      <c r="P311" s="13"/>
-      <c r="Q311" s="9"/>
-      <c r="R311" s="9"/>
-      <c r="S311" s="17"/>
-      <c r="T311" s="9"/>
+      <c r="A311" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B311" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E311" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F311" s="17">
+        <v>434</v>
+      </c>
+      <c r="G311" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H311" s="9">
+        <f t="shared" ref="H311" si="115">YEAR(G311)</f>
+        <v>2024</v>
+      </c>
+      <c r="I311" s="9">
+        <f t="shared" ref="I311" si="116">MONTH(G311)</f>
+        <v>11</v>
+      </c>
+      <c r="J311" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K311" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L311" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="M311" s="17">
+        <v>2</v>
+      </c>
+      <c r="N311" s="17">
+        <v>54.99</v>
+      </c>
+      <c r="O311" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P311" s="16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q311" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R311" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S311" s="17">
+        <f t="shared" si="106"/>
+        <v>243</v>
+      </c>
+      <c r="T311" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A312" s="13"/>
-      <c r="B312" s="9"/>
-      <c r="C312" s="9"/>
-      <c r="D312" s="9"/>
-      <c r="E312" s="9"/>
-      <c r="F312" s="9"/>
-      <c r="G312" s="9"/>
-      <c r="H312" s="9"/>
-      <c r="I312" s="9"/>
-      <c r="J312" s="9"/>
-      <c r="K312" s="9"/>
-      <c r="L312" s="9"/>
-      <c r="M312" s="9"/>
-      <c r="N312" s="9"/>
-      <c r="O312" s="9"/>
-      <c r="P312" s="13"/>
-      <c r="Q312" s="9"/>
-      <c r="R312" s="9"/>
-      <c r="S312" s="17"/>
-      <c r="T312" s="9"/>
+      <c r="A312" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B312" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E312" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F312" s="17">
+        <v>490</v>
+      </c>
+      <c r="G312" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H312" s="9">
+        <f t="shared" ref="H312" si="117">YEAR(G312)</f>
+        <v>2024</v>
+      </c>
+      <c r="I312" s="9">
+        <f t="shared" ref="I312" si="118">MONTH(G312)</f>
+        <v>11</v>
+      </c>
+      <c r="J312" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K312" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L312" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="M312" s="17">
+        <v>4</v>
+      </c>
+      <c r="N312" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O312" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P312" s="16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Q312" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="R312" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S312" s="17">
+        <f t="shared" si="106"/>
+        <v>379</v>
+      </c>
+      <c r="T312" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A313" s="13"/>
-      <c r="B313" s="9"/>
-      <c r="C313" s="9"/>
-      <c r="D313" s="9"/>
-      <c r="E313" s="9"/>
-      <c r="F313" s="9"/>
-      <c r="G313" s="9"/>
-      <c r="H313" s="9"/>
-      <c r="I313" s="9"/>
-      <c r="J313" s="9"/>
-      <c r="K313" s="9"/>
-      <c r="L313" s="9"/>
-      <c r="M313" s="9"/>
-      <c r="N313" s="9"/>
-      <c r="O313" s="9"/>
-      <c r="P313" s="13"/>
-      <c r="Q313" s="9"/>
-      <c r="R313" s="9"/>
-      <c r="S313" s="17"/>
-      <c r="T313" s="9"/>
+      <c r="A313" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B313" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D313" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F313" s="17">
+        <v>195</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H313" s="9">
+        <f t="shared" ref="H313" si="119">YEAR(G313)</f>
+        <v>2024</v>
+      </c>
+      <c r="I313" s="9">
+        <f t="shared" ref="I313" si="120">MONTH(G313)</f>
+        <v>11</v>
+      </c>
+      <c r="J313" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K313" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L313" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M313" s="17">
+        <v>1</v>
+      </c>
+      <c r="N313" s="17">
+        <v>122.67</v>
+      </c>
+      <c r="O313" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P313" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q313" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="R313" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S313" s="17">
+        <f t="shared" si="106"/>
+        <v>31</v>
+      </c>
+      <c r="T313" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A314" s="13"/>
-      <c r="B314" s="9"/>
-      <c r="C314" s="9"/>
-      <c r="D314" s="9"/>
-      <c r="E314" s="9"/>
-      <c r="F314" s="9"/>
-      <c r="G314" s="9"/>
-      <c r="H314" s="9"/>
-      <c r="I314" s="9"/>
-      <c r="J314" s="9"/>
-      <c r="K314" s="9"/>
-      <c r="L314" s="9"/>
-      <c r="M314" s="9"/>
-      <c r="N314" s="9"/>
-      <c r="O314" s="9"/>
-      <c r="P314" s="13"/>
-      <c r="Q314" s="9"/>
-      <c r="R314" s="9"/>
-      <c r="S314" s="17"/>
-      <c r="T314" s="9"/>
+      <c r="A314" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B314" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E314" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F314" s="17">
+        <v>280</v>
+      </c>
+      <c r="G314" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H314" s="9">
+        <f t="shared" ref="H314" si="121">YEAR(G314)</f>
+        <v>2024</v>
+      </c>
+      <c r="I314" s="9">
+        <f t="shared" ref="I314" si="122">MONTH(G314)</f>
+        <v>11</v>
+      </c>
+      <c r="J314" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K314" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L314" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M314" s="17">
+        <v>2</v>
+      </c>
+      <c r="N314" s="17">
+        <v>60.18</v>
+      </c>
+      <c r="O314" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P314" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Q314" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="R314" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S314" s="17">
+        <f t="shared" ref="S314:S316" si="123">LEN(P314)</f>
+        <v>35</v>
+      </c>
+      <c r="T314" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A315" s="13"/>
-      <c r="B315" s="9"/>
-      <c r="C315" s="9"/>
-      <c r="D315" s="9"/>
-      <c r="E315" s="9"/>
-      <c r="F315" s="9"/>
-      <c r="G315" s="9"/>
-      <c r="H315" s="9"/>
-      <c r="I315" s="9"/>
-      <c r="J315" s="9"/>
-      <c r="K315" s="9"/>
-      <c r="L315" s="9"/>
-      <c r="M315" s="9"/>
-      <c r="N315" s="9"/>
-      <c r="O315" s="9"/>
-      <c r="P315" s="13"/>
-      <c r="Q315" s="9"/>
-      <c r="R315" s="9"/>
-      <c r="S315" s="17"/>
-      <c r="T315" s="9"/>
+      <c r="A315" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B315" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E315" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F315" s="17">
+        <v>472</v>
+      </c>
+      <c r="G315" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H315" s="9">
+        <f t="shared" ref="H315" si="124">YEAR(G315)</f>
+        <v>2024</v>
+      </c>
+      <c r="I315" s="9">
+        <f t="shared" ref="I315" si="125">MONTH(G315)</f>
+        <v>11</v>
+      </c>
+      <c r="J315" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K315" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L315" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M315" s="17">
+        <v>1</v>
+      </c>
+      <c r="N315" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O315" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P315" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q315" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="R315" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S315" s="17">
+        <f t="shared" si="123"/>
+        <v>60</v>
+      </c>
+      <c r="T315" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A316" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B316" s="17">
+        <v>2016</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D316" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E316" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F316" s="17">
+        <v>68</v>
+      </c>
+      <c r="G316" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H316" s="9">
+        <f t="shared" ref="H316" si="126">YEAR(G316)</f>
+        <v>2024</v>
+      </c>
+      <c r="I316" s="9">
+        <f t="shared" ref="I316" si="127">MONTH(G316)</f>
+        <v>11</v>
+      </c>
+      <c r="J316" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K316" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L316" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M316" s="17">
+        <v>5</v>
+      </c>
+      <c r="N316" s="43">
+        <v>0</v>
+      </c>
+      <c r="O316" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P316" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q316" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="R316" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S316" s="17">
+        <f t="shared" si="123"/>
+        <v>155</v>
+      </c>
+      <c r="T316" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A317" s="9"/>
+      <c r="B317" s="9"/>
+      <c r="C317" s="9"/>
+      <c r="D317" s="9"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="9"/>
+      <c r="G317" s="9"/>
+      <c r="H317" s="9"/>
+      <c r="I317" s="9"/>
+      <c r="J317" s="9"/>
+      <c r="K317" s="9"/>
+      <c r="L317" s="9"/>
+      <c r="M317" s="9"/>
+      <c r="N317" s="9"/>
+      <c r="O317" s="9"/>
+      <c r="P317" s="9"/>
+      <c r="Q317" s="9"/>
+      <c r="R317" s="9"/>
+      <c r="S317" s="17"/>
+      <c r="T317" s="9"/>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A318" s="9"/>
+      <c r="B318" s="9"/>
+      <c r="C318" s="9"/>
+      <c r="D318" s="9"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="9"/>
+      <c r="G318" s="9"/>
+      <c r="H318" s="9"/>
+      <c r="I318" s="9"/>
+      <c r="J318" s="9"/>
+      <c r="K318" s="9"/>
+      <c r="L318" s="9"/>
+      <c r="M318" s="9"/>
+      <c r="N318" s="9"/>
+      <c r="O318" s="9"/>
+      <c r="P318" s="9"/>
+      <c r="Q318" s="9"/>
+      <c r="R318" s="9"/>
+      <c r="S318" s="17"/>
+      <c r="T318" s="9"/>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A319" s="9"/>
+      <c r="B319" s="9"/>
+      <c r="C319" s="9"/>
+      <c r="D319" s="9"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="9"/>
+      <c r="G319" s="9"/>
+      <c r="H319" s="9"/>
+      <c r="I319" s="9"/>
+      <c r="J319" s="9"/>
+      <c r="K319" s="9"/>
+      <c r="L319" s="9"/>
+      <c r="M319" s="9"/>
+      <c r="N319" s="9"/>
+      <c r="O319" s="9"/>
+      <c r="P319" s="9"/>
+      <c r="Q319" s="9"/>
+      <c r="R319" s="9"/>
+      <c r="S319" s="17"/>
+      <c r="T319" s="9"/>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A320" s="9"/>
+      <c r="B320" s="9"/>
+      <c r="C320" s="9"/>
+      <c r="D320" s="9"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="9"/>
+      <c r="G320" s="9"/>
+      <c r="H320" s="9"/>
+      <c r="I320" s="9"/>
+      <c r="J320" s="9"/>
+      <c r="K320" s="9"/>
+      <c r="L320" s="9"/>
+      <c r="M320" s="9"/>
+      <c r="N320" s="9"/>
+      <c r="O320" s="9"/>
+      <c r="P320" s="9"/>
+      <c r="Q320" s="9"/>
+      <c r="R320" s="9"/>
+      <c r="S320" s="17"/>
+      <c r="T320" s="9"/>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A321" s="9"/>
+      <c r="B321" s="9"/>
+      <c r="C321" s="9"/>
+      <c r="D321" s="9"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="9"/>
+      <c r="G321" s="9"/>
+      <c r="H321" s="9"/>
+      <c r="I321" s="9"/>
+      <c r="J321" s="9"/>
+      <c r="K321" s="9"/>
+      <c r="L321" s="9"/>
+      <c r="M321" s="9"/>
+      <c r="N321" s="9"/>
+      <c r="O321" s="9"/>
+      <c r="P321" s="9"/>
+      <c r="Q321" s="9"/>
+      <c r="R321" s="9"/>
+      <c r="S321" s="17"/>
+      <c r="T321" s="9"/>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A322" s="9"/>
+      <c r="B322" s="9"/>
+      <c r="C322" s="9"/>
+      <c r="D322" s="9"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="9"/>
+      <c r="G322" s="9"/>
+      <c r="H322" s="9"/>
+      <c r="I322" s="9"/>
+      <c r="J322" s="9"/>
+      <c r="K322" s="9"/>
+      <c r="L322" s="9"/>
+      <c r="M322" s="9"/>
+      <c r="N322" s="9"/>
+      <c r="O322" s="9"/>
+      <c r="P322" s="9"/>
+      <c r="Q322" s="9"/>
+      <c r="R322" s="9"/>
+      <c r="S322" s="17"/>
+      <c r="T322" s="9"/>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A323" s="9"/>
+      <c r="B323" s="9"/>
+      <c r="C323" s="9"/>
+      <c r="D323" s="9"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="9"/>
+      <c r="G323" s="9"/>
+      <c r="H323" s="9"/>
+      <c r="I323" s="9"/>
+      <c r="J323" s="9"/>
+      <c r="K323" s="9"/>
+      <c r="L323" s="9"/>
+      <c r="M323" s="9"/>
+      <c r="N323" s="9"/>
+      <c r="O323" s="9"/>
+      <c r="P323" s="9"/>
+      <c r="Q323" s="9"/>
+      <c r="R323" s="9"/>
+      <c r="S323" s="17"/>
+      <c r="T323" s="9"/>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A324" s="9"/>
+      <c r="B324" s="9"/>
+      <c r="C324" s="9"/>
+      <c r="D324" s="9"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="9"/>
+      <c r="G324" s="9"/>
+      <c r="H324" s="9"/>
+      <c r="I324" s="9"/>
+      <c r="J324" s="9"/>
+      <c r="K324" s="9"/>
+      <c r="L324" s="9"/>
+      <c r="M324" s="9"/>
+      <c r="N324" s="9"/>
+      <c r="O324" s="9"/>
+      <c r="P324" s="9"/>
+      <c r="Q324" s="9"/>
+      <c r="R324" s="9"/>
+      <c r="S324" s="17"/>
+      <c r="T324" s="9"/>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A325" s="9"/>
+      <c r="B325" s="9"/>
+      <c r="C325" s="9"/>
+      <c r="D325" s="9"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="9"/>
+      <c r="G325" s="9"/>
+      <c r="H325" s="9"/>
+      <c r="I325" s="9"/>
+      <c r="J325" s="9"/>
+      <c r="K325" s="9"/>
+      <c r="L325" s="9"/>
+      <c r="M325" s="9"/>
+      <c r="N325" s="9"/>
+      <c r="O325" s="9"/>
+      <c r="P325" s="9"/>
+      <c r="Q325" s="9"/>
+      <c r="R325" s="9"/>
+      <c r="S325" s="17"/>
+      <c r="T325" s="9"/>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A326" s="9"/>
+      <c r="B326" s="9"/>
+      <c r="C326" s="9"/>
+      <c r="D326" s="9"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="9"/>
+      <c r="G326" s="9"/>
+      <c r="H326" s="9"/>
+      <c r="I326" s="9"/>
+      <c r="J326" s="9"/>
+      <c r="K326" s="9"/>
+      <c r="L326" s="9"/>
+      <c r="M326" s="9"/>
+      <c r="N326" s="9"/>
+      <c r="O326" s="9"/>
+      <c r="P326" s="9"/>
+      <c r="Q326" s="9"/>
+      <c r="R326" s="9"/>
+      <c r="S326" s="17"/>
+      <c r="T326" s="9"/>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A327" s="9"/>
+      <c r="B327" s="9"/>
+      <c r="C327" s="9"/>
+      <c r="D327" s="9"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="9"/>
+      <c r="G327" s="9"/>
+      <c r="H327" s="9"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="9"/>
+      <c r="K327" s="9"/>
+      <c r="L327" s="9"/>
+      <c r="M327" s="9"/>
+      <c r="N327" s="9"/>
+      <c r="O327" s="9"/>
+      <c r="P327" s="9"/>
+      <c r="Q327" s="9"/>
+      <c r="R327" s="9"/>
+      <c r="S327" s="17"/>
+      <c r="T327" s="9"/>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A328" s="9"/>
+      <c r="B328" s="9"/>
+      <c r="C328" s="9"/>
+      <c r="D328" s="9"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="9"/>
+      <c r="G328" s="9"/>
+      <c r="H328" s="9"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="9"/>
+      <c r="K328" s="9"/>
+      <c r="L328" s="9"/>
+      <c r="M328" s="9"/>
+      <c r="N328" s="9"/>
+      <c r="O328" s="9"/>
+      <c r="P328" s="9"/>
+      <c r="Q328" s="9"/>
+      <c r="R328" s="9"/>
+      <c r="S328" s="17"/>
+      <c r="T328" s="9"/>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A329" s="9"/>
+      <c r="B329" s="9"/>
+      <c r="C329" s="9"/>
+      <c r="D329" s="9"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="9"/>
+      <c r="G329" s="9"/>
+      <c r="H329" s="9"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="9"/>
+      <c r="K329" s="9"/>
+      <c r="L329" s="9"/>
+      <c r="M329" s="9"/>
+      <c r="N329" s="9"/>
+      <c r="O329" s="9"/>
+      <c r="P329" s="9"/>
+      <c r="Q329" s="9"/>
+      <c r="R329" s="9"/>
+      <c r="S329" s="17"/>
+      <c r="T329" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4998" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="1081">
   <si>
     <t>Format</t>
   </si>
@@ -3236,6 +3236,54 @@
   </si>
   <si>
     <t>Useful. The most concise but comprehensive book about Product Management. In only 68 pages it equips the reader with a big baggage of actionable knowledge.</t>
+  </si>
+  <si>
+    <t>Pandas for Everyone (2nd Edition)</t>
+  </si>
+  <si>
+    <t>2024-11-24</t>
+  </si>
+  <si>
+    <t>Useful. Well written and a fairly comprehensive book for beginners.</t>
+  </si>
+  <si>
+    <t>Pandas Workout</t>
+  </si>
+  <si>
+    <t>Useless. The cookbook-like approach is more convenient for the author than for the reader, because the constant context switching about the dataset used increases the cognitive load by a factor of 4x.</t>
+  </si>
+  <si>
+    <t>Powerful Python</t>
+  </si>
+  <si>
+    <t>Useless. A bag of basic knowledge and cumbersome of magic methods.</t>
+  </si>
+  <si>
+    <t>Practical Python Backend Programming</t>
+  </si>
+  <si>
+    <t>GitforGits</t>
+  </si>
+  <si>
+    <t>Useless. Usual impersonal list of copy'n'paste knowledge.</t>
+  </si>
+  <si>
+    <t>Hypermodern Python Tooling</t>
+  </si>
+  <si>
+    <t>Useless. A bag of basic knowledge, nothing "hypermodern" about it.</t>
+  </si>
+  <si>
+    <t>Testing in Python: Robust Automation for Professionals</t>
+  </si>
+  <si>
+    <t>Useful. Very personal book, also if a bit repetitive. I particularly apprecciated the authors focus on Makefiles, code linting and code metrics.</t>
+  </si>
+  <si>
+    <t>Modern Software Testing Techniques</t>
+  </si>
+  <si>
+    <t>Useful. The first part of the book is very interesting and it provides original theoretical knowledge about testing, while in the second part the author go a bit mental.</t>
   </si>
 </sst>
 </file>
@@ -11082,11 +11130,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T329"/>
+  <dimension ref="A1:T346"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A317" sqref="A317"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A323" sqref="A323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -31511,7 +31559,7 @@
         <v>159</v>
       </c>
       <c r="S314" s="17">
-        <f t="shared" ref="S314:S316" si="123">LEN(P314)</f>
+        <f t="shared" ref="S314:S323" si="123">LEN(P314)</f>
         <v>35</v>
       </c>
       <c r="T314" s="14">
@@ -31606,11 +31654,11 @@
         <v>1063</v>
       </c>
       <c r="H316" s="9">
-        <f t="shared" ref="H316" si="126">YEAR(G316)</f>
+        <f t="shared" ref="H316:H317" si="126">YEAR(G316)</f>
         <v>2024</v>
       </c>
       <c r="I316" s="9">
-        <f t="shared" ref="I316" si="127">MONTH(G316)</f>
+        <f t="shared" ref="I316:I317" si="127">MONTH(G316)</f>
         <v>11</v>
       </c>
       <c r="J316" s="9" t="s">
@@ -31649,161 +31697,462 @@
       </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A317" s="9"/>
-      <c r="B317" s="9"/>
-      <c r="C317" s="9"/>
-      <c r="D317" s="9"/>
-      <c r="E317" s="9"/>
-      <c r="F317" s="9"/>
-      <c r="G317" s="9"/>
-      <c r="H317" s="9"/>
-      <c r="I317" s="9"/>
-      <c r="J317" s="9"/>
-      <c r="K317" s="9"/>
-      <c r="L317" s="9"/>
-      <c r="M317" s="9"/>
-      <c r="N317" s="9"/>
-      <c r="O317" s="9"/>
-      <c r="P317" s="9"/>
-      <c r="Q317" s="9"/>
-      <c r="R317" s="9"/>
-      <c r="S317" s="17"/>
-      <c r="T317" s="9"/>
+      <c r="A317" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B317" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E317" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F317" s="17">
+        <v>512</v>
+      </c>
+      <c r="G317" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H317" s="9">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="I317" s="9">
+        <f t="shared" si="127"/>
+        <v>11</v>
+      </c>
+      <c r="J317" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K317" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L317" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="M317" s="17">
+        <v>3</v>
+      </c>
+      <c r="N317" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O317" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P317" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Q317" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R317" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S317" s="17">
+        <f t="shared" si="123"/>
+        <v>67</v>
+      </c>
+      <c r="T317" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A318" s="9"/>
-      <c r="B318" s="9"/>
-      <c r="C318" s="9"/>
-      <c r="D318" s="9"/>
-      <c r="E318" s="9"/>
-      <c r="F318" s="9"/>
-      <c r="G318" s="9"/>
-      <c r="H318" s="9"/>
-      <c r="I318" s="9"/>
-      <c r="J318" s="9"/>
-      <c r="K318" s="9"/>
-      <c r="L318" s="9"/>
-      <c r="M318" s="9"/>
-      <c r="N318" s="9"/>
-      <c r="O318" s="9"/>
-      <c r="P318" s="9"/>
-      <c r="Q318" s="9"/>
-      <c r="R318" s="9"/>
-      <c r="S318" s="17"/>
-      <c r="T318" s="9"/>
+      <c r="A318" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B318" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E318" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F318" s="17">
+        <v>442</v>
+      </c>
+      <c r="G318" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H318" s="9">
+        <f t="shared" ref="H318" si="128">YEAR(G318)</f>
+        <v>2024</v>
+      </c>
+      <c r="I318" s="9">
+        <f t="shared" ref="I318" si="129">MONTH(G318)</f>
+        <v>11</v>
+      </c>
+      <c r="J318" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K318" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L318" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="M318" s="17">
+        <v>1</v>
+      </c>
+      <c r="N318" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O318" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P318" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q318" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R318" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S318" s="17">
+        <f t="shared" si="123"/>
+        <v>200</v>
+      </c>
+      <c r="T318" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A319" s="9"/>
-      <c r="B319" s="9"/>
-      <c r="C319" s="9"/>
-      <c r="D319" s="9"/>
-      <c r="E319" s="9"/>
-      <c r="F319" s="9"/>
-      <c r="G319" s="9"/>
-      <c r="H319" s="9"/>
-      <c r="I319" s="9"/>
-      <c r="J319" s="9"/>
-      <c r="K319" s="9"/>
-      <c r="L319" s="9"/>
-      <c r="M319" s="9"/>
-      <c r="N319" s="9"/>
-      <c r="O319" s="9"/>
-      <c r="P319" s="9"/>
-      <c r="Q319" s="9"/>
-      <c r="R319" s="9"/>
-      <c r="S319" s="17"/>
-      <c r="T319" s="9"/>
+      <c r="A319" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B319" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E319" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F319" s="17">
+        <v>265</v>
+      </c>
+      <c r="G319" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H319" s="9">
+        <f t="shared" ref="H319" si="130">YEAR(G319)</f>
+        <v>2024</v>
+      </c>
+      <c r="I319" s="9">
+        <f t="shared" ref="I319" si="131">MONTH(G319)</f>
+        <v>11</v>
+      </c>
+      <c r="J319" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K319" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L319" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M319" s="17">
+        <v>1</v>
+      </c>
+      <c r="N319" s="17">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="O319" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P319" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Q319" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R319" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S319" s="17">
+        <f t="shared" si="123"/>
+        <v>66</v>
+      </c>
+      <c r="T319" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A320" s="9"/>
-      <c r="B320" s="9"/>
-      <c r="C320" s="9"/>
-      <c r="D320" s="9"/>
-      <c r="E320" s="9"/>
-      <c r="F320" s="9"/>
-      <c r="G320" s="9"/>
-      <c r="H320" s="9"/>
-      <c r="I320" s="9"/>
-      <c r="J320" s="9"/>
-      <c r="K320" s="9"/>
-      <c r="L320" s="9"/>
-      <c r="M320" s="9"/>
-      <c r="N320" s="9"/>
-      <c r="O320" s="9"/>
-      <c r="P320" s="9"/>
-      <c r="Q320" s="9"/>
-      <c r="R320" s="9"/>
-      <c r="S320" s="17"/>
-      <c r="T320" s="9"/>
+      <c r="A320" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B320" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E320" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F320" s="17">
+        <v>333</v>
+      </c>
+      <c r="G320" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H320" s="9">
+        <f t="shared" ref="H320" si="132">YEAR(G320)</f>
+        <v>2024</v>
+      </c>
+      <c r="I320" s="9">
+        <f t="shared" ref="I320" si="133">MONTH(G320)</f>
+        <v>11</v>
+      </c>
+      <c r="J320" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K320" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L320" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M320" s="17">
+        <v>1</v>
+      </c>
+      <c r="N320" s="17">
+        <v>37.99</v>
+      </c>
+      <c r="O320" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P320" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Q320" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R320" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S320" s="17">
+        <f t="shared" si="123"/>
+        <v>57</v>
+      </c>
+      <c r="T320" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A321" s="9"/>
-      <c r="B321" s="9"/>
-      <c r="C321" s="9"/>
-      <c r="D321" s="9"/>
-      <c r="E321" s="9"/>
-      <c r="F321" s="9"/>
-      <c r="G321" s="9"/>
-      <c r="H321" s="9"/>
-      <c r="I321" s="9"/>
-      <c r="J321" s="9"/>
-      <c r="K321" s="9"/>
-      <c r="L321" s="9"/>
-      <c r="M321" s="9"/>
-      <c r="N321" s="9"/>
-      <c r="O321" s="9"/>
-      <c r="P321" s="9"/>
-      <c r="Q321" s="9"/>
-      <c r="R321" s="9"/>
-      <c r="S321" s="17"/>
-      <c r="T321" s="9"/>
+      <c r="A321" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B321" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E321" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F321" s="17">
+        <v>386</v>
+      </c>
+      <c r="G321" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H321" s="9">
+        <f t="shared" ref="H321" si="134">YEAR(G321)</f>
+        <v>2024</v>
+      </c>
+      <c r="I321" s="9">
+        <f t="shared" ref="I321" si="135">MONTH(G321)</f>
+        <v>11</v>
+      </c>
+      <c r="J321" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K321" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L321" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M321" s="17">
+        <v>1</v>
+      </c>
+      <c r="N321" s="17">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="O321" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P321" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Q321" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R321" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S321" s="17">
+        <f t="shared" si="123"/>
+        <v>66</v>
+      </c>
+      <c r="T321" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A322" s="9"/>
-      <c r="B322" s="9"/>
-      <c r="C322" s="9"/>
-      <c r="D322" s="9"/>
-      <c r="E322" s="9"/>
-      <c r="F322" s="9"/>
-      <c r="G322" s="9"/>
-      <c r="H322" s="9"/>
-      <c r="I322" s="9"/>
-      <c r="J322" s="9"/>
-      <c r="K322" s="9"/>
-      <c r="L322" s="9"/>
-      <c r="M322" s="9"/>
-      <c r="N322" s="9"/>
-      <c r="O322" s="9"/>
-      <c r="P322" s="9"/>
-      <c r="Q322" s="9"/>
-      <c r="R322" s="9"/>
-      <c r="S322" s="17"/>
-      <c r="T322" s="9"/>
+      <c r="A322" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B322" s="17">
+        <v>2020</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D322" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E322" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F322" s="17">
+        <v>213</v>
+      </c>
+      <c r="G322" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H322" s="9">
+        <f t="shared" ref="H322" si="136">YEAR(G322)</f>
+        <v>2024</v>
+      </c>
+      <c r="I322" s="9">
+        <f t="shared" ref="I322" si="137">MONTH(G322)</f>
+        <v>11</v>
+      </c>
+      <c r="J322" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K322" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L322" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M322" s="17">
+        <v>4</v>
+      </c>
+      <c r="N322" s="17">
+        <v>39.99</v>
+      </c>
+      <c r="O322" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P322" s="16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q322" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R322" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S322" s="17">
+        <f t="shared" si="123"/>
+        <v>144</v>
+      </c>
+      <c r="T322" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A323" s="9"/>
-      <c r="B323" s="9"/>
-      <c r="C323" s="9"/>
-      <c r="D323" s="9"/>
-      <c r="E323" s="9"/>
-      <c r="F323" s="9"/>
-      <c r="G323" s="9"/>
-      <c r="H323" s="9"/>
-      <c r="I323" s="9"/>
-      <c r="J323" s="9"/>
-      <c r="K323" s="9"/>
-      <c r="L323" s="9"/>
-      <c r="M323" s="9"/>
-      <c r="N323" s="9"/>
-      <c r="O323" s="9"/>
-      <c r="P323" s="9"/>
-      <c r="Q323" s="9"/>
-      <c r="R323" s="9"/>
-      <c r="S323" s="17"/>
-      <c r="T323" s="9"/>
+      <c r="A323" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B323" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E323" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F323" s="17">
+        <v>277</v>
+      </c>
+      <c r="G323" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H323" s="9">
+        <f t="shared" ref="H323" si="138">YEAR(G323)</f>
+        <v>2024</v>
+      </c>
+      <c r="I323" s="9">
+        <f t="shared" ref="I323" si="139">MONTH(G323)</f>
+        <v>11</v>
+      </c>
+      <c r="J323" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K323" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L323" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="M323" s="17">
+        <v>3</v>
+      </c>
+      <c r="N323" s="43">
+        <v>43.9</v>
+      </c>
+      <c r="O323" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P323" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Q323" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R323" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S323" s="17">
+        <f t="shared" si="123"/>
+        <v>169</v>
+      </c>
+      <c r="T323" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A324" s="9"/>
+      <c r="A324" s="13"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
@@ -31818,14 +32167,14 @@
       <c r="M324" s="9"/>
       <c r="N324" s="9"/>
       <c r="O324" s="9"/>
-      <c r="P324" s="9"/>
+      <c r="P324" s="13"/>
       <c r="Q324" s="9"/>
       <c r="R324" s="9"/>
       <c r="S324" s="17"/>
       <c r="T324" s="9"/>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A325" s="9"/>
+      <c r="A325" s="13"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
@@ -31840,14 +32189,14 @@
       <c r="M325" s="9"/>
       <c r="N325" s="9"/>
       <c r="O325" s="9"/>
-      <c r="P325" s="9"/>
+      <c r="P325" s="13"/>
       <c r="Q325" s="9"/>
       <c r="R325" s="9"/>
       <c r="S325" s="17"/>
       <c r="T325" s="9"/>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A326" s="9"/>
+      <c r="A326" s="13"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
       <c r="D326" s="9"/>
@@ -31862,14 +32211,14 @@
       <c r="M326" s="9"/>
       <c r="N326" s="9"/>
       <c r="O326" s="9"/>
-      <c r="P326" s="9"/>
+      <c r="P326" s="13"/>
       <c r="Q326" s="9"/>
       <c r="R326" s="9"/>
       <c r="S326" s="17"/>
       <c r="T326" s="9"/>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A327" s="9"/>
+      <c r="A327" s="13"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
       <c r="D327" s="9"/>
@@ -31884,14 +32233,14 @@
       <c r="M327" s="9"/>
       <c r="N327" s="9"/>
       <c r="O327" s="9"/>
-      <c r="P327" s="9"/>
+      <c r="P327" s="13"/>
       <c r="Q327" s="9"/>
       <c r="R327" s="9"/>
       <c r="S327" s="17"/>
       <c r="T327" s="9"/>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A328" s="9"/>
+      <c r="A328" s="13"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
       <c r="D328" s="9"/>
@@ -31906,14 +32255,14 @@
       <c r="M328" s="9"/>
       <c r="N328" s="9"/>
       <c r="O328" s="9"/>
-      <c r="P328" s="9"/>
+      <c r="P328" s="13"/>
       <c r="Q328" s="9"/>
       <c r="R328" s="9"/>
       <c r="S328" s="17"/>
       <c r="T328" s="9"/>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A329" s="9"/>
+      <c r="A329" s="13"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
@@ -31928,11 +32277,385 @@
       <c r="M329" s="9"/>
       <c r="N329" s="9"/>
       <c r="O329" s="9"/>
-      <c r="P329" s="9"/>
+      <c r="P329" s="13"/>
       <c r="Q329" s="9"/>
       <c r="R329" s="9"/>
       <c r="S329" s="17"/>
       <c r="T329" s="9"/>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A330" s="9"/>
+      <c r="B330" s="9"/>
+      <c r="C330" s="9"/>
+      <c r="D330" s="9"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="9"/>
+      <c r="G330" s="9"/>
+      <c r="H330" s="9"/>
+      <c r="I330" s="9"/>
+      <c r="J330" s="9"/>
+      <c r="K330" s="9"/>
+      <c r="L330" s="9"/>
+      <c r="M330" s="9"/>
+      <c r="N330" s="9"/>
+      <c r="O330" s="9"/>
+      <c r="P330" s="9"/>
+      <c r="Q330" s="9"/>
+      <c r="R330" s="9"/>
+      <c r="S330" s="17"/>
+      <c r="T330" s="9"/>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A331" s="9"/>
+      <c r="B331" s="9"/>
+      <c r="C331" s="9"/>
+      <c r="D331" s="9"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="9"/>
+      <c r="G331" s="9"/>
+      <c r="H331" s="9"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="9"/>
+      <c r="K331" s="9"/>
+      <c r="L331" s="9"/>
+      <c r="M331" s="9"/>
+      <c r="N331" s="9"/>
+      <c r="O331" s="9"/>
+      <c r="P331" s="9"/>
+      <c r="Q331" s="9"/>
+      <c r="R331" s="9"/>
+      <c r="S331" s="17"/>
+      <c r="T331" s="9"/>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A332" s="9"/>
+      <c r="B332" s="9"/>
+      <c r="C332" s="9"/>
+      <c r="D332" s="9"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="9"/>
+      <c r="G332" s="9"/>
+      <c r="H332" s="9"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="9"/>
+      <c r="K332" s="9"/>
+      <c r="L332" s="9"/>
+      <c r="M332" s="9"/>
+      <c r="N332" s="9"/>
+      <c r="O332" s="9"/>
+      <c r="P332" s="9"/>
+      <c r="Q332" s="9"/>
+      <c r="R332" s="9"/>
+      <c r="S332" s="17"/>
+      <c r="T332" s="9"/>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A333" s="9"/>
+      <c r="B333" s="9"/>
+      <c r="C333" s="9"/>
+      <c r="D333" s="9"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="9"/>
+      <c r="G333" s="9"/>
+      <c r="H333" s="9"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="9"/>
+      <c r="K333" s="9"/>
+      <c r="L333" s="9"/>
+      <c r="M333" s="9"/>
+      <c r="N333" s="9"/>
+      <c r="O333" s="9"/>
+      <c r="P333" s="9"/>
+      <c r="Q333" s="9"/>
+      <c r="R333" s="9"/>
+      <c r="S333" s="17"/>
+      <c r="T333" s="9"/>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A334" s="9"/>
+      <c r="B334" s="9"/>
+      <c r="C334" s="9"/>
+      <c r="D334" s="9"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="9"/>
+      <c r="G334" s="9"/>
+      <c r="H334" s="9"/>
+      <c r="I334" s="9"/>
+      <c r="J334" s="9"/>
+      <c r="K334" s="9"/>
+      <c r="L334" s="9"/>
+      <c r="M334" s="9"/>
+      <c r="N334" s="9"/>
+      <c r="O334" s="9"/>
+      <c r="P334" s="9"/>
+      <c r="Q334" s="9"/>
+      <c r="R334" s="9"/>
+      <c r="S334" s="17"/>
+      <c r="T334" s="9"/>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A335" s="9"/>
+      <c r="B335" s="9"/>
+      <c r="C335" s="9"/>
+      <c r="D335" s="9"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="9"/>
+      <c r="G335" s="9"/>
+      <c r="H335" s="9"/>
+      <c r="I335" s="9"/>
+      <c r="J335" s="9"/>
+      <c r="K335" s="9"/>
+      <c r="L335" s="9"/>
+      <c r="M335" s="9"/>
+      <c r="N335" s="9"/>
+      <c r="O335" s="9"/>
+      <c r="P335" s="9"/>
+      <c r="Q335" s="9"/>
+      <c r="R335" s="9"/>
+      <c r="S335" s="17"/>
+      <c r="T335" s="9"/>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A336" s="9"/>
+      <c r="B336" s="9"/>
+      <c r="C336" s="9"/>
+      <c r="D336" s="9"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="9"/>
+      <c r="G336" s="9"/>
+      <c r="H336" s="9"/>
+      <c r="I336" s="9"/>
+      <c r="J336" s="9"/>
+      <c r="K336" s="9"/>
+      <c r="L336" s="9"/>
+      <c r="M336" s="9"/>
+      <c r="N336" s="9"/>
+      <c r="O336" s="9"/>
+      <c r="P336" s="9"/>
+      <c r="Q336" s="9"/>
+      <c r="R336" s="9"/>
+      <c r="S336" s="17"/>
+      <c r="T336" s="9"/>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A337" s="9"/>
+      <c r="B337" s="9"/>
+      <c r="C337" s="9"/>
+      <c r="D337" s="9"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="9"/>
+      <c r="G337" s="9"/>
+      <c r="H337" s="9"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="9"/>
+      <c r="K337" s="9"/>
+      <c r="L337" s="9"/>
+      <c r="M337" s="9"/>
+      <c r="N337" s="9"/>
+      <c r="O337" s="9"/>
+      <c r="P337" s="9"/>
+      <c r="Q337" s="9"/>
+      <c r="R337" s="9"/>
+      <c r="S337" s="17"/>
+      <c r="T337" s="9"/>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A338" s="9"/>
+      <c r="B338" s="9"/>
+      <c r="C338" s="9"/>
+      <c r="D338" s="9"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="9"/>
+      <c r="G338" s="9"/>
+      <c r="H338" s="9"/>
+      <c r="I338" s="9"/>
+      <c r="J338" s="9"/>
+      <c r="K338" s="9"/>
+      <c r="L338" s="9"/>
+      <c r="M338" s="9"/>
+      <c r="N338" s="9"/>
+      <c r="O338" s="9"/>
+      <c r="P338" s="9"/>
+      <c r="Q338" s="9"/>
+      <c r="R338" s="9"/>
+      <c r="S338" s="17"/>
+      <c r="T338" s="9"/>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A339" s="9"/>
+      <c r="B339" s="9"/>
+      <c r="C339" s="9"/>
+      <c r="D339" s="9"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="9"/>
+      <c r="G339" s="9"/>
+      <c r="H339" s="9"/>
+      <c r="I339" s="9"/>
+      <c r="J339" s="9"/>
+      <c r="K339" s="9"/>
+      <c r="L339" s="9"/>
+      <c r="M339" s="9"/>
+      <c r="N339" s="9"/>
+      <c r="O339" s="9"/>
+      <c r="P339" s="9"/>
+      <c r="Q339" s="9"/>
+      <c r="R339" s="9"/>
+      <c r="S339" s="17"/>
+      <c r="T339" s="9"/>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A340" s="9"/>
+      <c r="B340" s="9"/>
+      <c r="C340" s="9"/>
+      <c r="D340" s="9"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="9"/>
+      <c r="G340" s="9"/>
+      <c r="H340" s="9"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="9"/>
+      <c r="K340" s="9"/>
+      <c r="L340" s="9"/>
+      <c r="M340" s="9"/>
+      <c r="N340" s="9"/>
+      <c r="O340" s="9"/>
+      <c r="P340" s="9"/>
+      <c r="Q340" s="9"/>
+      <c r="R340" s="9"/>
+      <c r="S340" s="17"/>
+      <c r="T340" s="9"/>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A341" s="9"/>
+      <c r="B341" s="9"/>
+      <c r="C341" s="9"/>
+      <c r="D341" s="9"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="9"/>
+      <c r="G341" s="9"/>
+      <c r="H341" s="9"/>
+      <c r="I341" s="9"/>
+      <c r="J341" s="9"/>
+      <c r="K341" s="9"/>
+      <c r="L341" s="9"/>
+      <c r="M341" s="9"/>
+      <c r="N341" s="9"/>
+      <c r="O341" s="9"/>
+      <c r="P341" s="9"/>
+      <c r="Q341" s="9"/>
+      <c r="R341" s="9"/>
+      <c r="S341" s="17"/>
+      <c r="T341" s="9"/>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A342" s="9"/>
+      <c r="B342" s="9"/>
+      <c r="C342" s="9"/>
+      <c r="D342" s="9"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="9"/>
+      <c r="G342" s="9"/>
+      <c r="H342" s="9"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="9"/>
+      <c r="K342" s="9"/>
+      <c r="L342" s="9"/>
+      <c r="M342" s="9"/>
+      <c r="N342" s="9"/>
+      <c r="O342" s="9"/>
+      <c r="P342" s="9"/>
+      <c r="Q342" s="9"/>
+      <c r="R342" s="9"/>
+      <c r="S342" s="17"/>
+      <c r="T342" s="9"/>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A343" s="9"/>
+      <c r="B343" s="9"/>
+      <c r="C343" s="9"/>
+      <c r="D343" s="9"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="9"/>
+      <c r="G343" s="9"/>
+      <c r="H343" s="9"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="9"/>
+      <c r="K343" s="9"/>
+      <c r="L343" s="9"/>
+      <c r="M343" s="9"/>
+      <c r="N343" s="9"/>
+      <c r="O343" s="9"/>
+      <c r="P343" s="9"/>
+      <c r="Q343" s="9"/>
+      <c r="R343" s="9"/>
+      <c r="S343" s="17"/>
+      <c r="T343" s="9"/>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A344" s="9"/>
+      <c r="B344" s="9"/>
+      <c r="C344" s="9"/>
+      <c r="D344" s="9"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="9"/>
+      <c r="G344" s="9"/>
+      <c r="H344" s="9"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="9"/>
+      <c r="K344" s="9"/>
+      <c r="L344" s="9"/>
+      <c r="M344" s="9"/>
+      <c r="N344" s="9"/>
+      <c r="O344" s="9"/>
+      <c r="P344" s="9"/>
+      <c r="Q344" s="9"/>
+      <c r="R344" s="9"/>
+      <c r="S344" s="17"/>
+      <c r="T344" s="9"/>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A345" s="9"/>
+      <c r="B345" s="9"/>
+      <c r="C345" s="9"/>
+      <c r="D345" s="9"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="9"/>
+      <c r="G345" s="9"/>
+      <c r="H345" s="9"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="9"/>
+      <c r="K345" s="9"/>
+      <c r="L345" s="9"/>
+      <c r="M345" s="9"/>
+      <c r="N345" s="9"/>
+      <c r="O345" s="9"/>
+      <c r="P345" s="9"/>
+      <c r="Q345" s="9"/>
+      <c r="R345" s="9"/>
+      <c r="S345" s="17"/>
+      <c r="T345" s="9"/>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A346" s="9"/>
+      <c r="B346" s="9"/>
+      <c r="C346" s="9"/>
+      <c r="D346" s="9"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="9"/>
+      <c r="G346" s="9"/>
+      <c r="H346" s="9"/>
+      <c r="I346" s="9"/>
+      <c r="J346" s="9"/>
+      <c r="K346" s="9"/>
+      <c r="L346" s="9"/>
+      <c r="M346" s="9"/>
+      <c r="N346" s="9"/>
+      <c r="O346" s="9"/>
+      <c r="P346" s="9"/>
+      <c r="Q346" s="9"/>
+      <c r="R346" s="9"/>
+      <c r="S346" s="17"/>
+      <c r="T346" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5142" uniqueCount="1092">
   <si>
     <t>Format</t>
   </si>
@@ -3284,6 +3284,39 @@
   </si>
   <si>
     <t>Useful. The first part of the book is very interesting and it provides original theoretical knowledge about testing, while in the second part the author go a bit mental.</t>
+  </si>
+  <si>
+    <t>Better APIs: Quality, Stability, Observability</t>
+  </si>
+  <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>Useless. It's personal, but it contains no original content. It's just the usual walkthrough thru well-known programming best practices.</t>
+  </si>
+  <si>
+    <t>Mastering API Architecture</t>
+  </si>
+  <si>
+    <t>Useless. Well written, but no original content.</t>
+  </si>
+  <si>
+    <t>GitHub Actions in Action</t>
+  </si>
+  <si>
+    <t>Useful. A good getting started book.</t>
+  </si>
+  <si>
+    <t>Learning GitHub Actions</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>Useless. Just an unemotional showcase of Github features.</t>
+  </si>
+  <si>
+    <t>Gray Hat Python</t>
   </si>
 </sst>
 </file>
@@ -11134,7 +11167,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A323" sqref="A323"/>
+      <selection pane="bottomLeft" activeCell="A332" sqref="A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -31559,7 +31592,7 @@
         <v>159</v>
       </c>
       <c r="S314" s="17">
-        <f t="shared" ref="S314:S323" si="123">LEN(P314)</f>
+        <f t="shared" ref="S314:S328" si="123">LEN(P314)</f>
         <v>35</v>
       </c>
       <c r="T314" s="14">
@@ -32152,114 +32185,329 @@
       </c>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A324" s="13"/>
-      <c r="B324" s="9"/>
-      <c r="C324" s="9"/>
-      <c r="D324" s="9"/>
-      <c r="E324" s="9"/>
-      <c r="F324" s="9"/>
-      <c r="G324" s="9"/>
-      <c r="H324" s="9"/>
-      <c r="I324" s="9"/>
-      <c r="J324" s="9"/>
-      <c r="K324" s="9"/>
-      <c r="L324" s="9"/>
-      <c r="M324" s="9"/>
-      <c r="N324" s="9"/>
-      <c r="O324" s="9"/>
-      <c r="P324" s="13"/>
-      <c r="Q324" s="9"/>
-      <c r="R324" s="9"/>
-      <c r="S324" s="17"/>
-      <c r="T324" s="9"/>
+      <c r="A324" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B324" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D324" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E324" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F324" s="17">
+        <v>132</v>
+      </c>
+      <c r="G324" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H324" s="9">
+        <f t="shared" ref="H324" si="140">YEAR(G324)</f>
+        <v>2024</v>
+      </c>
+      <c r="I324" s="9">
+        <f t="shared" ref="I324" si="141">MONTH(G324)</f>
+        <v>12</v>
+      </c>
+      <c r="J324" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K324" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L324" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M324" s="17">
+        <v>2</v>
+      </c>
+      <c r="N324" s="43">
+        <v>10</v>
+      </c>
+      <c r="O324" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P324" s="16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q324" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R324" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S324" s="17">
+        <f t="shared" si="123"/>
+        <v>136</v>
+      </c>
+      <c r="T324" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A325" s="13"/>
-      <c r="B325" s="9"/>
-      <c r="C325" s="9"/>
-      <c r="D325" s="9"/>
-      <c r="E325" s="9"/>
-      <c r="F325" s="9"/>
-      <c r="G325" s="9"/>
-      <c r="H325" s="9"/>
-      <c r="I325" s="9"/>
-      <c r="J325" s="9"/>
-      <c r="K325" s="9"/>
-      <c r="L325" s="9"/>
-      <c r="M325" s="9"/>
-      <c r="N325" s="9"/>
-      <c r="O325" s="9"/>
-      <c r="P325" s="13"/>
-      <c r="Q325" s="9"/>
-      <c r="R325" s="9"/>
-      <c r="S325" s="17"/>
-      <c r="T325" s="9"/>
+      <c r="A325" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B325" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E325" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F325" s="17">
+        <v>289</v>
+      </c>
+      <c r="G325" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H325" s="9">
+        <f t="shared" ref="H325" si="142">YEAR(G325)</f>
+        <v>2024</v>
+      </c>
+      <c r="I325" s="9">
+        <f t="shared" ref="I325" si="143">MONTH(G325)</f>
+        <v>12</v>
+      </c>
+      <c r="J325" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K325" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L325" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M325" s="17">
+        <v>2</v>
+      </c>
+      <c r="N325" s="17">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="O325" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P325" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Q325" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R325" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S325" s="17">
+        <f t="shared" si="123"/>
+        <v>47</v>
+      </c>
+      <c r="T325" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A326" s="13"/>
-      <c r="B326" s="9"/>
-      <c r="C326" s="9"/>
-      <c r="D326" s="9"/>
-      <c r="E326" s="9"/>
-      <c r="F326" s="9"/>
-      <c r="G326" s="9"/>
-      <c r="H326" s="9"/>
-      <c r="I326" s="9"/>
-      <c r="J326" s="9"/>
-      <c r="K326" s="9"/>
-      <c r="L326" s="9"/>
-      <c r="M326" s="9"/>
-      <c r="N326" s="9"/>
-      <c r="O326" s="9"/>
-      <c r="P326" s="13"/>
-      <c r="Q326" s="9"/>
-      <c r="R326" s="9"/>
-      <c r="S326" s="17"/>
-      <c r="T326" s="9"/>
+      <c r="A326" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B326" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D326" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E326" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F326" s="17">
+        <v>257</v>
+      </c>
+      <c r="G326" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H326" s="9">
+        <f t="shared" ref="H326" si="144">YEAR(G326)</f>
+        <v>2024</v>
+      </c>
+      <c r="I326" s="9">
+        <f t="shared" ref="I326" si="145">MONTH(G326)</f>
+        <v>12</v>
+      </c>
+      <c r="J326" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K326" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L326" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="M326" s="17">
+        <v>3</v>
+      </c>
+      <c r="N326" s="17">
+        <v>49.99</v>
+      </c>
+      <c r="O326" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P326" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Q326" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="R326" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S326" s="17">
+        <f t="shared" si="123"/>
+        <v>36</v>
+      </c>
+      <c r="T326" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A327" s="13"/>
-      <c r="B327" s="9"/>
-      <c r="C327" s="9"/>
-      <c r="D327" s="9"/>
-      <c r="E327" s="9"/>
-      <c r="F327" s="9"/>
-      <c r="G327" s="9"/>
-      <c r="H327" s="9"/>
-      <c r="I327" s="9"/>
-      <c r="J327" s="9"/>
-      <c r="K327" s="9"/>
-      <c r="L327" s="9"/>
-      <c r="M327" s="9"/>
-      <c r="N327" s="9"/>
-      <c r="O327" s="9"/>
-      <c r="P327" s="13"/>
-      <c r="Q327" s="9"/>
-      <c r="R327" s="9"/>
-      <c r="S327" s="17"/>
-      <c r="T327" s="9"/>
+      <c r="A327" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B327" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D327" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E327" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F327" s="17">
+        <v>573</v>
+      </c>
+      <c r="G327" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H327" s="9">
+        <f t="shared" ref="H327" si="146">YEAR(G327)</f>
+        <v>2025</v>
+      </c>
+      <c r="I327" s="9">
+        <f t="shared" ref="I327" si="147">MONTH(G327)</f>
+        <v>1</v>
+      </c>
+      <c r="J327" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K327" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L327" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M327" s="17">
+        <v>1</v>
+      </c>
+      <c r="N327" s="17">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="O327" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P327" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q327" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="R327" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S327" s="17">
+        <f t="shared" si="123"/>
+        <v>57</v>
+      </c>
+      <c r="T327" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A328" s="13"/>
-      <c r="B328" s="9"/>
-      <c r="C328" s="9"/>
-      <c r="D328" s="9"/>
-      <c r="E328" s="9"/>
-      <c r="F328" s="9"/>
-      <c r="G328" s="9"/>
-      <c r="H328" s="9"/>
-      <c r="I328" s="9"/>
-      <c r="J328" s="9"/>
-      <c r="K328" s="9"/>
-      <c r="L328" s="9"/>
-      <c r="M328" s="9"/>
-      <c r="N328" s="9"/>
-      <c r="O328" s="9"/>
-      <c r="P328" s="13"/>
-      <c r="Q328" s="9"/>
-      <c r="R328" s="9"/>
-      <c r="S328" s="17"/>
-      <c r="T328" s="9"/>
+      <c r="A328" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B328" s="17">
+        <v>2009</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E328" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F328" s="17">
+        <v>220</v>
+      </c>
+      <c r="G328" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H328" s="9">
+        <f t="shared" ref="H328" si="148">YEAR(G328)</f>
+        <v>2025</v>
+      </c>
+      <c r="I328" s="9">
+        <f t="shared" ref="I328" si="149">MONTH(G328)</f>
+        <v>1</v>
+      </c>
+      <c r="J328" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K328" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L328" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="M328" s="17">
+        <v>3</v>
+      </c>
+      <c r="N328" s="17">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="O328" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P328" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q328" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R328" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S328" s="17">
+        <f t="shared" si="123"/>
+        <v>16</v>
+      </c>
+      <c r="T328" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" s="13"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="150" windowWidth="19335" windowHeight="7530" tabRatio="536" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="1128" yWindow="156" windowWidth="19332" windowHeight="7536" tabRatio="536" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed2016" sheetId="16" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5142" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5166" uniqueCount="1098">
   <si>
     <t>Format</t>
   </si>
@@ -3317,6 +3317,24 @@
   </si>
   <si>
     <t>Gray Hat Python</t>
+  </si>
+  <si>
+    <t>DuckDB In Action</t>
+  </si>
+  <si>
+    <t>Useful. Very comprehensive introduction.</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>DuckDB Up and Running</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>Useful. Ok introduction for beginners.</t>
   </si>
 </sst>
 </file>
@@ -3907,12 +3925,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49">
         <v>2016</v>
       </c>
@@ -3924,7 +3942,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -3950,7 +3968,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -4016,7 +4034,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -4148,7 +4166,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -4280,7 +4298,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -4346,7 +4364,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -4412,7 +4430,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -4478,7 +4496,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -4544,7 +4562,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -4610,7 +4628,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -4676,7 +4694,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -4742,7 +4760,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4752,7 +4770,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -4863,28 +4881,28 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="7.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="57.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="7.109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.5546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="11.109375" style="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="22.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="75.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="39"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="22.5546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="14.5546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="75.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="39"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4937,7 +4955,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>87</v>
       </c>
@@ -4991,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>169</v>
       </c>
@@ -5045,7 +5063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>214</v>
       </c>
@@ -5099,7 +5117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>216</v>
       </c>
@@ -5153,7 +5171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="9"/>
@@ -5172,7 +5190,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="17"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="9"/>
@@ -5191,7 +5209,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="9"/>
@@ -5210,7 +5228,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="14"/>
       <c r="C9" s="9"/>
@@ -5229,7 +5247,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="14"/>
       <c r="C10" s="9"/>
@@ -5248,7 +5266,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
       <c r="C11" s="9"/>
@@ -5267,7 +5285,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="14"/>
       <c r="C12" s="9"/>
@@ -5286,7 +5304,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="14"/>
       <c r="C13" s="9"/>
@@ -5305,7 +5323,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="14"/>
       <c r="C14" s="9"/>
@@ -5324,7 +5342,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
@@ -5343,7 +5361,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="29"/>
@@ -5358,7 +5376,7 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -5373,7 +5391,7 @@
       <c r="L17" s="36"/>
       <c r="M17" s="37"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="29"/>
@@ -5388,7 +5406,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="29"/>
@@ -5403,7 +5421,7 @@
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="29"/>
@@ -5433,12 +5451,12 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49">
         <v>2017</v>
       </c>
@@ -5450,7 +5468,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -5476,7 +5494,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -5542,7 +5560,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -5608,7 +5626,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -5674,7 +5692,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -5740,7 +5758,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -5806,7 +5824,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -5872,7 +5890,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -5938,7 +5956,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -6004,7 +6022,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -6070,7 +6088,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -6136,7 +6154,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -6202,7 +6220,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -6268,7 +6286,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6278,7 +6296,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -6389,12 +6407,12 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49">
         <v>2018</v>
       </c>
@@ -6406,7 +6424,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -6432,7 +6450,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -6498,7 +6516,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -6564,7 +6582,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -6630,7 +6648,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -6696,7 +6714,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -6762,7 +6780,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -6828,7 +6846,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -6894,7 +6912,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -6960,7 +6978,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -7026,7 +7044,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -7092,7 +7110,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -7224,7 +7242,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7234,7 +7252,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -7345,12 +7363,12 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49">
         <v>2019</v>
       </c>
@@ -7362,7 +7380,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -7454,7 +7472,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -7520,7 +7538,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -7586,7 +7604,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -7652,7 +7670,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -7718,7 +7736,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -7784,7 +7802,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -7850,7 +7868,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -7916,7 +7934,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -7982,7 +8000,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -8048,7 +8066,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -8114,7 +8132,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -8180,7 +8198,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8190,7 +8208,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -8301,12 +8319,12 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49">
         <v>2020</v>
       </c>
@@ -8318,7 +8336,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -8344,7 +8362,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -8410,7 +8428,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -8476,7 +8494,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -8542,7 +8560,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -8608,7 +8626,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -8674,7 +8692,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -8740,7 +8758,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -8806,7 +8824,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -8872,7 +8890,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -8938,7 +8956,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -9004,7 +9022,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -9070,7 +9088,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -9136,7 +9154,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -9146,7 +9164,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -9257,12 +9275,12 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49">
         <v>2021</v>
       </c>
@@ -9274,7 +9292,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -9300,7 +9318,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -9366,7 +9384,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -9432,7 +9450,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -9498,7 +9516,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -9564,7 +9582,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -9630,7 +9648,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -9696,7 +9714,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -9762,7 +9780,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -9828,7 +9846,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -9894,7 +9912,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -9960,7 +9978,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -10026,7 +10044,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -10092,7 +10110,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10102,7 +10120,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -10213,12 +10231,12 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49">
         <v>2022</v>
       </c>
@@ -10230,7 +10248,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -10256,7 +10274,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -10322,7 +10340,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -10388,7 +10406,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -10454,7 +10472,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -10520,7 +10538,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -10586,7 +10604,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -10652,7 +10670,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -10718,7 +10736,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -10784,7 +10802,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -10850,7 +10868,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -10916,7 +10934,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -10982,7 +11000,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -11048,7 +11066,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -11058,7 +11076,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -11166,34 +11184,34 @@
   <dimension ref="A1:T346"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A332" sqref="A332"/>
+      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="57.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="85.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="39" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="27.109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="85.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="39" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -11255,7 +11273,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -11320,7 +11338,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -11385,7 +11403,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -11450,7 +11468,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>603</v>
       </c>
@@ -11515,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -11580,7 +11598,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -11645,7 +11663,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -11710,7 +11728,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -11775,7 +11793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -11840,7 +11858,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
@@ -11905,7 +11923,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -11970,7 +11988,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>62</v>
       </c>
@@ -12035,7 +12053,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>63</v>
       </c>
@@ -12100,7 +12118,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>70</v>
       </c>
@@ -12165,7 +12183,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>73</v>
       </c>
@@ -12230,7 +12248,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>75</v>
       </c>
@@ -12295,7 +12313,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>83</v>
       </c>
@@ -12360,7 +12378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>84</v>
       </c>
@@ -12425,7 +12443,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>91</v>
       </c>
@@ -12490,7 +12508,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>99</v>
       </c>
@@ -12555,7 +12573,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>102</v>
       </c>
@@ -12620,7 +12638,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>103</v>
       </c>
@@ -12685,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>105</v>
       </c>
@@ -12750,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>107</v>
       </c>
@@ -12815,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>109</v>
       </c>
@@ -12880,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>111</v>
       </c>
@@ -12945,7 +12963,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>117</v>
       </c>
@@ -13010,7 +13028,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>119</v>
       </c>
@@ -13075,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>121</v>
       </c>
@@ -13140,7 +13158,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>123</v>
       </c>
@@ -13205,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>125</v>
       </c>
@@ -13270,7 +13288,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>127</v>
       </c>
@@ -13335,7 +13353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>128</v>
       </c>
@@ -13400,7 +13418,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>130</v>
       </c>
@@ -13465,7 +13483,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>132</v>
       </c>
@@ -13530,7 +13548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>133</v>
       </c>
@@ -13595,7 +13613,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>135</v>
       </c>
@@ -13660,7 +13678,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>139</v>
       </c>
@@ -13725,7 +13743,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>141</v>
       </c>
@@ -13790,7 +13808,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>142</v>
       </c>
@@ -13855,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>143</v>
       </c>
@@ -13920,7 +13938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>145</v>
       </c>
@@ -13985,7 +14003,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>146</v>
       </c>
@@ -14050,7 +14068,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>151</v>
       </c>
@@ -14115,7 +14133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>153</v>
       </c>
@@ -14180,7 +14198,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>154</v>
       </c>
@@ -14245,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>155</v>
       </c>
@@ -14310,7 +14328,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>156</v>
       </c>
@@ -14375,7 +14393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>160</v>
       </c>
@@ -14440,7 +14458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>379</v>
       </c>
@@ -14505,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>161</v>
       </c>
@@ -14570,7 +14588,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>163</v>
       </c>
@@ -14635,7 +14653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>164</v>
       </c>
@@ -14700,7 +14718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>166</v>
       </c>
@@ -14765,7 +14783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>167</v>
       </c>
@@ -14830,7 +14848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>168</v>
       </c>
@@ -14895,7 +14913,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>381</v>
       </c>
@@ -14960,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>175</v>
       </c>
@@ -15025,7 +15043,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>183</v>
       </c>
@@ -15090,7 +15108,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>185</v>
       </c>
@@ -15155,7 +15173,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>187</v>
       </c>
@@ -15220,7 +15238,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>188</v>
       </c>
@@ -15285,7 +15303,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>190</v>
       </c>
@@ -15350,7 +15368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>191</v>
       </c>
@@ -15415,7 +15433,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>193</v>
       </c>
@@ -15480,7 +15498,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>195</v>
       </c>
@@ -15545,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>196</v>
       </c>
@@ -15610,7 +15628,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>197</v>
       </c>
@@ -15675,7 +15693,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>199</v>
       </c>
@@ -15740,7 +15758,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>200</v>
       </c>
@@ -15805,7 +15823,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>202</v>
       </c>
@@ -15870,7 +15888,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>204</v>
       </c>
@@ -15935,7 +15953,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>207</v>
       </c>
@@ -16000,7 +16018,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>233</v>
       </c>
@@ -16065,7 +16083,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>232</v>
       </c>
@@ -16130,7 +16148,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>209</v>
       </c>
@@ -16195,7 +16213,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>210</v>
       </c>
@@ -16260,7 +16278,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>212</v>
       </c>
@@ -16325,7 +16343,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>218</v>
       </c>
@@ -16390,7 +16408,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>224</v>
       </c>
@@ -16455,7 +16473,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>226</v>
       </c>
@@ -16520,7 +16538,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>227</v>
       </c>
@@ -16585,7 +16603,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>228</v>
       </c>
@@ -16650,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>839</v>
       </c>
@@ -16715,7 +16733,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>231</v>
       </c>
@@ -16780,7 +16798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>230</v>
       </c>
@@ -16845,7 +16863,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>238</v>
       </c>
@@ -16910,7 +16928,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>239</v>
       </c>
@@ -16975,7 +16993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>241</v>
       </c>
@@ -17040,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>243</v>
       </c>
@@ -17105,7 +17123,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>245</v>
       </c>
@@ -17170,7 +17188,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>247</v>
       </c>
@@ -17235,7 +17253,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>248</v>
       </c>
@@ -17300,7 +17318,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>250</v>
       </c>
@@ -17365,7 +17383,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>252</v>
       </c>
@@ -17430,7 +17448,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>254</v>
       </c>
@@ -17495,7 +17513,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>256</v>
       </c>
@@ -17560,7 +17578,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>257</v>
       </c>
@@ -17625,7 +17643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>262</v>
       </c>
@@ -17690,7 +17708,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>264</v>
       </c>
@@ -17755,7 +17773,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>266</v>
       </c>
@@ -17820,7 +17838,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>268</v>
       </c>
@@ -17885,7 +17903,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>270</v>
       </c>
@@ -17950,7 +17968,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>274</v>
       </c>
@@ -18015,7 +18033,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>272</v>
       </c>
@@ -18080,7 +18098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>303</v>
       </c>
@@ -18145,7 +18163,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>304</v>
       </c>
@@ -18210,7 +18228,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>307</v>
       </c>
@@ -18275,7 +18293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>310</v>
       </c>
@@ -18340,7 +18358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>312</v>
       </c>
@@ -18405,7 +18423,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>840</v>
       </c>
@@ -18470,7 +18488,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>315</v>
       </c>
@@ -18535,7 +18553,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>316</v>
       </c>
@@ -18600,7 +18618,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>319</v>
       </c>
@@ -18665,7 +18683,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>320</v>
       </c>
@@ -18730,7 +18748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>204</v>
       </c>
@@ -18795,7 +18813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>321</v>
       </c>
@@ -18860,7 +18878,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>323</v>
       </c>
@@ -18925,7 +18943,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>422</v>
       </c>
@@ -18989,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>342</v>
       </c>
@@ -19054,7 +19072,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>344</v>
       </c>
@@ -19119,7 +19137,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>841</v>
       </c>
@@ -19184,7 +19202,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>347</v>
       </c>
@@ -19249,7 +19267,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>349</v>
       </c>
@@ -19314,7 +19332,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>350</v>
       </c>
@@ -19379,7 +19397,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>338</v>
       </c>
@@ -19444,7 +19462,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>337</v>
       </c>
@@ -19509,7 +19527,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>340</v>
       </c>
@@ -19574,7 +19592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>394</v>
       </c>
@@ -19639,7 +19657,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>339</v>
       </c>
@@ -19704,7 +19722,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>341</v>
       </c>
@@ -19769,7 +19787,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>357</v>
       </c>
@@ -19834,7 +19852,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>330</v>
       </c>
@@ -19899,7 +19917,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>333</v>
       </c>
@@ -19964,7 +19982,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>334</v>
       </c>
@@ -20029,7 +20047,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>335</v>
       </c>
@@ -20094,7 +20112,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>331</v>
       </c>
@@ -20159,7 +20177,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>336</v>
       </c>
@@ -20224,7 +20242,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>332</v>
       </c>
@@ -20289,7 +20307,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>398</v>
       </c>
@@ -20354,7 +20372,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>400</v>
       </c>
@@ -20419,7 +20437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>401</v>
       </c>
@@ -20484,7 +20502,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>403</v>
       </c>
@@ -20549,7 +20567,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>405</v>
       </c>
@@ -20614,7 +20632,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>406</v>
       </c>
@@ -20679,7 +20697,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>408</v>
       </c>
@@ -20744,7 +20762,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>410</v>
       </c>
@@ -20809,7 +20827,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>412</v>
       </c>
@@ -20874,7 +20892,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>414</v>
       </c>
@@ -20939,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>415</v>
       </c>
@@ -21004,7 +21022,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>417</v>
       </c>
@@ -21069,7 +21087,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>418</v>
       </c>
@@ -21134,7 +21152,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>420</v>
       </c>
@@ -21199,7 +21217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>424</v>
       </c>
@@ -21264,7 +21282,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>425</v>
       </c>
@@ -21329,7 +21347,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>426</v>
       </c>
@@ -21394,7 +21412,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>427</v>
       </c>
@@ -21459,7 +21477,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>428</v>
       </c>
@@ -21524,7 +21542,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>429</v>
       </c>
@@ -21589,7 +21607,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>430</v>
       </c>
@@ -21654,7 +21672,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>431</v>
       </c>
@@ -21719,7 +21737,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>432</v>
       </c>
@@ -21784,7 +21802,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>433</v>
       </c>
@@ -21849,7 +21867,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>434</v>
       </c>
@@ -21914,7 +21932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>435</v>
       </c>
@@ -21979,7 +21997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>436</v>
       </c>
@@ -22044,7 +22062,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>437</v>
       </c>
@@ -22109,7 +22127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>438</v>
       </c>
@@ -22174,7 +22192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>439</v>
       </c>
@@ -22239,7 +22257,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>440</v>
       </c>
@@ -22304,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>441</v>
       </c>
@@ -22369,7 +22387,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>442</v>
       </c>
@@ -22434,7 +22452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>443</v>
       </c>
@@ -22499,7 +22517,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>459</v>
       </c>
@@ -22564,7 +22582,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>461</v>
       </c>
@@ -22629,7 +22647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>461</v>
       </c>
@@ -22694,7 +22712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>462</v>
       </c>
@@ -22759,7 +22777,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>486</v>
       </c>
@@ -22824,7 +22842,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>487</v>
       </c>
@@ -22889,7 +22907,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>488</v>
       </c>
@@ -22954,7 +22972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>490</v>
       </c>
@@ -23019,7 +23037,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>491</v>
       </c>
@@ -23084,7 +23102,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>492</v>
       </c>
@@ -23149,7 +23167,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
         <v>493</v>
       </c>
@@ -23214,7 +23232,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>495</v>
       </c>
@@ -23279,7 +23297,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
         <v>496</v>
       </c>
@@ -23344,7 +23362,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
         <v>499</v>
       </c>
@@ -23409,7 +23427,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>500</v>
       </c>
@@ -23474,7 +23492,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
         <v>505</v>
       </c>
@@ -23539,7 +23557,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>506</v>
       </c>
@@ -23604,7 +23622,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>509</v>
       </c>
@@ -23669,7 +23687,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>511</v>
       </c>
@@ -23734,7 +23752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>514</v>
       </c>
@@ -23799,7 +23817,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>516</v>
       </c>
@@ -23864,7 +23882,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>519</v>
       </c>
@@ -23929,7 +23947,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>553</v>
       </c>
@@ -23994,7 +24012,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>555</v>
       </c>
@@ -24059,7 +24077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
         <v>557</v>
       </c>
@@ -24124,7 +24142,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>560</v>
       </c>
@@ -24189,7 +24207,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>561</v>
       </c>
@@ -24254,7 +24272,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>563</v>
       </c>
@@ -24319,7 +24337,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
         <v>564</v>
       </c>
@@ -24384,7 +24402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>565</v>
       </c>
@@ -24449,7 +24467,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>568</v>
       </c>
@@ -24514,7 +24532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>573</v>
       </c>
@@ -24579,7 +24597,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>506</v>
       </c>
@@ -24644,7 +24662,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>576</v>
       </c>
@@ -24709,7 +24727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
         <v>577</v>
       </c>
@@ -24774,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>578</v>
       </c>
@@ -24839,7 +24857,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>579</v>
       </c>
@@ -24904,7 +24922,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
         <v>580</v>
       </c>
@@ -24969,7 +24987,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
         <v>581</v>
       </c>
@@ -25034,7 +25052,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
         <v>582</v>
       </c>
@@ -25099,7 +25117,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>583</v>
       </c>
@@ -25164,7 +25182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
         <v>584</v>
       </c>
@@ -25229,7 +25247,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
         <v>585</v>
       </c>
@@ -25294,7 +25312,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>586</v>
       </c>
@@ -25359,7 +25377,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>587</v>
       </c>
@@ -25424,7 +25442,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
         <v>609</v>
       </c>
@@ -25489,7 +25507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
         <v>611</v>
       </c>
@@ -25554,7 +25572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
         <v>612</v>
       </c>
@@ -25619,7 +25637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
         <v>614</v>
       </c>
@@ -25684,7 +25702,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
         <v>615</v>
       </c>
@@ -25749,7 +25767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
         <v>617</v>
       </c>
@@ -25814,7 +25832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
         <v>618</v>
       </c>
@@ -25879,7 +25897,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
         <v>620</v>
       </c>
@@ -25944,7 +25962,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
         <v>621</v>
       </c>
@@ -26009,7 +26027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
         <v>623</v>
       </c>
@@ -26074,7 +26092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
         <v>624</v>
       </c>
@@ -26139,7 +26157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
         <v>649</v>
       </c>
@@ -26204,7 +26222,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
         <v>651</v>
       </c>
@@ -26269,7 +26287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
         <v>273</v>
       </c>
@@ -26334,7 +26352,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
         <v>653</v>
       </c>
@@ -26399,7 +26417,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
         <v>857</v>
       </c>
@@ -26464,7 +26482,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
         <v>842</v>
       </c>
@@ -26529,7 +26547,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
         <v>845</v>
       </c>
@@ -26594,7 +26612,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
         <v>848</v>
       </c>
@@ -26659,7 +26677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
         <v>849</v>
       </c>
@@ -26724,7 +26742,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
         <v>850</v>
       </c>
@@ -26789,7 +26807,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
         <v>852</v>
       </c>
@@ -26854,7 +26872,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
         <v>854</v>
       </c>
@@ -26919,7 +26937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
         <v>861</v>
       </c>
@@ -26984,7 +27002,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
         <v>864</v>
       </c>
@@ -27049,7 +27067,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
         <v>866</v>
       </c>
@@ -27114,7 +27132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
         <v>870</v>
       </c>
@@ -27179,7 +27197,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
         <v>878</v>
       </c>
@@ -27244,7 +27262,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
         <v>882</v>
       </c>
@@ -27309,7 +27327,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
         <v>885</v>
       </c>
@@ -27374,7 +27392,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
         <v>887</v>
       </c>
@@ -27439,7 +27457,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
         <v>890</v>
       </c>
@@ -27504,7 +27522,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
         <v>892</v>
       </c>
@@ -27569,7 +27587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="s">
         <v>896</v>
       </c>
@@ -27634,7 +27652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
         <v>898</v>
       </c>
@@ -27699,7 +27717,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
         <v>901</v>
       </c>
@@ -27764,7 +27782,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="s">
         <v>906</v>
       </c>
@@ -27829,7 +27847,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="s">
         <v>909</v>
       </c>
@@ -27894,7 +27912,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
         <v>921</v>
       </c>
@@ -27959,7 +27977,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="s">
         <v>920</v>
       </c>
@@ -28024,7 +28042,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="s">
         <v>915</v>
       </c>
@@ -28089,7 +28107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="s">
         <v>918</v>
       </c>
@@ -28154,7 +28172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
         <v>922</v>
       </c>
@@ -28219,7 +28237,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="s">
         <v>925</v>
       </c>
@@ -28284,7 +28302,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
         <v>927</v>
       </c>
@@ -28349,7 +28367,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="s">
         <v>1035</v>
       </c>
@@ -28414,7 +28432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
         <v>930</v>
       </c>
@@ -28479,7 +28497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="s">
         <v>932</v>
       </c>
@@ -28544,7 +28562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
         <v>934</v>
       </c>
@@ -28609,7 +28627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="s">
         <v>937</v>
       </c>
@@ -28674,7 +28692,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
         <v>939</v>
       </c>
@@ -28739,7 +28757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
         <v>942</v>
       </c>
@@ -28804,7 +28822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="s">
         <v>945</v>
       </c>
@@ -28869,7 +28887,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="s">
         <v>947</v>
       </c>
@@ -28934,7 +28952,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="s">
         <v>949</v>
       </c>
@@ -28999,7 +29017,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="s">
         <v>952</v>
       </c>
@@ -29064,7 +29082,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
         <v>954</v>
       </c>
@@ -29129,7 +29147,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="s">
         <v>956</v>
       </c>
@@ -29194,7 +29212,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="s">
         <v>960</v>
       </c>
@@ -29259,7 +29277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
         <v>963</v>
       </c>
@@ -29324,7 +29342,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
         <v>966</v>
       </c>
@@ -29389,7 +29407,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
         <v>968</v>
       </c>
@@ -29454,7 +29472,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>970</v>
       </c>
@@ -29519,7 +29537,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>973</v>
       </c>
@@ -29584,7 +29602,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="s">
         <v>976</v>
       </c>
@@ -29649,7 +29667,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="s">
         <v>979</v>
       </c>
@@ -29714,7 +29732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
         <v>981</v>
       </c>
@@ -29779,7 +29797,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
         <v>983</v>
       </c>
@@ -29844,7 +29862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
         <v>985</v>
       </c>
@@ -29909,7 +29927,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
         <v>988</v>
       </c>
@@ -29974,7 +29992,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
         <v>991</v>
       </c>
@@ -30039,7 +30057,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
         <v>994</v>
       </c>
@@ -30104,7 +30122,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
         <v>996</v>
       </c>
@@ -30169,7 +30187,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="s">
         <v>997</v>
       </c>
@@ -30234,7 +30252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
         <v>1000</v>
       </c>
@@ -30299,7 +30317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
         <v>1004</v>
       </c>
@@ -30364,7 +30382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="s">
         <v>1007</v>
       </c>
@@ -30429,7 +30447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
         <v>1010</v>
       </c>
@@ -30494,7 +30512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="s">
         <v>1013</v>
       </c>
@@ -30559,7 +30577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="16" t="s">
         <v>1015</v>
       </c>
@@ -30624,7 +30642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
         <v>1017</v>
       </c>
@@ -30689,7 +30707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="s">
         <v>1020</v>
       </c>
@@ -30754,7 +30772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="s">
         <v>1022</v>
       </c>
@@ -30819,7 +30837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="s">
         <v>1024</v>
       </c>
@@ -30884,7 +30902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
         <v>1026</v>
       </c>
@@ -30949,7 +30967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="s">
         <v>1028</v>
       </c>
@@ -31014,7 +31032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="13" t="s">
         <v>1032</v>
       </c>
@@ -31079,7 +31097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="s">
         <v>1037</v>
       </c>
@@ -31144,7 +31162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="s">
         <v>1040</v>
       </c>
@@ -31209,7 +31227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="s">
         <v>1043</v>
       </c>
@@ -31274,7 +31292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
         <v>1046</v>
       </c>
@@ -31339,7 +31357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="13" t="s">
         <v>1050</v>
       </c>
@@ -31404,7 +31422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="s">
         <v>1052</v>
       </c>
@@ -31469,7 +31487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="s">
         <v>1054</v>
       </c>
@@ -31534,7 +31552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="s">
         <v>1057</v>
       </c>
@@ -31592,14 +31610,14 @@
         <v>159</v>
       </c>
       <c r="S314" s="17">
-        <f t="shared" ref="S314:S328" si="123">LEN(P314)</f>
+        <f t="shared" ref="S314:S330" si="123">LEN(P314)</f>
         <v>35</v>
       </c>
       <c r="T314" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="13" t="s">
         <v>1059</v>
       </c>
@@ -31664,7 +31682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="s">
         <v>1062</v>
       </c>
@@ -31729,7 +31747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="s">
         <v>1065</v>
       </c>
@@ -31794,7 +31812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="s">
         <v>1068</v>
       </c>
@@ -31859,7 +31877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="s">
         <v>1070</v>
       </c>
@@ -31924,7 +31942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="s">
         <v>1072</v>
       </c>
@@ -31989,7 +32007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="s">
         <v>1075</v>
       </c>
@@ -32054,7 +32072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
         <v>1077</v>
       </c>
@@ -32119,7 +32137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="s">
         <v>1079</v>
       </c>
@@ -32184,7 +32202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="s">
         <v>1081</v>
       </c>
@@ -32249,7 +32267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="s">
         <v>1084</v>
       </c>
@@ -32314,7 +32332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
         <v>1086</v>
       </c>
@@ -32379,7 +32397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
         <v>1088</v>
       </c>
@@ -32444,7 +32462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="s">
         <v>1091</v>
       </c>
@@ -32467,11 +32485,11 @@
         <v>1089</v>
       </c>
       <c r="H328" s="9">
-        <f t="shared" ref="H328" si="148">YEAR(G328)</f>
+        <f t="shared" ref="H328:H329" si="148">YEAR(G328)</f>
         <v>2025</v>
       </c>
       <c r="I328" s="9">
-        <f t="shared" ref="I328" si="149">MONTH(G328)</f>
+        <f t="shared" ref="I328:I329" si="149">MONTH(G328)</f>
         <v>1</v>
       </c>
       <c r="J328" s="9" t="s">
@@ -32509,52 +32527,138 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A329" s="13"/>
-      <c r="B329" s="9"/>
-      <c r="C329" s="9"/>
-      <c r="D329" s="9"/>
-      <c r="E329" s="9"/>
-      <c r="F329" s="9"/>
-      <c r="G329" s="9"/>
-      <c r="H329" s="9"/>
-      <c r="I329" s="9"/>
-      <c r="J329" s="9"/>
-      <c r="K329" s="9"/>
-      <c r="L329" s="9"/>
-      <c r="M329" s="9"/>
-      <c r="N329" s="9"/>
-      <c r="O329" s="9"/>
-      <c r="P329" s="13"/>
-      <c r="Q329" s="9"/>
-      <c r="R329" s="9"/>
-      <c r="S329" s="17"/>
-      <c r="T329" s="9"/>
-    </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A330" s="9"/>
-      <c r="B330" s="9"/>
-      <c r="C330" s="9"/>
-      <c r="D330" s="9"/>
-      <c r="E330" s="9"/>
-      <c r="F330" s="9"/>
-      <c r="G330" s="9"/>
-      <c r="H330" s="9"/>
-      <c r="I330" s="9"/>
-      <c r="J330" s="9"/>
-      <c r="K330" s="9"/>
-      <c r="L330" s="9"/>
-      <c r="M330" s="9"/>
-      <c r="N330" s="9"/>
-      <c r="O330" s="9"/>
-      <c r="P330" s="9"/>
-      <c r="Q330" s="9"/>
-      <c r="R330" s="9"/>
-      <c r="S330" s="17"/>
-      <c r="T330" s="9"/>
-    </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A331" s="9"/>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A329" s="13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B329" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D329" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E329" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F329" s="17">
+        <v>314</v>
+      </c>
+      <c r="G329" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H329" s="9">
+        <f t="shared" si="148"/>
+        <v>2025</v>
+      </c>
+      <c r="I329" s="9">
+        <f t="shared" si="149"/>
+        <v>1</v>
+      </c>
+      <c r="J329" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K329" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L329" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="M329" s="17">
+        <v>4</v>
+      </c>
+      <c r="N329" s="17">
+        <v>47.99</v>
+      </c>
+      <c r="O329" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P329" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Q329" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="R329" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S329" s="17">
+        <f t="shared" si="123"/>
+        <v>40</v>
+      </c>
+      <c r="T329" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A330" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B330" s="17">
+        <v>2025</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E330" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F330" s="17">
+        <v>308</v>
+      </c>
+      <c r="G330" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H330" s="9">
+        <f t="shared" ref="H330" si="150">YEAR(G330)</f>
+        <v>2025</v>
+      </c>
+      <c r="I330" s="9">
+        <f t="shared" ref="I330" si="151">MONTH(G330)</f>
+        <v>2</v>
+      </c>
+      <c r="J330" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K330" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L330" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M330" s="17">
+        <v>2</v>
+      </c>
+      <c r="N330" s="17">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="O330" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P330" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Q330" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="R330" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S330" s="17">
+        <f t="shared" si="123"/>
+        <v>38</v>
+      </c>
+      <c r="T330" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A331" s="13"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
       <c r="D331" s="9"/>
@@ -32569,14 +32673,14 @@
       <c r="M331" s="9"/>
       <c r="N331" s="9"/>
       <c r="O331" s="9"/>
-      <c r="P331" s="9"/>
+      <c r="P331" s="13"/>
       <c r="Q331" s="9"/>
       <c r="R331" s="9"/>
       <c r="S331" s="17"/>
       <c r="T331" s="9"/>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A332" s="9"/>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A332" s="13"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
@@ -32591,14 +32695,14 @@
       <c r="M332" s="9"/>
       <c r="N332" s="9"/>
       <c r="O332" s="9"/>
-      <c r="P332" s="9"/>
+      <c r="P332" s="13"/>
       <c r="Q332" s="9"/>
       <c r="R332" s="9"/>
       <c r="S332" s="17"/>
       <c r="T332" s="9"/>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A333" s="9"/>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A333" s="13"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
@@ -32613,14 +32717,14 @@
       <c r="M333" s="9"/>
       <c r="N333" s="9"/>
       <c r="O333" s="9"/>
-      <c r="P333" s="9"/>
+      <c r="P333" s="13"/>
       <c r="Q333" s="9"/>
       <c r="R333" s="9"/>
       <c r="S333" s="17"/>
       <c r="T333" s="9"/>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A334" s="9"/>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A334" s="13"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
@@ -32635,14 +32739,14 @@
       <c r="M334" s="9"/>
       <c r="N334" s="9"/>
       <c r="O334" s="9"/>
-      <c r="P334" s="9"/>
+      <c r="P334" s="13"/>
       <c r="Q334" s="9"/>
       <c r="R334" s="9"/>
       <c r="S334" s="17"/>
       <c r="T334" s="9"/>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A335" s="9"/>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A335" s="13"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
@@ -32657,14 +32761,14 @@
       <c r="M335" s="9"/>
       <c r="N335" s="9"/>
       <c r="O335" s="9"/>
-      <c r="P335" s="9"/>
+      <c r="P335" s="13"/>
       <c r="Q335" s="9"/>
       <c r="R335" s="9"/>
       <c r="S335" s="17"/>
       <c r="T335" s="9"/>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A336" s="9"/>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A336" s="13"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
@@ -32679,14 +32783,14 @@
       <c r="M336" s="9"/>
       <c r="N336" s="9"/>
       <c r="O336" s="9"/>
-      <c r="P336" s="9"/>
+      <c r="P336" s="13"/>
       <c r="Q336" s="9"/>
       <c r="R336" s="9"/>
       <c r="S336" s="17"/>
       <c r="T336" s="9"/>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A337" s="9"/>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A337" s="13"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
@@ -32701,14 +32805,14 @@
       <c r="M337" s="9"/>
       <c r="N337" s="9"/>
       <c r="O337" s="9"/>
-      <c r="P337" s="9"/>
+      <c r="P337" s="13"/>
       <c r="Q337" s="9"/>
       <c r="R337" s="9"/>
       <c r="S337" s="17"/>
       <c r="T337" s="9"/>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A338" s="9"/>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A338" s="13"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
@@ -32723,14 +32827,14 @@
       <c r="M338" s="9"/>
       <c r="N338" s="9"/>
       <c r="O338" s="9"/>
-      <c r="P338" s="9"/>
+      <c r="P338" s="13"/>
       <c r="Q338" s="9"/>
       <c r="R338" s="9"/>
       <c r="S338" s="17"/>
       <c r="T338" s="9"/>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A339" s="9"/>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A339" s="13"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
@@ -32745,14 +32849,14 @@
       <c r="M339" s="9"/>
       <c r="N339" s="9"/>
       <c r="O339" s="9"/>
-      <c r="P339" s="9"/>
+      <c r="P339" s="13"/>
       <c r="Q339" s="9"/>
       <c r="R339" s="9"/>
       <c r="S339" s="17"/>
       <c r="T339" s="9"/>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A340" s="9"/>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A340" s="13"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
@@ -32767,14 +32871,14 @@
       <c r="M340" s="9"/>
       <c r="N340" s="9"/>
       <c r="O340" s="9"/>
-      <c r="P340" s="9"/>
+      <c r="P340" s="13"/>
       <c r="Q340" s="9"/>
       <c r="R340" s="9"/>
       <c r="S340" s="17"/>
       <c r="T340" s="9"/>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A341" s="9"/>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A341" s="13"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
@@ -32789,14 +32893,14 @@
       <c r="M341" s="9"/>
       <c r="N341" s="9"/>
       <c r="O341" s="9"/>
-      <c r="P341" s="9"/>
+      <c r="P341" s="13"/>
       <c r="Q341" s="9"/>
       <c r="R341" s="9"/>
       <c r="S341" s="17"/>
       <c r="T341" s="9"/>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A342" s="9"/>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A342" s="13"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
@@ -32811,14 +32915,14 @@
       <c r="M342" s="9"/>
       <c r="N342" s="9"/>
       <c r="O342" s="9"/>
-      <c r="P342" s="9"/>
+      <c r="P342" s="13"/>
       <c r="Q342" s="9"/>
       <c r="R342" s="9"/>
       <c r="S342" s="17"/>
       <c r="T342" s="9"/>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A343" s="9"/>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A343" s="13"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
@@ -32833,14 +32937,14 @@
       <c r="M343" s="9"/>
       <c r="N343" s="9"/>
       <c r="O343" s="9"/>
-      <c r="P343" s="9"/>
+      <c r="P343" s="13"/>
       <c r="Q343" s="9"/>
       <c r="R343" s="9"/>
       <c r="S343" s="17"/>
       <c r="T343" s="9"/>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A344" s="9"/>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A344" s="13"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
@@ -32855,14 +32959,14 @@
       <c r="M344" s="9"/>
       <c r="N344" s="9"/>
       <c r="O344" s="9"/>
-      <c r="P344" s="9"/>
+      <c r="P344" s="13"/>
       <c r="Q344" s="9"/>
       <c r="R344" s="9"/>
       <c r="S344" s="17"/>
       <c r="T344" s="9"/>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A345" s="9"/>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A345" s="13"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -32877,14 +32981,14 @@
       <c r="M345" s="9"/>
       <c r="N345" s="9"/>
       <c r="O345" s="9"/>
-      <c r="P345" s="9"/>
+      <c r="P345" s="13"/>
       <c r="Q345" s="9"/>
       <c r="R345" s="9"/>
       <c r="S345" s="17"/>
       <c r="T345" s="9"/>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A346" s="9"/>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A346" s="13"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -32899,7 +33003,7 @@
       <c r="M346" s="9"/>
       <c r="N346" s="9"/>
       <c r="O346" s="9"/>
-      <c r="P346" s="9"/>
+      <c r="P346" s="13"/>
       <c r="Q346" s="9"/>
       <c r="R346" s="9"/>
       <c r="S346" s="17"/>
@@ -32921,28 +33025,28 @@
       <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="7.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="57.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="7.109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.5546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="11.109375" style="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="22.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="75.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="39" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="22.5546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="14.5546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="75.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" style="39" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -32995,7 +33099,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>66</v>
       </c>
@@ -33049,7 +33153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>65</v>
       </c>
@@ -33103,7 +33207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
@@ -33157,7 +33261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -33211,7 +33315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
@@ -33265,7 +33369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
@@ -33319,7 +33423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -33373,7 +33477,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>35</v>
       </c>
@@ -33427,7 +33531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -33481,7 +33585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
@@ -33535,7 +33639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>41</v>
       </c>
@@ -33589,7 +33693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>43</v>
       </c>
@@ -33643,7 +33747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>46</v>
       </c>
@@ -33697,7 +33801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>47</v>
       </c>
@@ -33751,7 +33855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>48</v>
       </c>
@@ -33805,7 +33909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>49</v>
       </c>
@@ -33859,7 +33963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -33913,7 +34017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>59</v>
       </c>
@@ -33967,7 +34071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
@@ -34021,7 +34125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>55</v>
       </c>
@@ -34075,7 +34179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>56</v>
       </c>
@@ -34129,7 +34233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>77</v>
       </c>
@@ -34183,7 +34287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>78</v>
       </c>
@@ -34237,7 +34341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>80</v>
       </c>
@@ -34291,7 +34395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>82</v>
       </c>
@@ -34345,7 +34449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>86</v>
       </c>
@@ -34399,7 +34503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>90</v>
       </c>
@@ -34453,7 +34557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>92</v>
       </c>
@@ -34507,7 +34611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>95</v>
       </c>
@@ -34561,7 +34665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>97</v>
       </c>
@@ -34615,7 +34719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>113</v>
       </c>
@@ -34669,7 +34773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>120</v>
       </c>
@@ -34723,7 +34827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>114</v>
       </c>
@@ -34777,7 +34881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>116</v>
       </c>
@@ -34831,7 +34935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>361</v>
       </c>
@@ -34885,7 +34989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>137</v>
       </c>
@@ -34939,7 +35043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>149</v>
       </c>
@@ -34993,7 +35097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>477</v>
       </c>
@@ -35047,7 +35151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>147</v>
       </c>
@@ -35101,7 +35205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>172</v>
       </c>
@@ -35155,7 +35259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>179</v>
       </c>
@@ -35209,7 +35313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>181</v>
       </c>
@@ -35263,7 +35367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>182</v>
       </c>
@@ -35317,7 +35421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>177</v>
       </c>
@@ -35371,7 +35475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>205</v>
       </c>
@@ -35425,7 +35529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>219</v>
       </c>
@@ -35479,7 +35583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>221</v>
       </c>
@@ -35533,7 +35637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>222</v>
       </c>
@@ -35587,7 +35691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>259</v>
       </c>
@@ -35641,7 +35745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>275</v>
       </c>
@@ -35695,7 +35799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>276</v>
       </c>
@@ -35749,7 +35853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>277</v>
       </c>
@@ -35803,7 +35907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>284</v>
       </c>
@@ -35857,7 +35961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>293</v>
       </c>
@@ -35911,7 +36015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>286</v>
       </c>
@@ -35965,7 +36069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>288</v>
       </c>
@@ -36019,7 +36123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>291</v>
       </c>
@@ -36073,7 +36177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>295</v>
       </c>
@@ -36127,7 +36231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>297</v>
       </c>
@@ -36181,7 +36285,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>300</v>
       </c>
@@ -36235,7 +36339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>324</v>
       </c>
@@ -36289,7 +36393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>326</v>
       </c>
@@ -36343,7 +36447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>328</v>
       </c>
@@ -36397,7 +36501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>502</v>
       </c>
@@ -36451,7 +36555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>521</v>
       </c>
@@ -36505,7 +36609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>522</v>
       </c>
@@ -36559,7 +36663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>523</v>
       </c>
@@ -36613,7 +36717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>524</v>
       </c>
@@ -36667,7 +36771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>525</v>
       </c>
@@ -36721,7 +36825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>526</v>
       </c>
@@ -36775,7 +36879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>530</v>
       </c>
@@ -36829,7 +36933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>531</v>
       </c>
@@ -36883,7 +36987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>532</v>
       </c>
@@ -36937,7 +37041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>533</v>
       </c>
@@ -36991,7 +37095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>535</v>
       </c>
@@ -37045,7 +37149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>536</v>
       </c>
@@ -37099,7 +37203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>537</v>
       </c>
@@ -37153,7 +37257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>538</v>
       </c>
@@ -37207,7 +37311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>539</v>
       </c>
@@ -37261,7 +37365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>541</v>
       </c>
@@ -37315,7 +37419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>542</v>
       </c>
@@ -37369,7 +37473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>543</v>
       </c>
@@ -37423,7 +37527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>544</v>
       </c>
@@ -37477,7 +37581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>546</v>
       </c>
@@ -37531,7 +37635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>548</v>
       </c>
@@ -37585,7 +37689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>549</v>
       </c>
@@ -37639,7 +37743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>626</v>
       </c>
@@ -37693,7 +37797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>627</v>
       </c>
@@ -37747,7 +37851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>628</v>
       </c>
@@ -37801,7 +37905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>629</v>
       </c>
@@ -37855,7 +37959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>632</v>
       </c>
@@ -37909,7 +38013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>635</v>
       </c>
@@ -37963,7 +38067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>636</v>
       </c>
@@ -38017,7 +38121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>637</v>
       </c>
@@ -38071,7 +38175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>638</v>
       </c>
@@ -38125,7 +38229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>640</v>
       </c>
@@ -38179,7 +38283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>641</v>
       </c>
@@ -38233,7 +38337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>642</v>
       </c>
@@ -38287,7 +38391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>643</v>
       </c>
@@ -38341,7 +38445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>644</v>
       </c>
@@ -38395,7 +38499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>645</v>
       </c>
@@ -38449,7 +38553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>646</v>
       </c>
@@ -38503,7 +38607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>648</v>
       </c>
@@ -38557,7 +38661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="9"/>
@@ -38576,7 +38680,7 @@
       <c r="P105" s="9"/>
       <c r="Q105" s="17"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="9"/>
@@ -38595,7 +38699,7 @@
       <c r="P106" s="9"/>
       <c r="Q106" s="17"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="14"/>
       <c r="C107" s="9"/>
@@ -38614,7 +38718,7 @@
       <c r="P107" s="9"/>
       <c r="Q107" s="17"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="14"/>
       <c r="C108" s="9"/>
@@ -38633,7 +38737,7 @@
       <c r="P108" s="9"/>
       <c r="Q108" s="17"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="14"/>
       <c r="C109" s="9"/>
@@ -38652,7 +38756,7 @@
       <c r="P109" s="9"/>
       <c r="Q109" s="17"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="14"/>
       <c r="C110" s="9"/>
@@ -38671,7 +38775,7 @@
       <c r="P110" s="9"/>
       <c r="Q110" s="17"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="14"/>
       <c r="C111" s="9"/>
@@ -38690,7 +38794,7 @@
       <c r="P111" s="9"/>
       <c r="Q111" s="17"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="14"/>
       <c r="C112" s="9"/>
@@ -38709,7 +38813,7 @@
       <c r="P112" s="9"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="14"/>
       <c r="C113" s="9"/>
@@ -38728,7 +38832,7 @@
       <c r="P113" s="9"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="14"/>
       <c r="C114" s="9"/>
@@ -38747,7 +38851,7 @@
       <c r="P114" s="9"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="29"/>
       <c r="B115" s="30"/>
       <c r="C115" s="29"/>
@@ -38762,7 +38866,7 @@
       <c r="L115" s="29"/>
       <c r="M115" s="29"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="31"/>
       <c r="B116" s="32"/>
       <c r="C116" s="33"/>
@@ -38777,7 +38881,7 @@
       <c r="L116" s="36"/>
       <c r="M116" s="37"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
       <c r="B117" s="30"/>
       <c r="C117" s="29"/>
@@ -38792,7 +38896,7 @@
       <c r="L117" s="29"/>
       <c r="M117" s="29"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
       <c r="B118" s="30"/>
       <c r="C118" s="29"/>
@@ -38807,7 +38911,7 @@
       <c r="L118" s="29"/>
       <c r="M118" s="29"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
       <c r="B119" s="30"/>
       <c r="C119" s="29"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="156" windowWidth="19332" windowHeight="7536" tabRatio="536" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="1125" yWindow="150" windowWidth="19335" windowHeight="7530" tabRatio="536" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed2016" sheetId="16" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5166" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5214" uniqueCount="1109">
   <si>
     <t>Format</t>
   </si>
@@ -3335,6 +3335,39 @@
   </si>
   <si>
     <t>Useful. Ok introduction for beginners.</t>
+  </si>
+  <si>
+    <t>Getting Started with DuckDB</t>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
+    <t>Useful. Despite being a Packt book, it's not the usual copy'n'paste exercise, but it contains original knowledge. It may be beneficial to read again the paragraphs about sensor data visualizations.</t>
+  </si>
+  <si>
+    <t>RESTful Web API Patterns &amp; Practices Cookbook</t>
+  </si>
+  <si>
+    <t>Useless. Too much focused on hypermedia and boilerplate code, low-readibility due of recipe-based approach.</t>
+  </si>
+  <si>
+    <t>Getting Real</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>Useful. A product management book that thinks out of the box.</t>
+  </si>
+  <si>
+    <t>Practical UI (2nd Edition)</t>
+  </si>
+  <si>
+    <t>UX/UI</t>
+  </si>
+  <si>
+    <t>Useful. This book could be even better by removing repetitions. A concept should be mentioned and explained only once, and not anticipated or spread around multiple sections.</t>
   </si>
 </sst>
 </file>
@@ -3382,7 +3415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3410,6 +3443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3474,7 +3513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3607,6 +3646,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3925,24 +3967,24 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50">
         <v>2016</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -3968,7 +4010,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -4034,7 +4076,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -4100,7 +4142,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -4166,7 +4208,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -4232,7 +4274,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -4298,7 +4340,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -4364,7 +4406,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -4430,7 +4472,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -4496,7 +4538,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -4562,7 +4604,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -4628,7 +4670,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -4694,7 +4736,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -4760,7 +4802,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4770,7 +4812,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -4881,28 +4923,28 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="7.109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="57.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="7.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.5546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="11.109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="22.5546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="14.5546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="75.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="39"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="11" width="22.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="75.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="39"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4955,7 +4997,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>87</v>
       </c>
@@ -5009,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>169</v>
       </c>
@@ -5063,7 +5105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>214</v>
       </c>
@@ -5117,7 +5159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>216</v>
       </c>
@@ -5171,7 +5213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="9"/>
@@ -5190,7 +5232,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="17"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="9"/>
@@ -5209,7 +5251,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="9"/>
@@ -5228,7 +5270,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="14"/>
       <c r="C9" s="9"/>
@@ -5247,7 +5289,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="14"/>
       <c r="C10" s="9"/>
@@ -5266,7 +5308,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
       <c r="C11" s="9"/>
@@ -5285,7 +5327,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="14"/>
       <c r="C12" s="9"/>
@@ -5304,7 +5346,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="14"/>
       <c r="C13" s="9"/>
@@ -5323,7 +5365,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="14"/>
       <c r="C14" s="9"/>
@@ -5342,7 +5384,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
@@ -5361,7 +5403,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="29"/>
@@ -5376,7 +5418,7 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -5391,7 +5433,7 @@
       <c r="L17" s="36"/>
       <c r="M17" s="37"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="29"/>
@@ -5406,7 +5448,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="29"/>
@@ -5421,7 +5463,7 @@
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="29"/>
@@ -5451,24 +5493,24 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50">
         <v>2017</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -5494,7 +5536,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -5560,7 +5602,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -5626,7 +5668,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -5692,7 +5734,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -5758,7 +5800,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -5824,7 +5866,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -5890,7 +5932,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -5956,7 +5998,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -6022,7 +6064,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -6088,7 +6130,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -6154,7 +6196,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -6220,7 +6262,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -6286,7 +6328,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6296,7 +6338,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -6407,24 +6449,24 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50">
         <v>2018</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -6450,7 +6492,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -6516,7 +6558,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -6582,7 +6624,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -6648,7 +6690,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -6714,7 +6756,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -6780,7 +6822,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -6846,7 +6888,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -6912,7 +6954,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -6978,7 +7020,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -7044,7 +7086,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -7110,7 +7152,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -7176,7 +7218,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -7242,7 +7284,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7252,7 +7294,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -7363,24 +7405,24 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50">
         <v>2019</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -7406,7 +7448,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -7472,7 +7514,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -7538,7 +7580,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -7604,7 +7646,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -7670,7 +7712,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -7736,7 +7778,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -7802,7 +7844,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -7868,7 +7910,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -7934,7 +7976,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -8000,7 +8042,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -8066,7 +8108,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -8132,7 +8174,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -8198,7 +8240,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8208,7 +8250,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -8319,24 +8361,24 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50">
         <v>2020</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -8362,7 +8404,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -8428,7 +8470,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -8494,7 +8536,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -8560,7 +8602,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -8626,7 +8668,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -8692,7 +8734,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -8758,7 +8800,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -8824,7 +8866,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -8890,7 +8932,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -8956,7 +8998,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -9022,7 +9064,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -9088,7 +9130,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -9154,7 +9196,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -9164,7 +9206,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -9275,24 +9317,24 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50">
         <v>2021</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -9318,7 +9360,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -9384,7 +9426,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -9450,7 +9492,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -9516,7 +9558,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -9582,7 +9624,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -9648,7 +9690,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -9714,7 +9756,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -9780,7 +9822,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -9846,7 +9888,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -9912,7 +9954,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -9978,7 +10020,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -10044,7 +10086,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -10110,7 +10152,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10120,7 +10162,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -10231,24 +10273,24 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50">
         <v>2022</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>384</v>
       </c>
@@ -10274,7 +10316,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -10340,7 +10382,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -10406,7 +10448,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -10472,7 +10514,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -10538,7 +10580,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -10604,7 +10646,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -10670,7 +10712,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -10736,7 +10778,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -10802,7 +10844,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -10868,7 +10910,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -10934,7 +10976,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -11000,7 +11042,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -11066,7 +11108,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -11076,7 +11118,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>385</v>
       </c>
@@ -11184,34 +11226,34 @@
   <dimension ref="A1:T346"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A330" sqref="A330"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="57.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="85.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="39" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="12" width="27.140625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="85.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="39" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -11273,7 +11315,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -11338,7 +11380,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -11403,7 +11445,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -11468,7 +11510,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>603</v>
       </c>
@@ -11533,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -11598,7 +11640,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -11663,7 +11705,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -11728,7 +11770,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -11793,7 +11835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -11858,7 +11900,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
@@ -11923,7 +11965,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -11988,7 +12030,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>62</v>
       </c>
@@ -12049,11 +12091,11 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="T13" s="14">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T13" s="49">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>63</v>
       </c>
@@ -12114,11 +12156,11 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="T14" s="14">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T14" s="49">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>70</v>
       </c>
@@ -12183,7 +12225,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>73</v>
       </c>
@@ -12248,7 +12290,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>75</v>
       </c>
@@ -12313,7 +12355,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>83</v>
       </c>
@@ -12378,7 +12420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>84</v>
       </c>
@@ -12443,7 +12485,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>91</v>
       </c>
@@ -12508,7 +12550,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>99</v>
       </c>
@@ -12573,7 +12615,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>102</v>
       </c>
@@ -12638,7 +12680,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>103</v>
       </c>
@@ -12703,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>105</v>
       </c>
@@ -12768,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>107</v>
       </c>
@@ -12833,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>109</v>
       </c>
@@ -12898,7 +12940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>111</v>
       </c>
@@ -12963,7 +13005,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>117</v>
       </c>
@@ -13028,7 +13070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>119</v>
       </c>
@@ -13093,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>121</v>
       </c>
@@ -13158,7 +13200,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>123</v>
       </c>
@@ -13223,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>125</v>
       </c>
@@ -13284,11 +13326,11 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="T32" s="14">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T32" s="49">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>127</v>
       </c>
@@ -13353,7 +13395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>128</v>
       </c>
@@ -13418,7 +13460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>130</v>
       </c>
@@ -13483,7 +13525,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>132</v>
       </c>
@@ -13548,7 +13590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>133</v>
       </c>
@@ -13613,7 +13655,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>135</v>
       </c>
@@ -13678,7 +13720,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>139</v>
       </c>
@@ -13743,7 +13785,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>141</v>
       </c>
@@ -13808,7 +13850,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>142</v>
       </c>
@@ -13873,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>143</v>
       </c>
@@ -13938,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>145</v>
       </c>
@@ -14003,7 +14045,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>146</v>
       </c>
@@ -14068,7 +14110,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>151</v>
       </c>
@@ -14133,7 +14175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>153</v>
       </c>
@@ -14198,7 +14240,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>154</v>
       </c>
@@ -14263,7 +14305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>155</v>
       </c>
@@ -14328,7 +14370,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>156</v>
       </c>
@@ -14393,7 +14435,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>160</v>
       </c>
@@ -14458,7 +14500,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>379</v>
       </c>
@@ -14523,7 +14565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>161</v>
       </c>
@@ -14588,7 +14630,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>163</v>
       </c>
@@ -14653,7 +14695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>164</v>
       </c>
@@ -14718,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>166</v>
       </c>
@@ -14783,7 +14825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>167</v>
       </c>
@@ -14848,7 +14890,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>168</v>
       </c>
@@ -14913,7 +14955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>381</v>
       </c>
@@ -14978,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>175</v>
       </c>
@@ -15043,7 +15085,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>183</v>
       </c>
@@ -15108,7 +15150,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>185</v>
       </c>
@@ -15173,7 +15215,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>187</v>
       </c>
@@ -15238,7 +15280,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>188</v>
       </c>
@@ -15303,7 +15345,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>190</v>
       </c>
@@ -15368,7 +15410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>191</v>
       </c>
@@ -15433,7 +15475,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>193</v>
       </c>
@@ -15498,7 +15540,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>195</v>
       </c>
@@ -15563,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>196</v>
       </c>
@@ -15628,7 +15670,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>197</v>
       </c>
@@ -15693,7 +15735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>199</v>
       </c>
@@ -15758,7 +15800,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>200</v>
       </c>
@@ -15823,7 +15865,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>202</v>
       </c>
@@ -15888,7 +15930,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>204</v>
       </c>
@@ -15953,7 +15995,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>207</v>
       </c>
@@ -16018,7 +16060,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>233</v>
       </c>
@@ -16083,7 +16125,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>232</v>
       </c>
@@ -16148,7 +16190,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>209</v>
       </c>
@@ -16213,7 +16255,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>210</v>
       </c>
@@ -16278,7 +16320,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>212</v>
       </c>
@@ -16343,7 +16385,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>218</v>
       </c>
@@ -16408,7 +16450,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>224</v>
       </c>
@@ -16473,7 +16515,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>226</v>
       </c>
@@ -16538,7 +16580,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>227</v>
       </c>
@@ -16603,7 +16645,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>228</v>
       </c>
@@ -16668,7 +16710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>839</v>
       </c>
@@ -16733,7 +16775,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>231</v>
       </c>
@@ -16798,7 +16840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>230</v>
       </c>
@@ -16863,7 +16905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>238</v>
       </c>
@@ -16928,7 +16970,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>239</v>
       </c>
@@ -16993,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>241</v>
       </c>
@@ -17058,7 +17100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>243</v>
       </c>
@@ -17123,7 +17165,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>245</v>
       </c>
@@ -17188,7 +17230,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>247</v>
       </c>
@@ -17253,7 +17295,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>248</v>
       </c>
@@ -17318,7 +17360,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>250</v>
       </c>
@@ -17383,7 +17425,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>252</v>
       </c>
@@ -17448,7 +17490,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>254</v>
       </c>
@@ -17513,7 +17555,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>256</v>
       </c>
@@ -17578,7 +17620,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>257</v>
       </c>
@@ -17643,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>262</v>
       </c>
@@ -17708,7 +17750,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>264</v>
       </c>
@@ -17773,7 +17815,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>266</v>
       </c>
@@ -17838,7 +17880,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>268</v>
       </c>
@@ -17903,7 +17945,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>270</v>
       </c>
@@ -17968,7 +18010,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>274</v>
       </c>
@@ -18033,7 +18075,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>272</v>
       </c>
@@ -18098,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>303</v>
       </c>
@@ -18163,7 +18205,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>304</v>
       </c>
@@ -18228,7 +18270,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>307</v>
       </c>
@@ -18293,7 +18335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>310</v>
       </c>
@@ -18358,7 +18400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>312</v>
       </c>
@@ -18423,7 +18465,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>840</v>
       </c>
@@ -18488,7 +18530,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>315</v>
       </c>
@@ -18553,7 +18595,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>316</v>
       </c>
@@ -18618,7 +18660,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>319</v>
       </c>
@@ -18683,7 +18725,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>320</v>
       </c>
@@ -18748,7 +18790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>204</v>
       </c>
@@ -18813,7 +18855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>321</v>
       </c>
@@ -18878,7 +18920,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>323</v>
       </c>
@@ -18943,7 +18985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>422</v>
       </c>
@@ -19007,7 +19049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>342</v>
       </c>
@@ -19072,7 +19114,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>344</v>
       </c>
@@ -19137,7 +19179,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>841</v>
       </c>
@@ -19202,7 +19244,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>347</v>
       </c>
@@ -19267,7 +19309,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>349</v>
       </c>
@@ -19332,7 +19374,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>350</v>
       </c>
@@ -19397,7 +19439,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>338</v>
       </c>
@@ -19462,7 +19504,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>337</v>
       </c>
@@ -19527,7 +19569,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>340</v>
       </c>
@@ -19592,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>394</v>
       </c>
@@ -19657,7 +19699,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>339</v>
       </c>
@@ -19722,7 +19764,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>341</v>
       </c>
@@ -19787,7 +19829,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>357</v>
       </c>
@@ -19852,7 +19894,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>330</v>
       </c>
@@ -19917,7 +19959,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>333</v>
       </c>
@@ -19982,7 +20024,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>334</v>
       </c>
@@ -20047,7 +20089,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>335</v>
       </c>
@@ -20112,7 +20154,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>331</v>
       </c>
@@ -20177,7 +20219,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>336</v>
       </c>
@@ -20242,7 +20284,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>332</v>
       </c>
@@ -20307,7 +20349,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>398</v>
       </c>
@@ -20372,7 +20414,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>400</v>
       </c>
@@ -20437,7 +20479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>401</v>
       </c>
@@ -20502,7 +20544,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>403</v>
       </c>
@@ -20567,7 +20609,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>405</v>
       </c>
@@ -20632,7 +20674,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>406</v>
       </c>
@@ -20697,7 +20739,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>408</v>
       </c>
@@ -20762,7 +20804,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>410</v>
       </c>
@@ -20827,7 +20869,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>412</v>
       </c>
@@ -20892,7 +20934,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>414</v>
       </c>
@@ -20957,7 +20999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>415</v>
       </c>
@@ -21022,7 +21064,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>417</v>
       </c>
@@ -21087,7 +21129,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>418</v>
       </c>
@@ -21152,7 +21194,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>420</v>
       </c>
@@ -21217,7 +21259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>424</v>
       </c>
@@ -21282,7 +21324,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>425</v>
       </c>
@@ -21347,7 +21389,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>426</v>
       </c>
@@ -21412,7 +21454,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>427</v>
       </c>
@@ -21477,7 +21519,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>428</v>
       </c>
@@ -21542,7 +21584,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>429</v>
       </c>
@@ -21607,7 +21649,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>430</v>
       </c>
@@ -21672,7 +21714,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>431</v>
       </c>
@@ -21737,7 +21779,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>432</v>
       </c>
@@ -21802,7 +21844,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>433</v>
       </c>
@@ -21867,7 +21909,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>434</v>
       </c>
@@ -21932,7 +21974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>435</v>
       </c>
@@ -21997,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>436</v>
       </c>
@@ -22062,7 +22104,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>437</v>
       </c>
@@ -22127,7 +22169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>438</v>
       </c>
@@ -22192,7 +22234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>439</v>
       </c>
@@ -22257,7 +22299,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>440</v>
       </c>
@@ -22322,7 +22364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>441</v>
       </c>
@@ -22387,7 +22429,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>442</v>
       </c>
@@ -22452,7 +22494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>443</v>
       </c>
@@ -22517,7 +22559,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>459</v>
       </c>
@@ -22582,7 +22624,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>461</v>
       </c>
@@ -22647,7 +22689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>461</v>
       </c>
@@ -22712,7 +22754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>462</v>
       </c>
@@ -22777,7 +22819,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>486</v>
       </c>
@@ -22842,7 +22884,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>487</v>
       </c>
@@ -22907,7 +22949,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>488</v>
       </c>
@@ -22972,7 +23014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>490</v>
       </c>
@@ -23037,7 +23079,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>491</v>
       </c>
@@ -23102,7 +23144,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
         <v>492</v>
       </c>
@@ -23167,7 +23209,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="16" t="s">
         <v>493</v>
       </c>
@@ -23232,7 +23274,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="16" t="s">
         <v>495</v>
       </c>
@@ -23297,7 +23339,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>496</v>
       </c>
@@ -23362,7 +23404,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>499</v>
       </c>
@@ -23427,7 +23469,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>500</v>
       </c>
@@ -23492,7 +23534,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>505</v>
       </c>
@@ -23557,7 +23599,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>506</v>
       </c>
@@ -23622,7 +23664,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>509</v>
       </c>
@@ -23687,7 +23729,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>511</v>
       </c>
@@ -23752,7 +23794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
         <v>514</v>
       </c>
@@ -23817,7 +23859,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>516</v>
       </c>
@@ -23882,7 +23924,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>519</v>
       </c>
@@ -23947,7 +23989,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>553</v>
       </c>
@@ -24012,7 +24054,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
         <v>555</v>
       </c>
@@ -24077,7 +24119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
         <v>557</v>
       </c>
@@ -24142,7 +24184,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
         <v>560</v>
       </c>
@@ -24207,7 +24249,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>561</v>
       </c>
@@ -24272,7 +24314,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
         <v>563</v>
       </c>
@@ -24337,7 +24379,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>564</v>
       </c>
@@ -24402,7 +24444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>565</v>
       </c>
@@ -24467,7 +24509,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>568</v>
       </c>
@@ -24532,7 +24574,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>573</v>
       </c>
@@ -24597,7 +24639,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>506</v>
       </c>
@@ -24662,7 +24704,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>576</v>
       </c>
@@ -24727,7 +24769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>577</v>
       </c>
@@ -24792,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>578</v>
       </c>
@@ -24857,7 +24899,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>579</v>
       </c>
@@ -24922,7 +24964,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>580</v>
       </c>
@@ -24987,7 +25029,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>581</v>
       </c>
@@ -25052,7 +25094,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>582</v>
       </c>
@@ -25117,7 +25159,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>583</v>
       </c>
@@ -25182,7 +25224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>584</v>
       </c>
@@ -25247,7 +25289,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
         <v>585</v>
       </c>
@@ -25312,7 +25354,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>586</v>
       </c>
@@ -25377,7 +25419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
         <v>587</v>
       </c>
@@ -25442,7 +25484,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>609</v>
       </c>
@@ -25507,7 +25549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>611</v>
       </c>
@@ -25572,7 +25614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>612</v>
       </c>
@@ -25637,7 +25679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>614</v>
       </c>
@@ -25702,7 +25744,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>615</v>
       </c>
@@ -25767,7 +25809,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>617</v>
       </c>
@@ -25832,7 +25874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
         <v>618</v>
       </c>
@@ -25897,7 +25939,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
         <v>620</v>
       </c>
@@ -25962,7 +26004,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
         <v>621</v>
       </c>
@@ -26027,7 +26069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>623</v>
       </c>
@@ -26092,7 +26134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
         <v>624</v>
       </c>
@@ -26157,7 +26199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
         <v>649</v>
       </c>
@@ -26222,7 +26264,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>651</v>
       </c>
@@ -26287,7 +26329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
         <v>273</v>
       </c>
@@ -26352,7 +26394,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>653</v>
       </c>
@@ -26417,7 +26459,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
         <v>857</v>
       </c>
@@ -26482,7 +26524,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
         <v>842</v>
       </c>
@@ -26547,7 +26589,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
         <v>845</v>
       </c>
@@ -26612,7 +26654,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
         <v>848</v>
       </c>
@@ -26677,7 +26719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
         <v>849</v>
       </c>
@@ -26742,7 +26784,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>850</v>
       </c>
@@ -26807,7 +26849,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>852</v>
       </c>
@@ -26872,7 +26914,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>854</v>
       </c>
@@ -26937,7 +26979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>861</v>
       </c>
@@ -27002,7 +27044,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>864</v>
       </c>
@@ -27067,7 +27109,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>866</v>
       </c>
@@ -27132,7 +27174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>870</v>
       </c>
@@ -27197,7 +27239,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>878</v>
       </c>
@@ -27262,7 +27304,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
         <v>882</v>
       </c>
@@ -27327,7 +27369,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>885</v>
       </c>
@@ -27392,7 +27434,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
         <v>887</v>
       </c>
@@ -27457,7 +27499,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
         <v>890</v>
       </c>
@@ -27522,7 +27564,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
         <v>892</v>
       </c>
@@ -27587,7 +27629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
         <v>896</v>
       </c>
@@ -27652,7 +27694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
         <v>898</v>
       </c>
@@ -27717,7 +27759,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>901</v>
       </c>
@@ -27782,7 +27824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
         <v>906</v>
       </c>
@@ -27847,7 +27889,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
         <v>909</v>
       </c>
@@ -27912,7 +27954,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
         <v>921</v>
       </c>
@@ -27977,7 +28019,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
         <v>920</v>
       </c>
@@ -28042,7 +28084,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
         <v>915</v>
       </c>
@@ -28107,7 +28149,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
         <v>918</v>
       </c>
@@ -28172,7 +28214,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="13" t="s">
         <v>922</v>
       </c>
@@ -28237,7 +28279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
         <v>925</v>
       </c>
@@ -28302,7 +28344,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
         <v>927</v>
       </c>
@@ -28367,7 +28409,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>1035</v>
       </c>
@@ -28432,7 +28474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
         <v>930</v>
       </c>
@@ -28497,7 +28539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
         <v>932</v>
       </c>
@@ -28562,7 +28604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
         <v>934</v>
       </c>
@@ -28627,7 +28669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
         <v>937</v>
       </c>
@@ -28692,7 +28734,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
         <v>939</v>
       </c>
@@ -28757,7 +28799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
         <v>942</v>
       </c>
@@ -28822,7 +28864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
         <v>945</v>
       </c>
@@ -28887,7 +28929,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="13" t="s">
         <v>947</v>
       </c>
@@ -28952,7 +28994,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="13" t="s">
         <v>949</v>
       </c>
@@ -29017,7 +29059,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="13" t="s">
         <v>952</v>
       </c>
@@ -29082,7 +29124,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
         <v>954</v>
       </c>
@@ -29147,7 +29189,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
         <v>956</v>
       </c>
@@ -29212,7 +29254,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
         <v>960</v>
       </c>
@@ -29277,7 +29319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
         <v>963</v>
       </c>
@@ -29342,7 +29384,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
         <v>966</v>
       </c>
@@ -29407,7 +29449,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
         <v>968</v>
       </c>
@@ -29472,7 +29514,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
         <v>970</v>
       </c>
@@ -29537,7 +29579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
         <v>973</v>
       </c>
@@ -29602,7 +29644,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
         <v>976</v>
       </c>
@@ -29667,7 +29709,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
         <v>979</v>
       </c>
@@ -29732,7 +29774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="13" t="s">
         <v>981</v>
       </c>
@@ -29797,7 +29839,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="13" t="s">
         <v>983</v>
       </c>
@@ -29862,7 +29904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="13" t="s">
         <v>985</v>
       </c>
@@ -29927,7 +29969,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" s="13" t="s">
         <v>988</v>
       </c>
@@ -29992,7 +30034,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
         <v>991</v>
       </c>
@@ -30057,7 +30099,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" s="13" t="s">
         <v>994</v>
       </c>
@@ -30122,7 +30164,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="13" t="s">
         <v>996</v>
       </c>
@@ -30187,7 +30229,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" s="13" t="s">
         <v>997</v>
       </c>
@@ -30252,7 +30294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" s="13" t="s">
         <v>1000</v>
       </c>
@@ -30317,7 +30359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="13" t="s">
         <v>1004</v>
       </c>
@@ -30382,7 +30424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="13" t="s">
         <v>1007</v>
       </c>
@@ -30447,7 +30489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="13" t="s">
         <v>1010</v>
       </c>
@@ -30512,7 +30554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" s="13" t="s">
         <v>1013</v>
       </c>
@@ -30577,7 +30619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
         <v>1015</v>
       </c>
@@ -30642,7 +30684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="13" t="s">
         <v>1017</v>
       </c>
@@ -30707,7 +30749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" s="13" t="s">
         <v>1020</v>
       </c>
@@ -30772,7 +30814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="13" t="s">
         <v>1022</v>
       </c>
@@ -30837,7 +30879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" s="13" t="s">
         <v>1024</v>
       </c>
@@ -30902,7 +30944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" s="13" t="s">
         <v>1026</v>
       </c>
@@ -30967,7 +31009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="13" t="s">
         <v>1028</v>
       </c>
@@ -31032,7 +31074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="13" t="s">
         <v>1032</v>
       </c>
@@ -31097,7 +31139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" s="13" t="s">
         <v>1037</v>
       </c>
@@ -31162,7 +31204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" s="13" t="s">
         <v>1040</v>
       </c>
@@ -31227,7 +31269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" s="13" t="s">
         <v>1043</v>
       </c>
@@ -31292,7 +31334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" s="13" t="s">
         <v>1046</v>
       </c>
@@ -31357,7 +31399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" s="13" t="s">
         <v>1050</v>
       </c>
@@ -31422,7 +31464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" s="13" t="s">
         <v>1052</v>
       </c>
@@ -31487,7 +31529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" s="13" t="s">
         <v>1054</v>
       </c>
@@ -31552,7 +31594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" s="13" t="s">
         <v>1057</v>
       </c>
@@ -31610,14 +31652,14 @@
         <v>159</v>
       </c>
       <c r="S314" s="17">
-        <f t="shared" ref="S314:S330" si="123">LEN(P314)</f>
+        <f t="shared" ref="S314:S334" si="123">LEN(P314)</f>
         <v>35</v>
       </c>
       <c r="T314" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315" s="13" t="s">
         <v>1059</v>
       </c>
@@ -31682,7 +31724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" s="13" t="s">
         <v>1062</v>
       </c>
@@ -31747,7 +31789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" s="13" t="s">
         <v>1065</v>
       </c>
@@ -31812,7 +31854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" s="13" t="s">
         <v>1068</v>
       </c>
@@ -31877,7 +31919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" s="13" t="s">
         <v>1070</v>
       </c>
@@ -31942,7 +31984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" s="13" t="s">
         <v>1072</v>
       </c>
@@ -32007,7 +32049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321" s="13" t="s">
         <v>1075</v>
       </c>
@@ -32072,7 +32114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322" s="13" t="s">
         <v>1077</v>
       </c>
@@ -32137,7 +32179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" s="13" t="s">
         <v>1079</v>
       </c>
@@ -32202,7 +32244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" s="13" t="s">
         <v>1081</v>
       </c>
@@ -32267,7 +32309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" s="13" t="s">
         <v>1084</v>
       </c>
@@ -32332,7 +32374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" s="13" t="s">
         <v>1086</v>
       </c>
@@ -32397,7 +32439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" s="13" t="s">
         <v>1088</v>
       </c>
@@ -32462,7 +32504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" s="13" t="s">
         <v>1091</v>
       </c>
@@ -32527,7 +32569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" s="13" t="s">
         <v>1092</v>
       </c>
@@ -32592,7 +32634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" s="13" t="s">
         <v>1095</v>
       </c>
@@ -32615,11 +32657,11 @@
         <v>1096</v>
       </c>
       <c r="H330" s="9">
-        <f t="shared" ref="H330" si="150">YEAR(G330)</f>
+        <f t="shared" ref="H330:H331" si="150">YEAR(G330)</f>
         <v>2025</v>
       </c>
       <c r="I330" s="9">
-        <f t="shared" ref="I330" si="151">MONTH(G330)</f>
+        <f t="shared" ref="I330:I331" si="151">MONTH(G330)</f>
         <v>2</v>
       </c>
       <c r="J330" s="9" t="s">
@@ -32657,95 +32699,267 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A331" s="13"/>
-      <c r="B331" s="9"/>
-      <c r="C331" s="9"/>
-      <c r="D331" s="9"/>
-      <c r="E331" s="9"/>
-      <c r="F331" s="9"/>
-      <c r="G331" s="9"/>
-      <c r="H331" s="9"/>
-      <c r="I331" s="9"/>
-      <c r="J331" s="9"/>
-      <c r="K331" s="9"/>
-      <c r="L331" s="9"/>
-      <c r="M331" s="9"/>
-      <c r="N331" s="9"/>
-      <c r="O331" s="9"/>
-      <c r="P331" s="13"/>
-      <c r="Q331" s="9"/>
-      <c r="R331" s="9"/>
-      <c r="S331" s="17"/>
-      <c r="T331" s="9"/>
-    </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A332" s="13"/>
-      <c r="B332" s="9"/>
-      <c r="C332" s="9"/>
-      <c r="D332" s="9"/>
-      <c r="E332" s="9"/>
-      <c r="F332" s="9"/>
-      <c r="G332" s="9"/>
-      <c r="H332" s="9"/>
-      <c r="I332" s="9"/>
-      <c r="J332" s="9"/>
-      <c r="K332" s="9"/>
-      <c r="L332" s="9"/>
-      <c r="M332" s="9"/>
-      <c r="N332" s="9"/>
-      <c r="O332" s="9"/>
-      <c r="P332" s="13"/>
-      <c r="Q332" s="9"/>
-      <c r="R332" s="9"/>
-      <c r="S332" s="17"/>
-      <c r="T332" s="9"/>
-    </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A333" s="13"/>
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="9"/>
-      <c r="E333" s="9"/>
-      <c r="F333" s="9"/>
-      <c r="G333" s="9"/>
-      <c r="H333" s="9"/>
-      <c r="I333" s="9"/>
-      <c r="J333" s="9"/>
-      <c r="K333" s="9"/>
-      <c r="L333" s="9"/>
-      <c r="M333" s="9"/>
-      <c r="N333" s="9"/>
-      <c r="O333" s="9"/>
-      <c r="P333" s="13"/>
-      <c r="Q333" s="9"/>
-      <c r="R333" s="9"/>
-      <c r="S333" s="17"/>
-      <c r="T333" s="9"/>
-    </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A334" s="13"/>
-      <c r="B334" s="9"/>
-      <c r="C334" s="9"/>
-      <c r="D334" s="9"/>
-      <c r="E334" s="9"/>
-      <c r="F334" s="9"/>
-      <c r="G334" s="9"/>
-      <c r="H334" s="9"/>
-      <c r="I334" s="9"/>
-      <c r="J334" s="9"/>
-      <c r="K334" s="9"/>
-      <c r="L334" s="9"/>
-      <c r="M334" s="9"/>
-      <c r="N334" s="9"/>
-      <c r="O334" s="9"/>
-      <c r="P334" s="13"/>
-      <c r="Q334" s="9"/>
-      <c r="R334" s="9"/>
-      <c r="S334" s="17"/>
-      <c r="T334" s="9"/>
-    </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A331" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B331" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E331" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F331" s="17">
+        <v>382</v>
+      </c>
+      <c r="G331" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H331" s="9">
+        <f t="shared" si="150"/>
+        <v>2025</v>
+      </c>
+      <c r="I331" s="9">
+        <f t="shared" si="151"/>
+        <v>3</v>
+      </c>
+      <c r="J331" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K331" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L331" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M331" s="17">
+        <v>3</v>
+      </c>
+      <c r="N331" s="17">
+        <v>54.99</v>
+      </c>
+      <c r="O331" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P331" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q331" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="R331" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S331" s="17">
+        <f t="shared" si="123"/>
+        <v>197</v>
+      </c>
+      <c r="T331" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A332" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B332" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E332" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F332" s="17">
+        <v>469</v>
+      </c>
+      <c r="G332" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H332" s="9">
+        <f t="shared" ref="H332" si="152">YEAR(G332)</f>
+        <v>2025</v>
+      </c>
+      <c r="I332" s="9">
+        <f t="shared" ref="I332" si="153">MONTH(G332)</f>
+        <v>3</v>
+      </c>
+      <c r="J332" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K332" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L332" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M332" s="17">
+        <v>1</v>
+      </c>
+      <c r="N332" s="17">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="O332" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P332" s="16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q332" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R332" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S332" s="17">
+        <f t="shared" si="123"/>
+        <v>107</v>
+      </c>
+      <c r="T332" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A333" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B333" s="17">
+        <v>2012</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E333" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F333" s="17">
+        <v>135</v>
+      </c>
+      <c r="G333" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H333" s="9">
+        <f t="shared" ref="H333" si="154">YEAR(G333)</f>
+        <v>2025</v>
+      </c>
+      <c r="I333" s="9">
+        <f t="shared" ref="I333" si="155">MONTH(G333)</f>
+        <v>3</v>
+      </c>
+      <c r="J333" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K333" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L333" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M333" s="17">
+        <v>4</v>
+      </c>
+      <c r="N333" s="43">
+        <v>0</v>
+      </c>
+      <c r="O333" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P333" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="Q333" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R333" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S333" s="17">
+        <f t="shared" si="123"/>
+        <v>61</v>
+      </c>
+      <c r="T333" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A334" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B334" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D334" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E334" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F334" s="17">
+        <v>373</v>
+      </c>
+      <c r="G334" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H334" s="9">
+        <f t="shared" ref="H334" si="156">YEAR(G334)</f>
+        <v>2025</v>
+      </c>
+      <c r="I334" s="9">
+        <f t="shared" ref="I334" si="157">MONTH(G334)</f>
+        <v>3</v>
+      </c>
+      <c r="J334" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K334" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L334" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M334" s="17">
+        <v>3</v>
+      </c>
+      <c r="N334" s="17">
+        <v>79</v>
+      </c>
+      <c r="O334" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P334" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Q334" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="R334" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S334" s="17">
+        <f t="shared" si="123"/>
+        <v>174</v>
+      </c>
+      <c r="T334" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" s="13"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -32767,7 +32981,7 @@
       <c r="S335" s="17"/>
       <c r="T335" s="9"/>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" s="13"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -32789,7 +33003,7 @@
       <c r="S336" s="17"/>
       <c r="T336" s="9"/>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" s="13"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -32811,7 +33025,7 @@
       <c r="S337" s="17"/>
       <c r="T337" s="9"/>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" s="13"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -32833,7 +33047,7 @@
       <c r="S338" s="17"/>
       <c r="T338" s="9"/>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339" s="13"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -32855,7 +33069,7 @@
       <c r="S339" s="17"/>
       <c r="T339" s="9"/>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340" s="13"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -32877,7 +33091,7 @@
       <c r="S340" s="17"/>
       <c r="T340" s="9"/>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" s="13"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -32899,7 +33113,7 @@
       <c r="S341" s="17"/>
       <c r="T341" s="9"/>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" s="13"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -32921,7 +33135,7 @@
       <c r="S342" s="17"/>
       <c r="T342" s="9"/>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343" s="13"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -32943,7 +33157,7 @@
       <c r="S343" s="17"/>
       <c r="T343" s="9"/>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" s="13"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -32965,7 +33179,7 @@
       <c r="S344" s="17"/>
       <c r="T344" s="9"/>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345" s="13"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -32987,7 +33201,7 @@
       <c r="S345" s="17"/>
       <c r="T345" s="9"/>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346" s="13"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -33025,28 +33239,28 @@
       <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="7.109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="57.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="7.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.5546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="11.109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="22.5546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="14.5546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="75.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" style="39" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="11" width="22.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="75.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="39" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -33099,7 +33313,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>66</v>
       </c>
@@ -33153,7 +33367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>65</v>
       </c>
@@ -33207,7 +33421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
@@ -33261,7 +33475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -33315,7 +33529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
@@ -33369,7 +33583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
@@ -33423,7 +33637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -33477,7 +33691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>35</v>
       </c>
@@ -33531,7 +33745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -33585,7 +33799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
@@ -33639,7 +33853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>41</v>
       </c>
@@ -33693,7 +33907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>43</v>
       </c>
@@ -33747,7 +33961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>46</v>
       </c>
@@ -33801,7 +34015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>47</v>
       </c>
@@ -33855,7 +34069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>48</v>
       </c>
@@ -33909,7 +34123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>49</v>
       </c>
@@ -33963,7 +34177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -34017,7 +34231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>59</v>
       </c>
@@ -34071,7 +34285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
@@ -34125,7 +34339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>55</v>
       </c>
@@ -34179,7 +34393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>56</v>
       </c>
@@ -34233,7 +34447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>77</v>
       </c>
@@ -34287,7 +34501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>78</v>
       </c>
@@ -34341,7 +34555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>80</v>
       </c>
@@ -34395,7 +34609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>82</v>
       </c>
@@ -34449,7 +34663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>86</v>
       </c>
@@ -34503,7 +34717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>90</v>
       </c>
@@ -34557,7 +34771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>92</v>
       </c>
@@ -34611,7 +34825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>95</v>
       </c>
@@ -34665,7 +34879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>97</v>
       </c>
@@ -34719,7 +34933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>113</v>
       </c>
@@ -34773,7 +34987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>120</v>
       </c>
@@ -34827,7 +35041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>114</v>
       </c>
@@ -34881,7 +35095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>116</v>
       </c>
@@ -34935,7 +35149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>361</v>
       </c>
@@ -34989,7 +35203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>137</v>
       </c>
@@ -35043,7 +35257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>149</v>
       </c>
@@ -35097,7 +35311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>477</v>
       </c>
@@ -35151,7 +35365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>147</v>
       </c>
@@ -35205,7 +35419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>172</v>
       </c>
@@ -35259,7 +35473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>179</v>
       </c>
@@ -35313,7 +35527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>181</v>
       </c>
@@ -35367,7 +35581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>182</v>
       </c>
@@ -35421,7 +35635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>177</v>
       </c>
@@ -35475,7 +35689,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>205</v>
       </c>
@@ -35529,7 +35743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>219</v>
       </c>
@@ -35583,7 +35797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>221</v>
       </c>
@@ -35637,7 +35851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>222</v>
       </c>
@@ -35691,7 +35905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>259</v>
       </c>
@@ -35745,7 +35959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>275</v>
       </c>
@@ -35799,7 +36013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>276</v>
       </c>
@@ -35853,7 +36067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>277</v>
       </c>
@@ -35907,7 +36121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>284</v>
       </c>
@@ -35961,7 +36175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>293</v>
       </c>
@@ -36015,7 +36229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>286</v>
       </c>
@@ -36069,7 +36283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>288</v>
       </c>
@@ -36123,7 +36337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>291</v>
       </c>
@@ -36177,7 +36391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>295</v>
       </c>
@@ -36231,7 +36445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>297</v>
       </c>
@@ -36285,7 +36499,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>300</v>
       </c>
@@ -36339,7 +36553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>324</v>
       </c>
@@ -36393,7 +36607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>326</v>
       </c>
@@ -36447,7 +36661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>328</v>
       </c>
@@ -36501,7 +36715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>502</v>
       </c>
@@ -36555,7 +36769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>521</v>
       </c>
@@ -36609,7 +36823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>522</v>
       </c>
@@ -36663,7 +36877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>523</v>
       </c>
@@ -36717,7 +36931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>524</v>
       </c>
@@ -36771,7 +36985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>525</v>
       </c>
@@ -36825,7 +37039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>526</v>
       </c>
@@ -36879,7 +37093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>530</v>
       </c>
@@ -36933,7 +37147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>531</v>
       </c>
@@ -36987,7 +37201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>532</v>
       </c>
@@ -37041,7 +37255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>533</v>
       </c>
@@ -37095,7 +37309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>535</v>
       </c>
@@ -37149,7 +37363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>536</v>
       </c>
@@ -37203,7 +37417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>537</v>
       </c>
@@ -37257,7 +37471,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>538</v>
       </c>
@@ -37311,7 +37525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>539</v>
       </c>
@@ -37365,7 +37579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>541</v>
       </c>
@@ -37419,7 +37633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
         <v>542</v>
       </c>
@@ -37473,7 +37687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>543</v>
       </c>
@@ -37527,7 +37741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>544</v>
       </c>
@@ -37581,7 +37795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>546</v>
       </c>
@@ -37635,7 +37849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>548</v>
       </c>
@@ -37689,7 +37903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>549</v>
       </c>
@@ -37743,7 +37957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>626</v>
       </c>
@@ -37797,7 +38011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>627</v>
       </c>
@@ -37851,7 +38065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>628</v>
       </c>
@@ -37905,7 +38119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>629</v>
       </c>
@@ -37959,7 +38173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>632</v>
       </c>
@@ -38013,7 +38227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>635</v>
       </c>
@@ -38067,7 +38281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>636</v>
       </c>
@@ -38121,7 +38335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>637</v>
       </c>
@@ -38175,7 +38389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>638</v>
       </c>
@@ -38229,7 +38443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>640</v>
       </c>
@@ -38283,7 +38497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>641</v>
       </c>
@@ -38337,7 +38551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>642</v>
       </c>
@@ -38391,7 +38605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>643</v>
       </c>
@@ -38445,7 +38659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>644</v>
       </c>
@@ -38499,7 +38713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>645</v>
       </c>
@@ -38553,7 +38767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>646</v>
       </c>
@@ -38607,7 +38821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>648</v>
       </c>
@@ -38661,7 +38875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="9"/>
@@ -38680,7 +38894,7 @@
       <c r="P105" s="9"/>
       <c r="Q105" s="17"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="9"/>
@@ -38699,7 +38913,7 @@
       <c r="P106" s="9"/>
       <c r="Q106" s="17"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="14"/>
       <c r="C107" s="9"/>
@@ -38718,7 +38932,7 @@
       <c r="P107" s="9"/>
       <c r="Q107" s="17"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="14"/>
       <c r="C108" s="9"/>
@@ -38737,7 +38951,7 @@
       <c r="P108" s="9"/>
       <c r="Q108" s="17"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="14"/>
       <c r="C109" s="9"/>
@@ -38756,7 +38970,7 @@
       <c r="P109" s="9"/>
       <c r="Q109" s="17"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="14"/>
       <c r="C110" s="9"/>
@@ -38775,7 +38989,7 @@
       <c r="P110" s="9"/>
       <c r="Q110" s="17"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="14"/>
       <c r="C111" s="9"/>
@@ -38794,7 +39008,7 @@
       <c r="P111" s="9"/>
       <c r="Q111" s="17"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="14"/>
       <c r="C112" s="9"/>
@@ -38813,7 +39027,7 @@
       <c r="P112" s="9"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="14"/>
       <c r="C113" s="9"/>
@@ -38832,7 +39046,7 @@
       <c r="P113" s="9"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="14"/>
       <c r="C114" s="9"/>
@@ -38851,7 +39065,7 @@
       <c r="P114" s="9"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="29"/>
       <c r="B115" s="30"/>
       <c r="C115" s="29"/>
@@ -38866,7 +39080,7 @@
       <c r="L115" s="29"/>
       <c r="M115" s="29"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="31"/>
       <c r="B116" s="32"/>
       <c r="C116" s="33"/>
@@ -38881,7 +39095,7 @@
       <c r="L116" s="36"/>
       <c r="M116" s="37"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="29"/>
       <c r="B117" s="30"/>
       <c r="C117" s="29"/>
@@ -38896,7 +39110,7 @@
       <c r="L117" s="29"/>
       <c r="M117" s="29"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="29"/>
       <c r="B118" s="30"/>
       <c r="C118" s="29"/>
@@ -38911,7 +39125,7 @@
       <c r="L118" s="29"/>
       <c r="M118" s="29"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="29"/>
       <c r="B119" s="30"/>
       <c r="C119" s="29"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -11226,8 +11226,8 @@
   <dimension ref="A1:T346"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A334" sqref="A334"/>
+      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q341" sqref="Q341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -30290,8 +30290,8 @@
         <f t="shared" si="81"/>
         <v>38</v>
       </c>
-      <c r="T293" s="14">
-        <v>0</v>
+      <c r="T293" s="49">
+        <v>256</v>
       </c>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.2">
@@ -30355,8 +30355,8 @@
         <f t="shared" si="81"/>
         <v>268</v>
       </c>
-      <c r="T294" s="14">
-        <v>0</v>
+      <c r="T294" s="49">
+        <v>576</v>
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.2">
@@ -30420,8 +30420,8 @@
         <f t="shared" si="81"/>
         <v>131</v>
       </c>
-      <c r="T295" s="14">
-        <v>0</v>
+      <c r="T295" s="49">
+        <v>708</v>
       </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.2">
@@ -30485,8 +30485,8 @@
         <f t="shared" si="81"/>
         <v>77</v>
       </c>
-      <c r="T296" s="14">
-        <v>0</v>
+      <c r="T296" s="49">
+        <v>143</v>
       </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.2">
@@ -30550,8 +30550,8 @@
         <f t="shared" si="81"/>
         <v>55</v>
       </c>
-      <c r="T297" s="14">
-        <v>0</v>
+      <c r="T297" s="49">
+        <v>105</v>
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.2">
@@ -30615,8 +30615,8 @@
         <f t="shared" si="81"/>
         <v>55</v>
       </c>
-      <c r="T298" s="14">
-        <v>0</v>
+      <c r="T298" s="49">
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.2">
@@ -30680,8 +30680,8 @@
         <f t="shared" si="81"/>
         <v>247</v>
       </c>
-      <c r="T299" s="14">
-        <v>0</v>
+      <c r="T299" s="49">
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.2">
@@ -30745,8 +30745,8 @@
         <f t="shared" si="81"/>
         <v>229</v>
       </c>
-      <c r="T300" s="14">
-        <v>0</v>
+      <c r="T300" s="49">
+        <v>248</v>
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.2">
@@ -30810,8 +30810,8 @@
         <f t="shared" si="81"/>
         <v>45</v>
       </c>
-      <c r="T301" s="14">
-        <v>0</v>
+      <c r="T301" s="49">
+        <v>56</v>
       </c>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.2">
@@ -30875,8 +30875,8 @@
         <f t="shared" si="81"/>
         <v>103</v>
       </c>
-      <c r="T302" s="14">
-        <v>0</v>
+      <c r="T302" s="49">
+        <v>135</v>
       </c>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.2">
@@ -30940,8 +30940,8 @@
         <f t="shared" si="81"/>
         <v>176</v>
       </c>
-      <c r="T303" s="14">
-        <v>0</v>
+      <c r="T303" s="49">
+        <v>67</v>
       </c>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.2">
@@ -31005,8 +31005,8 @@
         <f t="shared" si="81"/>
         <v>218</v>
       </c>
-      <c r="T304" s="14">
-        <v>0</v>
+      <c r="T304" s="49">
+        <v>499</v>
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.2">
@@ -31070,8 +31070,8 @@
         <f t="shared" ref="S305:S313" si="106">LEN(P305)</f>
         <v>88</v>
       </c>
-      <c r="T305" s="14">
-        <v>0</v>
+      <c r="T305" s="49">
+        <v>42</v>
       </c>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.2">
@@ -31135,8 +31135,8 @@
         <f t="shared" si="106"/>
         <v>231</v>
       </c>
-      <c r="T306" s="14">
-        <v>0</v>
+      <c r="T306" s="49">
+        <v>1376</v>
       </c>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.2">
@@ -31200,8 +31200,8 @@
         <f t="shared" si="106"/>
         <v>63</v>
       </c>
-      <c r="T307" s="14">
-        <v>0</v>
+      <c r="T307" s="49">
+        <v>337</v>
       </c>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.2">
@@ -31265,8 +31265,8 @@
         <f t="shared" si="106"/>
         <v>406</v>
       </c>
-      <c r="T308" s="14">
-        <v>0</v>
+      <c r="T308" s="49">
+        <v>272</v>
       </c>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.2">
@@ -31330,8 +31330,8 @@
         <f t="shared" si="106"/>
         <v>260</v>
       </c>
-      <c r="T309" s="14">
-        <v>0</v>
+      <c r="T309" s="49">
+        <v>336</v>
       </c>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.2">
@@ -31395,8 +31395,8 @@
         <f t="shared" si="106"/>
         <v>66</v>
       </c>
-      <c r="T310" s="14">
-        <v>0</v>
+      <c r="T310" s="49">
+        <v>868</v>
       </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.2">
@@ -31460,8 +31460,8 @@
         <f t="shared" si="106"/>
         <v>243</v>
       </c>
-      <c r="T311" s="14">
-        <v>0</v>
+      <c r="T311" s="49">
+        <v>366</v>
       </c>
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.2">
@@ -31525,8 +31525,8 @@
         <f t="shared" si="106"/>
         <v>379</v>
       </c>
-      <c r="T312" s="14">
-        <v>0</v>
+      <c r="T312" s="49">
+        <v>844</v>
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.2">
@@ -31590,8 +31590,8 @@
         <f t="shared" si="106"/>
         <v>31</v>
       </c>
-      <c r="T313" s="14">
-        <v>0</v>
+      <c r="T313" s="49">
+        <v>78</v>
       </c>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.2">
@@ -31655,8 +31655,8 @@
         <f t="shared" ref="S314:S334" si="123">LEN(P314)</f>
         <v>35</v>
       </c>
-      <c r="T314" s="14">
-        <v>0</v>
+      <c r="T314" s="49">
+        <v>139</v>
       </c>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.2">
@@ -31720,8 +31720,8 @@
         <f t="shared" si="123"/>
         <v>60</v>
       </c>
-      <c r="T315" s="14">
-        <v>0</v>
+      <c r="T315" s="49">
+        <v>59</v>
       </c>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.2">
@@ -31785,8 +31785,8 @@
         <f t="shared" si="123"/>
         <v>155</v>
       </c>
-      <c r="T316" s="14">
-        <v>0</v>
+      <c r="T316" s="49">
+        <v>523</v>
       </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.2">
@@ -31850,8 +31850,8 @@
         <f t="shared" si="123"/>
         <v>67</v>
       </c>
-      <c r="T317" s="14">
-        <v>0</v>
+      <c r="T317" s="49">
+        <v>224</v>
       </c>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.2">
@@ -31915,8 +31915,8 @@
         <f t="shared" si="123"/>
         <v>200</v>
       </c>
-      <c r="T318" s="14">
-        <v>0</v>
+      <c r="T318" s="49">
+        <v>133</v>
       </c>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.2">
@@ -31980,8 +31980,8 @@
         <f t="shared" si="123"/>
         <v>66</v>
       </c>
-      <c r="T319" s="14">
-        <v>0</v>
+      <c r="T319" s="49">
+        <v>32</v>
       </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.2">
@@ -32045,7 +32045,7 @@
         <f t="shared" si="123"/>
         <v>57</v>
       </c>
-      <c r="T320" s="14">
+      <c r="T320" s="49">
         <v>0</v>
       </c>
     </row>
@@ -32110,8 +32110,8 @@
         <f t="shared" si="123"/>
         <v>66</v>
       </c>
-      <c r="T321" s="14">
-        <v>0</v>
+      <c r="T321" s="49">
+        <v>37</v>
       </c>
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.2">
@@ -32175,8 +32175,8 @@
         <f t="shared" si="123"/>
         <v>144</v>
       </c>
-      <c r="T322" s="14">
-        <v>0</v>
+      <c r="T322" s="49">
+        <v>162</v>
       </c>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.2">
@@ -32240,8 +32240,8 @@
         <f t="shared" si="123"/>
         <v>169</v>
       </c>
-      <c r="T323" s="14">
-        <v>0</v>
+      <c r="T323" s="49">
+        <v>218</v>
       </c>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.2">
@@ -32305,8 +32305,8 @@
         <f t="shared" si="123"/>
         <v>136</v>
       </c>
-      <c r="T324" s="14">
-        <v>0</v>
+      <c r="T324" s="49">
+        <v>160</v>
       </c>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.2">
@@ -32370,8 +32370,8 @@
         <f t="shared" si="123"/>
         <v>47</v>
       </c>
-      <c r="T325" s="14">
-        <v>0</v>
+      <c r="T325" s="49">
+        <v>358</v>
       </c>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.2">
@@ -32435,8 +32435,8 @@
         <f t="shared" si="123"/>
         <v>36</v>
       </c>
-      <c r="T326" s="14">
-        <v>0</v>
+      <c r="T326" s="49">
+        <v>355</v>
       </c>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.2">
@@ -32500,8 +32500,8 @@
         <f t="shared" si="123"/>
         <v>57</v>
       </c>
-      <c r="T327" s="14">
-        <v>0</v>
+      <c r="T327" s="49">
+        <v>97</v>
       </c>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.2">
@@ -32565,8 +32565,8 @@
         <f t="shared" si="123"/>
         <v>16</v>
       </c>
-      <c r="T328" s="14">
-        <v>0</v>
+      <c r="T328" s="49">
+        <v>259</v>
       </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.2">
@@ -32630,8 +32630,8 @@
         <f t="shared" si="123"/>
         <v>40</v>
       </c>
-      <c r="T329" s="14">
-        <v>0</v>
+      <c r="T329" s="49">
+        <v>630</v>
       </c>
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.2">
@@ -32695,8 +32695,8 @@
         <f t="shared" si="123"/>
         <v>38</v>
       </c>
-      <c r="T330" s="14">
-        <v>0</v>
+      <c r="T330" s="49">
+        <v>80</v>
       </c>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.2">
@@ -32760,8 +32760,8 @@
         <f t="shared" si="123"/>
         <v>197</v>
       </c>
-      <c r="T331" s="14">
-        <v>0</v>
+      <c r="T331" s="49">
+        <v>253</v>
       </c>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.2">
@@ -32825,8 +32825,8 @@
         <f t="shared" si="123"/>
         <v>107</v>
       </c>
-      <c r="T332" s="14">
-        <v>0</v>
+      <c r="T332" s="49">
+        <v>95</v>
       </c>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.2">
@@ -32890,8 +32890,8 @@
         <f t="shared" si="123"/>
         <v>61</v>
       </c>
-      <c r="T333" s="14">
-        <v>0</v>
+      <c r="T333" s="49">
+        <v>369</v>
       </c>
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.2">
@@ -32955,8 +32955,8 @@
         <f t="shared" si="123"/>
         <v>174</v>
       </c>
-      <c r="T334" s="14">
-        <v>0</v>
+      <c r="T334" s="49">
+        <v>509</v>
       </c>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5214" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5262" uniqueCount="1118">
   <si>
     <t>Format</t>
   </si>
@@ -3368,6 +3368,33 @@
   </si>
   <si>
     <t>Useful. This book could be even better by removing repetitions. A concept should be mentioned and explained only once, and not anticipated or spread around multiple sections.</t>
+  </si>
+  <si>
+    <t>Software Architecture and Decision-Making</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>Useless. Well written but no original knowledge.</t>
+  </si>
+  <si>
+    <t>Kickstart Software Design Architecture</t>
+  </si>
+  <si>
+    <t>Orange Education</t>
+  </si>
+  <si>
+    <t>Principles of Software Architecture Modernization</t>
+  </si>
+  <si>
+    <t>Useless. Very repetitive and it doesn't contain original knowledge.</t>
+  </si>
+  <si>
+    <t>Product Management 101 Playbook</t>
+  </si>
+  <si>
+    <t>Useless. Very basic, no original knowledge.</t>
   </si>
 </sst>
 </file>
@@ -11227,7 +11254,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q341" sqref="Q341"/>
+      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -31652,7 +31679,7 @@
         <v>159</v>
       </c>
       <c r="S314" s="17">
-        <f t="shared" ref="S314:S334" si="123">LEN(P314)</f>
+        <f t="shared" ref="S314:S338" si="123">LEN(P314)</f>
         <v>35</v>
       </c>
       <c r="T314" s="49">
@@ -32917,11 +32944,11 @@
         <v>1104</v>
       </c>
       <c r="H334" s="9">
-        <f t="shared" ref="H334" si="156">YEAR(G334)</f>
+        <f t="shared" ref="H334:H335" si="156">YEAR(G334)</f>
         <v>2025</v>
       </c>
       <c r="I334" s="9">
-        <f t="shared" ref="I334" si="157">MONTH(G334)</f>
+        <f>MONTH(G334)</f>
         <v>3</v>
       </c>
       <c r="J334" s="9" t="s">
@@ -32960,92 +32987,264 @@
       </c>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A335" s="13"/>
-      <c r="B335" s="9"/>
-      <c r="C335" s="9"/>
-      <c r="D335" s="9"/>
-      <c r="E335" s="9"/>
-      <c r="F335" s="9"/>
-      <c r="G335" s="9"/>
-      <c r="H335" s="9"/>
-      <c r="I335" s="9"/>
-      <c r="J335" s="9"/>
-      <c r="K335" s="9"/>
-      <c r="L335" s="9"/>
-      <c r="M335" s="9"/>
-      <c r="N335" s="9"/>
-      <c r="O335" s="9"/>
-      <c r="P335" s="13"/>
-      <c r="Q335" s="9"/>
-      <c r="R335" s="9"/>
-      <c r="S335" s="17"/>
-      <c r="T335" s="9"/>
+      <c r="A335" s="13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B335" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D335" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E335" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F335" s="17">
+        <v>286</v>
+      </c>
+      <c r="G335" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H335" s="9">
+        <f t="shared" si="156"/>
+        <v>2025</v>
+      </c>
+      <c r="I335" s="9">
+        <f>MONTH(G335)</f>
+        <v>5</v>
+      </c>
+      <c r="J335" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K335" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L335" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="M335" s="17">
+        <v>2</v>
+      </c>
+      <c r="N335" s="17">
+        <v>39.99</v>
+      </c>
+      <c r="O335" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P335" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="Q335" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R335" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S335" s="17">
+        <f t="shared" si="123"/>
+        <v>48</v>
+      </c>
+      <c r="T335" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A336" s="13"/>
-      <c r="B336" s="9"/>
-      <c r="C336" s="9"/>
-      <c r="D336" s="9"/>
-      <c r="E336" s="9"/>
-      <c r="F336" s="9"/>
-      <c r="G336" s="9"/>
-      <c r="H336" s="9"/>
-      <c r="I336" s="9"/>
-      <c r="J336" s="9"/>
-      <c r="K336" s="9"/>
-      <c r="L336" s="9"/>
-      <c r="M336" s="9"/>
-      <c r="N336" s="9"/>
-      <c r="O336" s="9"/>
-      <c r="P336" s="13"/>
-      <c r="Q336" s="9"/>
-      <c r="R336" s="9"/>
-      <c r="S336" s="17"/>
-      <c r="T336" s="9"/>
+      <c r="A336" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B336" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E336" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F336" s="17">
+        <v>418</v>
+      </c>
+      <c r="G336" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H336" s="9">
+        <f t="shared" ref="H336" si="157">YEAR(G336)</f>
+        <v>2025</v>
+      </c>
+      <c r="I336" s="9">
+        <f>MONTH(G336)</f>
+        <v>5</v>
+      </c>
+      <c r="J336" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K336" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L336" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="M336" s="17">
+        <v>2</v>
+      </c>
+      <c r="N336" s="17">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="O336" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P336" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="Q336" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R336" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S336" s="17">
+        <f t="shared" si="123"/>
+        <v>48</v>
+      </c>
+      <c r="T336" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A337" s="13"/>
-      <c r="B337" s="9"/>
-      <c r="C337" s="9"/>
-      <c r="D337" s="9"/>
-      <c r="E337" s="9"/>
-      <c r="F337" s="9"/>
-      <c r="G337" s="9"/>
-      <c r="H337" s="9"/>
-      <c r="I337" s="9"/>
-      <c r="J337" s="9"/>
-      <c r="K337" s="9"/>
-      <c r="L337" s="9"/>
-      <c r="M337" s="9"/>
-      <c r="N337" s="9"/>
-      <c r="O337" s="9"/>
-      <c r="P337" s="13"/>
-      <c r="Q337" s="9"/>
-      <c r="R337" s="9"/>
-      <c r="S337" s="17"/>
-      <c r="T337" s="9"/>
+      <c r="A337" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B337" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E337" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F337" s="17">
+        <v>611</v>
+      </c>
+      <c r="G337" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H337" s="9">
+        <f t="shared" ref="H337" si="158">YEAR(G337)</f>
+        <v>2025</v>
+      </c>
+      <c r="I337" s="9">
+        <f>MONTH(G337)</f>
+        <v>5</v>
+      </c>
+      <c r="J337" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K337" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L337" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="M337" s="17">
+        <v>2</v>
+      </c>
+      <c r="N337" s="17">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="O337" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P337" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q337" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R337" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S337" s="17">
+        <f t="shared" si="123"/>
+        <v>67</v>
+      </c>
+      <c r="T337" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A338" s="13"/>
-      <c r="B338" s="9"/>
-      <c r="C338" s="9"/>
-      <c r="D338" s="9"/>
-      <c r="E338" s="9"/>
-      <c r="F338" s="9"/>
-      <c r="G338" s="9"/>
-      <c r="H338" s="9"/>
-      <c r="I338" s="9"/>
-      <c r="J338" s="9"/>
-      <c r="K338" s="9"/>
-      <c r="L338" s="9"/>
-      <c r="M338" s="9"/>
-      <c r="N338" s="9"/>
-      <c r="O338" s="9"/>
-      <c r="P338" s="13"/>
-      <c r="Q338" s="9"/>
-      <c r="R338" s="9"/>
-      <c r="S338" s="17"/>
-      <c r="T338" s="9"/>
+      <c r="A338" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B338" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C338" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E338" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F338" s="17">
+        <v>55</v>
+      </c>
+      <c r="G338" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H338" s="9">
+        <f t="shared" ref="H338" si="159">YEAR(G338)</f>
+        <v>2025</v>
+      </c>
+      <c r="I338" s="9">
+        <f>MONTH(G338)</f>
+        <v>5</v>
+      </c>
+      <c r="J338" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K338" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L338" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M338" s="17">
+        <v>2</v>
+      </c>
+      <c r="N338" s="43">
+        <v>0</v>
+      </c>
+      <c r="O338" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P338" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Q338" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="R338" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S338" s="17">
+        <f t="shared" si="123"/>
+        <v>43</v>
+      </c>
+      <c r="T338" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339" s="13"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -3540,7 +3540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3681,6 +3681,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11252,9 +11255,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
+      <selection pane="bottomLeft" activeCell="R342" sqref="R342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -33047,8 +33050,8 @@
         <f t="shared" si="123"/>
         <v>48</v>
       </c>
-      <c r="T335" s="17">
-        <v>0</v>
+      <c r="T335" s="52">
+        <v>352</v>
       </c>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.2">
@@ -33112,8 +33115,8 @@
         <f t="shared" si="123"/>
         <v>48</v>
       </c>
-      <c r="T336" s="17">
-        <v>0</v>
+      <c r="T336" s="52">
+        <v>137</v>
       </c>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.2">
@@ -33177,8 +33180,8 @@
         <f t="shared" si="123"/>
         <v>67</v>
       </c>
-      <c r="T337" s="17">
-        <v>0</v>
+      <c r="T337" s="52">
+        <v>205</v>
       </c>
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.2">
@@ -33242,8 +33245,8 @@
         <f t="shared" si="123"/>
         <v>43</v>
       </c>
-      <c r="T338" s="17">
-        <v>0</v>
+      <c r="T338" s="52">
+        <v>59</v>
       </c>
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5262" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5286" uniqueCount="1123">
   <si>
     <t>Format</t>
   </si>
@@ -3395,6 +3395,21 @@
   </si>
   <si>
     <t>Useless. Very basic, no original knowledge.</t>
+  </si>
+  <si>
+    <t>Software Engineering At Google</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>Useless. This book wasted 602 pages to state the obvious and the layout totally lacks of bold fonts, which makes skimming impossible.</t>
+  </si>
+  <si>
+    <t>Why Programs Fail (2nd Edition)</t>
+  </si>
+  <si>
+    <t>Useless. This book is a mix between a debugging guide for super-beginners and a hundreds page long mind masturbation about the topic.</t>
   </si>
 </sst>
 </file>
@@ -3677,13 +3692,13 @@
     <xf numFmtId="1" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4003,16 +4018,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50">
+      <c r="A1" s="51">
         <v>2016</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -5529,16 +5544,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50">
+      <c r="A1" s="51">
         <v>2017</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -6485,16 +6500,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50">
+      <c r="A1" s="51">
         <v>2018</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -7441,16 +7456,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50">
+      <c r="A1" s="51">
         <v>2019</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -8397,16 +8412,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50">
+      <c r="A1" s="51">
         <v>2020</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -9353,16 +9368,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50">
+      <c r="A1" s="51">
         <v>2021</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -10309,16 +10324,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50">
+      <c r="A1" s="51">
         <v>2022</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -11253,11 +11268,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T346"/>
+  <dimension ref="A1:T356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R342" sqref="R342"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -31682,7 +31697,7 @@
         <v>159</v>
       </c>
       <c r="S314" s="17">
-        <f t="shared" ref="S314:S338" si="123">LEN(P314)</f>
+        <f t="shared" ref="S314:S340" si="123">LEN(P314)</f>
         <v>35</v>
       </c>
       <c r="T314" s="49">
@@ -33050,7 +33065,7 @@
         <f t="shared" si="123"/>
         <v>48</v>
       </c>
-      <c r="T335" s="52">
+      <c r="T335" s="50">
         <v>352</v>
       </c>
     </row>
@@ -33115,7 +33130,7 @@
         <f t="shared" si="123"/>
         <v>48</v>
       </c>
-      <c r="T336" s="52">
+      <c r="T336" s="50">
         <v>137</v>
       </c>
     </row>
@@ -33180,7 +33195,7 @@
         <f t="shared" si="123"/>
         <v>67</v>
       </c>
-      <c r="T337" s="52">
+      <c r="T337" s="50">
         <v>205</v>
       </c>
     </row>
@@ -33245,53 +33260,139 @@
         <f t="shared" si="123"/>
         <v>43</v>
       </c>
-      <c r="T338" s="52">
+      <c r="T338" s="50">
         <v>59</v>
       </c>
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A339" s="13"/>
-      <c r="B339" s="9"/>
-      <c r="C339" s="9"/>
-      <c r="D339" s="9"/>
-      <c r="E339" s="9"/>
-      <c r="F339" s="9"/>
-      <c r="G339" s="9"/>
-      <c r="H339" s="9"/>
-      <c r="I339" s="9"/>
-      <c r="J339" s="9"/>
-      <c r="K339" s="9"/>
-      <c r="L339" s="9"/>
-      <c r="M339" s="9"/>
-      <c r="N339" s="9"/>
-      <c r="O339" s="9"/>
-      <c r="P339" s="13"/>
-      <c r="Q339" s="9"/>
-      <c r="R339" s="9"/>
-      <c r="S339" s="17"/>
-      <c r="T339" s="9"/>
+      <c r="A339" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B339" s="17">
+        <v>2020</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E339" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F339" s="17">
+        <v>602</v>
+      </c>
+      <c r="G339" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H339" s="9">
+        <f t="shared" ref="H339" si="160">YEAR(G339)</f>
+        <v>2025</v>
+      </c>
+      <c r="I339" s="9">
+        <f>MONTH(G339)</f>
+        <v>5</v>
+      </c>
+      <c r="J339" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K339" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L339" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M339" s="17">
+        <v>1</v>
+      </c>
+      <c r="N339" s="17">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="O339" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P339" s="13" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q339" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R339" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S339" s="17">
+        <f t="shared" si="123"/>
+        <v>133</v>
+      </c>
+      <c r="T339" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A340" s="13"/>
-      <c r="B340" s="9"/>
-      <c r="C340" s="9"/>
-      <c r="D340" s="9"/>
-      <c r="E340" s="9"/>
-      <c r="F340" s="9"/>
-      <c r="G340" s="9"/>
-      <c r="H340" s="9"/>
-      <c r="I340" s="9"/>
-      <c r="J340" s="9"/>
-      <c r="K340" s="9"/>
-      <c r="L340" s="9"/>
-      <c r="M340" s="9"/>
-      <c r="N340" s="9"/>
-      <c r="O340" s="9"/>
-      <c r="P340" s="13"/>
-      <c r="Q340" s="9"/>
-      <c r="R340" s="9"/>
-      <c r="S340" s="17"/>
-      <c r="T340" s="9"/>
+      <c r="A340" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B340" s="17">
+        <v>2009</v>
+      </c>
+      <c r="C340" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E340" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F340" s="17">
+        <v>388</v>
+      </c>
+      <c r="G340" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H340" s="9">
+        <f t="shared" ref="H340" si="161">YEAR(G340)</f>
+        <v>2025</v>
+      </c>
+      <c r="I340" s="9">
+        <f>MONTH(G340)</f>
+        <v>5</v>
+      </c>
+      <c r="J340" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K340" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L340" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="M340" s="17">
+        <v>1</v>
+      </c>
+      <c r="N340" s="17">
+        <v>69.95</v>
+      </c>
+      <c r="O340" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="P340" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Q340" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R340" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="S340" s="17">
+        <f t="shared" si="123"/>
+        <v>133</v>
+      </c>
+      <c r="T340" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" s="13"/>
@@ -33424,6 +33525,226 @@
       <c r="R346" s="9"/>
       <c r="S346" s="17"/>
       <c r="T346" s="9"/>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A347" s="9"/>
+      <c r="B347" s="9"/>
+      <c r="C347" s="9"/>
+      <c r="D347" s="9"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="9"/>
+      <c r="G347" s="9"/>
+      <c r="H347" s="9"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="9"/>
+      <c r="K347" s="9"/>
+      <c r="L347" s="9"/>
+      <c r="M347" s="9"/>
+      <c r="N347" s="9"/>
+      <c r="O347" s="9"/>
+      <c r="P347" s="9"/>
+      <c r="Q347" s="9"/>
+      <c r="R347" s="9"/>
+      <c r="S347" s="17"/>
+      <c r="T347" s="9"/>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A348" s="9"/>
+      <c r="B348" s="9"/>
+      <c r="C348" s="9"/>
+      <c r="D348" s="9"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="9"/>
+      <c r="G348" s="9"/>
+      <c r="H348" s="9"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="9"/>
+      <c r="K348" s="9"/>
+      <c r="L348" s="9"/>
+      <c r="M348" s="9"/>
+      <c r="N348" s="9"/>
+      <c r="O348" s="9"/>
+      <c r="P348" s="9"/>
+      <c r="Q348" s="9"/>
+      <c r="R348" s="9"/>
+      <c r="S348" s="17"/>
+      <c r="T348" s="9"/>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A349" s="9"/>
+      <c r="B349" s="9"/>
+      <c r="C349" s="9"/>
+      <c r="D349" s="9"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="9"/>
+      <c r="G349" s="9"/>
+      <c r="H349" s="9"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="9"/>
+      <c r="K349" s="9"/>
+      <c r="L349" s="9"/>
+      <c r="M349" s="9"/>
+      <c r="N349" s="9"/>
+      <c r="O349" s="9"/>
+      <c r="P349" s="9"/>
+      <c r="Q349" s="9"/>
+      <c r="R349" s="9"/>
+      <c r="S349" s="17"/>
+      <c r="T349" s="9"/>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A350" s="9"/>
+      <c r="B350" s="9"/>
+      <c r="C350" s="9"/>
+      <c r="D350" s="9"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="9"/>
+      <c r="G350" s="9"/>
+      <c r="H350" s="9"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="9"/>
+      <c r="K350" s="9"/>
+      <c r="L350" s="9"/>
+      <c r="M350" s="9"/>
+      <c r="N350" s="9"/>
+      <c r="O350" s="9"/>
+      <c r="P350" s="9"/>
+      <c r="Q350" s="9"/>
+      <c r="R350" s="9"/>
+      <c r="S350" s="17"/>
+      <c r="T350" s="9"/>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A351" s="9"/>
+      <c r="B351" s="9"/>
+      <c r="C351" s="9"/>
+      <c r="D351" s="9"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="9"/>
+      <c r="G351" s="9"/>
+      <c r="H351" s="9"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="9"/>
+      <c r="K351" s="9"/>
+      <c r="L351" s="9"/>
+      <c r="M351" s="9"/>
+      <c r="N351" s="9"/>
+      <c r="O351" s="9"/>
+      <c r="P351" s="9"/>
+      <c r="Q351" s="9"/>
+      <c r="R351" s="9"/>
+      <c r="S351" s="17"/>
+      <c r="T351" s="9"/>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A352" s="9"/>
+      <c r="B352" s="9"/>
+      <c r="C352" s="9"/>
+      <c r="D352" s="9"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="9"/>
+      <c r="G352" s="9"/>
+      <c r="H352" s="9"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="9"/>
+      <c r="K352" s="9"/>
+      <c r="L352" s="9"/>
+      <c r="M352" s="9"/>
+      <c r="N352" s="9"/>
+      <c r="O352" s="9"/>
+      <c r="P352" s="9"/>
+      <c r="Q352" s="9"/>
+      <c r="R352" s="9"/>
+      <c r="S352" s="17"/>
+      <c r="T352" s="9"/>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A353" s="9"/>
+      <c r="B353" s="9"/>
+      <c r="C353" s="9"/>
+      <c r="D353" s="9"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="9"/>
+      <c r="G353" s="9"/>
+      <c r="H353" s="9"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="9"/>
+      <c r="K353" s="9"/>
+      <c r="L353" s="9"/>
+      <c r="M353" s="9"/>
+      <c r="N353" s="9"/>
+      <c r="O353" s="9"/>
+      <c r="P353" s="9"/>
+      <c r="Q353" s="9"/>
+      <c r="R353" s="9"/>
+      <c r="S353" s="17"/>
+      <c r="T353" s="9"/>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A354" s="9"/>
+      <c r="B354" s="9"/>
+      <c r="C354" s="9"/>
+      <c r="D354" s="9"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="9"/>
+      <c r="G354" s="9"/>
+      <c r="H354" s="9"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="9"/>
+      <c r="K354" s="9"/>
+      <c r="L354" s="9"/>
+      <c r="M354" s="9"/>
+      <c r="N354" s="9"/>
+      <c r="O354" s="9"/>
+      <c r="P354" s="9"/>
+      <c r="Q354" s="9"/>
+      <c r="R354" s="9"/>
+      <c r="S354" s="17"/>
+      <c r="T354" s="9"/>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A355" s="9"/>
+      <c r="B355" s="9"/>
+      <c r="C355" s="9"/>
+      <c r="D355" s="9"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="9"/>
+      <c r="G355" s="9"/>
+      <c r="H355" s="9"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="9"/>
+      <c r="K355" s="9"/>
+      <c r="L355" s="9"/>
+      <c r="M355" s="9"/>
+      <c r="N355" s="9"/>
+      <c r="O355" s="9"/>
+      <c r="P355" s="9"/>
+      <c r="Q355" s="9"/>
+      <c r="R355" s="9"/>
+      <c r="S355" s="17"/>
+      <c r="T355" s="9"/>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A356" s="9"/>
+      <c r="B356" s="9"/>
+      <c r="C356" s="9"/>
+      <c r="D356" s="9"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="9"/>
+      <c r="G356" s="9"/>
+      <c r="H356" s="9"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="9"/>
+      <c r="K356" s="9"/>
+      <c r="L356" s="9"/>
+      <c r="M356" s="9"/>
+      <c r="N356" s="9"/>
+      <c r="O356" s="9"/>
+      <c r="P356" s="9"/>
+      <c r="Q356" s="9"/>
+      <c r="R356" s="9"/>
+      <c r="S356" s="17"/>
+      <c r="T356" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Reading List.xlsx
+++ b/data/Reading List.xlsx
@@ -11272,7 +11272,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A341" sqref="A341"/>
+      <selection pane="bottomLeft" activeCell="J342" sqref="J342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -32966,7 +32966,7 @@
         <v>2025</v>
       </c>
       <c r="I334" s="9">
-        <f>MONTH(G334)</f>
+        <f t="shared" ref="I334:I340" si="157">MONTH(G334)</f>
         <v>3</v>
       </c>
       <c r="J334" s="9" t="s">
@@ -33031,7 +33031,7 @@
         <v>2025</v>
       </c>
       <c r="I335" s="9">
-        <f>MONTH(G335)</f>
+        <f t="shared" si="157"/>
         <v>5</v>
       </c>
       <c r="J335" s="9" t="s">
@@ -33092,11 +33092,11 @@
         <v>1110</v>
       </c>
       <c r="H336" s="9">
-        <f t="shared" ref="H336" si="157">YEAR(G336)</f>
+        <f t="shared" ref="H336" si="158">YEAR(G336)</f>
         <v>2025</v>
       </c>
       <c r="I336" s="9">
-        <f>MONTH(G336)</f>
+        <f t="shared" si="157"/>
         <v>5</v>
       </c>
       <c r="J336" s="9" t="s">
@@ -33157,11 +33157,11 @@
         <v>1110</v>
       </c>
       <c r="H337" s="9">
-        <f t="shared" ref="H337" si="158">YEAR(G337)</f>
+        <f t="shared" ref="H337" si="159">YEAR(G337)</f>
         <v>2025</v>
       </c>
       <c r="I337" s="9">
-        <f>MONTH(G337)</f>
+        <f t="shared" si="157"/>
         <v>5</v>
       </c>
       <c r="J337" s="9" t="s">
@@ -33222,11 +33222,11 @@
         <v>1110</v>
       </c>
       <c r="H338" s="9">
-        <f t="shared" ref="H338" si="159">YEAR(G338)</f>
+        <f t="shared" ref="H338" si="160">YEAR(G338)</f>
         <v>2025</v>
       </c>
       <c r="I338" s="9">
-        <f>MONTH(G338)</f>
+        <f t="shared" si="157"/>
         <v>5</v>
       </c>
       <c r="J338" s="9" t="s">
@@ -33287,11 +33287,11 @@
         <v>1119</v>
       </c>
       <c r="H339" s="9">
-        <f t="shared" ref="H339" si="160">YEAR(G339)</f>
+        <f t="shared" ref="H339" si="161">YEAR(G339)</f>
         <v>2025</v>
       </c>
       <c r="I339" s="9">
-        <f>MONTH(G339)</f>
+        <f t="shared" si="157"/>
         <v>5</v>
       </c>
       <c r="J339" s="9" t="s">
@@ -33325,8 +33325,8 @@
         <f t="shared" si="123"/>
         <v>133</v>
       </c>
-      <c r="T339" s="17">
-        <v>0</v>
+      <c r="T339" s="50">
+        <v>177</v>
       </c>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.2">
@@ -33352,11 +33352,11 @@
         <v>1119</v>
       </c>
       <c r="H340" s="9">
-        <f t="shared" ref="H340" si="161">YEAR(G340)</f>
+        <f t="shared" ref="H340" si="162">YEAR(G340)</f>
         <v>2025</v>
       </c>
       <c r="I340" s="9">
-        <f>MONTH(G340)</f>
+        <f t="shared" si="157"/>
         <v>5</v>
       </c>
       <c r="J340" s="9" t="s">
@@ -33390,8 +33390,8 @@
         <f t="shared" si="123"/>
         <v>133</v>
       </c>
-      <c r="T340" s="17">
-        <v>0</v>
+      <c r="T340" s="50">
+        <v>96</v>
       </c>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.2">
